--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4A5E0-1376-4B3F-8301-5B2626FD2E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63685917-2FC4-42E0-9709-BC9C25EB7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -378,13 +378,7 @@
     <t>Quản lý tài khoản</t>
   </si>
   <si>
-    <t>FE: C.R.U.D Account</t>
-  </si>
-  <si>
     <t>FE: getAccounts</t>
-  </si>
-  <si>
-    <t>BE: C.R.U.D Account</t>
   </si>
   <si>
     <t>BE: getAccounts</t>
@@ -604,6 +598,12 @@
   </si>
   <si>
     <t>BE: huntingSaleTickets</t>
+  </si>
+  <si>
+    <t>FE: C.R.D Account</t>
+  </si>
+  <si>
+    <t>BE: C.R.D Account</t>
   </si>
 </sst>
 </file>
@@ -17574,10 +17574,10 @@
   <dimension ref="A1:BT180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I156" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I108" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100:H102"/>
+      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -17684,7 +17684,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="7"/>
       <c r="L2" s="128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M2" s="130"/>
       <c r="N2" s="130"/>
@@ -17695,7 +17695,7 @@
       <c r="S2" s="131"/>
       <c r="T2" s="8"/>
       <c r="U2" s="128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V2" s="129"/>
       <c r="W2" s="129"/>
@@ -19719,7 +19719,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F24" s="48">
         <v>13</v>
@@ -20203,7 +20203,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" s="73">
         <v>13</v>
@@ -21007,7 +21007,7 @@
         <v>22</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F40" s="79">
         <v>13</v>
@@ -21805,13 +21805,13 @@
     <row r="50" spans="2:71" ht="36" customHeight="1" thickTop="1">
       <c r="B50" s="80"/>
       <c r="C50" s="81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F50" s="79">
         <v>20</v>
@@ -22612,10 +22612,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F60" s="79">
         <v>20</v>
@@ -23419,7 +23419,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F70" s="48">
         <v>27</v>
@@ -24223,7 +24223,7 @@
         <v>49</v>
       </c>
       <c r="E80" s="77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F80" s="79">
         <v>27</v>
@@ -25101,7 +25101,7 @@
     <row r="91" spans="2:71" ht="36" customHeight="1">
       <c r="B91" s="69"/>
       <c r="C91" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="41"/>
@@ -25181,7 +25181,7 @@
     <row r="92" spans="2:71" ht="36" customHeight="1">
       <c r="B92" s="69"/>
       <c r="C92" s="65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="41"/>
@@ -25901,7 +25901,7 @@
     <row r="101" spans="2:71" ht="36" customHeight="1">
       <c r="B101" s="69"/>
       <c r="C101" s="60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="41"/>
@@ -25981,7 +25981,7 @@
     <row r="102" spans="2:71" ht="36" customHeight="1">
       <c r="B102" s="69"/>
       <c r="C102" s="60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="41"/>
@@ -26227,7 +26227,7 @@
         <v>31</v>
       </c>
       <c r="E105" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F105" s="48">
         <v>34</v>
@@ -26305,7 +26305,7 @@
     <row r="106" spans="2:71" ht="36" customHeight="1">
       <c r="B106" s="96"/>
       <c r="C106" s="65" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="41"/>
@@ -26465,7 +26465,7 @@
     <row r="108" spans="2:71" ht="36" customHeight="1">
       <c r="B108" s="96"/>
       <c r="C108" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="41"/>
@@ -26545,7 +26545,7 @@
     <row r="109" spans="2:71" ht="36" customHeight="1">
       <c r="B109" s="96"/>
       <c r="C109" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
@@ -26625,7 +26625,7 @@
     <row r="110" spans="2:71" ht="36" customHeight="1">
       <c r="B110" s="96"/>
       <c r="C110" s="60" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="41"/>
@@ -26785,7 +26785,7 @@
     <row r="112" spans="2:71" ht="36" customHeight="1">
       <c r="B112" s="96"/>
       <c r="C112" s="60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
@@ -26865,7 +26865,7 @@
     <row r="113" spans="2:71" ht="36" customHeight="1">
       <c r="B113" s="96"/>
       <c r="C113" s="60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="41"/>
@@ -27025,13 +27025,13 @@
     <row r="115" spans="2:71" ht="36" customHeight="1" thickTop="1">
       <c r="B115" s="97"/>
       <c r="C115" s="98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D115" s="46" t="s">
         <v>25</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F115" s="48">
         <v>34</v>
@@ -27109,7 +27109,7 @@
     <row r="116" spans="2:71" ht="36" customHeight="1">
       <c r="B116" s="99"/>
       <c r="C116" s="65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="41"/>
@@ -27269,7 +27269,7 @@
     <row r="118" spans="2:71" ht="36" customHeight="1">
       <c r="B118" s="99"/>
       <c r="C118" s="65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="41"/>
@@ -27349,7 +27349,7 @@
     <row r="119" spans="2:71" ht="36" customHeight="1">
       <c r="B119" s="99"/>
       <c r="C119" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D119" s="40"/>
       <c r="E119" s="41"/>
@@ -27429,7 +27429,7 @@
     <row r="120" spans="2:71" ht="36" customHeight="1">
       <c r="B120" s="99"/>
       <c r="C120" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="41"/>
@@ -27509,7 +27509,7 @@
     <row r="121" spans="2:71" ht="36" customHeight="1">
       <c r="B121" s="99"/>
       <c r="C121" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="41"/>
@@ -27669,7 +27669,7 @@
     <row r="123" spans="2:71" ht="36" customHeight="1">
       <c r="B123" s="99"/>
       <c r="C123" s="60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D123" s="40"/>
       <c r="E123" s="41"/>
@@ -27749,7 +27749,7 @@
     <row r="124" spans="2:71" ht="36" customHeight="1">
       <c r="B124" s="99"/>
       <c r="C124" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="41"/>
@@ -27829,7 +27829,7 @@
     <row r="125" spans="2:71" ht="36" customHeight="1">
       <c r="B125" s="99"/>
       <c r="C125" s="60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="41"/>
@@ -27989,13 +27989,13 @@
     <row r="127" spans="2:71" ht="36" customHeight="1" thickTop="1">
       <c r="B127" s="102"/>
       <c r="C127" s="105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D127" s="46" t="s">
         <v>34</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F127" s="48">
         <v>34</v>
@@ -28073,7 +28073,7 @@
     <row r="128" spans="2:71" ht="36" customHeight="1">
       <c r="B128" s="103"/>
       <c r="C128" s="65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="41"/>
@@ -28233,7 +28233,7 @@
     <row r="130" spans="2:71" ht="36" customHeight="1">
       <c r="B130" s="103"/>
       <c r="C130" s="65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="41"/>
@@ -28313,7 +28313,7 @@
     <row r="131" spans="2:71" ht="36" customHeight="1">
       <c r="B131" s="103"/>
       <c r="C131" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D131" s="40"/>
       <c r="E131" s="41"/>
@@ -28393,7 +28393,7 @@
     <row r="132" spans="2:71" ht="36" customHeight="1">
       <c r="B132" s="103"/>
       <c r="C132" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D132" s="40"/>
       <c r="E132" s="41"/>
@@ -28553,7 +28553,7 @@
     <row r="134" spans="2:71" ht="36" customHeight="1">
       <c r="B134" s="103"/>
       <c r="C134" s="60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="41"/>
@@ -28633,7 +28633,7 @@
     <row r="135" spans="2:71" ht="36" customHeight="1">
       <c r="B135" s="103"/>
       <c r="C135" s="60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="41"/>
@@ -28793,13 +28793,13 @@
     <row r="137" spans="2:71" ht="36" customHeight="1" thickTop="1">
       <c r="B137" s="106"/>
       <c r="C137" s="107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D137" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E137" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F137" s="48">
         <v>41</v>
@@ -28877,7 +28877,7 @@
     <row r="138" spans="2:71" ht="36" customHeight="1">
       <c r="B138" s="108"/>
       <c r="C138" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D138" s="40"/>
       <c r="E138" s="41"/>
@@ -29037,7 +29037,7 @@
     <row r="140" spans="2:71" ht="36" customHeight="1">
       <c r="B140" s="108"/>
       <c r="C140" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D140" s="40"/>
       <c r="E140" s="41"/>
@@ -29117,7 +29117,7 @@
     <row r="141" spans="2:71" ht="36" customHeight="1">
       <c r="B141" s="108"/>
       <c r="C141" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D141" s="40"/>
       <c r="E141" s="41"/>
@@ -29197,7 +29197,7 @@
     <row r="142" spans="2:71" ht="36" customHeight="1">
       <c r="B142" s="108"/>
       <c r="C142" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D142" s="40"/>
       <c r="E142" s="41"/>
@@ -29277,7 +29277,7 @@
     <row r="143" spans="2:71" ht="36" customHeight="1">
       <c r="B143" s="108"/>
       <c r="C143" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D143" s="40"/>
       <c r="E143" s="41"/>
@@ -29437,7 +29437,7 @@
     <row r="145" spans="1:71" ht="36" customHeight="1">
       <c r="B145" s="108"/>
       <c r="C145" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
@@ -29517,7 +29517,7 @@
     <row r="146" spans="1:71" ht="36" customHeight="1">
       <c r="B146" s="108"/>
       <c r="C146" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
@@ -29597,7 +29597,7 @@
     <row r="147" spans="1:71" ht="36" customHeight="1">
       <c r="B147" s="108"/>
       <c r="C147" s="60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
@@ -29757,13 +29757,13 @@
     <row r="149" spans="1:71" ht="36" customHeight="1" thickTop="1">
       <c r="B149" s="110"/>
       <c r="C149" s="111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D149" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E149" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F149" s="48">
         <v>41</v>
@@ -29841,7 +29841,7 @@
     <row r="150" spans="1:71" ht="36" customHeight="1">
       <c r="B150" s="112"/>
       <c r="C150" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="41"/>
@@ -30001,7 +30001,7 @@
     <row r="152" spans="1:71" ht="36" customHeight="1">
       <c r="B152" s="112"/>
       <c r="C152" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="41"/>
@@ -30081,7 +30081,7 @@
     <row r="153" spans="1:71" ht="36" customHeight="1">
       <c r="B153" s="112"/>
       <c r="C153" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="41"/>
@@ -30161,7 +30161,7 @@
     <row r="154" spans="1:71" ht="36" customHeight="1">
       <c r="B154" s="112"/>
       <c r="C154" s="60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="41"/>
@@ -30321,7 +30321,7 @@
     <row r="156" spans="1:71" ht="36" customHeight="1">
       <c r="B156" s="112"/>
       <c r="C156" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
@@ -30401,7 +30401,7 @@
     <row r="157" spans="1:71" ht="36" customHeight="1">
       <c r="B157" s="112"/>
       <c r="C157" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="41"/>
@@ -30562,13 +30562,13 @@
       <c r="A159" s="38"/>
       <c r="B159" s="114"/>
       <c r="C159" s="115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D159" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E159" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F159" s="48">
         <v>41</v>
@@ -30646,7 +30646,7 @@
     <row r="160" spans="1:71" ht="36" customHeight="1">
       <c r="B160" s="114"/>
       <c r="C160" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D160" s="40"/>
       <c r="E160" s="41"/>
@@ -30726,7 +30726,7 @@
     <row r="161" spans="2:71" ht="36" customHeight="1">
       <c r="B161" s="114"/>
       <c r="C161" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="41"/>
@@ -30806,7 +30806,7 @@
     <row r="162" spans="2:71" ht="36" customHeight="1">
       <c r="B162" s="114"/>
       <c r="C162" s="65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
@@ -30886,7 +30886,7 @@
     <row r="163" spans="2:71" ht="36" customHeight="1">
       <c r="B163" s="114"/>
       <c r="C163" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D163" s="40"/>
       <c r="E163" s="41"/>
@@ -30966,7 +30966,7 @@
     <row r="164" spans="2:71" ht="36" customHeight="1">
       <c r="B164" s="114"/>
       <c r="C164" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D164" s="40"/>
       <c r="E164" s="41"/>
@@ -31046,7 +31046,7 @@
     <row r="165" spans="2:71" ht="36" customHeight="1">
       <c r="B165" s="114"/>
       <c r="C165" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
@@ -31126,7 +31126,7 @@
     <row r="166" spans="2:71" ht="36" customHeight="1">
       <c r="B166" s="114"/>
       <c r="C166" s="60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D166" s="40"/>
       <c r="E166" s="41"/>
@@ -31206,7 +31206,7 @@
     <row r="167" spans="2:71" ht="36" customHeight="1">
       <c r="B167" s="114"/>
       <c r="C167" s="60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
@@ -31286,7 +31286,7 @@
     <row r="168" spans="2:71" ht="36" customHeight="1">
       <c r="B168" s="114"/>
       <c r="C168" s="60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
@@ -31452,7 +31452,7 @@
         <v>18</v>
       </c>
       <c r="E170" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F170" s="48">
         <v>41</v>
@@ -31530,7 +31530,7 @@
     <row r="171" spans="2:71" ht="36" customHeight="1">
       <c r="B171" s="118"/>
       <c r="C171" s="65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D171" s="40"/>
       <c r="E171" s="41"/>
@@ -31610,7 +31610,7 @@
     <row r="172" spans="2:71" ht="36" customHeight="1">
       <c r="B172" s="118"/>
       <c r="C172" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D172" s="40"/>
       <c r="E172" s="41"/>
@@ -31690,7 +31690,7 @@
     <row r="173" spans="2:71" ht="36" customHeight="1">
       <c r="B173" s="118"/>
       <c r="C173" s="65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D173" s="40"/>
       <c r="E173" s="41"/>
@@ -31770,7 +31770,7 @@
     <row r="174" spans="2:71" ht="36" customHeight="1">
       <c r="B174" s="118"/>
       <c r="C174" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D174" s="40"/>
       <c r="E174" s="41"/>
@@ -31850,7 +31850,7 @@
     <row r="175" spans="2:71" ht="36" customHeight="1">
       <c r="B175" s="118"/>
       <c r="C175" s="60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D175" s="40"/>
       <c r="E175" s="41"/>
@@ -31930,7 +31930,7 @@
     <row r="176" spans="2:71" ht="36" customHeight="1">
       <c r="B176" s="118"/>
       <c r="C176" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D176" s="40"/>
       <c r="E176" s="41"/>
@@ -32010,7 +32010,7 @@
     <row r="177" spans="2:71" ht="36" customHeight="1">
       <c r="B177" s="118"/>
       <c r="C177" s="60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D177" s="40"/>
       <c r="E177" s="41"/>
@@ -32090,7 +32090,7 @@
     <row r="178" spans="2:71" ht="36" customHeight="1">
       <c r="B178" s="118"/>
       <c r="C178" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="41"/>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63685917-2FC4-42E0-9709-BC9C25EB7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC277DD7-2C2E-42C0-8F8F-B369484EF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
   <si>
     <t>Trình lập kế hoạch Dự án</t>
   </si>
@@ -604,6 +604,12 @@
   </si>
   <si>
     <t>BE: C.R.D Account</t>
+  </si>
+  <si>
+    <t>FE: lockAccount</t>
+  </si>
+  <si>
+    <t>BE: lockAccount</t>
   </si>
 </sst>
 </file>
@@ -17571,13 +17577,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT180"/>
+  <dimension ref="A1:BT182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I108" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I105" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -26545,7 +26551,7 @@
     <row r="109" spans="2:71" ht="36" customHeight="1">
       <c r="B109" s="96"/>
       <c r="C109" s="65" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
@@ -26624,8 +26630,8 @@
     </row>
     <row r="110" spans="2:71" ht="36" customHeight="1">
       <c r="B110" s="96"/>
-      <c r="C110" s="60" t="s">
-        <v>180</v>
+      <c r="C110" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="41"/>
@@ -26705,7 +26711,7 @@
     <row r="111" spans="2:71" ht="36" customHeight="1">
       <c r="B111" s="96"/>
       <c r="C111" s="60" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="41"/>
@@ -26785,7 +26791,7 @@
     <row r="112" spans="2:71" ht="36" customHeight="1">
       <c r="B112" s="96"/>
       <c r="C112" s="60" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
@@ -26865,7 +26871,7 @@
     <row r="113" spans="2:71" ht="36" customHeight="1">
       <c r="B113" s="96"/>
       <c r="C113" s="60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="41"/>
@@ -26942,20 +26948,20 @@
       <c r="BR113" s="4"/>
       <c r="BS113" s="4"/>
     </row>
-    <row r="114" spans="2:71" ht="36" customHeight="1" thickBot="1">
+    <row r="114" spans="2:71" ht="36" customHeight="1">
       <c r="B114" s="96"/>
-      <c r="C114" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="56">
+      <c r="C114" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="40"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="42">
         <v>34</v>
       </c>
-      <c r="G114" s="56">
+      <c r="G114" s="42">
         <v>7</v>
       </c>
-      <c r="H114" s="57">
+      <c r="H114" s="45">
         <v>0</v>
       </c>
       <c r="I114" s="3"/>
@@ -27022,24 +27028,20 @@
       <c r="BR114" s="4"/>
       <c r="BS114" s="4"/>
     </row>
-    <row r="115" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B115" s="97"/>
-      <c r="C115" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F115" s="48">
+    <row r="115" spans="2:71" ht="36" customHeight="1">
+      <c r="B115" s="96"/>
+      <c r="C115" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="40"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="42">
         <v>34</v>
       </c>
-      <c r="G115" s="48">
+      <c r="G115" s="42">
         <v>7</v>
       </c>
-      <c r="H115" s="49">
+      <c r="H115" s="45">
         <v>0</v>
       </c>
       <c r="I115" s="3"/>
@@ -27106,20 +27108,20 @@
       <c r="BR115" s="4"/>
       <c r="BS115" s="4"/>
     </row>
-    <row r="116" spans="2:71" ht="36" customHeight="1">
-      <c r="B116" s="99"/>
-      <c r="C116" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="42">
+    <row r="116" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B116" s="96"/>
+      <c r="C116" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="54"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="56">
         <v>34</v>
       </c>
-      <c r="G116" s="42">
+      <c r="G116" s="56">
         <v>7</v>
       </c>
-      <c r="H116" s="45">
+      <c r="H116" s="57">
         <v>0</v>
       </c>
       <c r="I116" s="3"/>
@@ -27186,20 +27188,24 @@
       <c r="BR116" s="4"/>
       <c r="BS116" s="4"/>
     </row>
-    <row r="117" spans="2:71" ht="36" customHeight="1">
-      <c r="B117" s="99"/>
-      <c r="C117" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="42">
+    <row r="117" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B117" s="97"/>
+      <c r="C117" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="48">
         <v>34</v>
       </c>
-      <c r="G117" s="42">
+      <c r="G117" s="48">
         <v>7</v>
       </c>
-      <c r="H117" s="45">
+      <c r="H117" s="49">
         <v>0</v>
       </c>
       <c r="I117" s="3"/>
@@ -27269,7 +27275,7 @@
     <row r="118" spans="2:71" ht="36" customHeight="1">
       <c r="B118" s="99"/>
       <c r="C118" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="41"/>
@@ -27349,7 +27355,7 @@
     <row r="119" spans="2:71" ht="36" customHeight="1">
       <c r="B119" s="99"/>
       <c r="C119" s="65" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D119" s="40"/>
       <c r="E119" s="41"/>
@@ -27429,7 +27435,7 @@
     <row r="120" spans="2:71" ht="36" customHeight="1">
       <c r="B120" s="99"/>
       <c r="C120" s="65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="41"/>
@@ -27508,8 +27514,8 @@
     </row>
     <row r="121" spans="2:71" ht="36" customHeight="1">
       <c r="B121" s="99"/>
-      <c r="C121" s="60" t="s">
-        <v>119</v>
+      <c r="C121" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="41"/>
@@ -27588,8 +27594,8 @@
     </row>
     <row r="122" spans="2:71" ht="36" customHeight="1">
       <c r="B122" s="99"/>
-      <c r="C122" s="60" t="s">
-        <v>61</v>
+      <c r="C122" s="65" t="s">
+        <v>122</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="41"/>
@@ -27669,7 +27675,7 @@
     <row r="123" spans="2:71" ht="36" customHeight="1">
       <c r="B123" s="99"/>
       <c r="C123" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="40"/>
       <c r="E123" s="41"/>
@@ -27749,7 +27755,7 @@
     <row r="124" spans="2:71" ht="36" customHeight="1">
       <c r="B124" s="99"/>
       <c r="C124" s="60" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="41"/>
@@ -27829,7 +27835,7 @@
     <row r="125" spans="2:71" ht="36" customHeight="1">
       <c r="B125" s="99"/>
       <c r="C125" s="60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="41"/>
@@ -27906,23 +27912,23 @@
       <c r="BR125" s="4"/>
       <c r="BS125" s="4"/>
     </row>
-    <row r="126" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B126" s="100"/>
-      <c r="C126" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="54"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="56">
+    <row r="126" spans="2:71" ht="36" customHeight="1">
+      <c r="B126" s="99"/>
+      <c r="C126" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126" s="40"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="42">
         <v>34</v>
       </c>
-      <c r="G126" s="56">
+      <c r="G126" s="42">
         <v>7</v>
       </c>
-      <c r="H126" s="57">
+      <c r="H126" s="45">
         <v>0</v>
       </c>
-      <c r="I126" s="67"/>
+      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -27986,24 +27992,20 @@
       <c r="BR126" s="4"/>
       <c r="BS126" s="4"/>
     </row>
-    <row r="127" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B127" s="102"/>
-      <c r="C127" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D127" s="46" t="s">
+    <row r="127" spans="2:71" ht="36" customHeight="1">
+      <c r="B127" s="99"/>
+      <c r="C127" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D127" s="40"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="42">
         <v>34</v>
       </c>
-      <c r="E127" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F127" s="48">
-        <v>34</v>
-      </c>
-      <c r="G127" s="48">
+      <c r="G127" s="42">
         <v>7</v>
       </c>
-      <c r="H127" s="49">
+      <c r="H127" s="45">
         <v>0</v>
       </c>
       <c r="I127" s="3"/>
@@ -28070,23 +28072,23 @@
       <c r="BR127" s="4"/>
       <c r="BS127" s="4"/>
     </row>
-    <row r="128" spans="2:71" ht="36" customHeight="1">
-      <c r="B128" s="103"/>
-      <c r="C128" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="42">
+    <row r="128" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B128" s="100"/>
+      <c r="C128" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="54"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="56">
         <v>34</v>
       </c>
-      <c r="G128" s="42">
+      <c r="G128" s="56">
         <v>7</v>
       </c>
-      <c r="H128" s="45">
+      <c r="H128" s="57">
         <v>0</v>
       </c>
-      <c r="I128" s="3"/>
+      <c r="I128" s="67"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -28150,20 +28152,24 @@
       <c r="BR128" s="4"/>
       <c r="BS128" s="4"/>
     </row>
-    <row r="129" spans="2:71" ht="36" customHeight="1">
-      <c r="B129" s="103"/>
-      <c r="C129" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="42">
+    <row r="129" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B129" s="102"/>
+      <c r="C129" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G129" s="42">
+      <c r="E129" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" s="48">
+        <v>34</v>
+      </c>
+      <c r="G129" s="48">
         <v>7</v>
       </c>
-      <c r="H129" s="45">
+      <c r="H129" s="49">
         <v>0</v>
       </c>
       <c r="I129" s="3"/>
@@ -28233,7 +28239,7 @@
     <row r="130" spans="2:71" ht="36" customHeight="1">
       <c r="B130" s="103"/>
       <c r="C130" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="41"/>
@@ -28313,7 +28319,7 @@
     <row r="131" spans="2:71" ht="36" customHeight="1">
       <c r="B131" s="103"/>
       <c r="C131" s="65" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D131" s="40"/>
       <c r="E131" s="41"/>
@@ -28392,8 +28398,8 @@
     </row>
     <row r="132" spans="2:71" ht="36" customHeight="1">
       <c r="B132" s="103"/>
-      <c r="C132" s="60" t="s">
-        <v>128</v>
+      <c r="C132" s="65" t="s">
+        <v>126</v>
       </c>
       <c r="D132" s="40"/>
       <c r="E132" s="41"/>
@@ -28472,8 +28478,8 @@
     </row>
     <row r="133" spans="2:71" ht="36" customHeight="1">
       <c r="B133" s="103"/>
-      <c r="C133" s="60" t="s">
-        <v>61</v>
+      <c r="C133" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="D133" s="40"/>
       <c r="E133" s="41"/>
@@ -28553,7 +28559,7 @@
     <row r="134" spans="2:71" ht="36" customHeight="1">
       <c r="B134" s="103"/>
       <c r="C134" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="41"/>
@@ -28633,7 +28639,7 @@
     <row r="135" spans="2:71" ht="36" customHeight="1">
       <c r="B135" s="103"/>
       <c r="C135" s="60" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="41"/>
@@ -28710,20 +28716,20 @@
       <c r="BR135" s="4"/>
       <c r="BS135" s="4"/>
     </row>
-    <row r="136" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B136" s="104"/>
-      <c r="C136" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="54"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="56">
+    <row r="136" spans="2:71" ht="36" customHeight="1">
+      <c r="B136" s="103"/>
+      <c r="C136" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="40"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="42">
         <v>34</v>
       </c>
-      <c r="G136" s="56">
+      <c r="G136" s="42">
         <v>7</v>
       </c>
-      <c r="H136" s="57">
+      <c r="H136" s="45">
         <v>0</v>
       </c>
       <c r="I136" s="3"/>
@@ -28790,24 +28796,20 @@
       <c r="BR136" s="4"/>
       <c r="BS136" s="4"/>
     </row>
-    <row r="137" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B137" s="106"/>
-      <c r="C137" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D137" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F137" s="48">
-        <v>41</v>
-      </c>
-      <c r="G137" s="48">
-        <v>10</v>
-      </c>
-      <c r="H137" s="49">
+    <row r="137" spans="2:71" ht="36" customHeight="1">
+      <c r="B137" s="103"/>
+      <c r="C137" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="40"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="42">
+        <v>34</v>
+      </c>
+      <c r="G137" s="42">
+        <v>7</v>
+      </c>
+      <c r="H137" s="45">
         <v>0</v>
       </c>
       <c r="I137" s="3"/>
@@ -28874,20 +28876,20 @@
       <c r="BR137" s="4"/>
       <c r="BS137" s="4"/>
     </row>
-    <row r="138" spans="2:71" ht="36" customHeight="1">
-      <c r="B138" s="108"/>
-      <c r="C138" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D138" s="40"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="42">
-        <v>41</v>
-      </c>
-      <c r="G138" s="42">
-        <v>10</v>
-      </c>
-      <c r="H138" s="45">
+    <row r="138" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B138" s="104"/>
+      <c r="C138" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" s="54"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="56">
+        <v>34</v>
+      </c>
+      <c r="G138" s="56">
+        <v>7</v>
+      </c>
+      <c r="H138" s="57">
         <v>0</v>
       </c>
       <c r="I138" s="3"/>
@@ -28954,20 +28956,24 @@
       <c r="BR138" s="4"/>
       <c r="BS138" s="4"/>
     </row>
-    <row r="139" spans="2:71" ht="36" customHeight="1">
-      <c r="B139" s="108"/>
-      <c r="C139" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D139" s="40"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="42">
+    <row r="139" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B139" s="106"/>
+      <c r="C139" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D139" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F139" s="48">
         <v>41</v>
       </c>
-      <c r="G139" s="42">
+      <c r="G139" s="48">
         <v>10</v>
       </c>
-      <c r="H139" s="45">
+      <c r="H139" s="49">
         <v>0</v>
       </c>
       <c r="I139" s="3"/>
@@ -29037,7 +29043,7 @@
     <row r="140" spans="2:71" ht="36" customHeight="1">
       <c r="B140" s="108"/>
       <c r="C140" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="40"/>
       <c r="E140" s="41"/>
@@ -29117,7 +29123,7 @@
     <row r="141" spans="2:71" ht="36" customHeight="1">
       <c r="B141" s="108"/>
       <c r="C141" s="65" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D141" s="40"/>
       <c r="E141" s="41"/>
@@ -29197,7 +29203,7 @@
     <row r="142" spans="2:71" ht="36" customHeight="1">
       <c r="B142" s="108"/>
       <c r="C142" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D142" s="40"/>
       <c r="E142" s="41"/>
@@ -29276,8 +29282,8 @@
     </row>
     <row r="143" spans="2:71" ht="36" customHeight="1">
       <c r="B143" s="108"/>
-      <c r="C143" s="60" t="s">
-        <v>136</v>
+      <c r="C143" s="65" t="s">
+        <v>134</v>
       </c>
       <c r="D143" s="40"/>
       <c r="E143" s="41"/>
@@ -29356,8 +29362,8 @@
     </row>
     <row r="144" spans="2:71" ht="36" customHeight="1">
       <c r="B144" s="108"/>
-      <c r="C144" s="60" t="s">
-        <v>61</v>
+      <c r="C144" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="D144" s="40"/>
       <c r="E144" s="41"/>
@@ -29434,10 +29440,10 @@
       <c r="BR144" s="4"/>
       <c r="BS144" s="4"/>
     </row>
-    <row r="145" spans="1:71" ht="36" customHeight="1">
+    <row r="145" spans="2:71" ht="36" customHeight="1">
       <c r="B145" s="108"/>
       <c r="C145" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
@@ -29514,10 +29520,10 @@
       <c r="BR145" s="4"/>
       <c r="BS145" s="4"/>
     </row>
-    <row r="146" spans="1:71" ht="36" customHeight="1">
+    <row r="146" spans="2:71" ht="36" customHeight="1">
       <c r="B146" s="108"/>
       <c r="C146" s="60" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
@@ -29594,10 +29600,10 @@
       <c r="BR146" s="4"/>
       <c r="BS146" s="4"/>
     </row>
-    <row r="147" spans="1:71" ht="36" customHeight="1">
+    <row r="147" spans="2:71" ht="36" customHeight="1">
       <c r="B147" s="108"/>
       <c r="C147" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
@@ -29674,23 +29680,23 @@
       <c r="BR147" s="4"/>
       <c r="BS147" s="4"/>
     </row>
-    <row r="148" spans="1:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B148" s="109"/>
-      <c r="C148" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="54"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="56">
+    <row r="148" spans="2:71" ht="36" customHeight="1">
+      <c r="B148" s="108"/>
+      <c r="C148" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148" s="40"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="42">
         <v>41</v>
       </c>
-      <c r="G148" s="56">
+      <c r="G148" s="42">
         <v>10</v>
       </c>
-      <c r="H148" s="57">
+      <c r="H148" s="45">
         <v>0</v>
       </c>
-      <c r="I148" s="67"/>
+      <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -29754,24 +29760,20 @@
       <c r="BR148" s="4"/>
       <c r="BS148" s="4"/>
     </row>
-    <row r="149" spans="1:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B149" s="110"/>
-      <c r="C149" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F149" s="48">
+    <row r="149" spans="2:71" ht="36" customHeight="1">
+      <c r="B149" s="108"/>
+      <c r="C149" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D149" s="40"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="42">
         <v>41</v>
       </c>
-      <c r="G149" s="48">
+      <c r="G149" s="42">
         <v>10</v>
       </c>
-      <c r="H149" s="49">
+      <c r="H149" s="45">
         <v>0</v>
       </c>
       <c r="I149" s="3"/>
@@ -29838,23 +29840,23 @@
       <c r="BR149" s="4"/>
       <c r="BS149" s="4"/>
     </row>
-    <row r="150" spans="1:71" ht="36" customHeight="1">
-      <c r="B150" s="112"/>
-      <c r="C150" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="42">
+    <row r="150" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B150" s="109"/>
+      <c r="C150" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" s="54"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="56">
         <v>41</v>
       </c>
-      <c r="G150" s="42">
+      <c r="G150" s="56">
         <v>10</v>
       </c>
-      <c r="H150" s="45">
+      <c r="H150" s="57">
         <v>0</v>
       </c>
-      <c r="I150" s="3"/>
+      <c r="I150" s="67"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -29918,20 +29920,24 @@
       <c r="BR150" s="4"/>
       <c r="BS150" s="4"/>
     </row>
-    <row r="151" spans="1:71" ht="36" customHeight="1">
-      <c r="B151" s="112"/>
-      <c r="C151" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D151" s="40"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="42">
+    <row r="151" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B151" s="110"/>
+      <c r="C151" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F151" s="48">
         <v>41</v>
       </c>
-      <c r="G151" s="42">
+      <c r="G151" s="48">
         <v>10</v>
       </c>
-      <c r="H151" s="45">
+      <c r="H151" s="49">
         <v>0</v>
       </c>
       <c r="I151" s="3"/>
@@ -29998,10 +30004,10 @@
       <c r="BR151" s="4"/>
       <c r="BS151" s="4"/>
     </row>
-    <row r="152" spans="1:71" ht="36" customHeight="1">
+    <row r="152" spans="2:71" ht="36" customHeight="1">
       <c r="B152" s="112"/>
       <c r="C152" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="41"/>
@@ -30078,10 +30084,10 @@
       <c r="BR152" s="4"/>
       <c r="BS152" s="4"/>
     </row>
-    <row r="153" spans="1:71" ht="36" customHeight="1">
+    <row r="153" spans="2:71" ht="36" customHeight="1">
       <c r="B153" s="112"/>
       <c r="C153" s="65" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="41"/>
@@ -30158,10 +30164,10 @@
       <c r="BR153" s="4"/>
       <c r="BS153" s="4"/>
     </row>
-    <row r="154" spans="1:71" ht="36" customHeight="1">
+    <row r="154" spans="2:71" ht="36" customHeight="1">
       <c r="B154" s="112"/>
-      <c r="C154" s="60" t="s">
-        <v>143</v>
+      <c r="C154" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="41"/>
@@ -30238,10 +30244,10 @@
       <c r="BR154" s="4"/>
       <c r="BS154" s="4"/>
     </row>
-    <row r="155" spans="1:71" ht="36" customHeight="1">
+    <row r="155" spans="2:71" ht="36" customHeight="1">
       <c r="B155" s="112"/>
-      <c r="C155" s="60" t="s">
-        <v>61</v>
+      <c r="C155" s="65" t="s">
+        <v>142</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
@@ -30318,10 +30324,10 @@
       <c r="BR155" s="4"/>
       <c r="BS155" s="4"/>
     </row>
-    <row r="156" spans="1:71" ht="36" customHeight="1">
+    <row r="156" spans="2:71" ht="36" customHeight="1">
       <c r="B156" s="112"/>
       <c r="C156" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
@@ -30398,10 +30404,10 @@
       <c r="BR156" s="4"/>
       <c r="BS156" s="4"/>
     </row>
-    <row r="157" spans="1:71" ht="36" customHeight="1">
+    <row r="157" spans="2:71" ht="36" customHeight="1">
       <c r="B157" s="112"/>
       <c r="C157" s="60" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="41"/>
@@ -30478,20 +30484,20 @@
       <c r="BR157" s="4"/>
       <c r="BS157" s="4"/>
     </row>
-    <row r="158" spans="1:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B158" s="113"/>
-      <c r="C158" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D158" s="54"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="56">
+    <row r="158" spans="2:71" ht="36" customHeight="1">
+      <c r="B158" s="112"/>
+      <c r="C158" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="40"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="42">
         <v>41</v>
       </c>
-      <c r="G158" s="56">
+      <c r="G158" s="42">
         <v>10</v>
       </c>
-      <c r="H158" s="57">
+      <c r="H158" s="45">
         <v>0</v>
       </c>
       <c r="I158" s="3"/>
@@ -30558,25 +30564,20 @@
       <c r="BR158" s="4"/>
       <c r="BS158" s="4"/>
     </row>
-    <row r="159" spans="1:71" ht="36" customHeight="1" thickTop="1">
-      <c r="A159" s="38"/>
-      <c r="B159" s="114"/>
-      <c r="C159" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="D159" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E159" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F159" s="48">
+    <row r="159" spans="2:71" ht="36" customHeight="1">
+      <c r="B159" s="112"/>
+      <c r="C159" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="40"/>
+      <c r="E159" s="41"/>
+      <c r="F159" s="42">
         <v>41</v>
       </c>
-      <c r="G159" s="48">
+      <c r="G159" s="42">
         <v>10</v>
       </c>
-      <c r="H159" s="49">
+      <c r="H159" s="45">
         <v>0</v>
       </c>
       <c r="I159" s="3"/>
@@ -30643,20 +30644,20 @@
       <c r="BR159" s="4"/>
       <c r="BS159" s="4"/>
     </row>
-    <row r="160" spans="1:71" ht="36" customHeight="1">
-      <c r="B160" s="114"/>
-      <c r="C160" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D160" s="40"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="42">
+    <row r="160" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B160" s="113"/>
+      <c r="C160" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="54"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="56">
         <v>41</v>
       </c>
-      <c r="G160" s="42">
+      <c r="G160" s="56">
         <v>10</v>
       </c>
-      <c r="H160" s="45">
+      <c r="H160" s="57">
         <v>0</v>
       </c>
       <c r="I160" s="3"/>
@@ -30723,20 +30724,25 @@
       <c r="BR160" s="4"/>
       <c r="BS160" s="4"/>
     </row>
-    <row r="161" spans="2:71" ht="36" customHeight="1">
+    <row r="161" spans="1:71" ht="36" customHeight="1" thickTop="1">
+      <c r="A161" s="38"/>
       <c r="B161" s="114"/>
-      <c r="C161" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D161" s="40"/>
-      <c r="E161" s="41"/>
-      <c r="F161" s="42">
+      <c r="C161" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E161" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F161" s="48">
         <v>41</v>
       </c>
-      <c r="G161" s="42">
+      <c r="G161" s="48">
         <v>10</v>
       </c>
-      <c r="H161" s="45">
+      <c r="H161" s="49">
         <v>0</v>
       </c>
       <c r="I161" s="3"/>
@@ -30803,10 +30809,10 @@
       <c r="BR161" s="4"/>
       <c r="BS161" s="4"/>
     </row>
-    <row r="162" spans="2:71" ht="36" customHeight="1">
+    <row r="162" spans="1:71" ht="36" customHeight="1">
       <c r="B162" s="114"/>
       <c r="C162" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
@@ -30883,10 +30889,10 @@
       <c r="BR162" s="4"/>
       <c r="BS162" s="4"/>
     </row>
-    <row r="163" spans="2:71" ht="36" customHeight="1">
+    <row r="163" spans="1:71" ht="36" customHeight="1">
       <c r="B163" s="114"/>
       <c r="C163" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D163" s="40"/>
       <c r="E163" s="41"/>
@@ -30963,10 +30969,10 @@
       <c r="BR163" s="4"/>
       <c r="BS163" s="4"/>
     </row>
-    <row r="164" spans="2:71" ht="36" customHeight="1">
+    <row r="164" spans="1:71" ht="36" customHeight="1">
       <c r="B164" s="114"/>
-      <c r="C164" s="60" t="s">
-        <v>152</v>
+      <c r="C164" s="65" t="s">
+        <v>151</v>
       </c>
       <c r="D164" s="40"/>
       <c r="E164" s="41"/>
@@ -31043,10 +31049,10 @@
       <c r="BR164" s="4"/>
       <c r="BS164" s="4"/>
     </row>
-    <row r="165" spans="2:71" ht="36" customHeight="1">
+    <row r="165" spans="1:71" ht="36" customHeight="1">
       <c r="B165" s="114"/>
-      <c r="C165" s="60" t="s">
-        <v>153</v>
+      <c r="C165" s="65" t="s">
+        <v>150</v>
       </c>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
@@ -31123,10 +31129,10 @@
       <c r="BR165" s="4"/>
       <c r="BS165" s="4"/>
     </row>
-    <row r="166" spans="2:71" ht="36" customHeight="1">
+    <row r="166" spans="1:71" ht="36" customHeight="1">
       <c r="B166" s="114"/>
       <c r="C166" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D166" s="40"/>
       <c r="E166" s="41"/>
@@ -31203,10 +31209,10 @@
       <c r="BR166" s="4"/>
       <c r="BS166" s="4"/>
     </row>
-    <row r="167" spans="2:71" ht="36" customHeight="1">
+    <row r="167" spans="1:71" ht="36" customHeight="1">
       <c r="B167" s="114"/>
       <c r="C167" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
@@ -31283,10 +31289,10 @@
       <c r="BR167" s="4"/>
       <c r="BS167" s="4"/>
     </row>
-    <row r="168" spans="2:71" ht="36" customHeight="1">
+    <row r="168" spans="1:71" ht="36" customHeight="1">
       <c r="B168" s="114"/>
       <c r="C168" s="60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
@@ -31363,20 +31369,20 @@
       <c r="BR168" s="4"/>
       <c r="BS168" s="4"/>
     </row>
-    <row r="169" spans="2:71" ht="36" customHeight="1" thickBot="1">
+    <row r="169" spans="1:71" ht="36" customHeight="1">
       <c r="B169" s="114"/>
-      <c r="C169" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D169" s="54"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="56">
+      <c r="C169" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D169" s="40"/>
+      <c r="E169" s="41"/>
+      <c r="F169" s="42">
         <v>41</v>
       </c>
-      <c r="G169" s="56">
+      <c r="G169" s="42">
         <v>10</v>
       </c>
-      <c r="H169" s="57">
+      <c r="H169" s="45">
         <v>0</v>
       </c>
       <c r="I169" s="3"/>
@@ -31443,24 +31449,20 @@
       <c r="BR169" s="4"/>
       <c r="BS169" s="4"/>
     </row>
-    <row r="170" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B170" s="116"/>
-      <c r="C170" s="117" t="s">
+    <row r="170" spans="1:71" ht="36" customHeight="1">
+      <c r="B170" s="114"/>
+      <c r="C170" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D170" s="40"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="42">
         <v>41</v>
       </c>
-      <c r="D170" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F170" s="48">
-        <v>41</v>
-      </c>
-      <c r="G170" s="48">
+      <c r="G170" s="42">
         <v>10</v>
       </c>
-      <c r="H170" s="49">
+      <c r="H170" s="45">
         <v>0</v>
       </c>
       <c r="I170" s="3"/>
@@ -31527,20 +31529,20 @@
       <c r="BR170" s="4"/>
       <c r="BS170" s="4"/>
     </row>
-    <row r="171" spans="2:71" ht="36" customHeight="1">
-      <c r="B171" s="118"/>
-      <c r="C171" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="D171" s="40"/>
-      <c r="E171" s="41"/>
-      <c r="F171" s="42">
+    <row r="171" spans="1:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B171" s="114"/>
+      <c r="C171" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171" s="54"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="56">
         <v>41</v>
       </c>
-      <c r="G171" s="42">
+      <c r="G171" s="56">
         <v>10</v>
       </c>
-      <c r="H171" s="45">
+      <c r="H171" s="57">
         <v>0</v>
       </c>
       <c r="I171" s="3"/>
@@ -31607,20 +31609,24 @@
       <c r="BR171" s="4"/>
       <c r="BS171" s="4"/>
     </row>
-    <row r="172" spans="2:71" ht="36" customHeight="1">
-      <c r="B172" s="118"/>
-      <c r="C172" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="D172" s="40"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="42">
+    <row r="172" spans="1:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B172" s="116"/>
+      <c r="C172" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G172" s="42">
+      <c r="D172" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F172" s="48">
+        <v>41</v>
+      </c>
+      <c r="G172" s="48">
         <v>10</v>
       </c>
-      <c r="H172" s="45">
+      <c r="H172" s="49">
         <v>0</v>
       </c>
       <c r="I172" s="3"/>
@@ -31687,10 +31693,10 @@
       <c r="BR172" s="4"/>
       <c r="BS172" s="4"/>
     </row>
-    <row r="173" spans="2:71" ht="36" customHeight="1">
+    <row r="173" spans="1:71" ht="36" customHeight="1">
       <c r="B173" s="118"/>
       <c r="C173" s="65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D173" s="40"/>
       <c r="E173" s="41"/>
@@ -31767,10 +31773,10 @@
       <c r="BR173" s="4"/>
       <c r="BS173" s="4"/>
     </row>
-    <row r="174" spans="2:71" ht="36" customHeight="1">
+    <row r="174" spans="1:71" ht="36" customHeight="1">
       <c r="B174" s="118"/>
       <c r="C174" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D174" s="40"/>
       <c r="E174" s="41"/>
@@ -31847,10 +31853,10 @@
       <c r="BR174" s="4"/>
       <c r="BS174" s="4"/>
     </row>
-    <row r="175" spans="2:71" ht="36" customHeight="1">
+    <row r="175" spans="1:71" ht="36" customHeight="1">
       <c r="B175" s="118"/>
-      <c r="C175" s="60" t="s">
-        <v>161</v>
+      <c r="C175" s="65" t="s">
+        <v>159</v>
       </c>
       <c r="D175" s="40"/>
       <c r="E175" s="41"/>
@@ -31927,10 +31933,10 @@
       <c r="BR175" s="4"/>
       <c r="BS175" s="4"/>
     </row>
-    <row r="176" spans="2:71" ht="36" customHeight="1">
+    <row r="176" spans="1:71" ht="36" customHeight="1">
       <c r="B176" s="118"/>
-      <c r="C176" s="60" t="s">
-        <v>162</v>
+      <c r="C176" s="65" t="s">
+        <v>160</v>
       </c>
       <c r="D176" s="40"/>
       <c r="E176" s="41"/>
@@ -32010,7 +32016,7 @@
     <row r="177" spans="2:71" ht="36" customHeight="1">
       <c r="B177" s="118"/>
       <c r="C177" s="60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D177" s="40"/>
       <c r="E177" s="41"/>
@@ -32090,7 +32096,7 @@
     <row r="178" spans="2:71" ht="36" customHeight="1">
       <c r="B178" s="118"/>
       <c r="C178" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="41"/>
@@ -32167,20 +32173,20 @@
       <c r="BR178" s="4"/>
       <c r="BS178" s="4"/>
     </row>
-    <row r="179" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B179" s="119"/>
-      <c r="C179" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D179" s="54"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="56">
+    <row r="179" spans="2:71" ht="36" customHeight="1">
+      <c r="B179" s="118"/>
+      <c r="C179" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D179" s="40"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="42">
         <v>41</v>
       </c>
-      <c r="G179" s="56">
+      <c r="G179" s="42">
         <v>10</v>
       </c>
-      <c r="H179" s="57">
+      <c r="H179" s="45">
         <v>0</v>
       </c>
       <c r="I179" s="3"/>
@@ -32247,7 +32253,167 @@
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
     </row>
-    <row r="180" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
+    <row r="180" spans="2:71" ht="36" customHeight="1">
+      <c r="B180" s="118"/>
+      <c r="C180" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D180" s="40"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="42">
+        <v>41</v>
+      </c>
+      <c r="G180" s="42">
+        <v>10</v>
+      </c>
+      <c r="H180" s="45">
+        <v>0</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="4"/>
+      <c r="AD180" s="4"/>
+      <c r="AE180" s="4"/>
+      <c r="AF180" s="4"/>
+      <c r="AG180" s="4"/>
+      <c r="AH180" s="4"/>
+      <c r="AI180" s="4"/>
+      <c r="AJ180" s="4"/>
+      <c r="AK180" s="4"/>
+      <c r="AL180" s="4"/>
+      <c r="AM180" s="4"/>
+      <c r="AN180" s="4"/>
+      <c r="AO180" s="4"/>
+      <c r="AP180" s="4"/>
+      <c r="AQ180" s="4"/>
+      <c r="AR180" s="4"/>
+      <c r="AS180" s="4"/>
+      <c r="AT180" s="4"/>
+      <c r="AU180" s="4"/>
+      <c r="AV180" s="4"/>
+      <c r="AW180" s="4"/>
+      <c r="AX180" s="4"/>
+      <c r="AY180" s="4"/>
+      <c r="AZ180" s="4"/>
+      <c r="BA180" s="4"/>
+      <c r="BB180" s="4"/>
+      <c r="BC180" s="4"/>
+      <c r="BD180" s="4"/>
+      <c r="BE180" s="4"/>
+      <c r="BF180" s="4"/>
+      <c r="BG180" s="4"/>
+      <c r="BH180" s="4"/>
+      <c r="BI180" s="4"/>
+      <c r="BJ180" s="4"/>
+      <c r="BK180" s="4"/>
+      <c r="BL180" s="4"/>
+      <c r="BM180" s="4"/>
+      <c r="BN180" s="4"/>
+      <c r="BO180" s="4"/>
+      <c r="BP180" s="4"/>
+      <c r="BQ180" s="4"/>
+      <c r="BR180" s="4"/>
+      <c r="BS180" s="4"/>
+    </row>
+    <row r="181" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B181" s="119"/>
+      <c r="C181" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D181" s="54"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="56">
+        <v>41</v>
+      </c>
+      <c r="G181" s="56">
+        <v>10</v>
+      </c>
+      <c r="H181" s="57">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+      <c r="Y181" s="3"/>
+      <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="4"/>
+      <c r="AI181" s="4"/>
+      <c r="AJ181" s="4"/>
+      <c r="AK181" s="4"/>
+      <c r="AL181" s="4"/>
+      <c r="AM181" s="4"/>
+      <c r="AN181" s="4"/>
+      <c r="AO181" s="4"/>
+      <c r="AP181" s="4"/>
+      <c r="AQ181" s="4"/>
+      <c r="AR181" s="4"/>
+      <c r="AS181" s="4"/>
+      <c r="AT181" s="4"/>
+      <c r="AU181" s="4"/>
+      <c r="AV181" s="4"/>
+      <c r="AW181" s="4"/>
+      <c r="AX181" s="4"/>
+      <c r="AY181" s="4"/>
+      <c r="AZ181" s="4"/>
+      <c r="BA181" s="4"/>
+      <c r="BB181" s="4"/>
+      <c r="BC181" s="4"/>
+      <c r="BD181" s="4"/>
+      <c r="BE181" s="4"/>
+      <c r="BF181" s="4"/>
+      <c r="BG181" s="4"/>
+      <c r="BH181" s="4"/>
+      <c r="BI181" s="4"/>
+      <c r="BJ181" s="4"/>
+      <c r="BK181" s="4"/>
+      <c r="BL181" s="4"/>
+      <c r="BM181" s="4"/>
+      <c r="BN181" s="4"/>
+      <c r="BO181" s="4"/>
+      <c r="BP181" s="4"/>
+      <c r="BQ181" s="4"/>
+      <c r="BR181" s="4"/>
+      <c r="BS181" s="4"/>
+    </row>
+    <row r="182" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
@@ -34549,7 +34715,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108:BS108">
+  <conditionalFormatting sqref="I108:BS109">
     <cfRule type="expression" dxfId="471" priority="481">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34575,7 +34741,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109:BS109">
+  <conditionalFormatting sqref="I110:BS110">
     <cfRule type="expression" dxfId="463" priority="473">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34601,7 +34767,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110:BS110">
+  <conditionalFormatting sqref="I111:BS111">
     <cfRule type="expression" dxfId="455" priority="465">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34627,7 +34793,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:BS111">
+  <conditionalFormatting sqref="I112:BS112">
     <cfRule type="expression" dxfId="447" priority="457">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34653,7 +34819,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I112:BS112">
+  <conditionalFormatting sqref="I113:BS114">
     <cfRule type="expression" dxfId="439" priority="449">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34679,7 +34845,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BS113">
+  <conditionalFormatting sqref="I115:BS115">
     <cfRule type="expression" dxfId="431" priority="441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34705,7 +34871,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:BS114">
+  <conditionalFormatting sqref="I116:BS116">
     <cfRule type="expression" dxfId="423" priority="433">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34731,7 +34897,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I115:BS115">
+  <conditionalFormatting sqref="I117:BS117">
     <cfRule type="expression" dxfId="415" priority="425">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34757,7 +34923,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BS116">
+  <conditionalFormatting sqref="I118:BS118">
     <cfRule type="expression" dxfId="407" priority="417">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34783,7 +34949,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I117:BS117">
+  <conditionalFormatting sqref="I119:BS119">
     <cfRule type="expression" dxfId="399" priority="409">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34809,7 +34975,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I118:BS119">
+  <conditionalFormatting sqref="I120:BS121">
     <cfRule type="expression" dxfId="391" priority="401">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34835,7 +35001,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BS120">
+  <conditionalFormatting sqref="I122:BS122">
     <cfRule type="expression" dxfId="383" priority="393">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34861,7 +35027,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I121:BS121">
+  <conditionalFormatting sqref="I123:BS123">
     <cfRule type="expression" dxfId="375" priority="385">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34887,7 +35053,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I122:BS122">
+  <conditionalFormatting sqref="I124:BS124">
     <cfRule type="expression" dxfId="367" priority="377">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34913,7 +35079,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I123:BS124">
+  <conditionalFormatting sqref="I125:BS126">
     <cfRule type="expression" dxfId="359" priority="369">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34939,7 +35105,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BS125">
+  <conditionalFormatting sqref="I127:BS127">
     <cfRule type="expression" dxfId="351" priority="361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34965,7 +35131,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I126:BS126">
+  <conditionalFormatting sqref="I128:BS128">
     <cfRule type="expression" dxfId="343" priority="353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34991,7 +35157,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127:BS127">
+  <conditionalFormatting sqref="I129:BS129">
     <cfRule type="expression" dxfId="335" priority="345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35017,7 +35183,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128:BS128">
+  <conditionalFormatting sqref="I130:BS130">
     <cfRule type="expression" dxfId="327" priority="337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35043,7 +35209,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I129:BS129">
+  <conditionalFormatting sqref="I131:BS131">
     <cfRule type="expression" dxfId="319" priority="329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35069,7 +35235,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130:BS131">
+  <conditionalFormatting sqref="I132:BS133">
     <cfRule type="expression" dxfId="311" priority="321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35095,7 +35261,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I159:BS159">
+  <conditionalFormatting sqref="I161:BS161">
     <cfRule type="expression" dxfId="303" priority="121">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35121,7 +35287,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BS132">
+  <conditionalFormatting sqref="I134:BS134">
     <cfRule type="expression" dxfId="295" priority="305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35147,7 +35313,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:BS133">
+  <conditionalFormatting sqref="I135:BS135">
     <cfRule type="expression" dxfId="287" priority="297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35173,7 +35339,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134:BS135">
+  <conditionalFormatting sqref="I136:BS137">
     <cfRule type="expression" dxfId="279" priority="289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35199,7 +35365,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I168:BS168">
+  <conditionalFormatting sqref="I170:BS170">
     <cfRule type="expression" dxfId="271" priority="89">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35225,7 +35391,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136:BS136">
+  <conditionalFormatting sqref="I138:BS138">
     <cfRule type="expression" dxfId="263" priority="273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35251,7 +35417,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I137:BS137">
+  <conditionalFormatting sqref="I139:BS139">
     <cfRule type="expression" dxfId="255" priority="265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35277,7 +35443,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I138:BS138">
+  <conditionalFormatting sqref="I140:BS140">
     <cfRule type="expression" dxfId="247" priority="257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35303,7 +35469,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I139:BS139">
+  <conditionalFormatting sqref="I141:BS141">
     <cfRule type="expression" dxfId="239" priority="249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35329,7 +35495,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I140:BS141">
+  <conditionalFormatting sqref="I142:BS143">
     <cfRule type="expression" dxfId="231" priority="241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35355,7 +35521,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142:BS142">
+  <conditionalFormatting sqref="I144:BS144">
     <cfRule type="expression" dxfId="223" priority="233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35381,7 +35547,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I143:BS143">
+  <conditionalFormatting sqref="I145:BS145">
     <cfRule type="expression" dxfId="215" priority="225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35407,7 +35573,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I144:BS144">
+  <conditionalFormatting sqref="I146:BS146">
     <cfRule type="expression" dxfId="207" priority="217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35433,7 +35599,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BS146">
+  <conditionalFormatting sqref="I147:BS148">
     <cfRule type="expression" dxfId="199" priority="209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35459,7 +35625,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:BS147">
+  <conditionalFormatting sqref="I149:BS149">
     <cfRule type="expression" dxfId="191" priority="201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35485,7 +35651,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I148:BS148">
+  <conditionalFormatting sqref="I150:BS150">
     <cfRule type="expression" dxfId="183" priority="193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35511,7 +35677,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BS149">
+  <conditionalFormatting sqref="I151:BS151">
     <cfRule type="expression" dxfId="175" priority="185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35537,7 +35703,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BS150">
+  <conditionalFormatting sqref="I152:BS152">
     <cfRule type="expression" dxfId="167" priority="177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35563,7 +35729,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I151:BS151">
+  <conditionalFormatting sqref="I153:BS153">
     <cfRule type="expression" dxfId="159" priority="169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35589,7 +35755,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BS153">
+  <conditionalFormatting sqref="I154:BS155">
     <cfRule type="expression" dxfId="151" priority="161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35615,7 +35781,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I154:BS154">
+  <conditionalFormatting sqref="I156:BS156">
     <cfRule type="expression" dxfId="143" priority="153">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35641,7 +35807,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I155:BS155">
+  <conditionalFormatting sqref="I157:BS157">
     <cfRule type="expression" dxfId="135" priority="145">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35667,7 +35833,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I156:BS157">
+  <conditionalFormatting sqref="I158:BS159">
     <cfRule type="expression" dxfId="127" priority="137">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35693,7 +35859,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I158:BS158">
+  <conditionalFormatting sqref="I160:BS160">
     <cfRule type="expression" dxfId="119" priority="129">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35719,7 +35885,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I160:BS162">
+  <conditionalFormatting sqref="I162:BS164">
     <cfRule type="expression" dxfId="111" priority="113">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35745,7 +35911,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I163:BS163">
+  <conditionalFormatting sqref="I165:BS165">
     <cfRule type="expression" dxfId="103" priority="105">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35771,7 +35937,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164:BS164">
+  <conditionalFormatting sqref="I166:BS166">
     <cfRule type="expression" dxfId="95" priority="97">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35797,7 +35963,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I169:BS169">
+  <conditionalFormatting sqref="I171:BS171">
     <cfRule type="expression" dxfId="87" priority="81">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35823,7 +35989,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I165:BS165">
+  <conditionalFormatting sqref="I167:BS167">
     <cfRule type="expression" dxfId="79" priority="73">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35849,7 +36015,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I166:BS167">
+  <conditionalFormatting sqref="I168:BS169">
     <cfRule type="expression" dxfId="71" priority="65">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35875,7 +36041,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I170:BS170">
+  <conditionalFormatting sqref="I172:BS172">
     <cfRule type="expression" dxfId="63" priority="57">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35901,7 +36067,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I171:BS171">
+  <conditionalFormatting sqref="I173:BS173">
     <cfRule type="expression" dxfId="55" priority="49">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35927,7 +36093,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I172:BS172">
+  <conditionalFormatting sqref="I174:BS174">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35953,7 +36119,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I173:BS174">
+  <conditionalFormatting sqref="I175:BS176">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35979,7 +36145,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I175:BS175">
+  <conditionalFormatting sqref="I177:BS177">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36005,7 +36171,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176:BS176">
+  <conditionalFormatting sqref="I178:BS178">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36031,7 +36197,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I177:BS178">
+  <conditionalFormatting sqref="I179:BS180">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36057,7 +36223,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I179:BS179">
+  <conditionalFormatting sqref="I181:BS181">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC277DD7-2C2E-42C0-8F8F-B369484EF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB0664-18A6-4F8B-BC8D-0A885C1AFB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17580,10 +17580,10 @@
   <dimension ref="A1:BT182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I105" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
+      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB0664-18A6-4F8B-BC8D-0A885C1AFB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54603BC-8901-44FB-8A28-ED3F2DAD1E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t>Trình lập kế hoạch Dự án</t>
   </si>
@@ -495,9 +495,6 @@
     <t>FE: resigter</t>
   </si>
   <si>
-    <t>FE: updateProfile</t>
-  </si>
-  <si>
     <t>FE: accumulatePoints</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
   </si>
   <si>
     <t>BE: getPoints</t>
-  </si>
-  <si>
-    <t>BE: updateProfile</t>
   </si>
   <si>
     <t>FE: statisticsByDay</t>
@@ -2017,527 +2011,7 @@
     <cellStyle name="Tiêu đề" xfId="3" builtinId="15"/>
     <cellStyle name="Văn bản Giải thích" xfId="4" builtinId="53"/>
   </cellStyles>
-  <dxfs count="1177">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1137">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -17577,13 +17051,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT182"/>
+  <dimension ref="A1:BT180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I100" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -17690,7 +17164,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="7"/>
       <c r="L2" s="128" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M2" s="130"/>
       <c r="N2" s="130"/>
@@ -17701,7 +17175,7 @@
       <c r="S2" s="131"/>
       <c r="T2" s="8"/>
       <c r="U2" s="128" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V2" s="129"/>
       <c r="W2" s="129"/>
@@ -19725,7 +19199,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F24" s="48">
         <v>13</v>
@@ -20209,7 +19683,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="73">
         <v>13</v>
@@ -21013,7 +20487,7 @@
         <v>22</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F40" s="79">
         <v>13</v>
@@ -21811,13 +21285,13 @@
     <row r="50" spans="2:71" ht="36" customHeight="1" thickTop="1">
       <c r="B50" s="80"/>
       <c r="C50" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F50" s="79">
         <v>20</v>
@@ -22618,10 +22092,10 @@
         <v>44</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F60" s="79">
         <v>20</v>
@@ -23425,7 +22899,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F70" s="48">
         <v>27</v>
@@ -24229,7 +23703,7 @@
         <v>49</v>
       </c>
       <c r="E80" s="77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F80" s="79">
         <v>27</v>
@@ -25107,7 +24581,7 @@
     <row r="91" spans="2:71" ht="36" customHeight="1">
       <c r="B91" s="69"/>
       <c r="C91" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="41"/>
@@ -25187,14 +24661,14 @@
     <row r="92" spans="2:71" ht="36" customHeight="1">
       <c r="B92" s="69"/>
       <c r="C92" s="65" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="48">
-        <v>27</v>
-      </c>
-      <c r="G92" s="48">
+      <c r="F92" s="42">
+        <v>34</v>
+      </c>
+      <c r="G92" s="42">
         <v>7</v>
       </c>
       <c r="H92" s="45">
@@ -25267,7 +24741,7 @@
     <row r="93" spans="2:71" ht="36" customHeight="1">
       <c r="B93" s="69"/>
       <c r="C93" s="65" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="41"/>
@@ -25346,8 +24820,8 @@
     </row>
     <row r="94" spans="2:71" ht="36" customHeight="1">
       <c r="B94" s="69"/>
-      <c r="C94" s="60" t="s">
-        <v>73</v>
+      <c r="C94" s="65" t="s">
+        <v>108</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="41"/>
@@ -25427,7 +24901,7 @@
     <row r="95" spans="2:71" ht="36" customHeight="1">
       <c r="B95" s="69"/>
       <c r="C95" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="41"/>
@@ -25507,7 +24981,7 @@
     <row r="96" spans="2:71" ht="36" customHeight="1">
       <c r="B96" s="69"/>
       <c r="C96" s="60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="41"/>
@@ -25587,7 +25061,7 @@
     <row r="97" spans="2:71" ht="36" customHeight="1">
       <c r="B97" s="69"/>
       <c r="C97" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="41"/>
@@ -25667,7 +25141,7 @@
     <row r="98" spans="2:71" ht="36" customHeight="1">
       <c r="B98" s="69"/>
       <c r="C98" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="41"/>
@@ -25747,7 +25221,7 @@
     <row r="99" spans="2:71" ht="36" customHeight="1">
       <c r="B99" s="69"/>
       <c r="C99" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="41"/>
@@ -25827,7 +25301,7 @@
     <row r="100" spans="2:71" ht="36" customHeight="1">
       <c r="B100" s="69"/>
       <c r="C100" s="60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="41"/>
@@ -25907,7 +25381,7 @@
     <row r="101" spans="2:71" ht="36" customHeight="1">
       <c r="B101" s="69"/>
       <c r="C101" s="60" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="41"/>
@@ -25987,7 +25461,7 @@
     <row r="102" spans="2:71" ht="36" customHeight="1">
       <c r="B102" s="69"/>
       <c r="C102" s="60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="41"/>
@@ -26067,14 +25541,14 @@
     <row r="103" spans="2:71" ht="36" customHeight="1">
       <c r="B103" s="69"/>
       <c r="C103" s="60" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="48">
-        <v>27</v>
-      </c>
-      <c r="G103" s="48">
+      <c r="F103" s="42">
+        <v>34</v>
+      </c>
+      <c r="G103" s="42">
         <v>7</v>
       </c>
       <c r="H103" s="45">
@@ -26144,23 +25618,23 @@
       <c r="BR103" s="4"/>
       <c r="BS103" s="4"/>
     </row>
-    <row r="104" spans="2:71" ht="36" customHeight="1" thickBot="1">
+    <row r="104" spans="2:71" ht="36" customHeight="1">
       <c r="B104" s="69"/>
-      <c r="C104" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D104" s="54"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="56">
-        <v>27</v>
-      </c>
-      <c r="G104" s="72">
+      <c r="C104" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42">
+        <v>34</v>
+      </c>
+      <c r="G104" s="42">
         <v>7</v>
       </c>
-      <c r="H104" s="57">
+      <c r="H104" s="45">
         <v>0</v>
       </c>
-      <c r="I104" s="67"/>
+      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -26224,24 +25698,20 @@
       <c r="BR104" s="4"/>
       <c r="BS104" s="4"/>
     </row>
-    <row r="105" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B105" s="95"/>
-      <c r="C105" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" s="47" t="s">
-        <v>165</v>
-      </c>
+    <row r="105" spans="2:71" ht="36" customHeight="1">
+      <c r="B105" s="69"/>
+      <c r="C105" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
       <c r="F105" s="48">
-        <v>34</v>
-      </c>
-      <c r="G105" s="79">
+        <v>27</v>
+      </c>
+      <c r="G105" s="48">
         <v>7</v>
       </c>
-      <c r="H105" s="49">
+      <c r="H105" s="45">
         <v>0</v>
       </c>
       <c r="I105" s="3"/>
@@ -26309,16 +25779,16 @@
       <c r="BS105" s="4"/>
     </row>
     <row r="106" spans="2:71" ht="36" customHeight="1">
-      <c r="B106" s="96"/>
-      <c r="C106" s="65" t="s">
-        <v>179</v>
+      <c r="B106" s="69"/>
+      <c r="C106" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="41"/>
-      <c r="F106" s="42">
-        <v>34</v>
-      </c>
-      <c r="G106" s="42">
+      <c r="F106" s="48">
+        <v>27</v>
+      </c>
+      <c r="G106" s="48">
         <v>7</v>
       </c>
       <c r="H106" s="45">
@@ -26388,23 +25858,23 @@
       <c r="BR106" s="4"/>
       <c r="BS106" s="4"/>
     </row>
-    <row r="107" spans="2:71" ht="36" customHeight="1">
-      <c r="B107" s="96"/>
-      <c r="C107" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="42">
-        <v>34</v>
-      </c>
-      <c r="G107" s="42">
+    <row r="107" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B107" s="69"/>
+      <c r="C107" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="54"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="56">
+        <v>27</v>
+      </c>
+      <c r="G107" s="72">
         <v>7</v>
       </c>
-      <c r="H107" s="45">
+      <c r="H107" s="57">
         <v>0</v>
       </c>
-      <c r="I107" s="3"/>
+      <c r="I107" s="67"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -26468,20 +25938,24 @@
       <c r="BR107" s="4"/>
       <c r="BS107" s="4"/>
     </row>
-    <row r="108" spans="2:71" ht="36" customHeight="1">
-      <c r="B108" s="96"/>
-      <c r="C108" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="42">
+    <row r="108" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B108" s="95"/>
+      <c r="C108" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" s="48">
         <v>34</v>
       </c>
-      <c r="G108" s="42">
+      <c r="G108" s="79">
         <v>7</v>
       </c>
-      <c r="H108" s="45">
+      <c r="H108" s="49">
         <v>0</v>
       </c>
       <c r="I108" s="3"/>
@@ -26551,7 +26025,7 @@
     <row r="109" spans="2:71" ht="36" customHeight="1">
       <c r="B109" s="96"/>
       <c r="C109" s="65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
@@ -26631,7 +26105,7 @@
     <row r="110" spans="2:71" ht="36" customHeight="1">
       <c r="B110" s="96"/>
       <c r="C110" s="65" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="41"/>
@@ -26710,8 +26184,8 @@
     </row>
     <row r="111" spans="2:71" ht="36" customHeight="1">
       <c r="B111" s="96"/>
-      <c r="C111" s="60" t="s">
-        <v>180</v>
+      <c r="C111" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="41"/>
@@ -26790,8 +26264,8 @@
     </row>
     <row r="112" spans="2:71" ht="36" customHeight="1">
       <c r="B112" s="96"/>
-      <c r="C112" s="60" t="s">
-        <v>61</v>
+      <c r="C112" s="65" t="s">
+        <v>179</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
@@ -26870,8 +26344,8 @@
     </row>
     <row r="113" spans="2:71" ht="36" customHeight="1">
       <c r="B113" s="96"/>
-      <c r="C113" s="60" t="s">
-        <v>112</v>
+      <c r="C113" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="41"/>
@@ -26951,7 +26425,7 @@
     <row r="114" spans="2:71" ht="36" customHeight="1">
       <c r="B114" s="96"/>
       <c r="C114" s="60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="41"/>
@@ -27031,7 +26505,7 @@
     <row r="115" spans="2:71" ht="36" customHeight="1">
       <c r="B115" s="96"/>
       <c r="C115" s="60" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="41"/>
@@ -27108,20 +26582,20 @@
       <c r="BR115" s="4"/>
       <c r="BS115" s="4"/>
     </row>
-    <row r="116" spans="2:71" ht="36" customHeight="1" thickBot="1">
+    <row r="116" spans="2:71" ht="36" customHeight="1">
       <c r="B116" s="96"/>
-      <c r="C116" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D116" s="54"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="56">
+      <c r="C116" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="40"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="42">
         <v>34</v>
       </c>
-      <c r="G116" s="56">
+      <c r="G116" s="42">
         <v>7</v>
       </c>
-      <c r="H116" s="57">
+      <c r="H116" s="45">
         <v>0</v>
       </c>
       <c r="I116" s="3"/>
@@ -27188,24 +26662,20 @@
       <c r="BR116" s="4"/>
       <c r="BS116" s="4"/>
     </row>
-    <row r="117" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B117" s="97"/>
-      <c r="C117" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F117" s="48">
+    <row r="117" spans="2:71" ht="36" customHeight="1">
+      <c r="B117" s="96"/>
+      <c r="C117" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" s="40"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="42">
         <v>34</v>
       </c>
-      <c r="G117" s="48">
+      <c r="G117" s="42">
         <v>7</v>
       </c>
-      <c r="H117" s="49">
+      <c r="H117" s="45">
         <v>0</v>
       </c>
       <c r="I117" s="3"/>
@@ -27273,9 +26743,9 @@
       <c r="BS117" s="4"/>
     </row>
     <row r="118" spans="2:71" ht="36" customHeight="1">
-      <c r="B118" s="99"/>
-      <c r="C118" s="65" t="s">
-        <v>116</v>
+      <c r="B118" s="96"/>
+      <c r="C118" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="41"/>
@@ -27352,20 +26822,20 @@
       <c r="BR118" s="4"/>
       <c r="BS118" s="4"/>
     </row>
-    <row r="119" spans="2:71" ht="36" customHeight="1">
-      <c r="B119" s="99"/>
-      <c r="C119" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="40"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="42">
+    <row r="119" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B119" s="96"/>
+      <c r="C119" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="54"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="56">
         <v>34</v>
       </c>
-      <c r="G119" s="42">
+      <c r="G119" s="56">
         <v>7</v>
       </c>
-      <c r="H119" s="45">
+      <c r="H119" s="57">
         <v>0</v>
       </c>
       <c r="I119" s="3"/>
@@ -27432,20 +26902,24 @@
       <c r="BR119" s="4"/>
       <c r="BS119" s="4"/>
     </row>
-    <row r="120" spans="2:71" ht="36" customHeight="1">
-      <c r="B120" s="99"/>
-      <c r="C120" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="40"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="42">
+    <row r="120" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B120" s="97"/>
+      <c r="C120" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" s="48">
         <v>34</v>
       </c>
-      <c r="G120" s="42">
+      <c r="G120" s="48">
         <v>7</v>
       </c>
-      <c r="H120" s="45">
+      <c r="H120" s="49">
         <v>0</v>
       </c>
       <c r="I120" s="3"/>
@@ -27515,7 +26989,7 @@
     <row r="121" spans="2:71" ht="36" customHeight="1">
       <c r="B121" s="99"/>
       <c r="C121" s="65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121" s="40"/>
       <c r="E121" s="41"/>
@@ -27595,7 +27069,7 @@
     <row r="122" spans="2:71" ht="36" customHeight="1">
       <c r="B122" s="99"/>
       <c r="C122" s="65" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="41"/>
@@ -27674,8 +27148,8 @@
     </row>
     <row r="123" spans="2:71" ht="36" customHeight="1">
       <c r="B123" s="99"/>
-      <c r="C123" s="60" t="s">
-        <v>119</v>
+      <c r="C123" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="D123" s="40"/>
       <c r="E123" s="41"/>
@@ -27754,8 +27228,8 @@
     </row>
     <row r="124" spans="2:71" ht="36" customHeight="1">
       <c r="B124" s="99"/>
-      <c r="C124" s="60" t="s">
-        <v>61</v>
+      <c r="C124" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="41"/>
@@ -27834,8 +27308,8 @@
     </row>
     <row r="125" spans="2:71" ht="36" customHeight="1">
       <c r="B125" s="99"/>
-      <c r="C125" s="60" t="s">
-        <v>120</v>
+      <c r="C125" s="65" t="s">
+        <v>122</v>
       </c>
       <c r="D125" s="40"/>
       <c r="E125" s="41"/>
@@ -27915,7 +27389,7 @@
     <row r="126" spans="2:71" ht="36" customHeight="1">
       <c r="B126" s="99"/>
       <c r="C126" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="41"/>
@@ -27995,7 +27469,7 @@
     <row r="127" spans="2:71" ht="36" customHeight="1">
       <c r="B127" s="99"/>
       <c r="C127" s="60" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
@@ -28072,23 +27546,23 @@
       <c r="BR127" s="4"/>
       <c r="BS127" s="4"/>
     </row>
-    <row r="128" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B128" s="100"/>
-      <c r="C128" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D128" s="54"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="56">
+    <row r="128" spans="2:71" ht="36" customHeight="1">
+      <c r="B128" s="99"/>
+      <c r="C128" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="42">
         <v>34</v>
       </c>
-      <c r="G128" s="56">
+      <c r="G128" s="42">
         <v>7</v>
       </c>
-      <c r="H128" s="57">
+      <c r="H128" s="45">
         <v>0</v>
       </c>
-      <c r="I128" s="67"/>
+      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -28152,24 +27626,20 @@
       <c r="BR128" s="4"/>
       <c r="BS128" s="4"/>
     </row>
-    <row r="129" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B129" s="102"/>
-      <c r="C129" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D129" s="46" t="s">
+    <row r="129" spans="2:71" ht="36" customHeight="1">
+      <c r="B129" s="99"/>
+      <c r="C129" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D129" s="40"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="42">
         <v>34</v>
       </c>
-      <c r="E129" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F129" s="48">
-        <v>34</v>
-      </c>
-      <c r="G129" s="48">
+      <c r="G129" s="42">
         <v>7</v>
       </c>
-      <c r="H129" s="49">
+      <c r="H129" s="45">
         <v>0</v>
       </c>
       <c r="I129" s="3"/>
@@ -28237,9 +27707,9 @@
       <c r="BS129" s="4"/>
     </row>
     <row r="130" spans="2:71" ht="36" customHeight="1">
-      <c r="B130" s="103"/>
-      <c r="C130" s="65" t="s">
-        <v>125</v>
+      <c r="B130" s="99"/>
+      <c r="C130" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="41"/>
@@ -28316,23 +27786,23 @@
       <c r="BR130" s="4"/>
       <c r="BS130" s="4"/>
     </row>
-    <row r="131" spans="2:71" ht="36" customHeight="1">
-      <c r="B131" s="103"/>
-      <c r="C131" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" s="40"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="42">
+    <row r="131" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B131" s="100"/>
+      <c r="C131" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="54"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="56">
         <v>34</v>
       </c>
-      <c r="G131" s="42">
+      <c r="G131" s="56">
         <v>7</v>
       </c>
-      <c r="H131" s="45">
+      <c r="H131" s="57">
         <v>0</v>
       </c>
-      <c r="I131" s="3"/>
+      <c r="I131" s="67"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -28396,20 +27866,24 @@
       <c r="BR131" s="4"/>
       <c r="BS131" s="4"/>
     </row>
-    <row r="132" spans="2:71" ht="36" customHeight="1">
-      <c r="B132" s="103"/>
-      <c r="C132" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="42">
+    <row r="132" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B132" s="102"/>
+      <c r="C132" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G132" s="42">
+      <c r="E132" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="48">
+        <v>34</v>
+      </c>
+      <c r="G132" s="48">
         <v>7</v>
       </c>
-      <c r="H132" s="45">
+      <c r="H132" s="49">
         <v>0</v>
       </c>
       <c r="I132" s="3"/>
@@ -28479,7 +27953,7 @@
     <row r="133" spans="2:71" ht="36" customHeight="1">
       <c r="B133" s="103"/>
       <c r="C133" s="65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D133" s="40"/>
       <c r="E133" s="41"/>
@@ -28558,8 +28032,8 @@
     </row>
     <row r="134" spans="2:71" ht="36" customHeight="1">
       <c r="B134" s="103"/>
-      <c r="C134" s="60" t="s">
-        <v>128</v>
+      <c r="C134" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="41"/>
@@ -28638,8 +28112,8 @@
     </row>
     <row r="135" spans="2:71" ht="36" customHeight="1">
       <c r="B135" s="103"/>
-      <c r="C135" s="60" t="s">
-        <v>61</v>
+      <c r="C135" s="65" t="s">
+        <v>126</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="41"/>
@@ -28718,8 +28192,8 @@
     </row>
     <row r="136" spans="2:71" ht="36" customHeight="1">
       <c r="B136" s="103"/>
-      <c r="C136" s="60" t="s">
-        <v>129</v>
+      <c r="C136" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="D136" s="40"/>
       <c r="E136" s="41"/>
@@ -28799,7 +28273,7 @@
     <row r="137" spans="2:71" ht="36" customHeight="1">
       <c r="B137" s="103"/>
       <c r="C137" s="60" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D137" s="40"/>
       <c r="E137" s="41"/>
@@ -28876,20 +28350,20 @@
       <c r="BR137" s="4"/>
       <c r="BS137" s="4"/>
     </row>
-    <row r="138" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B138" s="104"/>
-      <c r="C138" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="54"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="56">
+    <row r="138" spans="2:71" ht="36" customHeight="1">
+      <c r="B138" s="103"/>
+      <c r="C138" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="40"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="42">
         <v>34</v>
       </c>
-      <c r="G138" s="56">
+      <c r="G138" s="42">
         <v>7</v>
       </c>
-      <c r="H138" s="57">
+      <c r="H138" s="45">
         <v>0</v>
       </c>
       <c r="I138" s="3"/>
@@ -28956,24 +28430,20 @@
       <c r="BR138" s="4"/>
       <c r="BS138" s="4"/>
     </row>
-    <row r="139" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B139" s="106"/>
-      <c r="C139" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D139" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F139" s="48">
-        <v>41</v>
-      </c>
-      <c r="G139" s="48">
-        <v>10</v>
-      </c>
-      <c r="H139" s="49">
+    <row r="139" spans="2:71" ht="36" customHeight="1">
+      <c r="B139" s="103"/>
+      <c r="C139" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="40"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="42">
+        <v>34</v>
+      </c>
+      <c r="G139" s="42">
+        <v>7</v>
+      </c>
+      <c r="H139" s="45">
         <v>0</v>
       </c>
       <c r="I139" s="3"/>
@@ -29041,17 +28511,17 @@
       <c r="BS139" s="4"/>
     </row>
     <row r="140" spans="2:71" ht="36" customHeight="1">
-      <c r="B140" s="108"/>
-      <c r="C140" s="65" t="s">
-        <v>132</v>
+      <c r="B140" s="103"/>
+      <c r="C140" s="60" t="s">
+        <v>146</v>
       </c>
       <c r="D140" s="40"/>
       <c r="E140" s="41"/>
       <c r="F140" s="42">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G140" s="42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H140" s="45">
         <v>0</v>
@@ -29120,20 +28590,20 @@
       <c r="BR140" s="4"/>
       <c r="BS140" s="4"/>
     </row>
-    <row r="141" spans="2:71" ht="36" customHeight="1">
-      <c r="B141" s="108"/>
-      <c r="C141" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D141" s="40"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="42">
-        <v>41</v>
-      </c>
-      <c r="G141" s="42">
-        <v>10</v>
-      </c>
-      <c r="H141" s="45">
+    <row r="141" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B141" s="104"/>
+      <c r="C141" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" s="54"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="56">
+        <v>34</v>
+      </c>
+      <c r="G141" s="56">
+        <v>7</v>
+      </c>
+      <c r="H141" s="57">
         <v>0</v>
       </c>
       <c r="I141" s="3"/>
@@ -29200,20 +28670,24 @@
       <c r="BR141" s="4"/>
       <c r="BS141" s="4"/>
     </row>
-    <row r="142" spans="2:71" ht="36" customHeight="1">
-      <c r="B142" s="108"/>
-      <c r="C142" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D142" s="40"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="42">
+    <row r="142" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B142" s="106"/>
+      <c r="C142" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="48">
         <v>41</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="48">
         <v>10</v>
       </c>
-      <c r="H142" s="45">
+      <c r="H142" s="49">
         <v>0</v>
       </c>
       <c r="I142" s="3"/>
@@ -29283,7 +28757,7 @@
     <row r="143" spans="2:71" ht="36" customHeight="1">
       <c r="B143" s="108"/>
       <c r="C143" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D143" s="40"/>
       <c r="E143" s="41"/>
@@ -29363,7 +28837,7 @@
     <row r="144" spans="2:71" ht="36" customHeight="1">
       <c r="B144" s="108"/>
       <c r="C144" s="65" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D144" s="40"/>
       <c r="E144" s="41"/>
@@ -29442,8 +28916,8 @@
     </row>
     <row r="145" spans="2:71" ht="36" customHeight="1">
       <c r="B145" s="108"/>
-      <c r="C145" s="60" t="s">
-        <v>136</v>
+      <c r="C145" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
@@ -29522,8 +28996,8 @@
     </row>
     <row r="146" spans="2:71" ht="36" customHeight="1">
       <c r="B146" s="108"/>
-      <c r="C146" s="60" t="s">
-        <v>61</v>
+      <c r="C146" s="65" t="s">
+        <v>134</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
@@ -29602,8 +29076,8 @@
     </row>
     <row r="147" spans="2:71" ht="36" customHeight="1">
       <c r="B147" s="108"/>
-      <c r="C147" s="60" t="s">
-        <v>137</v>
+      <c r="C147" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
@@ -29683,7 +29157,7 @@
     <row r="148" spans="2:71" ht="36" customHeight="1">
       <c r="B148" s="108"/>
       <c r="C148" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D148" s="40"/>
       <c r="E148" s="41"/>
@@ -29763,7 +29237,7 @@
     <row r="149" spans="2:71" ht="36" customHeight="1">
       <c r="B149" s="108"/>
       <c r="C149" s="60" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="D149" s="40"/>
       <c r="E149" s="41"/>
@@ -29840,23 +29314,23 @@
       <c r="BR149" s="4"/>
       <c r="BS149" s="4"/>
     </row>
-    <row r="150" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B150" s="109"/>
-      <c r="C150" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D150" s="54"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="56">
+    <row r="150" spans="2:71" ht="36" customHeight="1">
+      <c r="B150" s="108"/>
+      <c r="C150" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="40"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="42">
         <v>41</v>
       </c>
-      <c r="G150" s="56">
+      <c r="G150" s="42">
         <v>10</v>
       </c>
-      <c r="H150" s="57">
+      <c r="H150" s="45">
         <v>0</v>
       </c>
-      <c r="I150" s="67"/>
+      <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -29920,24 +29394,20 @@
       <c r="BR150" s="4"/>
       <c r="BS150" s="4"/>
     </row>
-    <row r="151" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B151" s="110"/>
-      <c r="C151" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="D151" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F151" s="48">
+    <row r="151" spans="2:71" ht="36" customHeight="1">
+      <c r="B151" s="108"/>
+      <c r="C151" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="40"/>
+      <c r="E151" s="41"/>
+      <c r="F151" s="42">
         <v>41</v>
       </c>
-      <c r="G151" s="48">
+      <c r="G151" s="42">
         <v>10</v>
       </c>
-      <c r="H151" s="49">
+      <c r="H151" s="45">
         <v>0</v>
       </c>
       <c r="I151" s="3"/>
@@ -30005,9 +29475,9 @@
       <c r="BS151" s="4"/>
     </row>
     <row r="152" spans="2:71" ht="36" customHeight="1">
-      <c r="B152" s="112"/>
-      <c r="C152" s="65" t="s">
-        <v>140</v>
+      <c r="B152" s="108"/>
+      <c r="C152" s="60" t="s">
+        <v>139</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="41"/>
@@ -30084,23 +29554,23 @@
       <c r="BR152" s="4"/>
       <c r="BS152" s="4"/>
     </row>
-    <row r="153" spans="2:71" ht="36" customHeight="1">
-      <c r="B153" s="112"/>
-      <c r="C153" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D153" s="40"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="42">
+    <row r="153" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B153" s="109"/>
+      <c r="C153" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153" s="54"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="56">
         <v>41</v>
       </c>
-      <c r="G153" s="42">
+      <c r="G153" s="56">
         <v>10</v>
       </c>
-      <c r="H153" s="45">
+      <c r="H153" s="57">
         <v>0</v>
       </c>
-      <c r="I153" s="3"/>
+      <c r="I153" s="67"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -30164,20 +29634,24 @@
       <c r="BR153" s="4"/>
       <c r="BS153" s="4"/>
     </row>
-    <row r="154" spans="2:71" ht="36" customHeight="1">
-      <c r="B154" s="112"/>
-      <c r="C154" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D154" s="40"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="42">
+    <row r="154" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B154" s="110"/>
+      <c r="C154" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="D154" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F154" s="48">
         <v>41</v>
       </c>
-      <c r="G154" s="42">
+      <c r="G154" s="48">
         <v>10</v>
       </c>
-      <c r="H154" s="45">
+      <c r="H154" s="49">
         <v>0</v>
       </c>
       <c r="I154" s="3"/>
@@ -30247,7 +29721,7 @@
     <row r="155" spans="2:71" ht="36" customHeight="1">
       <c r="B155" s="112"/>
       <c r="C155" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
@@ -30326,8 +29800,8 @@
     </row>
     <row r="156" spans="2:71" ht="36" customHeight="1">
       <c r="B156" s="112"/>
-      <c r="C156" s="60" t="s">
-        <v>143</v>
+      <c r="C156" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
@@ -30406,8 +29880,8 @@
     </row>
     <row r="157" spans="2:71" ht="36" customHeight="1">
       <c r="B157" s="112"/>
-      <c r="C157" s="60" t="s">
-        <v>61</v>
+      <c r="C157" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="41"/>
@@ -30486,8 +29960,8 @@
     </row>
     <row r="158" spans="2:71" ht="36" customHeight="1">
       <c r="B158" s="112"/>
-      <c r="C158" s="60" t="s">
-        <v>144</v>
+      <c r="C158" s="65" t="s">
+        <v>142</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="41"/>
@@ -30567,7 +30041,7 @@
     <row r="159" spans="2:71" ht="36" customHeight="1">
       <c r="B159" s="112"/>
       <c r="C159" s="60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D159" s="40"/>
       <c r="E159" s="41"/>
@@ -30644,20 +30118,20 @@
       <c r="BR159" s="4"/>
       <c r="BS159" s="4"/>
     </row>
-    <row r="160" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B160" s="113"/>
-      <c r="C160" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D160" s="54"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="56">
+    <row r="160" spans="2:71" ht="36" customHeight="1">
+      <c r="B160" s="112"/>
+      <c r="C160" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D160" s="40"/>
+      <c r="E160" s="41"/>
+      <c r="F160" s="42">
         <v>41</v>
       </c>
-      <c r="G160" s="56">
+      <c r="G160" s="42">
         <v>10</v>
       </c>
-      <c r="H160" s="57">
+      <c r="H160" s="45">
         <v>0</v>
       </c>
       <c r="I160" s="3"/>
@@ -30724,25 +30198,20 @@
       <c r="BR160" s="4"/>
       <c r="BS160" s="4"/>
     </row>
-    <row r="161" spans="1:71" ht="36" customHeight="1" thickTop="1">
-      <c r="A161" s="38"/>
-      <c r="B161" s="114"/>
-      <c r="C161" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="D161" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E161" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F161" s="48">
+    <row r="161" spans="1:71" ht="36" customHeight="1">
+      <c r="B161" s="112"/>
+      <c r="C161" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D161" s="40"/>
+      <c r="E161" s="41"/>
+      <c r="F161" s="42">
         <v>41</v>
       </c>
-      <c r="G161" s="48">
+      <c r="G161" s="42">
         <v>10</v>
       </c>
-      <c r="H161" s="49">
+      <c r="H161" s="45">
         <v>0</v>
       </c>
       <c r="I161" s="3"/>
@@ -30810,9 +30279,9 @@
       <c r="BS161" s="4"/>
     </row>
     <row r="162" spans="1:71" ht="36" customHeight="1">
-      <c r="B162" s="114"/>
-      <c r="C162" s="65" t="s">
-        <v>149</v>
+      <c r="B162" s="112"/>
+      <c r="C162" s="60" t="s">
+        <v>145</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
@@ -30889,20 +30358,20 @@
       <c r="BR162" s="4"/>
       <c r="BS162" s="4"/>
     </row>
-    <row r="163" spans="1:71" ht="36" customHeight="1">
-      <c r="B163" s="114"/>
-      <c r="C163" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="42">
+    <row r="163" spans="1:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B163" s="113"/>
+      <c r="C163" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D163" s="54"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="56">
         <v>41</v>
       </c>
-      <c r="G163" s="42">
+      <c r="G163" s="56">
         <v>10</v>
       </c>
-      <c r="H163" s="45">
+      <c r="H163" s="57">
         <v>0</v>
       </c>
       <c r="I163" s="3"/>
@@ -30969,20 +30438,25 @@
       <c r="BR163" s="4"/>
       <c r="BS163" s="4"/>
     </row>
-    <row r="164" spans="1:71" ht="36" customHeight="1">
+    <row r="164" spans="1:71" ht="36" customHeight="1" thickTop="1">
+      <c r="A164" s="38"/>
       <c r="B164" s="114"/>
-      <c r="C164" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D164" s="40"/>
-      <c r="E164" s="41"/>
-      <c r="F164" s="42">
+      <c r="C164" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="D164" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F164" s="48">
         <v>41</v>
       </c>
-      <c r="G164" s="42">
+      <c r="G164" s="48">
         <v>10</v>
       </c>
-      <c r="H164" s="45">
+      <c r="H164" s="49">
         <v>0</v>
       </c>
       <c r="I164" s="3"/>
@@ -31052,7 +30526,7 @@
     <row r="165" spans="1:71" ht="36" customHeight="1">
       <c r="B165" s="114"/>
       <c r="C165" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
@@ -31131,8 +30605,8 @@
     </row>
     <row r="166" spans="1:71" ht="36" customHeight="1">
       <c r="B166" s="114"/>
-      <c r="C166" s="60" t="s">
-        <v>152</v>
+      <c r="C166" s="65" t="s">
+        <v>148</v>
       </c>
       <c r="D166" s="40"/>
       <c r="E166" s="41"/>
@@ -31212,7 +30686,7 @@
     <row r="167" spans="1:71" ht="36" customHeight="1">
       <c r="B167" s="114"/>
       <c r="C167" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
@@ -31292,7 +30766,7 @@
     <row r="168" spans="1:71" ht="36" customHeight="1">
       <c r="B168" s="114"/>
       <c r="C168" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
@@ -31369,20 +30843,20 @@
       <c r="BR168" s="4"/>
       <c r="BS168" s="4"/>
     </row>
-    <row r="169" spans="1:71" ht="36" customHeight="1">
+    <row r="169" spans="1:71" ht="36" customHeight="1" thickBot="1">
       <c r="B169" s="114"/>
-      <c r="C169" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="D169" s="40"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="42">
+      <c r="C169" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D169" s="54"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="56">
         <v>41</v>
       </c>
-      <c r="G169" s="42">
+      <c r="G169" s="56">
         <v>10</v>
       </c>
-      <c r="H169" s="45">
+      <c r="H169" s="57">
         <v>0</v>
       </c>
       <c r="I169" s="3"/>
@@ -31449,20 +30923,24 @@
       <c r="BR169" s="4"/>
       <c r="BS169" s="4"/>
     </row>
-    <row r="170" spans="1:71" ht="36" customHeight="1">
-      <c r="B170" s="114"/>
-      <c r="C170" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D170" s="40"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="42">
+    <row r="170" spans="1:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B170" s="116"/>
+      <c r="C170" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G170" s="42">
+      <c r="D170" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F170" s="48">
+        <v>41</v>
+      </c>
+      <c r="G170" s="48">
         <v>10</v>
       </c>
-      <c r="H170" s="45">
+      <c r="H170" s="49">
         <v>0</v>
       </c>
       <c r="I170" s="3"/>
@@ -31529,20 +31007,20 @@
       <c r="BR170" s="4"/>
       <c r="BS170" s="4"/>
     </row>
-    <row r="171" spans="1:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B171" s="114"/>
-      <c r="C171" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D171" s="54"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="56">
+    <row r="171" spans="1:71" ht="36" customHeight="1">
+      <c r="B171" s="118"/>
+      <c r="C171" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D171" s="40"/>
+      <c r="E171" s="41"/>
+      <c r="F171" s="42">
         <v>41</v>
       </c>
-      <c r="G171" s="56">
+      <c r="G171" s="42">
         <v>10</v>
       </c>
-      <c r="H171" s="57">
+      <c r="H171" s="45">
         <v>0</v>
       </c>
       <c r="I171" s="3"/>
@@ -31609,24 +31087,20 @@
       <c r="BR171" s="4"/>
       <c r="BS171" s="4"/>
     </row>
-    <row r="172" spans="1:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B172" s="116"/>
-      <c r="C172" s="117" t="s">
+    <row r="172" spans="1:71" ht="36" customHeight="1">
+      <c r="B172" s="118"/>
+      <c r="C172" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D172" s="40"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="42">
         <v>41</v>
       </c>
-      <c r="D172" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F172" s="48">
-        <v>41</v>
-      </c>
-      <c r="G172" s="48">
+      <c r="G172" s="42">
         <v>10</v>
       </c>
-      <c r="H172" s="49">
+      <c r="H172" s="45">
         <v>0</v>
       </c>
       <c r="I172" s="3"/>
@@ -31855,7 +31329,7 @@
     </row>
     <row r="175" spans="1:71" ht="36" customHeight="1">
       <c r="B175" s="118"/>
-      <c r="C175" s="65" t="s">
+      <c r="C175" s="60" t="s">
         <v>159</v>
       </c>
       <c r="D175" s="40"/>
@@ -31935,7 +31409,7 @@
     </row>
     <row r="176" spans="1:71" ht="36" customHeight="1">
       <c r="B176" s="118"/>
-      <c r="C176" s="65" t="s">
+      <c r="C176" s="60" t="s">
         <v>160</v>
       </c>
       <c r="D176" s="40"/>
@@ -32173,20 +31647,20 @@
       <c r="BR178" s="4"/>
       <c r="BS178" s="4"/>
     </row>
-    <row r="179" spans="2:71" ht="36" customHeight="1">
-      <c r="B179" s="118"/>
-      <c r="C179" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="D179" s="40"/>
-      <c r="E179" s="41"/>
-      <c r="F179" s="42">
+    <row r="179" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B179" s="119"/>
+      <c r="C179" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="54"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="56">
         <v>41</v>
       </c>
-      <c r="G179" s="42">
+      <c r="G179" s="56">
         <v>10</v>
       </c>
-      <c r="H179" s="45">
+      <c r="H179" s="57">
         <v>0</v>
       </c>
       <c r="I179" s="3"/>
@@ -32253,167 +31727,7 @@
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
     </row>
-    <row r="180" spans="2:71" ht="36" customHeight="1">
-      <c r="B180" s="118"/>
-      <c r="C180" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D180" s="40"/>
-      <c r="E180" s="41"/>
-      <c r="F180" s="42">
-        <v>41</v>
-      </c>
-      <c r="G180" s="42">
-        <v>10</v>
-      </c>
-      <c r="H180" s="45">
-        <v>0</v>
-      </c>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="4"/>
-      <c r="AD180" s="4"/>
-      <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
-      <c r="AG180" s="4"/>
-      <c r="AH180" s="4"/>
-      <c r="AI180" s="4"/>
-      <c r="AJ180" s="4"/>
-      <c r="AK180" s="4"/>
-      <c r="AL180" s="4"/>
-      <c r="AM180" s="4"/>
-      <c r="AN180" s="4"/>
-      <c r="AO180" s="4"/>
-      <c r="AP180" s="4"/>
-      <c r="AQ180" s="4"/>
-      <c r="AR180" s="4"/>
-      <c r="AS180" s="4"/>
-      <c r="AT180" s="4"/>
-      <c r="AU180" s="4"/>
-      <c r="AV180" s="4"/>
-      <c r="AW180" s="4"/>
-      <c r="AX180" s="4"/>
-      <c r="AY180" s="4"/>
-      <c r="AZ180" s="4"/>
-      <c r="BA180" s="4"/>
-      <c r="BB180" s="4"/>
-      <c r="BC180" s="4"/>
-      <c r="BD180" s="4"/>
-      <c r="BE180" s="4"/>
-      <c r="BF180" s="4"/>
-      <c r="BG180" s="4"/>
-      <c r="BH180" s="4"/>
-      <c r="BI180" s="4"/>
-      <c r="BJ180" s="4"/>
-      <c r="BK180" s="4"/>
-      <c r="BL180" s="4"/>
-      <c r="BM180" s="4"/>
-      <c r="BN180" s="4"/>
-      <c r="BO180" s="4"/>
-      <c r="BP180" s="4"/>
-      <c r="BQ180" s="4"/>
-      <c r="BR180" s="4"/>
-      <c r="BS180" s="4"/>
-    </row>
-    <row r="181" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B181" s="119"/>
-      <c r="C181" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D181" s="54"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="56">
-        <v>41</v>
-      </c>
-      <c r="G181" s="56">
-        <v>10</v>
-      </c>
-      <c r="H181" s="57">
-        <v>0</v>
-      </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
-      <c r="U181" s="3"/>
-      <c r="V181" s="3"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="4"/>
-      <c r="AD181" s="4"/>
-      <c r="AE181" s="4"/>
-      <c r="AF181" s="4"/>
-      <c r="AG181" s="4"/>
-      <c r="AH181" s="4"/>
-      <c r="AI181" s="4"/>
-      <c r="AJ181" s="4"/>
-      <c r="AK181" s="4"/>
-      <c r="AL181" s="4"/>
-      <c r="AM181" s="4"/>
-      <c r="AN181" s="4"/>
-      <c r="AO181" s="4"/>
-      <c r="AP181" s="4"/>
-      <c r="AQ181" s="4"/>
-      <c r="AR181" s="4"/>
-      <c r="AS181" s="4"/>
-      <c r="AT181" s="4"/>
-      <c r="AU181" s="4"/>
-      <c r="AV181" s="4"/>
-      <c r="AW181" s="4"/>
-      <c r="AX181" s="4"/>
-      <c r="AY181" s="4"/>
-      <c r="AZ181" s="4"/>
-      <c r="BA181" s="4"/>
-      <c r="BB181" s="4"/>
-      <c r="BC181" s="4"/>
-      <c r="BD181" s="4"/>
-      <c r="BE181" s="4"/>
-      <c r="BF181" s="4"/>
-      <c r="BG181" s="4"/>
-      <c r="BH181" s="4"/>
-      <c r="BI181" s="4"/>
-      <c r="BJ181" s="4"/>
-      <c r="BK181" s="4"/>
-      <c r="BL181" s="4"/>
-      <c r="BM181" s="4"/>
-      <c r="BN181" s="4"/>
-      <c r="BO181" s="4"/>
-      <c r="BP181" s="4"/>
-      <c r="BQ181" s="4"/>
-      <c r="BR181" s="4"/>
-      <c r="BS181" s="4"/>
-    </row>
-    <row r="182" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
+    <row r="180" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
@@ -32423,3677 +31737,3547 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:BS5">
-    <cfRule type="expression" dxfId="1176" priority="1384">
+    <cfRule type="expression" dxfId="1136" priority="1384">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BS8">
-    <cfRule type="expression" dxfId="1175" priority="1377">
+  <conditionalFormatting sqref="I8:BS8 I165:BS166 I123:BS124 I92:BS92 I128:BS129 I103:BS104">
+    <cfRule type="expression" dxfId="1135" priority="1377">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="1379">
+    <cfRule type="expression" dxfId="1134" priority="1379">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1380">
+    <cfRule type="expression" dxfId="1133" priority="1380">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1381">
+    <cfRule type="expression" dxfId="1132" priority="1381">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="1382">
+    <cfRule type="expression" dxfId="1131" priority="1382">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1383">
+    <cfRule type="expression" dxfId="1130" priority="1383">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1387">
+    <cfRule type="expression" dxfId="1129" priority="1387">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="1388">
+    <cfRule type="expression" dxfId="1128" priority="1388">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BS9">
-    <cfRule type="expression" dxfId="1167" priority="1361">
+    <cfRule type="expression" dxfId="1127" priority="1361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="1362">
+    <cfRule type="expression" dxfId="1126" priority="1362">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1363">
+    <cfRule type="expression" dxfId="1125" priority="1363">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1364">
+    <cfRule type="expression" dxfId="1124" priority="1364">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="1365">
+    <cfRule type="expression" dxfId="1123" priority="1365">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1366">
+    <cfRule type="expression" dxfId="1122" priority="1366">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1367">
+    <cfRule type="expression" dxfId="1121" priority="1367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="1368">
+    <cfRule type="expression" dxfId="1120" priority="1368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BS10">
-    <cfRule type="expression" dxfId="1159" priority="1353">
+    <cfRule type="expression" dxfId="1119" priority="1353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="1354">
+    <cfRule type="expression" dxfId="1118" priority="1354">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1355">
+    <cfRule type="expression" dxfId="1117" priority="1355">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1356">
+    <cfRule type="expression" dxfId="1116" priority="1356">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="1357">
+    <cfRule type="expression" dxfId="1115" priority="1357">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1358">
+    <cfRule type="expression" dxfId="1114" priority="1358">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1359">
+    <cfRule type="expression" dxfId="1113" priority="1359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="1360">
+    <cfRule type="expression" dxfId="1112" priority="1360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BS11">
-    <cfRule type="expression" dxfId="1151" priority="1345">
+    <cfRule type="expression" dxfId="1111" priority="1345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="1346">
+    <cfRule type="expression" dxfId="1110" priority="1346">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1347">
+    <cfRule type="expression" dxfId="1109" priority="1347">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1348">
+    <cfRule type="expression" dxfId="1108" priority="1348">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="1349">
+    <cfRule type="expression" dxfId="1107" priority="1349">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1350">
+    <cfRule type="expression" dxfId="1106" priority="1350">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1351">
+    <cfRule type="expression" dxfId="1105" priority="1351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="1352">
+    <cfRule type="expression" dxfId="1104" priority="1352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BS12">
-    <cfRule type="expression" dxfId="1143" priority="1337">
+    <cfRule type="expression" dxfId="1103" priority="1337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="1338">
+    <cfRule type="expression" dxfId="1102" priority="1338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1339">
+    <cfRule type="expression" dxfId="1101" priority="1339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1340">
+    <cfRule type="expression" dxfId="1100" priority="1340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="1341">
+    <cfRule type="expression" dxfId="1099" priority="1341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1342">
+    <cfRule type="expression" dxfId="1098" priority="1342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1343">
+    <cfRule type="expression" dxfId="1097" priority="1343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="1344">
+    <cfRule type="expression" dxfId="1096" priority="1344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BS20">
-    <cfRule type="expression" dxfId="1135" priority="1329">
+    <cfRule type="expression" dxfId="1095" priority="1329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1330">
+    <cfRule type="expression" dxfId="1094" priority="1330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1331">
+    <cfRule type="expression" dxfId="1093" priority="1331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1332">
+    <cfRule type="expression" dxfId="1092" priority="1332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1333">
+    <cfRule type="expression" dxfId="1091" priority="1333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1334">
+    <cfRule type="expression" dxfId="1090" priority="1334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1335">
+    <cfRule type="expression" dxfId="1089" priority="1335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1336">
+    <cfRule type="expression" dxfId="1088" priority="1336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BS21">
-    <cfRule type="expression" dxfId="1127" priority="1321">
+    <cfRule type="expression" dxfId="1087" priority="1321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="1322">
+    <cfRule type="expression" dxfId="1086" priority="1322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1323">
+    <cfRule type="expression" dxfId="1085" priority="1323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1324">
+    <cfRule type="expression" dxfId="1084" priority="1324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1325">
+    <cfRule type="expression" dxfId="1083" priority="1325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1326">
+    <cfRule type="expression" dxfId="1082" priority="1326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1327">
+    <cfRule type="expression" dxfId="1081" priority="1327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1328">
+    <cfRule type="expression" dxfId="1080" priority="1328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BS22">
-    <cfRule type="expression" dxfId="1119" priority="1313">
+    <cfRule type="expression" dxfId="1079" priority="1313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="1314">
+    <cfRule type="expression" dxfId="1078" priority="1314">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1315">
+    <cfRule type="expression" dxfId="1077" priority="1315">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1316">
+    <cfRule type="expression" dxfId="1076" priority="1316">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1317">
+    <cfRule type="expression" dxfId="1075" priority="1317">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1318">
+    <cfRule type="expression" dxfId="1074" priority="1318">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1319">
+    <cfRule type="expression" dxfId="1073" priority="1319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1320">
+    <cfRule type="expression" dxfId="1072" priority="1320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BS23">
-    <cfRule type="expression" dxfId="1111" priority="1305">
+    <cfRule type="expression" dxfId="1071" priority="1305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="1306">
+    <cfRule type="expression" dxfId="1070" priority="1306">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1307">
+    <cfRule type="expression" dxfId="1069" priority="1307">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1308">
+    <cfRule type="expression" dxfId="1068" priority="1308">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1309">
+    <cfRule type="expression" dxfId="1067" priority="1309">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1310">
+    <cfRule type="expression" dxfId="1066" priority="1310">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1311">
+    <cfRule type="expression" dxfId="1065" priority="1311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1312">
+    <cfRule type="expression" dxfId="1064" priority="1312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS24">
-    <cfRule type="expression" dxfId="1103" priority="1297">
+    <cfRule type="expression" dxfId="1063" priority="1297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1298">
+    <cfRule type="expression" dxfId="1062" priority="1298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1299">
+    <cfRule type="expression" dxfId="1061" priority="1299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1300">
+    <cfRule type="expression" dxfId="1060" priority="1300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1301">
+    <cfRule type="expression" dxfId="1059" priority="1301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="1302">
+    <cfRule type="expression" dxfId="1058" priority="1302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1303">
+    <cfRule type="expression" dxfId="1057" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1304">
+    <cfRule type="expression" dxfId="1056" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BS25">
-    <cfRule type="expression" dxfId="1095" priority="1289">
+    <cfRule type="expression" dxfId="1055" priority="1289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1290">
+    <cfRule type="expression" dxfId="1054" priority="1290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1291">
+    <cfRule type="expression" dxfId="1053" priority="1291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1292">
+    <cfRule type="expression" dxfId="1052" priority="1292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1293">
+    <cfRule type="expression" dxfId="1051" priority="1293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="1294">
+    <cfRule type="expression" dxfId="1050" priority="1294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1295">
+    <cfRule type="expression" dxfId="1049" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1296">
+    <cfRule type="expression" dxfId="1048" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BS26">
-    <cfRule type="expression" dxfId="1087" priority="1281">
+    <cfRule type="expression" dxfId="1047" priority="1281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1282">
+    <cfRule type="expression" dxfId="1046" priority="1282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1283">
+    <cfRule type="expression" dxfId="1045" priority="1283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1284">
+    <cfRule type="expression" dxfId="1044" priority="1284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1285">
+    <cfRule type="expression" dxfId="1043" priority="1285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="1286">
+    <cfRule type="expression" dxfId="1042" priority="1286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1287">
+    <cfRule type="expression" dxfId="1041" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1288">
+    <cfRule type="expression" dxfId="1040" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BS27">
-    <cfRule type="expression" dxfId="1079" priority="1273">
+    <cfRule type="expression" dxfId="1039" priority="1273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1274">
+    <cfRule type="expression" dxfId="1038" priority="1274">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1275">
+    <cfRule type="expression" dxfId="1037" priority="1275">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1276">
+    <cfRule type="expression" dxfId="1036" priority="1276">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1277">
+    <cfRule type="expression" dxfId="1035" priority="1277">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="1278">
+    <cfRule type="expression" dxfId="1034" priority="1278">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1279">
+    <cfRule type="expression" dxfId="1033" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1280">
+    <cfRule type="expression" dxfId="1032" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BS28">
-    <cfRule type="expression" dxfId="1071" priority="1265">
+    <cfRule type="expression" dxfId="1031" priority="1265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1266">
+    <cfRule type="expression" dxfId="1030" priority="1266">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1267">
+    <cfRule type="expression" dxfId="1029" priority="1267">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1268">
+    <cfRule type="expression" dxfId="1028" priority="1268">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1269">
+    <cfRule type="expression" dxfId="1027" priority="1269">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1270">
+    <cfRule type="expression" dxfId="1026" priority="1270">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1271">
+    <cfRule type="expression" dxfId="1025" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1272">
+    <cfRule type="expression" dxfId="1024" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BS29">
-    <cfRule type="expression" dxfId="1063" priority="1257">
+    <cfRule type="expression" dxfId="1023" priority="1257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1258">
+    <cfRule type="expression" dxfId="1022" priority="1258">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1259">
+    <cfRule type="expression" dxfId="1021" priority="1259">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1260">
+    <cfRule type="expression" dxfId="1020" priority="1260">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1261">
+    <cfRule type="expression" dxfId="1019" priority="1261">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1262">
+    <cfRule type="expression" dxfId="1018" priority="1262">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1263">
+    <cfRule type="expression" dxfId="1017" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1264">
+    <cfRule type="expression" dxfId="1016" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:BS80">
-    <cfRule type="expression" dxfId="1055" priority="1249">
+    <cfRule type="expression" dxfId="1015" priority="1249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1250">
+    <cfRule type="expression" dxfId="1014" priority="1250">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1251">
+    <cfRule type="expression" dxfId="1013" priority="1251">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1252">
+    <cfRule type="expression" dxfId="1012" priority="1252">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1253">
+    <cfRule type="expression" dxfId="1011" priority="1253">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1254">
+    <cfRule type="expression" dxfId="1010" priority="1254">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1255">
+    <cfRule type="expression" dxfId="1009" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1256">
+    <cfRule type="expression" dxfId="1008" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:BS81">
-    <cfRule type="expression" dxfId="1047" priority="1233">
+    <cfRule type="expression" dxfId="1007" priority="1233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1234">
+    <cfRule type="expression" dxfId="1006" priority="1234">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1235">
+    <cfRule type="expression" dxfId="1005" priority="1235">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1236">
+    <cfRule type="expression" dxfId="1004" priority="1236">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1237">
+    <cfRule type="expression" dxfId="1003" priority="1237">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1238">
+    <cfRule type="expression" dxfId="1002" priority="1238">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1239">
+    <cfRule type="expression" dxfId="1001" priority="1239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1240">
+    <cfRule type="expression" dxfId="1000" priority="1240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82:BS82">
-    <cfRule type="expression" dxfId="1039" priority="1225">
+    <cfRule type="expression" dxfId="999" priority="1225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1226">
+    <cfRule type="expression" dxfId="998" priority="1226">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1227">
+    <cfRule type="expression" dxfId="997" priority="1227">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1228">
+    <cfRule type="expression" dxfId="996" priority="1228">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1229">
+    <cfRule type="expression" dxfId="995" priority="1229">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1230">
+    <cfRule type="expression" dxfId="994" priority="1230">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1231">
+    <cfRule type="expression" dxfId="993" priority="1231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1232">
+    <cfRule type="expression" dxfId="992" priority="1232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:BS83">
-    <cfRule type="expression" dxfId="1031" priority="1217">
+    <cfRule type="expression" dxfId="991" priority="1217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1218">
+    <cfRule type="expression" dxfId="990" priority="1218">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1219">
+    <cfRule type="expression" dxfId="989" priority="1219">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1220">
+    <cfRule type="expression" dxfId="988" priority="1220">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1221">
+    <cfRule type="expression" dxfId="987" priority="1221">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1222">
+    <cfRule type="expression" dxfId="986" priority="1222">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1223">
+    <cfRule type="expression" dxfId="985" priority="1223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1224">
+    <cfRule type="expression" dxfId="984" priority="1224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BS84">
-    <cfRule type="expression" dxfId="1023" priority="1209">
+    <cfRule type="expression" dxfId="983" priority="1209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1210">
+    <cfRule type="expression" dxfId="982" priority="1210">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1211">
+    <cfRule type="expression" dxfId="981" priority="1211">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1212">
+    <cfRule type="expression" dxfId="980" priority="1212">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1213">
+    <cfRule type="expression" dxfId="979" priority="1213">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1214">
+    <cfRule type="expression" dxfId="978" priority="1214">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1215">
+    <cfRule type="expression" dxfId="977" priority="1215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1216">
+    <cfRule type="expression" dxfId="976" priority="1216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BS85">
-    <cfRule type="expression" dxfId="1015" priority="1201">
+    <cfRule type="expression" dxfId="975" priority="1201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1202">
+    <cfRule type="expression" dxfId="974" priority="1202">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1203">
+    <cfRule type="expression" dxfId="973" priority="1203">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1204">
+    <cfRule type="expression" dxfId="972" priority="1204">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1205">
+    <cfRule type="expression" dxfId="971" priority="1205">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1206">
+    <cfRule type="expression" dxfId="970" priority="1206">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1207">
+    <cfRule type="expression" dxfId="969" priority="1207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1208">
+    <cfRule type="expression" dxfId="968" priority="1208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:BS86">
-    <cfRule type="expression" dxfId="1007" priority="1193">
+    <cfRule type="expression" dxfId="967" priority="1193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1194">
+    <cfRule type="expression" dxfId="966" priority="1194">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="1195">
+    <cfRule type="expression" dxfId="965" priority="1195">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1196">
+    <cfRule type="expression" dxfId="964" priority="1196">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1197">
+    <cfRule type="expression" dxfId="963" priority="1197">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="1198">
+    <cfRule type="expression" dxfId="962" priority="1198">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1199">
+    <cfRule type="expression" dxfId="961" priority="1199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="1200">
+    <cfRule type="expression" dxfId="960" priority="1200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:BS87">
-    <cfRule type="expression" dxfId="999" priority="1185">
+    <cfRule type="expression" dxfId="959" priority="1185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="1186">
+    <cfRule type="expression" dxfId="958" priority="1186">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="1187">
+    <cfRule type="expression" dxfId="957" priority="1187">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="1188">
+    <cfRule type="expression" dxfId="956" priority="1188">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="1189">
+    <cfRule type="expression" dxfId="955" priority="1189">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="1190">
+    <cfRule type="expression" dxfId="954" priority="1190">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="1191">
+    <cfRule type="expression" dxfId="953" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="1192">
+    <cfRule type="expression" dxfId="952" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:BS88">
-    <cfRule type="expression" dxfId="991" priority="1177">
+    <cfRule type="expression" dxfId="951" priority="1177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="1178">
+    <cfRule type="expression" dxfId="950" priority="1178">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="1179">
+    <cfRule type="expression" dxfId="949" priority="1179">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="1180">
+    <cfRule type="expression" dxfId="948" priority="1180">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="1181">
+    <cfRule type="expression" dxfId="947" priority="1181">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="1182">
+    <cfRule type="expression" dxfId="946" priority="1182">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="1183">
+    <cfRule type="expression" dxfId="945" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="1184">
+    <cfRule type="expression" dxfId="944" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BS92">
-    <cfRule type="expression" dxfId="983" priority="1169">
+  <conditionalFormatting sqref="I89:BS93">
+    <cfRule type="expression" dxfId="943" priority="1169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="1170">
+    <cfRule type="expression" dxfId="942" priority="1170">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="1171">
+    <cfRule type="expression" dxfId="941" priority="1171">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="1172">
+    <cfRule type="expression" dxfId="940" priority="1172">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="1173">
+    <cfRule type="expression" dxfId="939" priority="1173">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="1174">
+    <cfRule type="expression" dxfId="938" priority="1174">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="1175">
+    <cfRule type="expression" dxfId="937" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="1176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93:BS93">
-    <cfRule type="expression" dxfId="975" priority="1161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="974" priority="1162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="973" priority="1163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="972" priority="1164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="971" priority="1165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="970" priority="1166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="969" priority="1167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="968" priority="1168">
+    <cfRule type="expression" dxfId="936" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:BS94">
-    <cfRule type="expression" dxfId="967" priority="1153">
+    <cfRule type="expression" dxfId="935" priority="1161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1154">
+    <cfRule type="expression" dxfId="934" priority="1162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1155">
+    <cfRule type="expression" dxfId="933" priority="1163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="1156">
+    <cfRule type="expression" dxfId="932" priority="1164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1157">
+    <cfRule type="expression" dxfId="931" priority="1165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="1158">
+    <cfRule type="expression" dxfId="930" priority="1166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1159">
+    <cfRule type="expression" dxfId="929" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1160">
+    <cfRule type="expression" dxfId="928" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:BS95">
-    <cfRule type="expression" dxfId="959" priority="1145">
+    <cfRule type="expression" dxfId="927" priority="1153">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1146">
+    <cfRule type="expression" dxfId="926" priority="1154">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1147">
+    <cfRule type="expression" dxfId="925" priority="1155">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="1148">
+    <cfRule type="expression" dxfId="924" priority="1156">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1149">
+    <cfRule type="expression" dxfId="923" priority="1157">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1150">
+    <cfRule type="expression" dxfId="922" priority="1158">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="1151">
+    <cfRule type="expression" dxfId="921" priority="1159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1152">
+    <cfRule type="expression" dxfId="920" priority="1160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96:BS96">
+    <cfRule type="expression" dxfId="919" priority="1145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="918" priority="1146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="917" priority="1147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="916" priority="1148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="915" priority="1149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="914" priority="1150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="913" priority="1151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="912" priority="1152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BS37">
-    <cfRule type="expression" dxfId="951" priority="1137">
+    <cfRule type="expression" dxfId="911" priority="1137">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="1138">
+    <cfRule type="expression" dxfId="910" priority="1138">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1139">
+    <cfRule type="expression" dxfId="909" priority="1139">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1140">
+    <cfRule type="expression" dxfId="908" priority="1140">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="1141">
+    <cfRule type="expression" dxfId="907" priority="1141">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1142">
+    <cfRule type="expression" dxfId="906" priority="1142">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1143">
+    <cfRule type="expression" dxfId="905" priority="1143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="1144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BS96">
-    <cfRule type="expression" dxfId="943" priority="1121">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1122">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="941" priority="1123">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1124">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1125">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="938" priority="1126">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1127">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1128">
+    <cfRule type="expression" dxfId="904" priority="1144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:BS97">
-    <cfRule type="expression" dxfId="935" priority="1113">
+    <cfRule type="expression" dxfId="903" priority="1121">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1114">
+    <cfRule type="expression" dxfId="902" priority="1122">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1115">
+    <cfRule type="expression" dxfId="901" priority="1123">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="1116">
+    <cfRule type="expression" dxfId="900" priority="1124">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1117">
+    <cfRule type="expression" dxfId="899" priority="1125">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1118">
+    <cfRule type="expression" dxfId="898" priority="1126">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="1119">
+    <cfRule type="expression" dxfId="897" priority="1127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1120">
+    <cfRule type="expression" dxfId="896" priority="1128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:BS98">
-    <cfRule type="expression" dxfId="927" priority="1105">
+    <cfRule type="expression" dxfId="895" priority="1113">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="1106">
+    <cfRule type="expression" dxfId="894" priority="1114">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1107">
+    <cfRule type="expression" dxfId="893" priority="1115">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1108">
+    <cfRule type="expression" dxfId="892" priority="1116">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="1109">
+    <cfRule type="expression" dxfId="891" priority="1117">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1110">
+    <cfRule type="expression" dxfId="890" priority="1118">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1111">
+    <cfRule type="expression" dxfId="889" priority="1119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="1112">
+    <cfRule type="expression" dxfId="888" priority="1120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:BS102">
-    <cfRule type="expression" dxfId="919" priority="1097">
+  <conditionalFormatting sqref="I99:BS99">
+    <cfRule type="expression" dxfId="887" priority="1105">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1098">
+    <cfRule type="expression" dxfId="886" priority="1106">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="1099">
+    <cfRule type="expression" dxfId="885" priority="1107">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1100">
+    <cfRule type="expression" dxfId="884" priority="1108">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1101">
+    <cfRule type="expression" dxfId="883" priority="1109">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="1102">
+    <cfRule type="expression" dxfId="882" priority="1110">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="1103">
+    <cfRule type="expression" dxfId="881" priority="1111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="1104">
+    <cfRule type="expression" dxfId="880" priority="1112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BS103">
-    <cfRule type="expression" dxfId="911" priority="1081">
+  <conditionalFormatting sqref="I100:BS105">
+    <cfRule type="expression" dxfId="879" priority="1097">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1082">
+    <cfRule type="expression" dxfId="878" priority="1098">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1083">
+    <cfRule type="expression" dxfId="877" priority="1099">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="1084">
+    <cfRule type="expression" dxfId="876" priority="1100">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1085">
+    <cfRule type="expression" dxfId="875" priority="1101">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1086">
+    <cfRule type="expression" dxfId="874" priority="1102">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="1087">
+    <cfRule type="expression" dxfId="873" priority="1103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1088">
+    <cfRule type="expression" dxfId="872" priority="1104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104:BS104">
-    <cfRule type="expression" dxfId="903" priority="1073">
+  <conditionalFormatting sqref="I106:BS106">
+    <cfRule type="expression" dxfId="871" priority="1081">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="1074">
+    <cfRule type="expression" dxfId="870" priority="1082">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1075">
+    <cfRule type="expression" dxfId="869" priority="1083">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1076">
+    <cfRule type="expression" dxfId="868" priority="1084">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="1077">
+    <cfRule type="expression" dxfId="867" priority="1085">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1078">
+    <cfRule type="expression" dxfId="866" priority="1086">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1079">
+    <cfRule type="expression" dxfId="865" priority="1087">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="1080">
+    <cfRule type="expression" dxfId="864" priority="1088">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107:BS107">
+    <cfRule type="expression" dxfId="863" priority="1073">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="862" priority="1074">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="861" priority="1075">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="860" priority="1076">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="859" priority="1077">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="858" priority="1078">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="857" priority="1079">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="856" priority="1080">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BS30">
-    <cfRule type="expression" dxfId="895" priority="1065">
+    <cfRule type="expression" dxfId="855" priority="1065">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1066">
+    <cfRule type="expression" dxfId="854" priority="1066">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="1067">
+    <cfRule type="expression" dxfId="853" priority="1067">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1068">
+    <cfRule type="expression" dxfId="852" priority="1068">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1069">
+    <cfRule type="expression" dxfId="851" priority="1069">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="1070">
+    <cfRule type="expression" dxfId="850" priority="1070">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1071">
+    <cfRule type="expression" dxfId="849" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1072">
+    <cfRule type="expression" dxfId="848" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BS31">
-    <cfRule type="expression" dxfId="887" priority="1057">
+    <cfRule type="expression" dxfId="847" priority="1057">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1058">
+    <cfRule type="expression" dxfId="846" priority="1058">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1059">
+    <cfRule type="expression" dxfId="845" priority="1059">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="1060">
+    <cfRule type="expression" dxfId="844" priority="1060">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1061">
+    <cfRule type="expression" dxfId="843" priority="1061">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1062">
+    <cfRule type="expression" dxfId="842" priority="1062">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="1063">
+    <cfRule type="expression" dxfId="841" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1064">
+    <cfRule type="expression" dxfId="840" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BS32">
-    <cfRule type="expression" dxfId="879" priority="1049">
+    <cfRule type="expression" dxfId="839" priority="1049">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="1050">
+    <cfRule type="expression" dxfId="838" priority="1050">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1051">
+    <cfRule type="expression" dxfId="837" priority="1051">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1052">
+    <cfRule type="expression" dxfId="836" priority="1052">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="1053">
+    <cfRule type="expression" dxfId="835" priority="1053">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1054">
+    <cfRule type="expression" dxfId="834" priority="1054">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1055">
+    <cfRule type="expression" dxfId="833" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="1056">
+    <cfRule type="expression" dxfId="832" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BS33">
-    <cfRule type="expression" dxfId="871" priority="1041">
+    <cfRule type="expression" dxfId="831" priority="1041">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="1042">
+    <cfRule type="expression" dxfId="830" priority="1042">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="1043">
+    <cfRule type="expression" dxfId="829" priority="1043">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="1044">
+    <cfRule type="expression" dxfId="828" priority="1044">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="1045">
+    <cfRule type="expression" dxfId="827" priority="1045">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="1046">
+    <cfRule type="expression" dxfId="826" priority="1046">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="1047">
+    <cfRule type="expression" dxfId="825" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="1048">
+    <cfRule type="expression" dxfId="824" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BS34">
-    <cfRule type="expression" dxfId="863" priority="1033">
+    <cfRule type="expression" dxfId="823" priority="1033">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1034">
+    <cfRule type="expression" dxfId="822" priority="1034">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1035">
+    <cfRule type="expression" dxfId="821" priority="1035">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="1036">
+    <cfRule type="expression" dxfId="820" priority="1036">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1037">
+    <cfRule type="expression" dxfId="819" priority="1037">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1038">
+    <cfRule type="expression" dxfId="818" priority="1038">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="1039">
+    <cfRule type="expression" dxfId="817" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1040">
+    <cfRule type="expression" dxfId="816" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BS35">
-    <cfRule type="expression" dxfId="855" priority="1025">
+    <cfRule type="expression" dxfId="815" priority="1025">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="1026">
+    <cfRule type="expression" dxfId="814" priority="1026">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1027">
+    <cfRule type="expression" dxfId="813" priority="1027">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1028">
+    <cfRule type="expression" dxfId="812" priority="1028">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="1029">
+    <cfRule type="expression" dxfId="811" priority="1029">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1030">
+    <cfRule type="expression" dxfId="810" priority="1030">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1031">
+    <cfRule type="expression" dxfId="809" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="1032">
+    <cfRule type="expression" dxfId="808" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BS36">
-    <cfRule type="expression" dxfId="847" priority="1017">
+    <cfRule type="expression" dxfId="807" priority="1017">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1018">
+    <cfRule type="expression" dxfId="806" priority="1018">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="1019">
+    <cfRule type="expression" dxfId="805" priority="1019">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1020">
+    <cfRule type="expression" dxfId="804" priority="1020">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1021">
+    <cfRule type="expression" dxfId="803" priority="1021">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="1022">
+    <cfRule type="expression" dxfId="802" priority="1022">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1023">
+    <cfRule type="expression" dxfId="801" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1024">
+    <cfRule type="expression" dxfId="800" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BS38">
-    <cfRule type="expression" dxfId="839" priority="1001">
+    <cfRule type="expression" dxfId="799" priority="1001">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="1002">
+    <cfRule type="expression" dxfId="798" priority="1002">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="1003">
+    <cfRule type="expression" dxfId="797" priority="1003">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="1004">
+    <cfRule type="expression" dxfId="796" priority="1004">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="1005">
+    <cfRule type="expression" dxfId="795" priority="1005">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="1006">
+    <cfRule type="expression" dxfId="794" priority="1006">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="1007">
+    <cfRule type="expression" dxfId="793" priority="1007">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1008">
+    <cfRule type="expression" dxfId="792" priority="1008">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BS39">
-    <cfRule type="expression" dxfId="831" priority="993">
+    <cfRule type="expression" dxfId="791" priority="993">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="994">
+    <cfRule type="expression" dxfId="790" priority="994">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="995">
+    <cfRule type="expression" dxfId="789" priority="995">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="996">
+    <cfRule type="expression" dxfId="788" priority="996">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="997">
+    <cfRule type="expression" dxfId="787" priority="997">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="998">
+    <cfRule type="expression" dxfId="786" priority="998">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="999">
+    <cfRule type="expression" dxfId="785" priority="999">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="1000">
+    <cfRule type="expression" dxfId="784" priority="1000">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BS40">
-    <cfRule type="expression" dxfId="823" priority="985">
+    <cfRule type="expression" dxfId="783" priority="985">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="986">
+    <cfRule type="expression" dxfId="782" priority="986">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="987">
+    <cfRule type="expression" dxfId="781" priority="987">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="988">
+    <cfRule type="expression" dxfId="780" priority="988">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="989">
+    <cfRule type="expression" dxfId="779" priority="989">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="990">
+    <cfRule type="expression" dxfId="778" priority="990">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="991">
+    <cfRule type="expression" dxfId="777" priority="991">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="992">
+    <cfRule type="expression" dxfId="776" priority="992">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BS41">
-    <cfRule type="expression" dxfId="815" priority="977">
+    <cfRule type="expression" dxfId="775" priority="977">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="978">
+    <cfRule type="expression" dxfId="774" priority="978">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="979">
+    <cfRule type="expression" dxfId="773" priority="979">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="980">
+    <cfRule type="expression" dxfId="772" priority="980">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="981">
+    <cfRule type="expression" dxfId="771" priority="981">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="982">
+    <cfRule type="expression" dxfId="770" priority="982">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="983">
+    <cfRule type="expression" dxfId="769" priority="983">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="984">
+    <cfRule type="expression" dxfId="768" priority="984">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BS42">
-    <cfRule type="expression" dxfId="807" priority="969">
+    <cfRule type="expression" dxfId="767" priority="969">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="970">
+    <cfRule type="expression" dxfId="766" priority="970">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="971">
+    <cfRule type="expression" dxfId="765" priority="971">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="972">
+    <cfRule type="expression" dxfId="764" priority="972">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="973">
+    <cfRule type="expression" dxfId="763" priority="973">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="974">
+    <cfRule type="expression" dxfId="762" priority="974">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="975">
+    <cfRule type="expression" dxfId="761" priority="975">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="976">
+    <cfRule type="expression" dxfId="760" priority="976">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BS43">
-    <cfRule type="expression" dxfId="799" priority="961">
+    <cfRule type="expression" dxfId="759" priority="961">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="962">
+    <cfRule type="expression" dxfId="758" priority="962">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="963">
+    <cfRule type="expression" dxfId="757" priority="963">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="964">
+    <cfRule type="expression" dxfId="756" priority="964">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="965">
+    <cfRule type="expression" dxfId="755" priority="965">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="966">
+    <cfRule type="expression" dxfId="754" priority="966">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="967">
+    <cfRule type="expression" dxfId="753" priority="967">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="968">
+    <cfRule type="expression" dxfId="752" priority="968">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BS44">
-    <cfRule type="expression" dxfId="791" priority="953">
+    <cfRule type="expression" dxfId="751" priority="953">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="954">
+    <cfRule type="expression" dxfId="750" priority="954">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="955">
+    <cfRule type="expression" dxfId="749" priority="955">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="956">
+    <cfRule type="expression" dxfId="748" priority="956">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="957">
+    <cfRule type="expression" dxfId="747" priority="957">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="958">
+    <cfRule type="expression" dxfId="746" priority="958">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="959">
+    <cfRule type="expression" dxfId="745" priority="959">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="960">
+    <cfRule type="expression" dxfId="744" priority="960">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BS45">
-    <cfRule type="expression" dxfId="783" priority="945">
+    <cfRule type="expression" dxfId="743" priority="945">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="946">
+    <cfRule type="expression" dxfId="742" priority="946">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="947">
+    <cfRule type="expression" dxfId="741" priority="947">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="948">
+    <cfRule type="expression" dxfId="740" priority="948">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="949">
+    <cfRule type="expression" dxfId="739" priority="949">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="950">
+    <cfRule type="expression" dxfId="738" priority="950">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="951">
+    <cfRule type="expression" dxfId="737" priority="951">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="952">
+    <cfRule type="expression" dxfId="736" priority="952">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BS46">
-    <cfRule type="expression" dxfId="775" priority="937">
+    <cfRule type="expression" dxfId="735" priority="937">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="938">
+    <cfRule type="expression" dxfId="734" priority="938">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="939">
+    <cfRule type="expression" dxfId="733" priority="939">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="940">
+    <cfRule type="expression" dxfId="732" priority="940">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="941">
+    <cfRule type="expression" dxfId="731" priority="941">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="942">
+    <cfRule type="expression" dxfId="730" priority="942">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="943">
+    <cfRule type="expression" dxfId="729" priority="943">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="944">
+    <cfRule type="expression" dxfId="728" priority="944">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BS47">
-    <cfRule type="expression" dxfId="767" priority="929">
+    <cfRule type="expression" dxfId="727" priority="929">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="930">
+    <cfRule type="expression" dxfId="726" priority="930">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="931">
+    <cfRule type="expression" dxfId="725" priority="931">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="932">
+    <cfRule type="expression" dxfId="724" priority="932">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="933">
+    <cfRule type="expression" dxfId="723" priority="933">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="934">
+    <cfRule type="expression" dxfId="722" priority="934">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="935">
+    <cfRule type="expression" dxfId="721" priority="935">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="936">
+    <cfRule type="expression" dxfId="720" priority="936">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BS48">
-    <cfRule type="expression" dxfId="759" priority="921">
+    <cfRule type="expression" dxfId="719" priority="921">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="922">
+    <cfRule type="expression" dxfId="718" priority="922">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="923">
+    <cfRule type="expression" dxfId="717" priority="923">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="924">
+    <cfRule type="expression" dxfId="716" priority="924">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="925">
+    <cfRule type="expression" dxfId="715" priority="925">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="926">
+    <cfRule type="expression" dxfId="714" priority="926">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="927">
+    <cfRule type="expression" dxfId="713" priority="927">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="928">
+    <cfRule type="expression" dxfId="712" priority="928">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BS49">
-    <cfRule type="expression" dxfId="751" priority="913">
+    <cfRule type="expression" dxfId="711" priority="913">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="914">
+    <cfRule type="expression" dxfId="710" priority="914">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="915">
+    <cfRule type="expression" dxfId="709" priority="915">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="916">
+    <cfRule type="expression" dxfId="708" priority="916">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="917">
+    <cfRule type="expression" dxfId="707" priority="917">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="918">
+    <cfRule type="expression" dxfId="706" priority="918">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="919">
+    <cfRule type="expression" dxfId="705" priority="919">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="920">
+    <cfRule type="expression" dxfId="704" priority="920">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BS50">
-    <cfRule type="expression" dxfId="743" priority="905">
+    <cfRule type="expression" dxfId="703" priority="905">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="906">
+    <cfRule type="expression" dxfId="702" priority="906">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="907">
+    <cfRule type="expression" dxfId="701" priority="907">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="908">
+    <cfRule type="expression" dxfId="700" priority="908">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="909">
+    <cfRule type="expression" dxfId="699" priority="909">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="910">
+    <cfRule type="expression" dxfId="698" priority="910">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="911">
+    <cfRule type="expression" dxfId="697" priority="911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="912">
+    <cfRule type="expression" dxfId="696" priority="912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BS51">
-    <cfRule type="expression" dxfId="735" priority="897">
+    <cfRule type="expression" dxfId="695" priority="897">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="898">
+    <cfRule type="expression" dxfId="694" priority="898">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="899">
+    <cfRule type="expression" dxfId="693" priority="899">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="900">
+    <cfRule type="expression" dxfId="692" priority="900">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="901">
+    <cfRule type="expression" dxfId="691" priority="901">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="902">
+    <cfRule type="expression" dxfId="690" priority="902">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="903">
+    <cfRule type="expression" dxfId="689" priority="903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="904">
+    <cfRule type="expression" dxfId="688" priority="904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BS52">
-    <cfRule type="expression" dxfId="727" priority="889">
+    <cfRule type="expression" dxfId="687" priority="889">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="890">
+    <cfRule type="expression" dxfId="686" priority="890">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="891">
+    <cfRule type="expression" dxfId="685" priority="891">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="892">
+    <cfRule type="expression" dxfId="684" priority="892">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="893">
+    <cfRule type="expression" dxfId="683" priority="893">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="894">
+    <cfRule type="expression" dxfId="682" priority="894">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="895">
+    <cfRule type="expression" dxfId="681" priority="895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="896">
+    <cfRule type="expression" dxfId="680" priority="896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BS53">
-    <cfRule type="expression" dxfId="719" priority="881">
+    <cfRule type="expression" dxfId="679" priority="881">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="882">
+    <cfRule type="expression" dxfId="678" priority="882">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="883">
+    <cfRule type="expression" dxfId="677" priority="883">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="884">
+    <cfRule type="expression" dxfId="676" priority="884">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="885">
+    <cfRule type="expression" dxfId="675" priority="885">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="886">
+    <cfRule type="expression" dxfId="674" priority="886">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="887">
+    <cfRule type="expression" dxfId="673" priority="887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="888">
+    <cfRule type="expression" dxfId="672" priority="888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BS54">
-    <cfRule type="expression" dxfId="711" priority="873">
+    <cfRule type="expression" dxfId="671" priority="873">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="874">
+    <cfRule type="expression" dxfId="670" priority="874">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="875">
+    <cfRule type="expression" dxfId="669" priority="875">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="876">
+    <cfRule type="expression" dxfId="668" priority="876">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="877">
+    <cfRule type="expression" dxfId="667" priority="877">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="878">
+    <cfRule type="expression" dxfId="666" priority="878">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="879">
+    <cfRule type="expression" dxfId="665" priority="879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="880">
+    <cfRule type="expression" dxfId="664" priority="880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BS55">
-    <cfRule type="expression" dxfId="703" priority="865">
+    <cfRule type="expression" dxfId="663" priority="865">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="866">
+    <cfRule type="expression" dxfId="662" priority="866">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="867">
+    <cfRule type="expression" dxfId="661" priority="867">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="868">
+    <cfRule type="expression" dxfId="660" priority="868">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="869">
+    <cfRule type="expression" dxfId="659" priority="869">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="870">
+    <cfRule type="expression" dxfId="658" priority="870">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="871">
+    <cfRule type="expression" dxfId="657" priority="871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="872">
+    <cfRule type="expression" dxfId="656" priority="872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BS56">
-    <cfRule type="expression" dxfId="695" priority="857">
+    <cfRule type="expression" dxfId="655" priority="857">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="858">
+    <cfRule type="expression" dxfId="654" priority="858">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="859">
+    <cfRule type="expression" dxfId="653" priority="859">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="860">
+    <cfRule type="expression" dxfId="652" priority="860">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="861">
+    <cfRule type="expression" dxfId="651" priority="861">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="862">
+    <cfRule type="expression" dxfId="650" priority="862">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="863">
+    <cfRule type="expression" dxfId="649" priority="863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="864">
+    <cfRule type="expression" dxfId="648" priority="864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BS57">
-    <cfRule type="expression" dxfId="687" priority="849">
+    <cfRule type="expression" dxfId="647" priority="849">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="850">
+    <cfRule type="expression" dxfId="646" priority="850">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="851">
+    <cfRule type="expression" dxfId="645" priority="851">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="852">
+    <cfRule type="expression" dxfId="644" priority="852">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="853">
+    <cfRule type="expression" dxfId="643" priority="853">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="854">
+    <cfRule type="expression" dxfId="642" priority="854">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="855">
+    <cfRule type="expression" dxfId="641" priority="855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="856">
+    <cfRule type="expression" dxfId="640" priority="856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BS58">
-    <cfRule type="expression" dxfId="679" priority="841">
+    <cfRule type="expression" dxfId="639" priority="841">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="842">
+    <cfRule type="expression" dxfId="638" priority="842">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="843">
+    <cfRule type="expression" dxfId="637" priority="843">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="844">
+    <cfRule type="expression" dxfId="636" priority="844">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="845">
+    <cfRule type="expression" dxfId="635" priority="845">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="846">
+    <cfRule type="expression" dxfId="634" priority="846">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="847">
+    <cfRule type="expression" dxfId="633" priority="847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="848">
+    <cfRule type="expression" dxfId="632" priority="848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BS59">
-    <cfRule type="expression" dxfId="671" priority="833">
+    <cfRule type="expression" dxfId="631" priority="833">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="834">
+    <cfRule type="expression" dxfId="630" priority="834">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="835">
+    <cfRule type="expression" dxfId="629" priority="835">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="836">
+    <cfRule type="expression" dxfId="628" priority="836">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="837">
+    <cfRule type="expression" dxfId="627" priority="837">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="838">
+    <cfRule type="expression" dxfId="626" priority="838">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="839">
+    <cfRule type="expression" dxfId="625" priority="839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="840">
+    <cfRule type="expression" dxfId="624" priority="840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BS60">
-    <cfRule type="expression" dxfId="663" priority="665">
+    <cfRule type="expression" dxfId="623" priority="665">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="666">
+    <cfRule type="expression" dxfId="622" priority="666">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="667">
+    <cfRule type="expression" dxfId="621" priority="667">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="668">
+    <cfRule type="expression" dxfId="620" priority="668">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="669">
+    <cfRule type="expression" dxfId="619" priority="669">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="670">
+    <cfRule type="expression" dxfId="618" priority="670">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="671">
+    <cfRule type="expression" dxfId="617" priority="671">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="672">
+    <cfRule type="expression" dxfId="616" priority="672">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BS61">
-    <cfRule type="expression" dxfId="655" priority="657">
+    <cfRule type="expression" dxfId="615" priority="657">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="658">
+    <cfRule type="expression" dxfId="614" priority="658">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="659">
+    <cfRule type="expression" dxfId="613" priority="659">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="660">
+    <cfRule type="expression" dxfId="612" priority="660">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="661">
+    <cfRule type="expression" dxfId="611" priority="661">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="662">
+    <cfRule type="expression" dxfId="610" priority="662">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="663">
+    <cfRule type="expression" dxfId="609" priority="663">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="664">
+    <cfRule type="expression" dxfId="608" priority="664">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:BS62">
-    <cfRule type="expression" dxfId="647" priority="649">
+    <cfRule type="expression" dxfId="607" priority="649">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="650">
+    <cfRule type="expression" dxfId="606" priority="650">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="651">
+    <cfRule type="expression" dxfId="605" priority="651">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="652">
+    <cfRule type="expression" dxfId="604" priority="652">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="653">
+    <cfRule type="expression" dxfId="603" priority="653">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="654">
+    <cfRule type="expression" dxfId="602" priority="654">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="655">
+    <cfRule type="expression" dxfId="601" priority="655">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="656">
+    <cfRule type="expression" dxfId="600" priority="656">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:BS63">
-    <cfRule type="expression" dxfId="639" priority="641">
+    <cfRule type="expression" dxfId="599" priority="641">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="642">
+    <cfRule type="expression" dxfId="598" priority="642">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="643">
+    <cfRule type="expression" dxfId="597" priority="643">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="644">
+    <cfRule type="expression" dxfId="596" priority="644">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="645">
+    <cfRule type="expression" dxfId="595" priority="645">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="646">
+    <cfRule type="expression" dxfId="594" priority="646">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="647">
+    <cfRule type="expression" dxfId="593" priority="647">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="648">
+    <cfRule type="expression" dxfId="592" priority="648">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:BS64">
-    <cfRule type="expression" dxfId="631" priority="633">
+    <cfRule type="expression" dxfId="591" priority="633">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="634">
+    <cfRule type="expression" dxfId="590" priority="634">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="635">
+    <cfRule type="expression" dxfId="589" priority="635">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="636">
+    <cfRule type="expression" dxfId="588" priority="636">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="637">
+    <cfRule type="expression" dxfId="587" priority="637">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="638">
+    <cfRule type="expression" dxfId="586" priority="638">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="639">
+    <cfRule type="expression" dxfId="585" priority="639">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="640">
+    <cfRule type="expression" dxfId="584" priority="640">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:BS65">
-    <cfRule type="expression" dxfId="623" priority="625">
+    <cfRule type="expression" dxfId="583" priority="625">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="626">
+    <cfRule type="expression" dxfId="582" priority="626">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="627">
+    <cfRule type="expression" dxfId="581" priority="627">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="628">
+    <cfRule type="expression" dxfId="580" priority="628">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="629">
+    <cfRule type="expression" dxfId="579" priority="629">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="630">
+    <cfRule type="expression" dxfId="578" priority="630">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="631">
+    <cfRule type="expression" dxfId="577" priority="631">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="632">
+    <cfRule type="expression" dxfId="576" priority="632">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:BS66">
-    <cfRule type="expression" dxfId="615" priority="617">
+    <cfRule type="expression" dxfId="575" priority="617">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="618">
+    <cfRule type="expression" dxfId="574" priority="618">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="619">
+    <cfRule type="expression" dxfId="573" priority="619">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="620">
+    <cfRule type="expression" dxfId="572" priority="620">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="621">
+    <cfRule type="expression" dxfId="571" priority="621">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="622">
+    <cfRule type="expression" dxfId="570" priority="622">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="623">
+    <cfRule type="expression" dxfId="569" priority="623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="624">
+    <cfRule type="expression" dxfId="568" priority="624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:BS67">
-    <cfRule type="expression" dxfId="607" priority="609">
+    <cfRule type="expression" dxfId="567" priority="609">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="610">
+    <cfRule type="expression" dxfId="566" priority="610">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="611">
+    <cfRule type="expression" dxfId="565" priority="611">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="612">
+    <cfRule type="expression" dxfId="564" priority="612">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="613">
+    <cfRule type="expression" dxfId="563" priority="613">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="614">
+    <cfRule type="expression" dxfId="562" priority="614">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="615">
+    <cfRule type="expression" dxfId="561" priority="615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="616">
+    <cfRule type="expression" dxfId="560" priority="616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:BS68">
-    <cfRule type="expression" dxfId="599" priority="601">
+    <cfRule type="expression" dxfId="559" priority="601">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="602">
+    <cfRule type="expression" dxfId="558" priority="602">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="603">
+    <cfRule type="expression" dxfId="557" priority="603">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="604">
+    <cfRule type="expression" dxfId="556" priority="604">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="605">
+    <cfRule type="expression" dxfId="555" priority="605">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="606">
+    <cfRule type="expression" dxfId="554" priority="606">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="607">
+    <cfRule type="expression" dxfId="553" priority="607">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="608">
+    <cfRule type="expression" dxfId="552" priority="608">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:BS69">
-    <cfRule type="expression" dxfId="591" priority="593">
+    <cfRule type="expression" dxfId="551" priority="593">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="594">
+    <cfRule type="expression" dxfId="550" priority="594">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="595">
+    <cfRule type="expression" dxfId="549" priority="595">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="596">
+    <cfRule type="expression" dxfId="548" priority="596">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="597">
+    <cfRule type="expression" dxfId="547" priority="597">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="598">
+    <cfRule type="expression" dxfId="546" priority="598">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="599">
+    <cfRule type="expression" dxfId="545" priority="599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="600">
+    <cfRule type="expression" dxfId="544" priority="600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BS70">
-    <cfRule type="expression" dxfId="583" priority="585">
+    <cfRule type="expression" dxfId="543" priority="585">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="586">
+    <cfRule type="expression" dxfId="542" priority="586">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="587">
+    <cfRule type="expression" dxfId="541" priority="587">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="588">
+    <cfRule type="expression" dxfId="540" priority="588">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="589">
+    <cfRule type="expression" dxfId="539" priority="589">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="590">
+    <cfRule type="expression" dxfId="538" priority="590">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="591">
+    <cfRule type="expression" dxfId="537" priority="591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="592">
+    <cfRule type="expression" dxfId="536" priority="592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BS71">
-    <cfRule type="expression" dxfId="575" priority="577">
+    <cfRule type="expression" dxfId="535" priority="577">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="578">
+    <cfRule type="expression" dxfId="534" priority="578">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="579">
+    <cfRule type="expression" dxfId="533" priority="579">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="580">
+    <cfRule type="expression" dxfId="532" priority="580">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="581">
+    <cfRule type="expression" dxfId="531" priority="581">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="582">
+    <cfRule type="expression" dxfId="530" priority="582">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="583">
+    <cfRule type="expression" dxfId="529" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="584">
+    <cfRule type="expression" dxfId="528" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BS72">
-    <cfRule type="expression" dxfId="567" priority="569">
+    <cfRule type="expression" dxfId="527" priority="569">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="570">
+    <cfRule type="expression" dxfId="526" priority="570">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="571">
+    <cfRule type="expression" dxfId="525" priority="571">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="572">
+    <cfRule type="expression" dxfId="524" priority="572">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="573">
+    <cfRule type="expression" dxfId="523" priority="573">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="574">
+    <cfRule type="expression" dxfId="522" priority="574">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="575">
+    <cfRule type="expression" dxfId="521" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="576">
+    <cfRule type="expression" dxfId="520" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:BS73">
-    <cfRule type="expression" dxfId="559" priority="561">
+    <cfRule type="expression" dxfId="519" priority="561">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="562">
+    <cfRule type="expression" dxfId="518" priority="562">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="563">
+    <cfRule type="expression" dxfId="517" priority="563">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="564">
+    <cfRule type="expression" dxfId="516" priority="564">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="565">
+    <cfRule type="expression" dxfId="515" priority="565">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="566">
+    <cfRule type="expression" dxfId="514" priority="566">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="567">
+    <cfRule type="expression" dxfId="513" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="568">
+    <cfRule type="expression" dxfId="512" priority="568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:BS74">
-    <cfRule type="expression" dxfId="551" priority="553">
+    <cfRule type="expression" dxfId="511" priority="553">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="554">
+    <cfRule type="expression" dxfId="510" priority="554">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="555">
+    <cfRule type="expression" dxfId="509" priority="555">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="556">
+    <cfRule type="expression" dxfId="508" priority="556">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="557">
+    <cfRule type="expression" dxfId="507" priority="557">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="558">
+    <cfRule type="expression" dxfId="506" priority="558">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="559">
+    <cfRule type="expression" dxfId="505" priority="559">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="560">
+    <cfRule type="expression" dxfId="504" priority="560">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:BS75">
-    <cfRule type="expression" dxfId="543" priority="545">
+    <cfRule type="expression" dxfId="503" priority="545">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="546">
+    <cfRule type="expression" dxfId="502" priority="546">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="547">
+    <cfRule type="expression" dxfId="501" priority="547">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="548">
+    <cfRule type="expression" dxfId="500" priority="548">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="549">
+    <cfRule type="expression" dxfId="499" priority="549">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="550">
+    <cfRule type="expression" dxfId="498" priority="550">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="551">
+    <cfRule type="expression" dxfId="497" priority="551">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="552">
+    <cfRule type="expression" dxfId="496" priority="552">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:BS76">
-    <cfRule type="expression" dxfId="535" priority="537">
+    <cfRule type="expression" dxfId="495" priority="537">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="538">
+    <cfRule type="expression" dxfId="494" priority="538">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="539">
+    <cfRule type="expression" dxfId="493" priority="539">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="540">
+    <cfRule type="expression" dxfId="492" priority="540">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="541">
+    <cfRule type="expression" dxfId="491" priority="541">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="542">
+    <cfRule type="expression" dxfId="490" priority="542">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="543">
+    <cfRule type="expression" dxfId="489" priority="543">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="544">
+    <cfRule type="expression" dxfId="488" priority="544">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:BS77">
-    <cfRule type="expression" dxfId="527" priority="529">
+    <cfRule type="expression" dxfId="487" priority="529">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="530">
+    <cfRule type="expression" dxfId="486" priority="530">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="531">
+    <cfRule type="expression" dxfId="485" priority="531">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="532">
+    <cfRule type="expression" dxfId="484" priority="532">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="533">
+    <cfRule type="expression" dxfId="483" priority="533">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="534">
+    <cfRule type="expression" dxfId="482" priority="534">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="535">
+    <cfRule type="expression" dxfId="481" priority="535">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="536">
+    <cfRule type="expression" dxfId="480" priority="536">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:BS78">
-    <cfRule type="expression" dxfId="519" priority="521">
+    <cfRule type="expression" dxfId="479" priority="521">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="522">
+    <cfRule type="expression" dxfId="478" priority="522">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="523">
+    <cfRule type="expression" dxfId="477" priority="523">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="524">
+    <cfRule type="expression" dxfId="476" priority="524">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="525">
+    <cfRule type="expression" dxfId="475" priority="525">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="526">
+    <cfRule type="expression" dxfId="474" priority="526">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="527">
+    <cfRule type="expression" dxfId="473" priority="527">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="528">
+    <cfRule type="expression" dxfId="472" priority="528">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BS7">
-    <cfRule type="expression" dxfId="511" priority="673">
+    <cfRule type="expression" dxfId="471" priority="673">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="674">
+    <cfRule type="expression" dxfId="470" priority="674">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="675">
+    <cfRule type="expression" dxfId="469" priority="675">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="676">
+    <cfRule type="expression" dxfId="468" priority="676">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="677">
+    <cfRule type="expression" dxfId="467" priority="677">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="678">
+    <cfRule type="expression" dxfId="466" priority="678">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="679">
+    <cfRule type="expression" dxfId="465" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="680">
+    <cfRule type="expression" dxfId="464" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:BS79">
-    <cfRule type="expression" dxfId="503" priority="513">
+    <cfRule type="expression" dxfId="463" priority="513">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="514">
+    <cfRule type="expression" dxfId="462" priority="514">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="515">
+    <cfRule type="expression" dxfId="461" priority="515">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="516">
+    <cfRule type="expression" dxfId="460" priority="516">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="517">
+    <cfRule type="expression" dxfId="459" priority="517">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="518">
+    <cfRule type="expression" dxfId="458" priority="518">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="519">
+    <cfRule type="expression" dxfId="457" priority="519">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="520">
+    <cfRule type="expression" dxfId="456" priority="520">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I105:BS105">
-    <cfRule type="expression" dxfId="495" priority="505">
+  <conditionalFormatting sqref="I108:BS108">
+    <cfRule type="expression" dxfId="455" priority="505">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="506">
+    <cfRule type="expression" dxfId="454" priority="506">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="507">
+    <cfRule type="expression" dxfId="453" priority="507">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="508">
+    <cfRule type="expression" dxfId="452" priority="508">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="509">
+    <cfRule type="expression" dxfId="451" priority="509">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="510">
+    <cfRule type="expression" dxfId="450" priority="510">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="511">
+    <cfRule type="expression" dxfId="449" priority="511">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="512">
+    <cfRule type="expression" dxfId="448" priority="512">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I106:BS106">
-    <cfRule type="expression" dxfId="487" priority="497">
+  <conditionalFormatting sqref="I109:BS109">
+    <cfRule type="expression" dxfId="447" priority="497">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="498">
+    <cfRule type="expression" dxfId="446" priority="498">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="499">
+    <cfRule type="expression" dxfId="445" priority="499">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="500">
+    <cfRule type="expression" dxfId="444" priority="500">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="501">
+    <cfRule type="expression" dxfId="443" priority="501">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="502">
+    <cfRule type="expression" dxfId="442" priority="502">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="503">
+    <cfRule type="expression" dxfId="441" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="504">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107:BS107">
-    <cfRule type="expression" dxfId="479" priority="489">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="490">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="491">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="492">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="493">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="494">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="495">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="496">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I108:BS109">
-    <cfRule type="expression" dxfId="471" priority="481">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="470" priority="482">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="483">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="484">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="485">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="486">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="487">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="488">
+    <cfRule type="expression" dxfId="440" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110:BS110">
-    <cfRule type="expression" dxfId="463" priority="473">
+    <cfRule type="expression" dxfId="439" priority="489">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="474">
+    <cfRule type="expression" dxfId="438" priority="490">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="475">
+    <cfRule type="expression" dxfId="437" priority="491">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="476">
+    <cfRule type="expression" dxfId="436" priority="492">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="477">
+    <cfRule type="expression" dxfId="435" priority="493">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="478">
+    <cfRule type="expression" dxfId="434" priority="494">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="479">
+    <cfRule type="expression" dxfId="433" priority="495">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="480">
+    <cfRule type="expression" dxfId="432" priority="496">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:BS111">
-    <cfRule type="expression" dxfId="455" priority="465">
+  <conditionalFormatting sqref="I111:BS112">
+    <cfRule type="expression" dxfId="431" priority="481">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="466">
+    <cfRule type="expression" dxfId="430" priority="482">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="467">
+    <cfRule type="expression" dxfId="429" priority="483">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="468">
+    <cfRule type="expression" dxfId="428" priority="484">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="469">
+    <cfRule type="expression" dxfId="427" priority="485">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="470">
+    <cfRule type="expression" dxfId="426" priority="486">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="471">
+    <cfRule type="expression" dxfId="425" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="472">
+    <cfRule type="expression" dxfId="424" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I112:BS112">
-    <cfRule type="expression" dxfId="447" priority="457">
+  <conditionalFormatting sqref="I113:BS113">
+    <cfRule type="expression" dxfId="423" priority="473">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="458">
+    <cfRule type="expression" dxfId="422" priority="474">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="459">
+    <cfRule type="expression" dxfId="421" priority="475">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="460">
+    <cfRule type="expression" dxfId="420" priority="476">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="461">
+    <cfRule type="expression" dxfId="419" priority="477">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="462">
+    <cfRule type="expression" dxfId="418" priority="478">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="463">
+    <cfRule type="expression" dxfId="417" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="464">
+    <cfRule type="expression" dxfId="416" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BS114">
-    <cfRule type="expression" dxfId="439" priority="449">
+  <conditionalFormatting sqref="I114:BS114">
+    <cfRule type="expression" dxfId="415" priority="465">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="450">
+    <cfRule type="expression" dxfId="414" priority="466">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="451">
+    <cfRule type="expression" dxfId="413" priority="467">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="452">
+    <cfRule type="expression" dxfId="412" priority="468">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="453">
+    <cfRule type="expression" dxfId="411" priority="469">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="454">
+    <cfRule type="expression" dxfId="410" priority="470">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="455">
+    <cfRule type="expression" dxfId="409" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="456">
+    <cfRule type="expression" dxfId="408" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:BS115">
-    <cfRule type="expression" dxfId="431" priority="441">
+    <cfRule type="expression" dxfId="407" priority="457">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="442">
+    <cfRule type="expression" dxfId="406" priority="458">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="443">
+    <cfRule type="expression" dxfId="405" priority="459">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="444">
+    <cfRule type="expression" dxfId="404" priority="460">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="445">
+    <cfRule type="expression" dxfId="403" priority="461">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="446">
+    <cfRule type="expression" dxfId="402" priority="462">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="447">
+    <cfRule type="expression" dxfId="401" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="448">
+    <cfRule type="expression" dxfId="400" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BS116">
-    <cfRule type="expression" dxfId="423" priority="433">
+  <conditionalFormatting sqref="I116:BS117">
+    <cfRule type="expression" dxfId="399" priority="449">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="434">
+    <cfRule type="expression" dxfId="398" priority="450">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="435">
+    <cfRule type="expression" dxfId="397" priority="451">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="436">
+    <cfRule type="expression" dxfId="396" priority="452">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="437">
+    <cfRule type="expression" dxfId="395" priority="453">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="438">
+    <cfRule type="expression" dxfId="394" priority="454">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="439">
+    <cfRule type="expression" dxfId="393" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="440">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117:BS117">
-    <cfRule type="expression" dxfId="415" priority="425">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="426">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="427">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="428">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="429">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="410" priority="430">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="431">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="432">
+    <cfRule type="expression" dxfId="392" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:BS118">
-    <cfRule type="expression" dxfId="407" priority="417">
+    <cfRule type="expression" dxfId="391" priority="441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="418">
+    <cfRule type="expression" dxfId="390" priority="442">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="419">
+    <cfRule type="expression" dxfId="389" priority="443">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="420">
+    <cfRule type="expression" dxfId="388" priority="444">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="421">
+    <cfRule type="expression" dxfId="387" priority="445">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="422">
+    <cfRule type="expression" dxfId="386" priority="446">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="423">
+    <cfRule type="expression" dxfId="385" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="424">
+    <cfRule type="expression" dxfId="384" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119:BS119">
-    <cfRule type="expression" dxfId="399" priority="409">
+    <cfRule type="expression" dxfId="383" priority="433">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="410">
+    <cfRule type="expression" dxfId="382" priority="434">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="411">
+    <cfRule type="expression" dxfId="381" priority="435">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="412">
+    <cfRule type="expression" dxfId="380" priority="436">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="413">
+    <cfRule type="expression" dxfId="379" priority="437">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="414">
+    <cfRule type="expression" dxfId="378" priority="438">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="415">
+    <cfRule type="expression" dxfId="377" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="416">
+    <cfRule type="expression" dxfId="376" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BS121">
-    <cfRule type="expression" dxfId="391" priority="401">
+  <conditionalFormatting sqref="I120:BS120">
+    <cfRule type="expression" dxfId="375" priority="425">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="402">
+    <cfRule type="expression" dxfId="374" priority="426">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="403">
+    <cfRule type="expression" dxfId="373" priority="427">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="404">
+    <cfRule type="expression" dxfId="372" priority="428">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="405">
+    <cfRule type="expression" dxfId="371" priority="429">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="406">
+    <cfRule type="expression" dxfId="370" priority="430">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="407">
+    <cfRule type="expression" dxfId="369" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="408">
+    <cfRule type="expression" dxfId="368" priority="432">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121:BS121">
+    <cfRule type="expression" dxfId="367" priority="417">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="418">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="419">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="420">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="421">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="422">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="423">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="424">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:BS122">
-    <cfRule type="expression" dxfId="383" priority="393">
+    <cfRule type="expression" dxfId="359" priority="409">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="394">
+    <cfRule type="expression" dxfId="358" priority="410">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="395">
+    <cfRule type="expression" dxfId="357" priority="411">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="396">
+    <cfRule type="expression" dxfId="356" priority="412">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="397">
+    <cfRule type="expression" dxfId="355" priority="413">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="398">
+    <cfRule type="expression" dxfId="354" priority="414">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="399">
+    <cfRule type="expression" dxfId="353" priority="415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="400">
+    <cfRule type="expression" dxfId="352" priority="416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I123:BS123">
-    <cfRule type="expression" dxfId="375" priority="385">
+  <conditionalFormatting sqref="I125:BS125">
+    <cfRule type="expression" dxfId="351" priority="393">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="386">
+    <cfRule type="expression" dxfId="350" priority="394">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="387">
+    <cfRule type="expression" dxfId="349" priority="395">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="388">
+    <cfRule type="expression" dxfId="348" priority="396">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="389">
+    <cfRule type="expression" dxfId="347" priority="397">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="390">
+    <cfRule type="expression" dxfId="346" priority="398">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="391">
+    <cfRule type="expression" dxfId="345" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="392">
+    <cfRule type="expression" dxfId="344" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I124:BS124">
-    <cfRule type="expression" dxfId="367" priority="377">
+  <conditionalFormatting sqref="I126:BS126">
+    <cfRule type="expression" dxfId="343" priority="385">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="378">
+    <cfRule type="expression" dxfId="342" priority="386">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="379">
+    <cfRule type="expression" dxfId="341" priority="387">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="380">
+    <cfRule type="expression" dxfId="340" priority="388">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="381">
+    <cfRule type="expression" dxfId="339" priority="389">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="382">
+    <cfRule type="expression" dxfId="338" priority="390">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="383">
+    <cfRule type="expression" dxfId="337" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="384">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BS126">
-    <cfRule type="expression" dxfId="359" priority="369">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="370">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="371">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="372">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="373">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="374">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="375">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="376">
+    <cfRule type="expression" dxfId="336" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:BS127">
-    <cfRule type="expression" dxfId="351" priority="361">
+    <cfRule type="expression" dxfId="335" priority="377">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="362">
+    <cfRule type="expression" dxfId="334" priority="378">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="363">
+    <cfRule type="expression" dxfId="333" priority="379">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="364">
+    <cfRule type="expression" dxfId="332" priority="380">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="365">
+    <cfRule type="expression" dxfId="331" priority="381">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="366">
+    <cfRule type="expression" dxfId="330" priority="382">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="367">
+    <cfRule type="expression" dxfId="329" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="368">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:BS128">
-    <cfRule type="expression" dxfId="343" priority="353">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="354">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="355">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="356">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="357">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="358">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="359">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="360">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I129:BS129">
-    <cfRule type="expression" dxfId="335" priority="345">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="346">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="347">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="348">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="349">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="350">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="351">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="352">
+    <cfRule type="expression" dxfId="328" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:BS130">
-    <cfRule type="expression" dxfId="327" priority="337">
+    <cfRule type="expression" dxfId="327" priority="361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="338">
+    <cfRule type="expression" dxfId="326" priority="362">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="339">
+    <cfRule type="expression" dxfId="325" priority="363">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="340">
+    <cfRule type="expression" dxfId="324" priority="364">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="341">
+    <cfRule type="expression" dxfId="323" priority="365">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="342">
+    <cfRule type="expression" dxfId="322" priority="366">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="343">
+    <cfRule type="expression" dxfId="321" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="344">
+    <cfRule type="expression" dxfId="320" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:BS131">
-    <cfRule type="expression" dxfId="319" priority="329">
+    <cfRule type="expression" dxfId="319" priority="353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="330">
+    <cfRule type="expression" dxfId="318" priority="354">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="331">
+    <cfRule type="expression" dxfId="317" priority="355">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="332">
+    <cfRule type="expression" dxfId="316" priority="356">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="333">
+    <cfRule type="expression" dxfId="315" priority="357">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="334">
+    <cfRule type="expression" dxfId="314" priority="358">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="335">
+    <cfRule type="expression" dxfId="313" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="336">
+    <cfRule type="expression" dxfId="312" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BS133">
-    <cfRule type="expression" dxfId="311" priority="321">
+  <conditionalFormatting sqref="I132:BS132">
+    <cfRule type="expression" dxfId="311" priority="345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="322">
+    <cfRule type="expression" dxfId="310" priority="346">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="323">
+    <cfRule type="expression" dxfId="309" priority="347">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="324">
+    <cfRule type="expression" dxfId="308" priority="348">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="325">
+    <cfRule type="expression" dxfId="307" priority="349">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="326">
+    <cfRule type="expression" dxfId="306" priority="350">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="327">
+    <cfRule type="expression" dxfId="305" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="328">
+    <cfRule type="expression" dxfId="304" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I161:BS161">
-    <cfRule type="expression" dxfId="303" priority="121">
+  <conditionalFormatting sqref="I133:BS133">
+    <cfRule type="expression" dxfId="303" priority="337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="122">
+    <cfRule type="expression" dxfId="302" priority="338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="123">
+    <cfRule type="expression" dxfId="301" priority="339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="124">
+    <cfRule type="expression" dxfId="300" priority="340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="125">
+    <cfRule type="expression" dxfId="299" priority="341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="126">
+    <cfRule type="expression" dxfId="298" priority="342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="127">
+    <cfRule type="expression" dxfId="297" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="128">
+    <cfRule type="expression" dxfId="296" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:BS134">
-    <cfRule type="expression" dxfId="295" priority="305">
+    <cfRule type="expression" dxfId="295" priority="329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="306">
+    <cfRule type="expression" dxfId="294" priority="330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="307">
+    <cfRule type="expression" dxfId="293" priority="331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="308">
+    <cfRule type="expression" dxfId="292" priority="332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="309">
+    <cfRule type="expression" dxfId="291" priority="333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="310">
+    <cfRule type="expression" dxfId="290" priority="334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="311">
+    <cfRule type="expression" dxfId="289" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="312">
+    <cfRule type="expression" dxfId="288" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135:BS135">
-    <cfRule type="expression" dxfId="287" priority="297">
+  <conditionalFormatting sqref="I135:BS136">
+    <cfRule type="expression" dxfId="287" priority="321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="298">
+    <cfRule type="expression" dxfId="286" priority="322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="299">
+    <cfRule type="expression" dxfId="285" priority="323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="300">
+    <cfRule type="expression" dxfId="284" priority="324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="301">
+    <cfRule type="expression" dxfId="283" priority="325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="302">
+    <cfRule type="expression" dxfId="282" priority="326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="303">
+    <cfRule type="expression" dxfId="281" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="304">
+    <cfRule type="expression" dxfId="280" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136:BS137">
-    <cfRule type="expression" dxfId="279" priority="289">
+  <conditionalFormatting sqref="I164:BS164">
+    <cfRule type="expression" dxfId="279" priority="121">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="290">
+    <cfRule type="expression" dxfId="278" priority="122">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="291">
+    <cfRule type="expression" dxfId="277" priority="123">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="292">
+    <cfRule type="expression" dxfId="276" priority="124">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="293">
+    <cfRule type="expression" dxfId="275" priority="125">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="294">
+    <cfRule type="expression" dxfId="274" priority="126">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="295">
+    <cfRule type="expression" dxfId="273" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="296">
+    <cfRule type="expression" dxfId="272" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137:BS137">
+    <cfRule type="expression" dxfId="271" priority="305">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="306">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="307">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="308">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="309">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="310">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="311">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="312">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:BS138">
+    <cfRule type="expression" dxfId="263" priority="297">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="298">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="299">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="300">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="301">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="302">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="303">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="304">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I139:BS140">
+    <cfRule type="expression" dxfId="255" priority="289">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="290">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="291">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="292">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="293">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="294">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="295">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="296">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I141:BS141">
+    <cfRule type="expression" dxfId="247" priority="273">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="274">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="275">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="276">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="277">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="278">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="279">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="280">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I142:BS142">
+    <cfRule type="expression" dxfId="239" priority="265">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="266">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="267">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="268">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="269">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="270">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="271">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="272">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I143:BS143">
+    <cfRule type="expression" dxfId="231" priority="257">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="258">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="259">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="260">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="261">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="262">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="263">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="264">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144:BS144">
+    <cfRule type="expression" dxfId="223" priority="249">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="250">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="251">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="252">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="253">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="254">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="255">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="256">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145:BS146">
+    <cfRule type="expression" dxfId="215" priority="241">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="242">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="243">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="244">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="245">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="246">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="247">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="248">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147:BS147">
+    <cfRule type="expression" dxfId="207" priority="233">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="234">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="235">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="236">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="237">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="238">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="239">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="240">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148:BS148">
+    <cfRule type="expression" dxfId="199" priority="225">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="226">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="227">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="228">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="229">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="230">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="231">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="232">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149:BS149">
+    <cfRule type="expression" dxfId="191" priority="217">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="218">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="219">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="220">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="221">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="222">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="223">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="224">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I150:BS151">
+    <cfRule type="expression" dxfId="183" priority="209">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="210">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="211">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="212">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="213">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="214">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="215">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="216">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I152:BS152">
+    <cfRule type="expression" dxfId="175" priority="201">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="202">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="203">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="204">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="205">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="206">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="207">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="208">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I153:BS153">
+    <cfRule type="expression" dxfId="167" priority="193">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="194">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="195">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="196">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="197">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="198">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="199">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="200">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I154:BS154">
+    <cfRule type="expression" dxfId="159" priority="185">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="186">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="187">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="188">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="189">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="190">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155:BS155">
+    <cfRule type="expression" dxfId="151" priority="177">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="178">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="179">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="180">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="181">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="182">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="183">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="184">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156:BS156">
+    <cfRule type="expression" dxfId="143" priority="169">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="170">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="171">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="172">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="173">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="174">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I157:BS158">
+    <cfRule type="expression" dxfId="135" priority="161">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="162">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="163">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="164">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="165">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="166">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159:BS159">
+    <cfRule type="expression" dxfId="127" priority="153">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="154">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="155">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="156">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="157">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="158">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I160:BS160">
+    <cfRule type="expression" dxfId="119" priority="145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161:BS162">
+    <cfRule type="expression" dxfId="111" priority="137">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="138">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="139">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="140">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="141">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="142">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I163:BS163">
+    <cfRule type="expression" dxfId="103" priority="129">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="130">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="131">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="132">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="133">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="134">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I167:BS167">
+    <cfRule type="expression" dxfId="95" priority="97">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="98">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="99">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="101">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="102">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I169:BS169">
+    <cfRule type="expression" dxfId="87" priority="81">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="82">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="83">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I168:BS168">
+    <cfRule type="expression" dxfId="79" priority="73">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="74">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="75">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="78">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:BS104">
+    <cfRule type="expression" dxfId="71" priority="65">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="66">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="67">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="70">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I170:BS170">
-    <cfRule type="expression" dxfId="271" priority="89">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="90">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="91">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="92">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="93">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="94">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="95">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="96">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I138:BS138">
-    <cfRule type="expression" dxfId="263" priority="273">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="274">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="275">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="276">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="277">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="278">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="279">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="280">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I139:BS139">
-    <cfRule type="expression" dxfId="255" priority="265">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="266">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="267">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="268">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="269">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="270">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="271">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="272">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I140:BS140">
-    <cfRule type="expression" dxfId="247" priority="257">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="258">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="259">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="260">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="261">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="262">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="263">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="264">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I141:BS141">
-    <cfRule type="expression" dxfId="239" priority="249">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="250">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="251">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="252">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="253">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="254">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="255">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="256">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I142:BS143">
-    <cfRule type="expression" dxfId="231" priority="241">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="242">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="243">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="244">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="245">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="246">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="247">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="248">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I144:BS144">
-    <cfRule type="expression" dxfId="223" priority="233">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="234">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="235">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="236">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="237">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="238">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="239">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="240">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BS145">
-    <cfRule type="expression" dxfId="215" priority="225">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="226">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="227">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="228">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="229">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="230">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="231">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="232">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:BS146">
-    <cfRule type="expression" dxfId="207" priority="217">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="218">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="219">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="220">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="221">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="222">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="223">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="224">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147:BS148">
-    <cfRule type="expression" dxfId="199" priority="209">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="210">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="211">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="212">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="213">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="214">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="215">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="216">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BS149">
-    <cfRule type="expression" dxfId="191" priority="201">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="202">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="203">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="204">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="205">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="206">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="207">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="208">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BS150">
-    <cfRule type="expression" dxfId="183" priority="193">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="194">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="195">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="196">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="197">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="198">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="199">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="200">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151:BS151">
-    <cfRule type="expression" dxfId="175" priority="185">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="186">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="187">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="189">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="190">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="191">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="192">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BS152">
-    <cfRule type="expression" dxfId="167" priority="177">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="178">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="179">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="180">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="181">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="182">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="183">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I153:BS153">
-    <cfRule type="expression" dxfId="159" priority="169">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="170">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="171">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="172">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="173">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="174">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I154:BS155">
-    <cfRule type="expression" dxfId="151" priority="161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156:BS156">
-    <cfRule type="expression" dxfId="143" priority="153">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="154">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="155">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="156">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="157">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="158">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I157:BS157">
-    <cfRule type="expression" dxfId="135" priority="145">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="146">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="147">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="148">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="149">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="150">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I158:BS159">
-    <cfRule type="expression" dxfId="127" priority="137">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="138">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="139">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="140">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="141">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="142">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I160:BS160">
-    <cfRule type="expression" dxfId="119" priority="129">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="130">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="131">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="132">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="133">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="134">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="135">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="136">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I162:BS164">
-    <cfRule type="expression" dxfId="111" priority="113">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="114">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="115">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="117">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="118">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="119">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="120">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I165:BS165">
-    <cfRule type="expression" dxfId="103" priority="105">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="106">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="107">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="108">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="109">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="110">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="111">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="112">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I166:BS166">
-    <cfRule type="expression" dxfId="95" priority="97">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I171:BS171">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167:BS167">
-    <cfRule type="expression" dxfId="79" priority="73">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I168:BS169">
-    <cfRule type="expression" dxfId="71" priority="65">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172:BS172">
-    <cfRule type="expression" dxfId="63" priority="57">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I173:BS173">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I174:BS174">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36119,7 +35303,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I175:BS176">
+  <conditionalFormatting sqref="I173:BS174">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36145,7 +35329,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I177:BS177">
+  <conditionalFormatting sqref="I175:BS175">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36171,7 +35355,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I178:BS178">
+  <conditionalFormatting sqref="I176:BS176">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36197,7 +35381,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I179:BS180">
+  <conditionalFormatting sqref="I177:BS178">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -36223,7 +35407,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I181:BS181">
+  <conditionalFormatting sqref="I179:BS179">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54603BC-8901-44FB-8A28-ED3F2DAD1E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B7E9D-CEB5-4A41-9EA9-82AC774F60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="187">
   <si>
     <t>Trình lập kế hoạch Dự án</t>
   </si>
@@ -588,12 +588,6 @@
     <t>FE: autoBuyTickets</t>
   </si>
   <si>
-    <t>BE: autoBuyTickets</t>
-  </si>
-  <si>
-    <t>BE: huntingSaleTickets</t>
-  </si>
-  <si>
     <t>FE: C.R.D Account</t>
   </si>
   <si>
@@ -604,6 +598,30 @@
   </si>
   <si>
     <t>BE: lockAccount</t>
+  </si>
+  <si>
+    <t>BE: collectDiscountTickets</t>
+  </si>
+  <si>
+    <t>BE: automaticTicketPurchase</t>
+  </si>
+  <si>
+    <t>Quản lý ví thanh toán</t>
+  </si>
+  <si>
+    <t>FE: bankIntegration</t>
+  </si>
+  <si>
+    <t>FE: topUp</t>
+  </si>
+  <si>
+    <t>FE: withdrawal</t>
+  </si>
+  <si>
+    <t>FE: paymentHistory</t>
+  </si>
+  <si>
+    <t>Story Points: 24</t>
   </si>
 </sst>
 </file>
@@ -822,7 +840,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,7 +1615,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,6 +2012,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="% hoàn thành" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
@@ -2011,7 +2047,839 @@
     <cellStyle name="Tiêu đề" xfId="3" builtinId="15"/>
     <cellStyle name="Văn bản Giải thích" xfId="4" builtinId="53"/>
   </cellStyles>
-  <dxfs count="1137">
+  <dxfs count="1201">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -17051,13 +17919,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT180"/>
+  <dimension ref="A1:BT192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I100" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I171" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomRight" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -25461,7 +26329,7 @@
     <row r="102" spans="2:71" ht="36" customHeight="1">
       <c r="B102" s="69"/>
       <c r="C102" s="60" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="41"/>
@@ -25701,7 +26569,7 @@
     <row r="105" spans="2:71" ht="36" customHeight="1">
       <c r="B105" s="69"/>
       <c r="C105" s="60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="41"/>
@@ -26025,7 +26893,7 @@
     <row r="109" spans="2:71" ht="36" customHeight="1">
       <c r="B109" s="96"/>
       <c r="C109" s="65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
@@ -26265,7 +27133,7 @@
     <row r="112" spans="2:71" ht="36" customHeight="1">
       <c r="B112" s="96"/>
       <c r="C112" s="65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
@@ -26425,7 +27293,7 @@
     <row r="114" spans="2:71" ht="36" customHeight="1">
       <c r="B114" s="96"/>
       <c r="C114" s="60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="41"/>
@@ -26665,7 +27533,7 @@
     <row r="117" spans="2:71" ht="36" customHeight="1">
       <c r="B117" s="96"/>
       <c r="C117" s="60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="41"/>
@@ -31727,7 +32595,971 @@
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
     </row>
-    <row r="180" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
+    <row r="180" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B180" s="133"/>
+      <c r="C180" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F180" s="48">
+        <v>41</v>
+      </c>
+      <c r="G180" s="48">
+        <v>10</v>
+      </c>
+      <c r="H180" s="49">
+        <v>0</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="4"/>
+      <c r="AD180" s="4"/>
+      <c r="AE180" s="4"/>
+      <c r="AF180" s="4"/>
+      <c r="AG180" s="4"/>
+      <c r="AH180" s="4"/>
+      <c r="AI180" s="4"/>
+      <c r="AJ180" s="4"/>
+      <c r="AK180" s="4"/>
+      <c r="AL180" s="4"/>
+      <c r="AM180" s="4"/>
+      <c r="AN180" s="4"/>
+      <c r="AO180" s="4"/>
+      <c r="AP180" s="4"/>
+      <c r="AQ180" s="4"/>
+      <c r="AR180" s="4"/>
+      <c r="AS180" s="4"/>
+      <c r="AT180" s="4"/>
+      <c r="AU180" s="4"/>
+      <c r="AV180" s="4"/>
+      <c r="AW180" s="4"/>
+      <c r="AX180" s="4"/>
+      <c r="AY180" s="4"/>
+      <c r="AZ180" s="4"/>
+      <c r="BA180" s="4"/>
+      <c r="BB180" s="4"/>
+      <c r="BC180" s="4"/>
+      <c r="BD180" s="4"/>
+      <c r="BE180" s="4"/>
+      <c r="BF180" s="4"/>
+      <c r="BG180" s="4"/>
+      <c r="BH180" s="4"/>
+      <c r="BI180" s="4"/>
+      <c r="BJ180" s="4"/>
+      <c r="BK180" s="4"/>
+      <c r="BL180" s="4"/>
+      <c r="BM180" s="4"/>
+      <c r="BN180" s="4"/>
+      <c r="BO180" s="4"/>
+      <c r="BP180" s="4"/>
+      <c r="BQ180" s="4"/>
+      <c r="BR180" s="4"/>
+      <c r="BS180" s="4"/>
+    </row>
+    <row r="181" spans="2:71" ht="36" customHeight="1">
+      <c r="B181" s="134"/>
+      <c r="C181" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="42">
+        <v>41</v>
+      </c>
+      <c r="G181" s="42">
+        <v>10</v>
+      </c>
+      <c r="H181" s="45">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+      <c r="Y181" s="3"/>
+      <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="4"/>
+      <c r="AI181" s="4"/>
+      <c r="AJ181" s="4"/>
+      <c r="AK181" s="4"/>
+      <c r="AL181" s="4"/>
+      <c r="AM181" s="4"/>
+      <c r="AN181" s="4"/>
+      <c r="AO181" s="4"/>
+      <c r="AP181" s="4"/>
+      <c r="AQ181" s="4"/>
+      <c r="AR181" s="4"/>
+      <c r="AS181" s="4"/>
+      <c r="AT181" s="4"/>
+      <c r="AU181" s="4"/>
+      <c r="AV181" s="4"/>
+      <c r="AW181" s="4"/>
+      <c r="AX181" s="4"/>
+      <c r="AY181" s="4"/>
+      <c r="AZ181" s="4"/>
+      <c r="BA181" s="4"/>
+      <c r="BB181" s="4"/>
+      <c r="BC181" s="4"/>
+      <c r="BD181" s="4"/>
+      <c r="BE181" s="4"/>
+      <c r="BF181" s="4"/>
+      <c r="BG181" s="4"/>
+      <c r="BH181" s="4"/>
+      <c r="BI181" s="4"/>
+      <c r="BJ181" s="4"/>
+      <c r="BK181" s="4"/>
+      <c r="BL181" s="4"/>
+      <c r="BM181" s="4"/>
+      <c r="BN181" s="4"/>
+      <c r="BO181" s="4"/>
+      <c r="BP181" s="4"/>
+      <c r="BQ181" s="4"/>
+      <c r="BR181" s="4"/>
+      <c r="BS181" s="4"/>
+    </row>
+    <row r="182" spans="2:71" ht="36" customHeight="1">
+      <c r="B182" s="134"/>
+      <c r="C182" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="42">
+        <v>41</v>
+      </c>
+      <c r="G182" s="42">
+        <v>10</v>
+      </c>
+      <c r="H182" s="45">
+        <v>0</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="4"/>
+      <c r="AD182" s="4"/>
+      <c r="AE182" s="4"/>
+      <c r="AF182" s="4"/>
+      <c r="AG182" s="4"/>
+      <c r="AH182" s="4"/>
+      <c r="AI182" s="4"/>
+      <c r="AJ182" s="4"/>
+      <c r="AK182" s="4"/>
+      <c r="AL182" s="4"/>
+      <c r="AM182" s="4"/>
+      <c r="AN182" s="4"/>
+      <c r="AO182" s="4"/>
+      <c r="AP182" s="4"/>
+      <c r="AQ182" s="4"/>
+      <c r="AR182" s="4"/>
+      <c r="AS182" s="4"/>
+      <c r="AT182" s="4"/>
+      <c r="AU182" s="4"/>
+      <c r="AV182" s="4"/>
+      <c r="AW182" s="4"/>
+      <c r="AX182" s="4"/>
+      <c r="AY182" s="4"/>
+      <c r="AZ182" s="4"/>
+      <c r="BA182" s="4"/>
+      <c r="BB182" s="4"/>
+      <c r="BC182" s="4"/>
+      <c r="BD182" s="4"/>
+      <c r="BE182" s="4"/>
+      <c r="BF182" s="4"/>
+      <c r="BG182" s="4"/>
+      <c r="BH182" s="4"/>
+      <c r="BI182" s="4"/>
+      <c r="BJ182" s="4"/>
+      <c r="BK182" s="4"/>
+      <c r="BL182" s="4"/>
+      <c r="BM182" s="4"/>
+      <c r="BN182" s="4"/>
+      <c r="BO182" s="4"/>
+      <c r="BP182" s="4"/>
+      <c r="BQ182" s="4"/>
+      <c r="BR182" s="4"/>
+      <c r="BS182" s="4"/>
+    </row>
+    <row r="183" spans="2:71" ht="36" customHeight="1">
+      <c r="B183" s="134"/>
+      <c r="C183" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="42">
+        <v>41</v>
+      </c>
+      <c r="G183" s="42">
+        <v>10</v>
+      </c>
+      <c r="H183" s="45">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="3"/>
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="3"/>
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="4"/>
+      <c r="AD183" s="4"/>
+      <c r="AE183" s="4"/>
+      <c r="AF183" s="4"/>
+      <c r="AG183" s="4"/>
+      <c r="AH183" s="4"/>
+      <c r="AI183" s="4"/>
+      <c r="AJ183" s="4"/>
+      <c r="AK183" s="4"/>
+      <c r="AL183" s="4"/>
+      <c r="AM183" s="4"/>
+      <c r="AN183" s="4"/>
+      <c r="AO183" s="4"/>
+      <c r="AP183" s="4"/>
+      <c r="AQ183" s="4"/>
+      <c r="AR183" s="4"/>
+      <c r="AS183" s="4"/>
+      <c r="AT183" s="4"/>
+      <c r="AU183" s="4"/>
+      <c r="AV183" s="4"/>
+      <c r="AW183" s="4"/>
+      <c r="AX183" s="4"/>
+      <c r="AY183" s="4"/>
+      <c r="AZ183" s="4"/>
+      <c r="BA183" s="4"/>
+      <c r="BB183" s="4"/>
+      <c r="BC183" s="4"/>
+      <c r="BD183" s="4"/>
+      <c r="BE183" s="4"/>
+      <c r="BF183" s="4"/>
+      <c r="BG183" s="4"/>
+      <c r="BH183" s="4"/>
+      <c r="BI183" s="4"/>
+      <c r="BJ183" s="4"/>
+      <c r="BK183" s="4"/>
+      <c r="BL183" s="4"/>
+      <c r="BM183" s="4"/>
+      <c r="BN183" s="4"/>
+      <c r="BO183" s="4"/>
+      <c r="BP183" s="4"/>
+      <c r="BQ183" s="4"/>
+      <c r="BR183" s="4"/>
+      <c r="BS183" s="4"/>
+    </row>
+    <row r="184" spans="2:71" ht="36" customHeight="1">
+      <c r="B184" s="134"/>
+      <c r="C184" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D184" s="40"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="42">
+        <v>41</v>
+      </c>
+      <c r="G184" s="42">
+        <v>10</v>
+      </c>
+      <c r="H184" s="45">
+        <v>0</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+      <c r="AA184" s="3"/>
+      <c r="AB184" s="3"/>
+      <c r="AC184" s="4"/>
+      <c r="AD184" s="4"/>
+      <c r="AE184" s="4"/>
+      <c r="AF184" s="4"/>
+      <c r="AG184" s="4"/>
+      <c r="AH184" s="4"/>
+      <c r="AI184" s="4"/>
+      <c r="AJ184" s="4"/>
+      <c r="AK184" s="4"/>
+      <c r="AL184" s="4"/>
+      <c r="AM184" s="4"/>
+      <c r="AN184" s="4"/>
+      <c r="AO184" s="4"/>
+      <c r="AP184" s="4"/>
+      <c r="AQ184" s="4"/>
+      <c r="AR184" s="4"/>
+      <c r="AS184" s="4"/>
+      <c r="AT184" s="4"/>
+      <c r="AU184" s="4"/>
+      <c r="AV184" s="4"/>
+      <c r="AW184" s="4"/>
+      <c r="AX184" s="4"/>
+      <c r="AY184" s="4"/>
+      <c r="AZ184" s="4"/>
+      <c r="BA184" s="4"/>
+      <c r="BB184" s="4"/>
+      <c r="BC184" s="4"/>
+      <c r="BD184" s="4"/>
+      <c r="BE184" s="4"/>
+      <c r="BF184" s="4"/>
+      <c r="BG184" s="4"/>
+      <c r="BH184" s="4"/>
+      <c r="BI184" s="4"/>
+      <c r="BJ184" s="4"/>
+      <c r="BK184" s="4"/>
+      <c r="BL184" s="4"/>
+      <c r="BM184" s="4"/>
+      <c r="BN184" s="4"/>
+      <c r="BO184" s="4"/>
+      <c r="BP184" s="4"/>
+      <c r="BQ184" s="4"/>
+      <c r="BR184" s="4"/>
+      <c r="BS184" s="4"/>
+    </row>
+    <row r="185" spans="2:71" ht="36" customHeight="1">
+      <c r="B185" s="134"/>
+      <c r="C185" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D185" s="40"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="42">
+        <v>41</v>
+      </c>
+      <c r="G185" s="42">
+        <v>10</v>
+      </c>
+      <c r="H185" s="45">
+        <v>0</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="4"/>
+      <c r="AE185" s="4"/>
+      <c r="AF185" s="4"/>
+      <c r="AG185" s="4"/>
+      <c r="AH185" s="4"/>
+      <c r="AI185" s="4"/>
+      <c r="AJ185" s="4"/>
+      <c r="AK185" s="4"/>
+      <c r="AL185" s="4"/>
+      <c r="AM185" s="4"/>
+      <c r="AN185" s="4"/>
+      <c r="AO185" s="4"/>
+      <c r="AP185" s="4"/>
+      <c r="AQ185" s="4"/>
+      <c r="AR185" s="4"/>
+      <c r="AS185" s="4"/>
+      <c r="AT185" s="4"/>
+      <c r="AU185" s="4"/>
+      <c r="AV185" s="4"/>
+      <c r="AW185" s="4"/>
+      <c r="AX185" s="4"/>
+      <c r="AY185" s="4"/>
+      <c r="AZ185" s="4"/>
+      <c r="BA185" s="4"/>
+      <c r="BB185" s="4"/>
+      <c r="BC185" s="4"/>
+      <c r="BD185" s="4"/>
+      <c r="BE185" s="4"/>
+      <c r="BF185" s="4"/>
+      <c r="BG185" s="4"/>
+      <c r="BH185" s="4"/>
+      <c r="BI185" s="4"/>
+      <c r="BJ185" s="4"/>
+      <c r="BK185" s="4"/>
+      <c r="BL185" s="4"/>
+      <c r="BM185" s="4"/>
+      <c r="BN185" s="4"/>
+      <c r="BO185" s="4"/>
+      <c r="BP185" s="4"/>
+      <c r="BQ185" s="4"/>
+      <c r="BR185" s="4"/>
+      <c r="BS185" s="4"/>
+    </row>
+    <row r="186" spans="2:71" ht="36" customHeight="1">
+      <c r="B186" s="134"/>
+      <c r="C186" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D186" s="40"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="42">
+        <v>41</v>
+      </c>
+      <c r="G186" s="42">
+        <v>10</v>
+      </c>
+      <c r="H186" s="45">
+        <v>0</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+      <c r="AA186" s="3"/>
+      <c r="AB186" s="3"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="4"/>
+      <c r="AF186" s="4"/>
+      <c r="AG186" s="4"/>
+      <c r="AH186" s="4"/>
+      <c r="AI186" s="4"/>
+      <c r="AJ186" s="4"/>
+      <c r="AK186" s="4"/>
+      <c r="AL186" s="4"/>
+      <c r="AM186" s="4"/>
+      <c r="AN186" s="4"/>
+      <c r="AO186" s="4"/>
+      <c r="AP186" s="4"/>
+      <c r="AQ186" s="4"/>
+      <c r="AR186" s="4"/>
+      <c r="AS186" s="4"/>
+      <c r="AT186" s="4"/>
+      <c r="AU186" s="4"/>
+      <c r="AV186" s="4"/>
+      <c r="AW186" s="4"/>
+      <c r="AX186" s="4"/>
+      <c r="AY186" s="4"/>
+      <c r="AZ186" s="4"/>
+      <c r="BA186" s="4"/>
+      <c r="BB186" s="4"/>
+      <c r="BC186" s="4"/>
+      <c r="BD186" s="4"/>
+      <c r="BE186" s="4"/>
+      <c r="BF186" s="4"/>
+      <c r="BG186" s="4"/>
+      <c r="BH186" s="4"/>
+      <c r="BI186" s="4"/>
+      <c r="BJ186" s="4"/>
+      <c r="BK186" s="4"/>
+      <c r="BL186" s="4"/>
+      <c r="BM186" s="4"/>
+      <c r="BN186" s="4"/>
+      <c r="BO186" s="4"/>
+      <c r="BP186" s="4"/>
+      <c r="BQ186" s="4"/>
+      <c r="BR186" s="4"/>
+      <c r="BS186" s="4"/>
+    </row>
+    <row r="187" spans="2:71" ht="36" customHeight="1">
+      <c r="B187" s="134"/>
+      <c r="C187" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D187" s="40"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="42">
+        <v>41</v>
+      </c>
+      <c r="G187" s="42">
+        <v>10</v>
+      </c>
+      <c r="H187" s="45">
+        <v>0</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+      <c r="Y187" s="3"/>
+      <c r="Z187" s="3"/>
+      <c r="AA187" s="3"/>
+      <c r="AB187" s="3"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+      <c r="AF187" s="4"/>
+      <c r="AG187" s="4"/>
+      <c r="AH187" s="4"/>
+      <c r="AI187" s="4"/>
+      <c r="AJ187" s="4"/>
+      <c r="AK187" s="4"/>
+      <c r="AL187" s="4"/>
+      <c r="AM187" s="4"/>
+      <c r="AN187" s="4"/>
+      <c r="AO187" s="4"/>
+      <c r="AP187" s="4"/>
+      <c r="AQ187" s="4"/>
+      <c r="AR187" s="4"/>
+      <c r="AS187" s="4"/>
+      <c r="AT187" s="4"/>
+      <c r="AU187" s="4"/>
+      <c r="AV187" s="4"/>
+      <c r="AW187" s="4"/>
+      <c r="AX187" s="4"/>
+      <c r="AY187" s="4"/>
+      <c r="AZ187" s="4"/>
+      <c r="BA187" s="4"/>
+      <c r="BB187" s="4"/>
+      <c r="BC187" s="4"/>
+      <c r="BD187" s="4"/>
+      <c r="BE187" s="4"/>
+      <c r="BF187" s="4"/>
+      <c r="BG187" s="4"/>
+      <c r="BH187" s="4"/>
+      <c r="BI187" s="4"/>
+      <c r="BJ187" s="4"/>
+      <c r="BK187" s="4"/>
+      <c r="BL187" s="4"/>
+      <c r="BM187" s="4"/>
+      <c r="BN187" s="4"/>
+      <c r="BO187" s="4"/>
+      <c r="BP187" s="4"/>
+      <c r="BQ187" s="4"/>
+      <c r="BR187" s="4"/>
+      <c r="BS187" s="4"/>
+    </row>
+    <row r="188" spans="2:71" ht="36" customHeight="1">
+      <c r="B188" s="134"/>
+      <c r="C188" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D188" s="40"/>
+      <c r="E188" s="41"/>
+      <c r="F188" s="42">
+        <v>41</v>
+      </c>
+      <c r="G188" s="42">
+        <v>10</v>
+      </c>
+      <c r="H188" s="45">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="3"/>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="4"/>
+      <c r="AE188" s="4"/>
+      <c r="AF188" s="4"/>
+      <c r="AG188" s="4"/>
+      <c r="AH188" s="4"/>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
+      <c r="AK188" s="4"/>
+      <c r="AL188" s="4"/>
+      <c r="AM188" s="4"/>
+      <c r="AN188" s="4"/>
+      <c r="AO188" s="4"/>
+      <c r="AP188" s="4"/>
+      <c r="AQ188" s="4"/>
+      <c r="AR188" s="4"/>
+      <c r="AS188" s="4"/>
+      <c r="AT188" s="4"/>
+      <c r="AU188" s="4"/>
+      <c r="AV188" s="4"/>
+      <c r="AW188" s="4"/>
+      <c r="AX188" s="4"/>
+      <c r="AY188" s="4"/>
+      <c r="AZ188" s="4"/>
+      <c r="BA188" s="4"/>
+      <c r="BB188" s="4"/>
+      <c r="BC188" s="4"/>
+      <c r="BD188" s="4"/>
+      <c r="BE188" s="4"/>
+      <c r="BF188" s="4"/>
+      <c r="BG188" s="4"/>
+      <c r="BH188" s="4"/>
+      <c r="BI188" s="4"/>
+      <c r="BJ188" s="4"/>
+      <c r="BK188" s="4"/>
+      <c r="BL188" s="4"/>
+      <c r="BM188" s="4"/>
+      <c r="BN188" s="4"/>
+      <c r="BO188" s="4"/>
+      <c r="BP188" s="4"/>
+      <c r="BQ188" s="4"/>
+      <c r="BR188" s="4"/>
+      <c r="BS188" s="4"/>
+    </row>
+    <row r="189" spans="2:71" ht="36" customHeight="1">
+      <c r="B189" s="134"/>
+      <c r="C189" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D189" s="40"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="42">
+        <v>41</v>
+      </c>
+      <c r="G189" s="42">
+        <v>10</v>
+      </c>
+      <c r="H189" s="45">
+        <v>0</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="3"/>
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+      <c r="AF189" s="4"/>
+      <c r="AG189" s="4"/>
+      <c r="AH189" s="4"/>
+      <c r="AI189" s="4"/>
+      <c r="AJ189" s="4"/>
+      <c r="AK189" s="4"/>
+      <c r="AL189" s="4"/>
+      <c r="AM189" s="4"/>
+      <c r="AN189" s="4"/>
+      <c r="AO189" s="4"/>
+      <c r="AP189" s="4"/>
+      <c r="AQ189" s="4"/>
+      <c r="AR189" s="4"/>
+      <c r="AS189" s="4"/>
+      <c r="AT189" s="4"/>
+      <c r="AU189" s="4"/>
+      <c r="AV189" s="4"/>
+      <c r="AW189" s="4"/>
+      <c r="AX189" s="4"/>
+      <c r="AY189" s="4"/>
+      <c r="AZ189" s="4"/>
+      <c r="BA189" s="4"/>
+      <c r="BB189" s="4"/>
+      <c r="BC189" s="4"/>
+      <c r="BD189" s="4"/>
+      <c r="BE189" s="4"/>
+      <c r="BF189" s="4"/>
+      <c r="BG189" s="4"/>
+      <c r="BH189" s="4"/>
+      <c r="BI189" s="4"/>
+      <c r="BJ189" s="4"/>
+      <c r="BK189" s="4"/>
+      <c r="BL189" s="4"/>
+      <c r="BM189" s="4"/>
+      <c r="BN189" s="4"/>
+      <c r="BO189" s="4"/>
+      <c r="BP189" s="4"/>
+      <c r="BQ189" s="4"/>
+      <c r="BR189" s="4"/>
+      <c r="BS189" s="4"/>
+    </row>
+    <row r="190" spans="2:71" ht="36" customHeight="1">
+      <c r="B190" s="134"/>
+      <c r="C190" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D190" s="40"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="42">
+        <v>41</v>
+      </c>
+      <c r="G190" s="42">
+        <v>10</v>
+      </c>
+      <c r="H190" s="45">
+        <v>0</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+      <c r="Y190" s="3"/>
+      <c r="Z190" s="3"/>
+      <c r="AA190" s="3"/>
+      <c r="AB190" s="3"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="4"/>
+      <c r="AE190" s="4"/>
+      <c r="AF190" s="4"/>
+      <c r="AG190" s="4"/>
+      <c r="AH190" s="4"/>
+      <c r="AI190" s="4"/>
+      <c r="AJ190" s="4"/>
+      <c r="AK190" s="4"/>
+      <c r="AL190" s="4"/>
+      <c r="AM190" s="4"/>
+      <c r="AN190" s="4"/>
+      <c r="AO190" s="4"/>
+      <c r="AP190" s="4"/>
+      <c r="AQ190" s="4"/>
+      <c r="AR190" s="4"/>
+      <c r="AS190" s="4"/>
+      <c r="AT190" s="4"/>
+      <c r="AU190" s="4"/>
+      <c r="AV190" s="4"/>
+      <c r="AW190" s="4"/>
+      <c r="AX190" s="4"/>
+      <c r="AY190" s="4"/>
+      <c r="AZ190" s="4"/>
+      <c r="BA190" s="4"/>
+      <c r="BB190" s="4"/>
+      <c r="BC190" s="4"/>
+      <c r="BD190" s="4"/>
+      <c r="BE190" s="4"/>
+      <c r="BF190" s="4"/>
+      <c r="BG190" s="4"/>
+      <c r="BH190" s="4"/>
+      <c r="BI190" s="4"/>
+      <c r="BJ190" s="4"/>
+      <c r="BK190" s="4"/>
+      <c r="BL190" s="4"/>
+      <c r="BM190" s="4"/>
+      <c r="BN190" s="4"/>
+      <c r="BO190" s="4"/>
+      <c r="BP190" s="4"/>
+      <c r="BQ190" s="4"/>
+      <c r="BR190" s="4"/>
+      <c r="BS190" s="4"/>
+    </row>
+    <row r="191" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B191" s="135"/>
+      <c r="C191" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D191" s="54"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="56">
+        <v>41</v>
+      </c>
+      <c r="G191" s="56">
+        <v>10</v>
+      </c>
+      <c r="H191" s="57">
+        <v>0</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
+      <c r="AA191" s="3"/>
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="4"/>
+      <c r="AE191" s="4"/>
+      <c r="AF191" s="4"/>
+      <c r="AG191" s="4"/>
+      <c r="AH191" s="4"/>
+      <c r="AI191" s="4"/>
+      <c r="AJ191" s="4"/>
+      <c r="AK191" s="4"/>
+      <c r="AL191" s="4"/>
+      <c r="AM191" s="4"/>
+      <c r="AN191" s="4"/>
+      <c r="AO191" s="4"/>
+      <c r="AP191" s="4"/>
+      <c r="AQ191" s="4"/>
+      <c r="AR191" s="4"/>
+      <c r="AS191" s="4"/>
+      <c r="AT191" s="4"/>
+      <c r="AU191" s="4"/>
+      <c r="AV191" s="4"/>
+      <c r="AW191" s="4"/>
+      <c r="AX191" s="4"/>
+      <c r="AY191" s="4"/>
+      <c r="AZ191" s="4"/>
+      <c r="BA191" s="4"/>
+      <c r="BB191" s="4"/>
+      <c r="BC191" s="4"/>
+      <c r="BD191" s="4"/>
+      <c r="BE191" s="4"/>
+      <c r="BF191" s="4"/>
+      <c r="BG191" s="4"/>
+      <c r="BH191" s="4"/>
+      <c r="BI191" s="4"/>
+      <c r="BJ191" s="4"/>
+      <c r="BK191" s="4"/>
+      <c r="BL191" s="4"/>
+      <c r="BM191" s="4"/>
+      <c r="BN191" s="4"/>
+      <c r="BO191" s="4"/>
+      <c r="BP191" s="4"/>
+      <c r="BQ191" s="4"/>
+      <c r="BR191" s="4"/>
+      <c r="BS191" s="4"/>
+    </row>
+    <row r="192" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
@@ -31737,37 +33569,245 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:BS5">
-    <cfRule type="expression" dxfId="1136" priority="1384">
+    <cfRule type="expression" dxfId="1200" priority="1448">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BS8 I165:BS166 I123:BS124 I92:BS92 I128:BS129 I103:BS104">
-    <cfRule type="expression" dxfId="1135" priority="1377">
+    <cfRule type="expression" dxfId="1199" priority="1441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1379">
+    <cfRule type="expression" dxfId="1198" priority="1443">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1380">
+    <cfRule type="expression" dxfId="1197" priority="1444">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1381">
+    <cfRule type="expression" dxfId="1196" priority="1445">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1382">
+    <cfRule type="expression" dxfId="1195" priority="1446">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1383">
+    <cfRule type="expression" dxfId="1194" priority="1447">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1387">
+    <cfRule type="expression" dxfId="1193" priority="1451">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1388">
+    <cfRule type="expression" dxfId="1192" priority="1452">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BS9">
+    <cfRule type="expression" dxfId="1191" priority="1425">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1190" priority="1426">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1189" priority="1427">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1188" priority="1428">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1187" priority="1429">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1186" priority="1430">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1185" priority="1431">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1184" priority="1432">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:BS10">
+    <cfRule type="expression" dxfId="1183" priority="1417">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1182" priority="1418">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1181" priority="1419">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1180" priority="1420">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1179" priority="1421">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1178" priority="1422">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1177" priority="1423">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1176" priority="1424">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:BS11">
+    <cfRule type="expression" dxfId="1175" priority="1409">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1174" priority="1410">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1173" priority="1411">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1172" priority="1412">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1171" priority="1413">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1170" priority="1414">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1169" priority="1415">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1168" priority="1416">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BS12">
+    <cfRule type="expression" dxfId="1167" priority="1401">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1166" priority="1402">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1165" priority="1403">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1164" priority="1404">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1163" priority="1405">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1162" priority="1406">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1161" priority="1407">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1160" priority="1408">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:BS20">
+    <cfRule type="expression" dxfId="1159" priority="1393">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1158" priority="1394">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1157" priority="1395">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1156" priority="1396">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1155" priority="1397">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1154" priority="1398">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1153" priority="1399">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1152" priority="1400">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:BS21">
+    <cfRule type="expression" dxfId="1151" priority="1385">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1150" priority="1386">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1149" priority="1387">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1148" priority="1388">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1147" priority="1389">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1146" priority="1390">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1145" priority="1391">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1144" priority="1392">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BS22">
+    <cfRule type="expression" dxfId="1143" priority="1377">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1142" priority="1378">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1141" priority="1379">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1140" priority="1380">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1139" priority="1381">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1138" priority="1382">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1137" priority="1383">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1136" priority="1384">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:BS23">
+    <cfRule type="expression" dxfId="1135" priority="1369">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1134" priority="1370">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1133" priority="1371">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1132" priority="1372">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1131" priority="1373">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1130" priority="1374">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1129" priority="1375">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1128" priority="1376">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BS24">
     <cfRule type="expression" dxfId="1127" priority="1361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31793,7 +33833,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BS10">
+  <conditionalFormatting sqref="I25:BS25">
     <cfRule type="expression" dxfId="1119" priority="1353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31819,7 +33859,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BS11">
+  <conditionalFormatting sqref="I26:BS26">
     <cfRule type="expression" dxfId="1111" priority="1345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31845,7 +33885,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BS12">
+  <conditionalFormatting sqref="I27:BS27">
     <cfRule type="expression" dxfId="1103" priority="1337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31871,7 +33911,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BS20">
+  <conditionalFormatting sqref="I28:BS28">
     <cfRule type="expression" dxfId="1095" priority="1329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31897,7 +33937,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BS21">
+  <conditionalFormatting sqref="I29:BS29">
     <cfRule type="expression" dxfId="1087" priority="1321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31923,7 +33963,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BS22">
+  <conditionalFormatting sqref="I80:BS80">
     <cfRule type="expression" dxfId="1079" priority="1313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31949,215 +33989,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BS23">
-    <cfRule type="expression" dxfId="1071" priority="1305">
+  <conditionalFormatting sqref="I81:BS81">
+    <cfRule type="expression" dxfId="1071" priority="1297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1306">
+    <cfRule type="expression" dxfId="1070" priority="1298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1307">
+    <cfRule type="expression" dxfId="1069" priority="1299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1308">
+    <cfRule type="expression" dxfId="1068" priority="1300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1309">
+    <cfRule type="expression" dxfId="1067" priority="1301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1310">
+    <cfRule type="expression" dxfId="1066" priority="1302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1311">
+    <cfRule type="expression" dxfId="1065" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1312">
+    <cfRule type="expression" dxfId="1064" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BS24">
-    <cfRule type="expression" dxfId="1063" priority="1297">
+  <conditionalFormatting sqref="I82:BS82">
+    <cfRule type="expression" dxfId="1063" priority="1289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1298">
+    <cfRule type="expression" dxfId="1062" priority="1290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1299">
+    <cfRule type="expression" dxfId="1061" priority="1291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1300">
+    <cfRule type="expression" dxfId="1060" priority="1292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1301">
+    <cfRule type="expression" dxfId="1059" priority="1293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1302">
+    <cfRule type="expression" dxfId="1058" priority="1294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1303">
+    <cfRule type="expression" dxfId="1057" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1304">
+    <cfRule type="expression" dxfId="1056" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BS25">
-    <cfRule type="expression" dxfId="1055" priority="1289">
+  <conditionalFormatting sqref="I83:BS83">
+    <cfRule type="expression" dxfId="1055" priority="1281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1290">
+    <cfRule type="expression" dxfId="1054" priority="1282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1291">
+    <cfRule type="expression" dxfId="1053" priority="1283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1292">
+    <cfRule type="expression" dxfId="1052" priority="1284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1293">
+    <cfRule type="expression" dxfId="1051" priority="1285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1294">
+    <cfRule type="expression" dxfId="1050" priority="1286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1295">
+    <cfRule type="expression" dxfId="1049" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1296">
+    <cfRule type="expression" dxfId="1048" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BS26">
-    <cfRule type="expression" dxfId="1047" priority="1281">
+  <conditionalFormatting sqref="I84:BS84">
+    <cfRule type="expression" dxfId="1047" priority="1273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1282">
+    <cfRule type="expression" dxfId="1046" priority="1274">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1283">
+    <cfRule type="expression" dxfId="1045" priority="1275">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1284">
+    <cfRule type="expression" dxfId="1044" priority="1276">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1285">
+    <cfRule type="expression" dxfId="1043" priority="1277">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1286">
+    <cfRule type="expression" dxfId="1042" priority="1278">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1287">
+    <cfRule type="expression" dxfId="1041" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1288">
+    <cfRule type="expression" dxfId="1040" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BS27">
-    <cfRule type="expression" dxfId="1039" priority="1273">
+  <conditionalFormatting sqref="I85:BS85">
+    <cfRule type="expression" dxfId="1039" priority="1265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1274">
+    <cfRule type="expression" dxfId="1038" priority="1266">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1275">
+    <cfRule type="expression" dxfId="1037" priority="1267">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1276">
+    <cfRule type="expression" dxfId="1036" priority="1268">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1277">
+    <cfRule type="expression" dxfId="1035" priority="1269">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1278">
+    <cfRule type="expression" dxfId="1034" priority="1270">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1279">
+    <cfRule type="expression" dxfId="1033" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1280">
+    <cfRule type="expression" dxfId="1032" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BS28">
-    <cfRule type="expression" dxfId="1031" priority="1265">
+  <conditionalFormatting sqref="I86:BS86">
+    <cfRule type="expression" dxfId="1031" priority="1257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1266">
+    <cfRule type="expression" dxfId="1030" priority="1258">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1267">
+    <cfRule type="expression" dxfId="1029" priority="1259">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1268">
+    <cfRule type="expression" dxfId="1028" priority="1260">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1269">
+    <cfRule type="expression" dxfId="1027" priority="1261">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1270">
+    <cfRule type="expression" dxfId="1026" priority="1262">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1271">
+    <cfRule type="expression" dxfId="1025" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1272">
+    <cfRule type="expression" dxfId="1024" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BS29">
-    <cfRule type="expression" dxfId="1023" priority="1257">
+  <conditionalFormatting sqref="I87:BS87">
+    <cfRule type="expression" dxfId="1023" priority="1249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1258">
+    <cfRule type="expression" dxfId="1022" priority="1250">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1259">
+    <cfRule type="expression" dxfId="1021" priority="1251">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1260">
+    <cfRule type="expression" dxfId="1020" priority="1252">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1261">
+    <cfRule type="expression" dxfId="1019" priority="1253">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1262">
+    <cfRule type="expression" dxfId="1018" priority="1254">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1263">
+    <cfRule type="expression" dxfId="1017" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1264">
+    <cfRule type="expression" dxfId="1016" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BS80">
-    <cfRule type="expression" dxfId="1015" priority="1249">
+  <conditionalFormatting sqref="I88:BS88">
+    <cfRule type="expression" dxfId="1015" priority="1241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1250">
+    <cfRule type="expression" dxfId="1014" priority="1242">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1251">
+    <cfRule type="expression" dxfId="1013" priority="1243">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1252">
+    <cfRule type="expression" dxfId="1012" priority="1244">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1253">
+    <cfRule type="expression" dxfId="1011" priority="1245">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1254">
+    <cfRule type="expression" dxfId="1010" priority="1246">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1255">
+    <cfRule type="expression" dxfId="1009" priority="1247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1256">
+    <cfRule type="expression" dxfId="1008" priority="1248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BS81">
+  <conditionalFormatting sqref="I89:BS93">
     <cfRule type="expression" dxfId="1007" priority="1233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32183,7 +34223,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BS82">
+  <conditionalFormatting sqref="I94:BS94">
     <cfRule type="expression" dxfId="999" priority="1225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32209,7 +34249,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BS83">
+  <conditionalFormatting sqref="I95:BS95">
     <cfRule type="expression" dxfId="991" priority="1217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32235,7 +34275,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:BS84">
+  <conditionalFormatting sqref="I96:BS96">
     <cfRule type="expression" dxfId="983" priority="1209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32261,7 +34301,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BS85">
+  <conditionalFormatting sqref="I37:BS37">
     <cfRule type="expression" dxfId="975" priority="1201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32287,319 +34327,319 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BS86">
-    <cfRule type="expression" dxfId="967" priority="1193">
+  <conditionalFormatting sqref="I97:BS97">
+    <cfRule type="expression" dxfId="967" priority="1185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1194">
+    <cfRule type="expression" dxfId="966" priority="1186">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1195">
+    <cfRule type="expression" dxfId="965" priority="1187">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="1196">
+    <cfRule type="expression" dxfId="964" priority="1188">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1197">
+    <cfRule type="expression" dxfId="963" priority="1189">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="1198">
+    <cfRule type="expression" dxfId="962" priority="1190">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1199">
+    <cfRule type="expression" dxfId="961" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1200">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BS87">
-    <cfRule type="expression" dxfId="959" priority="1185">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1186">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1187">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="956" priority="1188">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1189">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1190">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="953" priority="1191">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1192">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:BS88">
-    <cfRule type="expression" dxfId="951" priority="1177">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="950" priority="1178">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1179">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1180">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="947" priority="1181">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1182">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1183">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="944" priority="1184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BS93">
-    <cfRule type="expression" dxfId="943" priority="1169">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1170">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="941" priority="1171">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1172">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1173">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="938" priority="1174">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BS94">
-    <cfRule type="expression" dxfId="935" priority="1161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="932" priority="1164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="929" priority="1167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BS95">
-    <cfRule type="expression" dxfId="927" priority="1153">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="926" priority="1154">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1155">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1156">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="923" priority="1157">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1158">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="920" priority="1160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BS96">
-    <cfRule type="expression" dxfId="919" priority="1145">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1146">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="917" priority="1147">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1148">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1149">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="914" priority="1150">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="913" priority="1151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="912" priority="1152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BS37">
-    <cfRule type="expression" dxfId="911" priority="1137">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1138">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1139">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="908" priority="1140">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1141">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1142">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="905" priority="1143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:BS97">
-    <cfRule type="expression" dxfId="903" priority="1121">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="902" priority="1122">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1123">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1124">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="899" priority="1125">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1126">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1127">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="896" priority="1128">
+    <cfRule type="expression" dxfId="960" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:BS98">
-    <cfRule type="expression" dxfId="895" priority="1113">
+    <cfRule type="expression" dxfId="959" priority="1177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1114">
+    <cfRule type="expression" dxfId="958" priority="1178">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="1115">
+    <cfRule type="expression" dxfId="957" priority="1179">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1116">
+    <cfRule type="expression" dxfId="956" priority="1180">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1117">
+    <cfRule type="expression" dxfId="955" priority="1181">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="1118">
+    <cfRule type="expression" dxfId="954" priority="1182">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1119">
+    <cfRule type="expression" dxfId="953" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1120">
+    <cfRule type="expression" dxfId="952" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:BS99">
-    <cfRule type="expression" dxfId="887" priority="1105">
+    <cfRule type="expression" dxfId="951" priority="1169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1106">
+    <cfRule type="expression" dxfId="950" priority="1170">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1107">
+    <cfRule type="expression" dxfId="949" priority="1171">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="1108">
+    <cfRule type="expression" dxfId="948" priority="1172">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1109">
+    <cfRule type="expression" dxfId="947" priority="1173">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1110">
+    <cfRule type="expression" dxfId="946" priority="1174">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="1111">
+    <cfRule type="expression" dxfId="945" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1112">
+    <cfRule type="expression" dxfId="944" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:BS105">
-    <cfRule type="expression" dxfId="879" priority="1097">
+    <cfRule type="expression" dxfId="943" priority="1161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="1098">
+    <cfRule type="expression" dxfId="942" priority="1162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1099">
+    <cfRule type="expression" dxfId="941" priority="1163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1100">
+    <cfRule type="expression" dxfId="940" priority="1164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="1101">
+    <cfRule type="expression" dxfId="939" priority="1165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1102">
+    <cfRule type="expression" dxfId="938" priority="1166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1103">
+    <cfRule type="expression" dxfId="937" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="1104">
+    <cfRule type="expression" dxfId="936" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:BS106">
+    <cfRule type="expression" dxfId="935" priority="1145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="934" priority="1146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="933" priority="1147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="932" priority="1148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="931" priority="1149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="930" priority="1150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="929" priority="1151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="928" priority="1152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107:BS107">
+    <cfRule type="expression" dxfId="927" priority="1137">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="926" priority="1138">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="925" priority="1139">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="924" priority="1140">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="923" priority="1141">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="922" priority="1142">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="921" priority="1143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="920" priority="1144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BS30">
+    <cfRule type="expression" dxfId="919" priority="1129">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="918" priority="1130">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="917" priority="1131">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="916" priority="1132">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="915" priority="1133">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="914" priority="1134">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="913" priority="1135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="912" priority="1136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BS31">
+    <cfRule type="expression" dxfId="911" priority="1121">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="910" priority="1122">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="909" priority="1123">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="908" priority="1124">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="907" priority="1125">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="906" priority="1126">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="905" priority="1127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="904" priority="1128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BS32">
+    <cfRule type="expression" dxfId="903" priority="1113">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="902" priority="1114">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="901" priority="1115">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="900" priority="1116">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="899" priority="1117">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="898" priority="1118">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="897" priority="1119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="896" priority="1120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BS33">
+    <cfRule type="expression" dxfId="895" priority="1105">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="894" priority="1106">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="893" priority="1107">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="892" priority="1108">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="891" priority="1109">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="890" priority="1110">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="889" priority="1111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="888" priority="1112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BS34">
+    <cfRule type="expression" dxfId="887" priority="1097">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="886" priority="1098">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="885" priority="1099">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="884" priority="1100">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="883" priority="1101">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="882" priority="1102">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="881" priority="1103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="880" priority="1104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BS35">
+    <cfRule type="expression" dxfId="879" priority="1089">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="878" priority="1090">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="877" priority="1091">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="876" priority="1092">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="875" priority="1093">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="874" priority="1094">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="873" priority="1095">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="872" priority="1096">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BS36">
     <cfRule type="expression" dxfId="871" priority="1081">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32625,215 +34665,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:BS107">
-    <cfRule type="expression" dxfId="863" priority="1073">
+  <conditionalFormatting sqref="I38:BS38">
+    <cfRule type="expression" dxfId="863" priority="1065">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1074">
+    <cfRule type="expression" dxfId="862" priority="1066">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1075">
+    <cfRule type="expression" dxfId="861" priority="1067">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="1076">
+    <cfRule type="expression" dxfId="860" priority="1068">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1077">
+    <cfRule type="expression" dxfId="859" priority="1069">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1078">
+    <cfRule type="expression" dxfId="858" priority="1070">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="1079">
+    <cfRule type="expression" dxfId="857" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1080">
+    <cfRule type="expression" dxfId="856" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BS30">
-    <cfRule type="expression" dxfId="855" priority="1065">
+  <conditionalFormatting sqref="I39:BS39">
+    <cfRule type="expression" dxfId="855" priority="1057">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="1066">
+    <cfRule type="expression" dxfId="854" priority="1058">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1067">
+    <cfRule type="expression" dxfId="853" priority="1059">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1068">
+    <cfRule type="expression" dxfId="852" priority="1060">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="1069">
+    <cfRule type="expression" dxfId="851" priority="1061">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1070">
+    <cfRule type="expression" dxfId="850" priority="1062">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1071">
+    <cfRule type="expression" dxfId="849" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="1072">
+    <cfRule type="expression" dxfId="848" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BS31">
-    <cfRule type="expression" dxfId="847" priority="1057">
+  <conditionalFormatting sqref="I40:BS40">
+    <cfRule type="expression" dxfId="847" priority="1049">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1058">
+    <cfRule type="expression" dxfId="846" priority="1050">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="1059">
+    <cfRule type="expression" dxfId="845" priority="1051">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1060">
+    <cfRule type="expression" dxfId="844" priority="1052">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1061">
+    <cfRule type="expression" dxfId="843" priority="1053">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="1062">
+    <cfRule type="expression" dxfId="842" priority="1054">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1063">
+    <cfRule type="expression" dxfId="841" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1064">
+    <cfRule type="expression" dxfId="840" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BS32">
-    <cfRule type="expression" dxfId="839" priority="1049">
+  <conditionalFormatting sqref="I41:BS41">
+    <cfRule type="expression" dxfId="839" priority="1041">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="1050">
+    <cfRule type="expression" dxfId="838" priority="1042">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="1051">
+    <cfRule type="expression" dxfId="837" priority="1043">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="1052">
+    <cfRule type="expression" dxfId="836" priority="1044">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="1053">
+    <cfRule type="expression" dxfId="835" priority="1045">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="1054">
+    <cfRule type="expression" dxfId="834" priority="1046">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="1055">
+    <cfRule type="expression" dxfId="833" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1056">
+    <cfRule type="expression" dxfId="832" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BS33">
-    <cfRule type="expression" dxfId="831" priority="1041">
+  <conditionalFormatting sqref="I42:BS42">
+    <cfRule type="expression" dxfId="831" priority="1033">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="1042">
+    <cfRule type="expression" dxfId="830" priority="1034">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="1043">
+    <cfRule type="expression" dxfId="829" priority="1035">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="1044">
+    <cfRule type="expression" dxfId="828" priority="1036">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="1045">
+    <cfRule type="expression" dxfId="827" priority="1037">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="1046">
+    <cfRule type="expression" dxfId="826" priority="1038">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="1047">
+    <cfRule type="expression" dxfId="825" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="1048">
+    <cfRule type="expression" dxfId="824" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BS34">
-    <cfRule type="expression" dxfId="823" priority="1033">
+  <conditionalFormatting sqref="I43:BS43">
+    <cfRule type="expression" dxfId="823" priority="1025">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="1034">
+    <cfRule type="expression" dxfId="822" priority="1026">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="1035">
+    <cfRule type="expression" dxfId="821" priority="1027">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="1036">
+    <cfRule type="expression" dxfId="820" priority="1028">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="1037">
+    <cfRule type="expression" dxfId="819" priority="1029">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="1038">
+    <cfRule type="expression" dxfId="818" priority="1030">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="1039">
+    <cfRule type="expression" dxfId="817" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="1040">
+    <cfRule type="expression" dxfId="816" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BS35">
-    <cfRule type="expression" dxfId="815" priority="1025">
+  <conditionalFormatting sqref="I44:BS44">
+    <cfRule type="expression" dxfId="815" priority="1017">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="1026">
+    <cfRule type="expression" dxfId="814" priority="1018">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="1027">
+    <cfRule type="expression" dxfId="813" priority="1019">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="1028">
+    <cfRule type="expression" dxfId="812" priority="1020">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="1029">
+    <cfRule type="expression" dxfId="811" priority="1021">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="1030">
+    <cfRule type="expression" dxfId="810" priority="1022">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="1031">
+    <cfRule type="expression" dxfId="809" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="1032">
+    <cfRule type="expression" dxfId="808" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BS36">
-    <cfRule type="expression" dxfId="807" priority="1017">
+  <conditionalFormatting sqref="I45:BS45">
+    <cfRule type="expression" dxfId="807" priority="1009">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="1018">
+    <cfRule type="expression" dxfId="806" priority="1010">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="1019">
+    <cfRule type="expression" dxfId="805" priority="1011">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="1020">
+    <cfRule type="expression" dxfId="804" priority="1012">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="1021">
+    <cfRule type="expression" dxfId="803" priority="1013">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="1022">
+    <cfRule type="expression" dxfId="802" priority="1014">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="1023">
+    <cfRule type="expression" dxfId="801" priority="1015">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="1024">
+    <cfRule type="expression" dxfId="800" priority="1016">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BS38">
+  <conditionalFormatting sqref="I46:BS46">
     <cfRule type="expression" dxfId="799" priority="1001">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32859,7 +34899,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BS39">
+  <conditionalFormatting sqref="I47:BS47">
     <cfRule type="expression" dxfId="791" priority="993">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32885,7 +34925,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BS40">
+  <conditionalFormatting sqref="I48:BS48">
     <cfRule type="expression" dxfId="783" priority="985">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32911,7 +34951,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BS41">
+  <conditionalFormatting sqref="I49:BS49">
     <cfRule type="expression" dxfId="775" priority="977">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32937,7 +34977,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BS42">
+  <conditionalFormatting sqref="I50:BS50">
     <cfRule type="expression" dxfId="767" priority="969">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32963,7 +35003,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BS43">
+  <conditionalFormatting sqref="I51:BS51">
     <cfRule type="expression" dxfId="759" priority="961">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32989,7 +35029,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BS44">
+  <conditionalFormatting sqref="I52:BS52">
     <cfRule type="expression" dxfId="751" priority="953">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33015,7 +35055,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BS45">
+  <conditionalFormatting sqref="I53:BS53">
     <cfRule type="expression" dxfId="743" priority="945">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33041,7 +35081,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BS46">
+  <conditionalFormatting sqref="I54:BS54">
     <cfRule type="expression" dxfId="735" priority="937">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33067,7 +35107,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BS47">
+  <conditionalFormatting sqref="I55:BS55">
     <cfRule type="expression" dxfId="727" priority="929">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33093,7 +35133,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BS48">
+  <conditionalFormatting sqref="I56:BS56">
     <cfRule type="expression" dxfId="719" priority="921">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33119,7 +35159,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BS49">
+  <conditionalFormatting sqref="I57:BS57">
     <cfRule type="expression" dxfId="711" priority="913">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33145,7 +35185,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BS50">
+  <conditionalFormatting sqref="I58:BS58">
     <cfRule type="expression" dxfId="703" priority="905">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33171,7 +35211,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BS51">
+  <conditionalFormatting sqref="I59:BS59">
     <cfRule type="expression" dxfId="695" priority="897">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33197,215 +35237,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BS52">
-    <cfRule type="expression" dxfId="687" priority="889">
+  <conditionalFormatting sqref="I60:BS60">
+    <cfRule type="expression" dxfId="687" priority="729">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="890">
+    <cfRule type="expression" dxfId="686" priority="730">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="891">
+    <cfRule type="expression" dxfId="685" priority="731">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="892">
+    <cfRule type="expression" dxfId="684" priority="732">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="893">
+    <cfRule type="expression" dxfId="683" priority="733">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="894">
+    <cfRule type="expression" dxfId="682" priority="734">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="895">
+    <cfRule type="expression" dxfId="681" priority="735">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="896">
+    <cfRule type="expression" dxfId="680" priority="736">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BS53">
-    <cfRule type="expression" dxfId="679" priority="881">
+  <conditionalFormatting sqref="I61:BS61">
+    <cfRule type="expression" dxfId="679" priority="721">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="882">
+    <cfRule type="expression" dxfId="678" priority="722">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="883">
+    <cfRule type="expression" dxfId="677" priority="723">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="884">
+    <cfRule type="expression" dxfId="676" priority="724">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="885">
+    <cfRule type="expression" dxfId="675" priority="725">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="886">
+    <cfRule type="expression" dxfId="674" priority="726">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="887">
+    <cfRule type="expression" dxfId="673" priority="727">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="888">
+    <cfRule type="expression" dxfId="672" priority="728">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BS54">
-    <cfRule type="expression" dxfId="671" priority="873">
+  <conditionalFormatting sqref="I62:BS62">
+    <cfRule type="expression" dxfId="671" priority="713">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="874">
+    <cfRule type="expression" dxfId="670" priority="714">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="875">
+    <cfRule type="expression" dxfId="669" priority="715">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="876">
+    <cfRule type="expression" dxfId="668" priority="716">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="877">
+    <cfRule type="expression" dxfId="667" priority="717">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="878">
+    <cfRule type="expression" dxfId="666" priority="718">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="879">
+    <cfRule type="expression" dxfId="665" priority="719">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="880">
+    <cfRule type="expression" dxfId="664" priority="720">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BS55">
-    <cfRule type="expression" dxfId="663" priority="865">
+  <conditionalFormatting sqref="I63:BS63">
+    <cfRule type="expression" dxfId="663" priority="705">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="866">
+    <cfRule type="expression" dxfId="662" priority="706">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="867">
+    <cfRule type="expression" dxfId="661" priority="707">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="868">
+    <cfRule type="expression" dxfId="660" priority="708">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="869">
+    <cfRule type="expression" dxfId="659" priority="709">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="870">
+    <cfRule type="expression" dxfId="658" priority="710">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="871">
+    <cfRule type="expression" dxfId="657" priority="711">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="872">
+    <cfRule type="expression" dxfId="656" priority="712">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BS56">
-    <cfRule type="expression" dxfId="655" priority="857">
+  <conditionalFormatting sqref="I64:BS64">
+    <cfRule type="expression" dxfId="655" priority="697">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="858">
+    <cfRule type="expression" dxfId="654" priority="698">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="859">
+    <cfRule type="expression" dxfId="653" priority="699">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="860">
+    <cfRule type="expression" dxfId="652" priority="700">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="861">
+    <cfRule type="expression" dxfId="651" priority="701">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="862">
+    <cfRule type="expression" dxfId="650" priority="702">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="863">
+    <cfRule type="expression" dxfId="649" priority="703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="864">
+    <cfRule type="expression" dxfId="648" priority="704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BS57">
-    <cfRule type="expression" dxfId="647" priority="849">
+  <conditionalFormatting sqref="I65:BS65">
+    <cfRule type="expression" dxfId="647" priority="689">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="850">
+    <cfRule type="expression" dxfId="646" priority="690">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="851">
+    <cfRule type="expression" dxfId="645" priority="691">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="852">
+    <cfRule type="expression" dxfId="644" priority="692">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="853">
+    <cfRule type="expression" dxfId="643" priority="693">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="854">
+    <cfRule type="expression" dxfId="642" priority="694">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="855">
+    <cfRule type="expression" dxfId="641" priority="695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="856">
+    <cfRule type="expression" dxfId="640" priority="696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BS58">
-    <cfRule type="expression" dxfId="639" priority="841">
+  <conditionalFormatting sqref="I66:BS66">
+    <cfRule type="expression" dxfId="639" priority="681">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="842">
+    <cfRule type="expression" dxfId="638" priority="682">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="843">
+    <cfRule type="expression" dxfId="637" priority="683">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="844">
+    <cfRule type="expression" dxfId="636" priority="684">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="845">
+    <cfRule type="expression" dxfId="635" priority="685">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="846">
+    <cfRule type="expression" dxfId="634" priority="686">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="847">
+    <cfRule type="expression" dxfId="633" priority="687">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="848">
+    <cfRule type="expression" dxfId="632" priority="688">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BS59">
-    <cfRule type="expression" dxfId="631" priority="833">
+  <conditionalFormatting sqref="I67:BS67">
+    <cfRule type="expression" dxfId="631" priority="673">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="834">
+    <cfRule type="expression" dxfId="630" priority="674">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="835">
+    <cfRule type="expression" dxfId="629" priority="675">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="836">
+    <cfRule type="expression" dxfId="628" priority="676">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="837">
+    <cfRule type="expression" dxfId="627" priority="677">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="838">
+    <cfRule type="expression" dxfId="626" priority="678">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="839">
+    <cfRule type="expression" dxfId="625" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="840">
+    <cfRule type="expression" dxfId="624" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BS60">
+  <conditionalFormatting sqref="I68:BS68">
     <cfRule type="expression" dxfId="623" priority="665">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33431,7 +35471,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BS61">
+  <conditionalFormatting sqref="I69:BS69">
     <cfRule type="expression" dxfId="615" priority="657">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33457,7 +35497,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BS62">
+  <conditionalFormatting sqref="I70:BS70">
     <cfRule type="expression" dxfId="607" priority="649">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33483,7 +35523,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BS63">
+  <conditionalFormatting sqref="I71:BS71">
     <cfRule type="expression" dxfId="599" priority="641">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33509,7 +35549,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BS64">
+  <conditionalFormatting sqref="I72:BS72">
     <cfRule type="expression" dxfId="591" priority="633">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33535,7 +35575,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BS65">
+  <conditionalFormatting sqref="I73:BS73">
     <cfRule type="expression" dxfId="583" priority="625">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33561,7 +35601,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BS66">
+  <conditionalFormatting sqref="I74:BS74">
     <cfRule type="expression" dxfId="575" priority="617">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33587,7 +35627,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BS67">
+  <conditionalFormatting sqref="I75:BS75">
     <cfRule type="expression" dxfId="567" priority="609">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33613,7 +35653,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BS68">
+  <conditionalFormatting sqref="I76:BS76">
     <cfRule type="expression" dxfId="559" priority="601">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33639,7 +35679,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BS69">
+  <conditionalFormatting sqref="I77:BS77">
     <cfRule type="expression" dxfId="551" priority="593">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33665,7 +35705,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BS70">
+  <conditionalFormatting sqref="I78:BS78">
     <cfRule type="expression" dxfId="543" priority="585">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33691,241 +35731,241 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BS71">
-    <cfRule type="expression" dxfId="535" priority="577">
+  <conditionalFormatting sqref="I6:BS7">
+    <cfRule type="expression" dxfId="535" priority="737">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="578">
+    <cfRule type="expression" dxfId="534" priority="738">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="579">
+    <cfRule type="expression" dxfId="533" priority="739">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="580">
+    <cfRule type="expression" dxfId="532" priority="740">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="581">
+    <cfRule type="expression" dxfId="531" priority="741">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="582">
+    <cfRule type="expression" dxfId="530" priority="742">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="583">
+    <cfRule type="expression" dxfId="529" priority="743">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="584">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BS72">
-    <cfRule type="expression" dxfId="527" priority="569">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="570">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="571">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="572">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="573">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="574">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="575">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="576">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BS73">
-    <cfRule type="expression" dxfId="519" priority="561">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="518" priority="562">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="563">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="564">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="565">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="566">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="567">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="512" priority="568">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BS74">
-    <cfRule type="expression" dxfId="511" priority="553">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="510" priority="554">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="555">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="556">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="557">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="506" priority="558">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="559">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="560">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BS75">
-    <cfRule type="expression" dxfId="503" priority="545">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="546">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="547">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="548">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="549">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="550">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="551">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="552">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BS76">
-    <cfRule type="expression" dxfId="495" priority="537">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="494" priority="538">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="539">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="540">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="541">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="542">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="543">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="544">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BS77">
-    <cfRule type="expression" dxfId="487" priority="529">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="530">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="531">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="532">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="533">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="482" priority="534">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="535">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="536">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BS78">
-    <cfRule type="expression" dxfId="479" priority="521">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="522">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="523">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="524">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="525">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="526">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="527">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="528">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BS7">
-    <cfRule type="expression" dxfId="471" priority="673">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="470" priority="674">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="675">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="676">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="677">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="678">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="679">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="680">
+    <cfRule type="expression" dxfId="528" priority="744">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:BS79">
+    <cfRule type="expression" dxfId="527" priority="577">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="578">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="579">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="524" priority="580">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="581">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="582">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="583">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="520" priority="584">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108:BS108">
+    <cfRule type="expression" dxfId="519" priority="569">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="518" priority="570">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="571">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="516" priority="572">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="573">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="574">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="575">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="512" priority="576">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109:BS109">
+    <cfRule type="expression" dxfId="511" priority="561">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="562">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="563">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="508" priority="564">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="565">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="506" priority="566">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="567">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="504" priority="568">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110:BS110">
+    <cfRule type="expression" dxfId="503" priority="553">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="502" priority="554">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="555">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="500" priority="556">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="557">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="498" priority="558">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="559">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="496" priority="560">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111:BS112">
+    <cfRule type="expression" dxfId="495" priority="545">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="494" priority="546">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="547">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="492" priority="548">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="549">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="490" priority="550">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="551">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="488" priority="552">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113:BS113">
+    <cfRule type="expression" dxfId="487" priority="537">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="538">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="539">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="484" priority="540">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="541">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="482" priority="542">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="543">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="544">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114:BS114">
+    <cfRule type="expression" dxfId="479" priority="529">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="530">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="531">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="476" priority="532">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="533">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="534">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="535">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="472" priority="536">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:BS115">
+    <cfRule type="expression" dxfId="471" priority="521">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="470" priority="522">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="523">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="468" priority="524">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="525">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="526">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="527">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="464" priority="528">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116:BS117">
     <cfRule type="expression" dxfId="463" priority="513">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33951,7 +35991,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108:BS108">
+  <conditionalFormatting sqref="I118:BS118">
     <cfRule type="expression" dxfId="455" priority="505">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33977,7 +36017,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109:BS109">
+  <conditionalFormatting sqref="I119:BS119">
     <cfRule type="expression" dxfId="447" priority="497">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34003,7 +36043,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110:BS110">
+  <conditionalFormatting sqref="I120:BS120">
     <cfRule type="expression" dxfId="439" priority="489">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34029,7 +36069,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:BS112">
+  <conditionalFormatting sqref="I121:BS121">
     <cfRule type="expression" dxfId="431" priority="481">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34055,7 +36095,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BS113">
+  <conditionalFormatting sqref="I122:BS122">
     <cfRule type="expression" dxfId="423" priority="473">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34081,293 +36121,293 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:BS114">
-    <cfRule type="expression" dxfId="415" priority="465">
+  <conditionalFormatting sqref="I125:BS125">
+    <cfRule type="expression" dxfId="415" priority="457">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="466">
+    <cfRule type="expression" dxfId="414" priority="458">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="467">
+    <cfRule type="expression" dxfId="413" priority="459">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="468">
+    <cfRule type="expression" dxfId="412" priority="460">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="469">
+    <cfRule type="expression" dxfId="411" priority="461">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="470">
+    <cfRule type="expression" dxfId="410" priority="462">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="471">
+    <cfRule type="expression" dxfId="409" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="472">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:BS115">
-    <cfRule type="expression" dxfId="407" priority="457">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="458">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="459">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="460">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="461">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="462">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="463">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="464">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BS117">
-    <cfRule type="expression" dxfId="399" priority="449">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="450">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="451">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="452">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="453">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="394" priority="454">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="455">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="456">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I118:BS118">
-    <cfRule type="expression" dxfId="391" priority="441">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="390" priority="442">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="443">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="444">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="445">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="386" priority="446">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="447">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="448">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119:BS119">
-    <cfRule type="expression" dxfId="383" priority="433">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="434">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="435">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="436">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="437">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="378" priority="438">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="439">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="440">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BS120">
-    <cfRule type="expression" dxfId="375" priority="425">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="374" priority="426">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="427">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="428">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="429">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="430">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="431">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="432">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121:BS121">
-    <cfRule type="expression" dxfId="367" priority="417">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="418">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="419">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="420">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="421">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="422">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="423">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="424">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122:BS122">
-    <cfRule type="expression" dxfId="359" priority="409">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="410">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="411">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="412">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="413">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="414">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="415">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="416">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BS125">
-    <cfRule type="expression" dxfId="351" priority="393">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="394">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="395">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="396">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="397">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="398">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="399">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="400">
+    <cfRule type="expression" dxfId="408" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126:BS126">
-    <cfRule type="expression" dxfId="343" priority="385">
+    <cfRule type="expression" dxfId="407" priority="449">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="386">
+    <cfRule type="expression" dxfId="406" priority="450">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="387">
+    <cfRule type="expression" dxfId="405" priority="451">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="388">
+    <cfRule type="expression" dxfId="404" priority="452">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="389">
+    <cfRule type="expression" dxfId="403" priority="453">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="390">
+    <cfRule type="expression" dxfId="402" priority="454">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="391">
+    <cfRule type="expression" dxfId="401" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="392">
+    <cfRule type="expression" dxfId="400" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:BS127">
-    <cfRule type="expression" dxfId="335" priority="377">
+    <cfRule type="expression" dxfId="399" priority="441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="378">
+    <cfRule type="expression" dxfId="398" priority="442">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="379">
+    <cfRule type="expression" dxfId="397" priority="443">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="380">
+    <cfRule type="expression" dxfId="396" priority="444">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="381">
+    <cfRule type="expression" dxfId="395" priority="445">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="382">
+    <cfRule type="expression" dxfId="394" priority="446">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="383">
+    <cfRule type="expression" dxfId="393" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="384">
+    <cfRule type="expression" dxfId="392" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:BS130">
+    <cfRule type="expression" dxfId="391" priority="425">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="426">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="427">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="428">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="429">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="430">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="431">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="432">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131:BS131">
+    <cfRule type="expression" dxfId="383" priority="417">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="418">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="419">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="420">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="421">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="422">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="423">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="424">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132:BS132">
+    <cfRule type="expression" dxfId="375" priority="409">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="410">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="411">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="412">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="413">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="414">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="415">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="416">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133:BS133">
+    <cfRule type="expression" dxfId="367" priority="401">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="402">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="403">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="404">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="405">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="406">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="407">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="408">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134:BS134">
+    <cfRule type="expression" dxfId="359" priority="393">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="394">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="395">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="396">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="397">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="398">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="399">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="400">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:BS136">
+    <cfRule type="expression" dxfId="351" priority="385">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="386">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="387">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="388">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="389">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="390">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="391">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="392">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I164:BS164">
+    <cfRule type="expression" dxfId="343" priority="185">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="186">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="187">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="188">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="189">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="190">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137:BS137">
+    <cfRule type="expression" dxfId="335" priority="369">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="370">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="371">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="372">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="373">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="374">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="375">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="376">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:BS138">
     <cfRule type="expression" dxfId="327" priority="361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34393,7 +36433,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I131:BS131">
+  <conditionalFormatting sqref="I139:BS140">
     <cfRule type="expression" dxfId="319" priority="353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34419,215 +36459,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BS132">
-    <cfRule type="expression" dxfId="311" priority="345">
+  <conditionalFormatting sqref="I141:BS141">
+    <cfRule type="expression" dxfId="311" priority="337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="346">
+    <cfRule type="expression" dxfId="310" priority="338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="347">
+    <cfRule type="expression" dxfId="309" priority="339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="348">
+    <cfRule type="expression" dxfId="308" priority="340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="349">
+    <cfRule type="expression" dxfId="307" priority="341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="350">
+    <cfRule type="expression" dxfId="306" priority="342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="351">
+    <cfRule type="expression" dxfId="305" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="352">
+    <cfRule type="expression" dxfId="304" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:BS133">
-    <cfRule type="expression" dxfId="303" priority="337">
+  <conditionalFormatting sqref="I142:BS142">
+    <cfRule type="expression" dxfId="303" priority="329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="338">
+    <cfRule type="expression" dxfId="302" priority="330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="339">
+    <cfRule type="expression" dxfId="301" priority="331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="340">
+    <cfRule type="expression" dxfId="300" priority="332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="341">
+    <cfRule type="expression" dxfId="299" priority="333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="342">
+    <cfRule type="expression" dxfId="298" priority="334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="343">
+    <cfRule type="expression" dxfId="297" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="344">
+    <cfRule type="expression" dxfId="296" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134:BS134">
-    <cfRule type="expression" dxfId="295" priority="329">
+  <conditionalFormatting sqref="I143:BS143">
+    <cfRule type="expression" dxfId="295" priority="321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="330">
+    <cfRule type="expression" dxfId="294" priority="322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="331">
+    <cfRule type="expression" dxfId="293" priority="323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="332">
+    <cfRule type="expression" dxfId="292" priority="324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="333">
+    <cfRule type="expression" dxfId="291" priority="325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="334">
+    <cfRule type="expression" dxfId="290" priority="326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="335">
+    <cfRule type="expression" dxfId="289" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="336">
+    <cfRule type="expression" dxfId="288" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135:BS136">
-    <cfRule type="expression" dxfId="287" priority="321">
+  <conditionalFormatting sqref="I144:BS144">
+    <cfRule type="expression" dxfId="287" priority="313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="322">
+    <cfRule type="expression" dxfId="286" priority="314">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="323">
+    <cfRule type="expression" dxfId="285" priority="315">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="324">
+    <cfRule type="expression" dxfId="284" priority="316">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="325">
+    <cfRule type="expression" dxfId="283" priority="317">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="326">
+    <cfRule type="expression" dxfId="282" priority="318">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="327">
+    <cfRule type="expression" dxfId="281" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="328">
+    <cfRule type="expression" dxfId="280" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164:BS164">
-    <cfRule type="expression" dxfId="279" priority="121">
+  <conditionalFormatting sqref="I145:BS146">
+    <cfRule type="expression" dxfId="279" priority="305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="122">
+    <cfRule type="expression" dxfId="278" priority="306">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="123">
+    <cfRule type="expression" dxfId="277" priority="307">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="124">
+    <cfRule type="expression" dxfId="276" priority="308">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="125">
+    <cfRule type="expression" dxfId="275" priority="309">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="126">
+    <cfRule type="expression" dxfId="274" priority="310">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="127">
+    <cfRule type="expression" dxfId="273" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="128">
+    <cfRule type="expression" dxfId="272" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I137:BS137">
-    <cfRule type="expression" dxfId="271" priority="305">
+  <conditionalFormatting sqref="I147:BS147">
+    <cfRule type="expression" dxfId="271" priority="297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="306">
+    <cfRule type="expression" dxfId="270" priority="298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="307">
+    <cfRule type="expression" dxfId="269" priority="299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="308">
+    <cfRule type="expression" dxfId="268" priority="300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="309">
+    <cfRule type="expression" dxfId="267" priority="301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="310">
+    <cfRule type="expression" dxfId="266" priority="302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="311">
+    <cfRule type="expression" dxfId="265" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="312">
+    <cfRule type="expression" dxfId="264" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I138:BS138">
-    <cfRule type="expression" dxfId="263" priority="297">
+  <conditionalFormatting sqref="I148:BS148">
+    <cfRule type="expression" dxfId="263" priority="289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="298">
+    <cfRule type="expression" dxfId="262" priority="290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="299">
+    <cfRule type="expression" dxfId="261" priority="291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="300">
+    <cfRule type="expression" dxfId="260" priority="292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="301">
+    <cfRule type="expression" dxfId="259" priority="293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="302">
+    <cfRule type="expression" dxfId="258" priority="294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="303">
+    <cfRule type="expression" dxfId="257" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="304">
+    <cfRule type="expression" dxfId="256" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I139:BS140">
-    <cfRule type="expression" dxfId="255" priority="289">
+  <conditionalFormatting sqref="I149:BS149">
+    <cfRule type="expression" dxfId="255" priority="281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="290">
+    <cfRule type="expression" dxfId="254" priority="282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="291">
+    <cfRule type="expression" dxfId="253" priority="283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="292">
+    <cfRule type="expression" dxfId="252" priority="284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="293">
+    <cfRule type="expression" dxfId="251" priority="285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="294">
+    <cfRule type="expression" dxfId="250" priority="286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="295">
+    <cfRule type="expression" dxfId="249" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="296">
+    <cfRule type="expression" dxfId="248" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I141:BS141">
+  <conditionalFormatting sqref="I150:BS151">
     <cfRule type="expression" dxfId="247" priority="273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34653,7 +36693,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142:BS142">
+  <conditionalFormatting sqref="I152:BS152">
     <cfRule type="expression" dxfId="239" priority="265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34679,7 +36719,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I143:BS143">
+  <conditionalFormatting sqref="I153:BS153">
     <cfRule type="expression" dxfId="231" priority="257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34705,7 +36745,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I144:BS144">
+  <conditionalFormatting sqref="I154:BS154">
     <cfRule type="expression" dxfId="223" priority="249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34731,7 +36771,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BS146">
+  <conditionalFormatting sqref="I155:BS155">
     <cfRule type="expression" dxfId="215" priority="241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34757,7 +36797,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:BS147">
+  <conditionalFormatting sqref="I156:BS156">
     <cfRule type="expression" dxfId="207" priority="233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34783,7 +36823,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I148:BS148">
+  <conditionalFormatting sqref="I157:BS158">
     <cfRule type="expression" dxfId="199" priority="225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34809,7 +36849,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BS149">
+  <conditionalFormatting sqref="I159:BS159">
     <cfRule type="expression" dxfId="191" priority="217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34835,7 +36875,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BS151">
+  <conditionalFormatting sqref="I160:BS160">
     <cfRule type="expression" dxfId="183" priority="209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34861,7 +36901,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BS152">
+  <conditionalFormatting sqref="I161:BS162">
     <cfRule type="expression" dxfId="175" priority="201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34887,7 +36927,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I153:BS153">
+  <conditionalFormatting sqref="I163:BS163">
     <cfRule type="expression" dxfId="167" priority="193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34913,241 +36953,241 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I154:BS154">
-    <cfRule type="expression" dxfId="159" priority="185">
+  <conditionalFormatting sqref="I167:BS167">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186">
+    <cfRule type="expression" dxfId="158" priority="162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="187">
+    <cfRule type="expression" dxfId="157" priority="163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188">
+    <cfRule type="expression" dxfId="156" priority="164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="189">
+    <cfRule type="expression" dxfId="155" priority="165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="190">
+    <cfRule type="expression" dxfId="154" priority="166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="191">
+    <cfRule type="expression" dxfId="153" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="192">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155:BS155">
-    <cfRule type="expression" dxfId="151" priority="177">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="178">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="179">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="180">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="181">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="182">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="183">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156:BS156">
-    <cfRule type="expression" dxfId="143" priority="169">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="170">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="171">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="172">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="173">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="174">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I157:BS158">
-    <cfRule type="expression" dxfId="135" priority="161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I159:BS159">
-    <cfRule type="expression" dxfId="127" priority="153">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="154">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="155">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="156">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="157">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="158">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I160:BS160">
-    <cfRule type="expression" dxfId="119" priority="145">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="146">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="147">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="148">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="149">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="150">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:BS162">
-    <cfRule type="expression" dxfId="111" priority="137">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="138">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="139">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="140">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="141">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="142">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I163:BS163">
-    <cfRule type="expression" dxfId="103" priority="129">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="130">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="131">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="132">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="133">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="134">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="135">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="136">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167:BS167">
-    <cfRule type="expression" dxfId="95" priority="97">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="152" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169:BS169">
+    <cfRule type="expression" dxfId="151" priority="145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I168:BS168">
+    <cfRule type="expression" dxfId="143" priority="137">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="138">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="139">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="140">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="141">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="142">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:BS104">
+    <cfRule type="expression" dxfId="135" priority="129">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="130">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="131">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="132">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="133">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="134">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I170:BS170">
+    <cfRule type="expression" dxfId="127" priority="121">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="122">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="123">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="124">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="125">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="126">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I171:BS171">
+    <cfRule type="expression" dxfId="119" priority="113">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="114">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="115">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="116">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="117">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="118">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I172:BS172">
+    <cfRule type="expression" dxfId="111" priority="105">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="106">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="107">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="108">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="109">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="110">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I173:BS174">
+    <cfRule type="expression" dxfId="103" priority="97">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="98">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="99">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="100">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="101">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="102">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I175:BS175">
+    <cfRule type="expression" dxfId="95" priority="89">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="90">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="91">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="92">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="93">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="94">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I176:BS176">
     <cfRule type="expression" dxfId="87" priority="81">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35173,7 +37213,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I168:BS168">
+  <conditionalFormatting sqref="I177:BS178">
     <cfRule type="expression" dxfId="79" priority="73">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35199,7 +37239,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BS104">
+  <conditionalFormatting sqref="I179:BS179">
     <cfRule type="expression" dxfId="71" priority="65">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35225,7 +37265,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I170:BS170">
+  <conditionalFormatting sqref="I180:BS180">
     <cfRule type="expression" dxfId="63" priority="57">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35251,7 +37291,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I171:BS171">
+  <conditionalFormatting sqref="I181:BS181">
     <cfRule type="expression" dxfId="55" priority="49">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35277,7 +37317,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I172:BS172">
+  <conditionalFormatting sqref="I182:BS182">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35303,7 +37343,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I173:BS174">
+  <conditionalFormatting sqref="I183:BS185">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35329,7 +37369,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I175:BS175">
+  <conditionalFormatting sqref="I186:BS186">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35355,7 +37395,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176:BS176">
+  <conditionalFormatting sqref="I187:BS187">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35381,7 +37421,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I177:BS178">
+  <conditionalFormatting sqref="I188:BS190">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35407,7 +37447,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I179:BS179">
+  <conditionalFormatting sqref="I191:BS191">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B7E9D-CEB5-4A41-9EA9-82AC774F60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54603BC-8901-44FB-8A28-ED3F2DAD1E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t>Trình lập kế hoạch Dự án</t>
   </si>
@@ -588,6 +588,12 @@
     <t>FE: autoBuyTickets</t>
   </si>
   <si>
+    <t>BE: autoBuyTickets</t>
+  </si>
+  <si>
+    <t>BE: huntingSaleTickets</t>
+  </si>
+  <si>
     <t>FE: C.R.D Account</t>
   </si>
   <si>
@@ -598,30 +604,6 @@
   </si>
   <si>
     <t>BE: lockAccount</t>
-  </si>
-  <si>
-    <t>BE: collectDiscountTickets</t>
-  </si>
-  <si>
-    <t>BE: automaticTicketPurchase</t>
-  </si>
-  <si>
-    <t>Quản lý ví thanh toán</t>
-  </si>
-  <si>
-    <t>FE: bankIntegration</t>
-  </si>
-  <si>
-    <t>FE: topUp</t>
-  </si>
-  <si>
-    <t>FE: withdrawal</t>
-  </si>
-  <si>
-    <t>FE: paymentHistory</t>
-  </si>
-  <si>
-    <t>Story Points: 24</t>
   </si>
 </sst>
 </file>
@@ -840,7 +822,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,12 +981,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1591,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2012,18 +1988,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="% hoàn thành" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
@@ -2047,839 +2011,7 @@
     <cellStyle name="Tiêu đề" xfId="3" builtinId="15"/>
     <cellStyle name="Văn bản Giải thích" xfId="4" builtinId="53"/>
   </cellStyles>
-  <dxfs count="1201">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1137">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -17919,13 +17051,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT192"/>
+  <dimension ref="A1:BT180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I171" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I100" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G194" sqref="G194"/>
+      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -26329,7 +25461,7 @@
     <row r="102" spans="2:71" ht="36" customHeight="1">
       <c r="B102" s="69"/>
       <c r="C102" s="60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="41"/>
@@ -26569,7 +25701,7 @@
     <row r="105" spans="2:71" ht="36" customHeight="1">
       <c r="B105" s="69"/>
       <c r="C105" s="60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="41"/>
@@ -26893,7 +26025,7 @@
     <row r="109" spans="2:71" ht="36" customHeight="1">
       <c r="B109" s="96"/>
       <c r="C109" s="65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
@@ -27133,7 +26265,7 @@
     <row r="112" spans="2:71" ht="36" customHeight="1">
       <c r="B112" s="96"/>
       <c r="C112" s="65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
@@ -27293,7 +26425,7 @@
     <row r="114" spans="2:71" ht="36" customHeight="1">
       <c r="B114" s="96"/>
       <c r="C114" s="60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="41"/>
@@ -27533,7 +26665,7 @@
     <row r="117" spans="2:71" ht="36" customHeight="1">
       <c r="B117" s="96"/>
       <c r="C117" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="41"/>
@@ -32595,971 +31727,7 @@
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
     </row>
-    <row r="180" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B180" s="133"/>
-      <c r="C180" s="132" t="s">
-        <v>181</v>
-      </c>
-      <c r="D180" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E180" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="F180" s="48">
-        <v>41</v>
-      </c>
-      <c r="G180" s="48">
-        <v>10</v>
-      </c>
-      <c r="H180" s="49">
-        <v>0</v>
-      </c>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="4"/>
-      <c r="AD180" s="4"/>
-      <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
-      <c r="AG180" s="4"/>
-      <c r="AH180" s="4"/>
-      <c r="AI180" s="4"/>
-      <c r="AJ180" s="4"/>
-      <c r="AK180" s="4"/>
-      <c r="AL180" s="4"/>
-      <c r="AM180" s="4"/>
-      <c r="AN180" s="4"/>
-      <c r="AO180" s="4"/>
-      <c r="AP180" s="4"/>
-      <c r="AQ180" s="4"/>
-      <c r="AR180" s="4"/>
-      <c r="AS180" s="4"/>
-      <c r="AT180" s="4"/>
-      <c r="AU180" s="4"/>
-      <c r="AV180" s="4"/>
-      <c r="AW180" s="4"/>
-      <c r="AX180" s="4"/>
-      <c r="AY180" s="4"/>
-      <c r="AZ180" s="4"/>
-      <c r="BA180" s="4"/>
-      <c r="BB180" s="4"/>
-      <c r="BC180" s="4"/>
-      <c r="BD180" s="4"/>
-      <c r="BE180" s="4"/>
-      <c r="BF180" s="4"/>
-      <c r="BG180" s="4"/>
-      <c r="BH180" s="4"/>
-      <c r="BI180" s="4"/>
-      <c r="BJ180" s="4"/>
-      <c r="BK180" s="4"/>
-      <c r="BL180" s="4"/>
-      <c r="BM180" s="4"/>
-      <c r="BN180" s="4"/>
-      <c r="BO180" s="4"/>
-      <c r="BP180" s="4"/>
-      <c r="BQ180" s="4"/>
-      <c r="BR180" s="4"/>
-      <c r="BS180" s="4"/>
-    </row>
-    <row r="181" spans="2:71" ht="36" customHeight="1">
-      <c r="B181" s="134"/>
-      <c r="C181" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="40"/>
-      <c r="E181" s="41"/>
-      <c r="F181" s="42">
-        <v>41</v>
-      </c>
-      <c r="G181" s="42">
-        <v>10</v>
-      </c>
-      <c r="H181" s="45">
-        <v>0</v>
-      </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
-      <c r="U181" s="3"/>
-      <c r="V181" s="3"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="4"/>
-      <c r="AD181" s="4"/>
-      <c r="AE181" s="4"/>
-      <c r="AF181" s="4"/>
-      <c r="AG181" s="4"/>
-      <c r="AH181" s="4"/>
-      <c r="AI181" s="4"/>
-      <c r="AJ181" s="4"/>
-      <c r="AK181" s="4"/>
-      <c r="AL181" s="4"/>
-      <c r="AM181" s="4"/>
-      <c r="AN181" s="4"/>
-      <c r="AO181" s="4"/>
-      <c r="AP181" s="4"/>
-      <c r="AQ181" s="4"/>
-      <c r="AR181" s="4"/>
-      <c r="AS181" s="4"/>
-      <c r="AT181" s="4"/>
-      <c r="AU181" s="4"/>
-      <c r="AV181" s="4"/>
-      <c r="AW181" s="4"/>
-      <c r="AX181" s="4"/>
-      <c r="AY181" s="4"/>
-      <c r="AZ181" s="4"/>
-      <c r="BA181" s="4"/>
-      <c r="BB181" s="4"/>
-      <c r="BC181" s="4"/>
-      <c r="BD181" s="4"/>
-      <c r="BE181" s="4"/>
-      <c r="BF181" s="4"/>
-      <c r="BG181" s="4"/>
-      <c r="BH181" s="4"/>
-      <c r="BI181" s="4"/>
-      <c r="BJ181" s="4"/>
-      <c r="BK181" s="4"/>
-      <c r="BL181" s="4"/>
-      <c r="BM181" s="4"/>
-      <c r="BN181" s="4"/>
-      <c r="BO181" s="4"/>
-      <c r="BP181" s="4"/>
-      <c r="BQ181" s="4"/>
-      <c r="BR181" s="4"/>
-      <c r="BS181" s="4"/>
-    </row>
-    <row r="182" spans="2:71" ht="36" customHeight="1">
-      <c r="B182" s="134"/>
-      <c r="C182" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="D182" s="40"/>
-      <c r="E182" s="41"/>
-      <c r="F182" s="42">
-        <v>41</v>
-      </c>
-      <c r="G182" s="42">
-        <v>10</v>
-      </c>
-      <c r="H182" s="45">
-        <v>0</v>
-      </c>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-      <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
-      <c r="U182" s="3"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="4"/>
-      <c r="AD182" s="4"/>
-      <c r="AE182" s="4"/>
-      <c r="AF182" s="4"/>
-      <c r="AG182" s="4"/>
-      <c r="AH182" s="4"/>
-      <c r="AI182" s="4"/>
-      <c r="AJ182" s="4"/>
-      <c r="AK182" s="4"/>
-      <c r="AL182" s="4"/>
-      <c r="AM182" s="4"/>
-      <c r="AN182" s="4"/>
-      <c r="AO182" s="4"/>
-      <c r="AP182" s="4"/>
-      <c r="AQ182" s="4"/>
-      <c r="AR182" s="4"/>
-      <c r="AS182" s="4"/>
-      <c r="AT182" s="4"/>
-      <c r="AU182" s="4"/>
-      <c r="AV182" s="4"/>
-      <c r="AW182" s="4"/>
-      <c r="AX182" s="4"/>
-      <c r="AY182" s="4"/>
-      <c r="AZ182" s="4"/>
-      <c r="BA182" s="4"/>
-      <c r="BB182" s="4"/>
-      <c r="BC182" s="4"/>
-      <c r="BD182" s="4"/>
-      <c r="BE182" s="4"/>
-      <c r="BF182" s="4"/>
-      <c r="BG182" s="4"/>
-      <c r="BH182" s="4"/>
-      <c r="BI182" s="4"/>
-      <c r="BJ182" s="4"/>
-      <c r="BK182" s="4"/>
-      <c r="BL182" s="4"/>
-      <c r="BM182" s="4"/>
-      <c r="BN182" s="4"/>
-      <c r="BO182" s="4"/>
-      <c r="BP182" s="4"/>
-      <c r="BQ182" s="4"/>
-      <c r="BR182" s="4"/>
-      <c r="BS182" s="4"/>
-    </row>
-    <row r="183" spans="2:71" ht="36" customHeight="1">
-      <c r="B183" s="134"/>
-      <c r="C183" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D183" s="40"/>
-      <c r="E183" s="41"/>
-      <c r="F183" s="42">
-        <v>41</v>
-      </c>
-      <c r="G183" s="42">
-        <v>10</v>
-      </c>
-      <c r="H183" s="45">
-        <v>0</v>
-      </c>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="4"/>
-      <c r="AD183" s="4"/>
-      <c r="AE183" s="4"/>
-      <c r="AF183" s="4"/>
-      <c r="AG183" s="4"/>
-      <c r="AH183" s="4"/>
-      <c r="AI183" s="4"/>
-      <c r="AJ183" s="4"/>
-      <c r="AK183" s="4"/>
-      <c r="AL183" s="4"/>
-      <c r="AM183" s="4"/>
-      <c r="AN183" s="4"/>
-      <c r="AO183" s="4"/>
-      <c r="AP183" s="4"/>
-      <c r="AQ183" s="4"/>
-      <c r="AR183" s="4"/>
-      <c r="AS183" s="4"/>
-      <c r="AT183" s="4"/>
-      <c r="AU183" s="4"/>
-      <c r="AV183" s="4"/>
-      <c r="AW183" s="4"/>
-      <c r="AX183" s="4"/>
-      <c r="AY183" s="4"/>
-      <c r="AZ183" s="4"/>
-      <c r="BA183" s="4"/>
-      <c r="BB183" s="4"/>
-      <c r="BC183" s="4"/>
-      <c r="BD183" s="4"/>
-      <c r="BE183" s="4"/>
-      <c r="BF183" s="4"/>
-      <c r="BG183" s="4"/>
-      <c r="BH183" s="4"/>
-      <c r="BI183" s="4"/>
-      <c r="BJ183" s="4"/>
-      <c r="BK183" s="4"/>
-      <c r="BL183" s="4"/>
-      <c r="BM183" s="4"/>
-      <c r="BN183" s="4"/>
-      <c r="BO183" s="4"/>
-      <c r="BP183" s="4"/>
-      <c r="BQ183" s="4"/>
-      <c r="BR183" s="4"/>
-      <c r="BS183" s="4"/>
-    </row>
-    <row r="184" spans="2:71" ht="36" customHeight="1">
-      <c r="B184" s="134"/>
-      <c r="C184" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="42">
-        <v>41</v>
-      </c>
-      <c r="G184" s="42">
-        <v>10</v>
-      </c>
-      <c r="H184" s="45">
-        <v>0</v>
-      </c>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3"/>
-      <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
-      <c r="U184" s="3"/>
-      <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="4"/>
-      <c r="AD184" s="4"/>
-      <c r="AE184" s="4"/>
-      <c r="AF184" s="4"/>
-      <c r="AG184" s="4"/>
-      <c r="AH184" s="4"/>
-      <c r="AI184" s="4"/>
-      <c r="AJ184" s="4"/>
-      <c r="AK184" s="4"/>
-      <c r="AL184" s="4"/>
-      <c r="AM184" s="4"/>
-      <c r="AN184" s="4"/>
-      <c r="AO184" s="4"/>
-      <c r="AP184" s="4"/>
-      <c r="AQ184" s="4"/>
-      <c r="AR184" s="4"/>
-      <c r="AS184" s="4"/>
-      <c r="AT184" s="4"/>
-      <c r="AU184" s="4"/>
-      <c r="AV184" s="4"/>
-      <c r="AW184" s="4"/>
-      <c r="AX184" s="4"/>
-      <c r="AY184" s="4"/>
-      <c r="AZ184" s="4"/>
-      <c r="BA184" s="4"/>
-      <c r="BB184" s="4"/>
-      <c r="BC184" s="4"/>
-      <c r="BD184" s="4"/>
-      <c r="BE184" s="4"/>
-      <c r="BF184" s="4"/>
-      <c r="BG184" s="4"/>
-      <c r="BH184" s="4"/>
-      <c r="BI184" s="4"/>
-      <c r="BJ184" s="4"/>
-      <c r="BK184" s="4"/>
-      <c r="BL184" s="4"/>
-      <c r="BM184" s="4"/>
-      <c r="BN184" s="4"/>
-      <c r="BO184" s="4"/>
-      <c r="BP184" s="4"/>
-      <c r="BQ184" s="4"/>
-      <c r="BR184" s="4"/>
-      <c r="BS184" s="4"/>
-    </row>
-    <row r="185" spans="2:71" ht="36" customHeight="1">
-      <c r="B185" s="134"/>
-      <c r="C185" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="D185" s="40"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="42">
-        <v>41</v>
-      </c>
-      <c r="G185" s="42">
-        <v>10</v>
-      </c>
-      <c r="H185" s="45">
-        <v>0</v>
-      </c>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
-      <c r="U185" s="3"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="4"/>
-      <c r="AD185" s="4"/>
-      <c r="AE185" s="4"/>
-      <c r="AF185" s="4"/>
-      <c r="AG185" s="4"/>
-      <c r="AH185" s="4"/>
-      <c r="AI185" s="4"/>
-      <c r="AJ185" s="4"/>
-      <c r="AK185" s="4"/>
-      <c r="AL185" s="4"/>
-      <c r="AM185" s="4"/>
-      <c r="AN185" s="4"/>
-      <c r="AO185" s="4"/>
-      <c r="AP185" s="4"/>
-      <c r="AQ185" s="4"/>
-      <c r="AR185" s="4"/>
-      <c r="AS185" s="4"/>
-      <c r="AT185" s="4"/>
-      <c r="AU185" s="4"/>
-      <c r="AV185" s="4"/>
-      <c r="AW185" s="4"/>
-      <c r="AX185" s="4"/>
-      <c r="AY185" s="4"/>
-      <c r="AZ185" s="4"/>
-      <c r="BA185" s="4"/>
-      <c r="BB185" s="4"/>
-      <c r="BC185" s="4"/>
-      <c r="BD185" s="4"/>
-      <c r="BE185" s="4"/>
-      <c r="BF185" s="4"/>
-      <c r="BG185" s="4"/>
-      <c r="BH185" s="4"/>
-      <c r="BI185" s="4"/>
-      <c r="BJ185" s="4"/>
-      <c r="BK185" s="4"/>
-      <c r="BL185" s="4"/>
-      <c r="BM185" s="4"/>
-      <c r="BN185" s="4"/>
-      <c r="BO185" s="4"/>
-      <c r="BP185" s="4"/>
-      <c r="BQ185" s="4"/>
-      <c r="BR185" s="4"/>
-      <c r="BS185" s="4"/>
-    </row>
-    <row r="186" spans="2:71" ht="36" customHeight="1">
-      <c r="B186" s="134"/>
-      <c r="C186" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" s="40"/>
-      <c r="E186" s="41"/>
-      <c r="F186" s="42">
-        <v>41</v>
-      </c>
-      <c r="G186" s="42">
-        <v>10</v>
-      </c>
-      <c r="H186" s="45">
-        <v>0</v>
-      </c>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
-      <c r="O186" s="3"/>
-      <c r="P186" s="3"/>
-      <c r="Q186" s="3"/>
-      <c r="R186" s="3"/>
-      <c r="S186" s="3"/>
-      <c r="T186" s="3"/>
-      <c r="U186" s="3"/>
-      <c r="V186" s="3"/>
-      <c r="W186" s="3"/>
-      <c r="X186" s="3"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-      <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="4"/>
-      <c r="AD186" s="4"/>
-      <c r="AE186" s="4"/>
-      <c r="AF186" s="4"/>
-      <c r="AG186" s="4"/>
-      <c r="AH186" s="4"/>
-      <c r="AI186" s="4"/>
-      <c r="AJ186" s="4"/>
-      <c r="AK186" s="4"/>
-      <c r="AL186" s="4"/>
-      <c r="AM186" s="4"/>
-      <c r="AN186" s="4"/>
-      <c r="AO186" s="4"/>
-      <c r="AP186" s="4"/>
-      <c r="AQ186" s="4"/>
-      <c r="AR186" s="4"/>
-      <c r="AS186" s="4"/>
-      <c r="AT186" s="4"/>
-      <c r="AU186" s="4"/>
-      <c r="AV186" s="4"/>
-      <c r="AW186" s="4"/>
-      <c r="AX186" s="4"/>
-      <c r="AY186" s="4"/>
-      <c r="AZ186" s="4"/>
-      <c r="BA186" s="4"/>
-      <c r="BB186" s="4"/>
-      <c r="BC186" s="4"/>
-      <c r="BD186" s="4"/>
-      <c r="BE186" s="4"/>
-      <c r="BF186" s="4"/>
-      <c r="BG186" s="4"/>
-      <c r="BH186" s="4"/>
-      <c r="BI186" s="4"/>
-      <c r="BJ186" s="4"/>
-      <c r="BK186" s="4"/>
-      <c r="BL186" s="4"/>
-      <c r="BM186" s="4"/>
-      <c r="BN186" s="4"/>
-      <c r="BO186" s="4"/>
-      <c r="BP186" s="4"/>
-      <c r="BQ186" s="4"/>
-      <c r="BR186" s="4"/>
-      <c r="BS186" s="4"/>
-    </row>
-    <row r="187" spans="2:71" ht="36" customHeight="1">
-      <c r="B187" s="134"/>
-      <c r="C187" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D187" s="40"/>
-      <c r="E187" s="41"/>
-      <c r="F187" s="42">
-        <v>41</v>
-      </c>
-      <c r="G187" s="42">
-        <v>10</v>
-      </c>
-      <c r="H187" s="45">
-        <v>0</v>
-      </c>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
-      <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
-      <c r="U187" s="3"/>
-      <c r="V187" s="3"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-      <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="4"/>
-      <c r="AD187" s="4"/>
-      <c r="AE187" s="4"/>
-      <c r="AF187" s="4"/>
-      <c r="AG187" s="4"/>
-      <c r="AH187" s="4"/>
-      <c r="AI187" s="4"/>
-      <c r="AJ187" s="4"/>
-      <c r="AK187" s="4"/>
-      <c r="AL187" s="4"/>
-      <c r="AM187" s="4"/>
-      <c r="AN187" s="4"/>
-      <c r="AO187" s="4"/>
-      <c r="AP187" s="4"/>
-      <c r="AQ187" s="4"/>
-      <c r="AR187" s="4"/>
-      <c r="AS187" s="4"/>
-      <c r="AT187" s="4"/>
-      <c r="AU187" s="4"/>
-      <c r="AV187" s="4"/>
-      <c r="AW187" s="4"/>
-      <c r="AX187" s="4"/>
-      <c r="AY187" s="4"/>
-      <c r="AZ187" s="4"/>
-      <c r="BA187" s="4"/>
-      <c r="BB187" s="4"/>
-      <c r="BC187" s="4"/>
-      <c r="BD187" s="4"/>
-      <c r="BE187" s="4"/>
-      <c r="BF187" s="4"/>
-      <c r="BG187" s="4"/>
-      <c r="BH187" s="4"/>
-      <c r="BI187" s="4"/>
-      <c r="BJ187" s="4"/>
-      <c r="BK187" s="4"/>
-      <c r="BL187" s="4"/>
-      <c r="BM187" s="4"/>
-      <c r="BN187" s="4"/>
-      <c r="BO187" s="4"/>
-      <c r="BP187" s="4"/>
-      <c r="BQ187" s="4"/>
-      <c r="BR187" s="4"/>
-      <c r="BS187" s="4"/>
-    </row>
-    <row r="188" spans="2:71" ht="36" customHeight="1">
-      <c r="B188" s="134"/>
-      <c r="C188" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D188" s="40"/>
-      <c r="E188" s="41"/>
-      <c r="F188" s="42">
-        <v>41</v>
-      </c>
-      <c r="G188" s="42">
-        <v>10</v>
-      </c>
-      <c r="H188" s="45">
-        <v>0</v>
-      </c>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
-      <c r="U188" s="3"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="4"/>
-      <c r="AD188" s="4"/>
-      <c r="AE188" s="4"/>
-      <c r="AF188" s="4"/>
-      <c r="AG188" s="4"/>
-      <c r="AH188" s="4"/>
-      <c r="AI188" s="4"/>
-      <c r="AJ188" s="4"/>
-      <c r="AK188" s="4"/>
-      <c r="AL188" s="4"/>
-      <c r="AM188" s="4"/>
-      <c r="AN188" s="4"/>
-      <c r="AO188" s="4"/>
-      <c r="AP188" s="4"/>
-      <c r="AQ188" s="4"/>
-      <c r="AR188" s="4"/>
-      <c r="AS188" s="4"/>
-      <c r="AT188" s="4"/>
-      <c r="AU188" s="4"/>
-      <c r="AV188" s="4"/>
-      <c r="AW188" s="4"/>
-      <c r="AX188" s="4"/>
-      <c r="AY188" s="4"/>
-      <c r="AZ188" s="4"/>
-      <c r="BA188" s="4"/>
-      <c r="BB188" s="4"/>
-      <c r="BC188" s="4"/>
-      <c r="BD188" s="4"/>
-      <c r="BE188" s="4"/>
-      <c r="BF188" s="4"/>
-      <c r="BG188" s="4"/>
-      <c r="BH188" s="4"/>
-      <c r="BI188" s="4"/>
-      <c r="BJ188" s="4"/>
-      <c r="BK188" s="4"/>
-      <c r="BL188" s="4"/>
-      <c r="BM188" s="4"/>
-      <c r="BN188" s="4"/>
-      <c r="BO188" s="4"/>
-      <c r="BP188" s="4"/>
-      <c r="BQ188" s="4"/>
-      <c r="BR188" s="4"/>
-      <c r="BS188" s="4"/>
-    </row>
-    <row r="189" spans="2:71" ht="36" customHeight="1">
-      <c r="B189" s="134"/>
-      <c r="C189" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D189" s="40"/>
-      <c r="E189" s="41"/>
-      <c r="F189" s="42">
-        <v>41</v>
-      </c>
-      <c r="G189" s="42">
-        <v>10</v>
-      </c>
-      <c r="H189" s="45">
-        <v>0</v>
-      </c>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-      <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="4"/>
-      <c r="AD189" s="4"/>
-      <c r="AE189" s="4"/>
-      <c r="AF189" s="4"/>
-      <c r="AG189" s="4"/>
-      <c r="AH189" s="4"/>
-      <c r="AI189" s="4"/>
-      <c r="AJ189" s="4"/>
-      <c r="AK189" s="4"/>
-      <c r="AL189" s="4"/>
-      <c r="AM189" s="4"/>
-      <c r="AN189" s="4"/>
-      <c r="AO189" s="4"/>
-      <c r="AP189" s="4"/>
-      <c r="AQ189" s="4"/>
-      <c r="AR189" s="4"/>
-      <c r="AS189" s="4"/>
-      <c r="AT189" s="4"/>
-      <c r="AU189" s="4"/>
-      <c r="AV189" s="4"/>
-      <c r="AW189" s="4"/>
-      <c r="AX189" s="4"/>
-      <c r="AY189" s="4"/>
-      <c r="AZ189" s="4"/>
-      <c r="BA189" s="4"/>
-      <c r="BB189" s="4"/>
-      <c r="BC189" s="4"/>
-      <c r="BD189" s="4"/>
-      <c r="BE189" s="4"/>
-      <c r="BF189" s="4"/>
-      <c r="BG189" s="4"/>
-      <c r="BH189" s="4"/>
-      <c r="BI189" s="4"/>
-      <c r="BJ189" s="4"/>
-      <c r="BK189" s="4"/>
-      <c r="BL189" s="4"/>
-      <c r="BM189" s="4"/>
-      <c r="BN189" s="4"/>
-      <c r="BO189" s="4"/>
-      <c r="BP189" s="4"/>
-      <c r="BQ189" s="4"/>
-      <c r="BR189" s="4"/>
-      <c r="BS189" s="4"/>
-    </row>
-    <row r="190" spans="2:71" ht="36" customHeight="1">
-      <c r="B190" s="134"/>
-      <c r="C190" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D190" s="40"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="42">
-        <v>41</v>
-      </c>
-      <c r="G190" s="42">
-        <v>10</v>
-      </c>
-      <c r="H190" s="45">
-        <v>0</v>
-      </c>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="3"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="4"/>
-      <c r="AD190" s="4"/>
-      <c r="AE190" s="4"/>
-      <c r="AF190" s="4"/>
-      <c r="AG190" s="4"/>
-      <c r="AH190" s="4"/>
-      <c r="AI190" s="4"/>
-      <c r="AJ190" s="4"/>
-      <c r="AK190" s="4"/>
-      <c r="AL190" s="4"/>
-      <c r="AM190" s="4"/>
-      <c r="AN190" s="4"/>
-      <c r="AO190" s="4"/>
-      <c r="AP190" s="4"/>
-      <c r="AQ190" s="4"/>
-      <c r="AR190" s="4"/>
-      <c r="AS190" s="4"/>
-      <c r="AT190" s="4"/>
-      <c r="AU190" s="4"/>
-      <c r="AV190" s="4"/>
-      <c r="AW190" s="4"/>
-      <c r="AX190" s="4"/>
-      <c r="AY190" s="4"/>
-      <c r="AZ190" s="4"/>
-      <c r="BA190" s="4"/>
-      <c r="BB190" s="4"/>
-      <c r="BC190" s="4"/>
-      <c r="BD190" s="4"/>
-      <c r="BE190" s="4"/>
-      <c r="BF190" s="4"/>
-      <c r="BG190" s="4"/>
-      <c r="BH190" s="4"/>
-      <c r="BI190" s="4"/>
-      <c r="BJ190" s="4"/>
-      <c r="BK190" s="4"/>
-      <c r="BL190" s="4"/>
-      <c r="BM190" s="4"/>
-      <c r="BN190" s="4"/>
-      <c r="BO190" s="4"/>
-      <c r="BP190" s="4"/>
-      <c r="BQ190" s="4"/>
-      <c r="BR190" s="4"/>
-      <c r="BS190" s="4"/>
-    </row>
-    <row r="191" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B191" s="135"/>
-      <c r="C191" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D191" s="54"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="56">
-        <v>41</v>
-      </c>
-      <c r="G191" s="56">
-        <v>10</v>
-      </c>
-      <c r="H191" s="57">
-        <v>0</v>
-      </c>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="3"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="4"/>
-      <c r="AD191" s="4"/>
-      <c r="AE191" s="4"/>
-      <c r="AF191" s="4"/>
-      <c r="AG191" s="4"/>
-      <c r="AH191" s="4"/>
-      <c r="AI191" s="4"/>
-      <c r="AJ191" s="4"/>
-      <c r="AK191" s="4"/>
-      <c r="AL191" s="4"/>
-      <c r="AM191" s="4"/>
-      <c r="AN191" s="4"/>
-      <c r="AO191" s="4"/>
-      <c r="AP191" s="4"/>
-      <c r="AQ191" s="4"/>
-      <c r="AR191" s="4"/>
-      <c r="AS191" s="4"/>
-      <c r="AT191" s="4"/>
-      <c r="AU191" s="4"/>
-      <c r="AV191" s="4"/>
-      <c r="AW191" s="4"/>
-      <c r="AX191" s="4"/>
-      <c r="AY191" s="4"/>
-      <c r="AZ191" s="4"/>
-      <c r="BA191" s="4"/>
-      <c r="BB191" s="4"/>
-      <c r="BC191" s="4"/>
-      <c r="BD191" s="4"/>
-      <c r="BE191" s="4"/>
-      <c r="BF191" s="4"/>
-      <c r="BG191" s="4"/>
-      <c r="BH191" s="4"/>
-      <c r="BI191" s="4"/>
-      <c r="BJ191" s="4"/>
-      <c r="BK191" s="4"/>
-      <c r="BL191" s="4"/>
-      <c r="BM191" s="4"/>
-      <c r="BN191" s="4"/>
-      <c r="BO191" s="4"/>
-      <c r="BP191" s="4"/>
-      <c r="BQ191" s="4"/>
-      <c r="BR191" s="4"/>
-      <c r="BS191" s="4"/>
-    </row>
-    <row r="192" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
+    <row r="180" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
@@ -33569,3885 +31737,3677 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:BS5">
-    <cfRule type="expression" dxfId="1200" priority="1448">
+    <cfRule type="expression" dxfId="1136" priority="1384">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BS8 I165:BS166 I123:BS124 I92:BS92 I128:BS129 I103:BS104">
-    <cfRule type="expression" dxfId="1199" priority="1441">
+    <cfRule type="expression" dxfId="1135" priority="1377">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="1443">
+    <cfRule type="expression" dxfId="1134" priority="1379">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="1444">
+    <cfRule type="expression" dxfId="1133" priority="1380">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="1445">
+    <cfRule type="expression" dxfId="1132" priority="1381">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1195" priority="1446">
+    <cfRule type="expression" dxfId="1131" priority="1382">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="1447">
+    <cfRule type="expression" dxfId="1130" priority="1383">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="1451">
+    <cfRule type="expression" dxfId="1129" priority="1387">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="1452">
+    <cfRule type="expression" dxfId="1128" priority="1388">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BS9">
-    <cfRule type="expression" dxfId="1191" priority="1425">
+    <cfRule type="expression" dxfId="1127" priority="1361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="1426">
+    <cfRule type="expression" dxfId="1126" priority="1362">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="1427">
+    <cfRule type="expression" dxfId="1125" priority="1363">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="1428">
+    <cfRule type="expression" dxfId="1124" priority="1364">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1187" priority="1429">
+    <cfRule type="expression" dxfId="1123" priority="1365">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="1430">
+    <cfRule type="expression" dxfId="1122" priority="1366">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="1431">
+    <cfRule type="expression" dxfId="1121" priority="1367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="1432">
+    <cfRule type="expression" dxfId="1120" priority="1368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BS10">
-    <cfRule type="expression" dxfId="1183" priority="1417">
+    <cfRule type="expression" dxfId="1119" priority="1353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="1418">
+    <cfRule type="expression" dxfId="1118" priority="1354">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="1419">
+    <cfRule type="expression" dxfId="1117" priority="1355">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="1420">
+    <cfRule type="expression" dxfId="1116" priority="1356">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1179" priority="1421">
+    <cfRule type="expression" dxfId="1115" priority="1357">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="1422">
+    <cfRule type="expression" dxfId="1114" priority="1358">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="1423">
+    <cfRule type="expression" dxfId="1113" priority="1359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="1424">
+    <cfRule type="expression" dxfId="1112" priority="1360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BS11">
-    <cfRule type="expression" dxfId="1175" priority="1409">
+    <cfRule type="expression" dxfId="1111" priority="1345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="1410">
+    <cfRule type="expression" dxfId="1110" priority="1346">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1411">
+    <cfRule type="expression" dxfId="1109" priority="1347">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1412">
+    <cfRule type="expression" dxfId="1108" priority="1348">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="1413">
+    <cfRule type="expression" dxfId="1107" priority="1349">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1414">
+    <cfRule type="expression" dxfId="1106" priority="1350">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1415">
+    <cfRule type="expression" dxfId="1105" priority="1351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="1416">
+    <cfRule type="expression" dxfId="1104" priority="1352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BS12">
-    <cfRule type="expression" dxfId="1167" priority="1401">
+    <cfRule type="expression" dxfId="1103" priority="1337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="1402">
+    <cfRule type="expression" dxfId="1102" priority="1338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1403">
+    <cfRule type="expression" dxfId="1101" priority="1339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1404">
+    <cfRule type="expression" dxfId="1100" priority="1340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="1405">
+    <cfRule type="expression" dxfId="1099" priority="1341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1406">
+    <cfRule type="expression" dxfId="1098" priority="1342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1407">
+    <cfRule type="expression" dxfId="1097" priority="1343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="1408">
+    <cfRule type="expression" dxfId="1096" priority="1344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BS20">
-    <cfRule type="expression" dxfId="1159" priority="1393">
+    <cfRule type="expression" dxfId="1095" priority="1329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="1394">
+    <cfRule type="expression" dxfId="1094" priority="1330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1395">
+    <cfRule type="expression" dxfId="1093" priority="1331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1396">
+    <cfRule type="expression" dxfId="1092" priority="1332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="1397">
+    <cfRule type="expression" dxfId="1091" priority="1333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1398">
+    <cfRule type="expression" dxfId="1090" priority="1334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1399">
+    <cfRule type="expression" dxfId="1089" priority="1335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="1400">
+    <cfRule type="expression" dxfId="1088" priority="1336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BS21">
-    <cfRule type="expression" dxfId="1151" priority="1385">
+    <cfRule type="expression" dxfId="1087" priority="1321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="1386">
+    <cfRule type="expression" dxfId="1086" priority="1322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1387">
+    <cfRule type="expression" dxfId="1085" priority="1323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1388">
+    <cfRule type="expression" dxfId="1084" priority="1324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="1389">
+    <cfRule type="expression" dxfId="1083" priority="1325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1390">
+    <cfRule type="expression" dxfId="1082" priority="1326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1391">
+    <cfRule type="expression" dxfId="1081" priority="1327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="1392">
+    <cfRule type="expression" dxfId="1080" priority="1328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BS22">
-    <cfRule type="expression" dxfId="1143" priority="1377">
+    <cfRule type="expression" dxfId="1079" priority="1313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="1378">
+    <cfRule type="expression" dxfId="1078" priority="1314">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1379">
+    <cfRule type="expression" dxfId="1077" priority="1315">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1380">
+    <cfRule type="expression" dxfId="1076" priority="1316">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="1381">
+    <cfRule type="expression" dxfId="1075" priority="1317">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1382">
+    <cfRule type="expression" dxfId="1074" priority="1318">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1383">
+    <cfRule type="expression" dxfId="1073" priority="1319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="1384">
+    <cfRule type="expression" dxfId="1072" priority="1320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BS23">
-    <cfRule type="expression" dxfId="1135" priority="1369">
+    <cfRule type="expression" dxfId="1071" priority="1305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1370">
+    <cfRule type="expression" dxfId="1070" priority="1306">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1371">
+    <cfRule type="expression" dxfId="1069" priority="1307">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1372">
+    <cfRule type="expression" dxfId="1068" priority="1308">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1373">
+    <cfRule type="expression" dxfId="1067" priority="1309">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1374">
+    <cfRule type="expression" dxfId="1066" priority="1310">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1375">
+    <cfRule type="expression" dxfId="1065" priority="1311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1376">
+    <cfRule type="expression" dxfId="1064" priority="1312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BS24">
-    <cfRule type="expression" dxfId="1127" priority="1361">
+    <cfRule type="expression" dxfId="1063" priority="1297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="1362">
+    <cfRule type="expression" dxfId="1062" priority="1298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1363">
+    <cfRule type="expression" dxfId="1061" priority="1299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1364">
+    <cfRule type="expression" dxfId="1060" priority="1300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1365">
+    <cfRule type="expression" dxfId="1059" priority="1301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1366">
+    <cfRule type="expression" dxfId="1058" priority="1302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1367">
+    <cfRule type="expression" dxfId="1057" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1368">
+    <cfRule type="expression" dxfId="1056" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BS25">
-    <cfRule type="expression" dxfId="1119" priority="1353">
+    <cfRule type="expression" dxfId="1055" priority="1289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="1354">
+    <cfRule type="expression" dxfId="1054" priority="1290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1355">
+    <cfRule type="expression" dxfId="1053" priority="1291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1356">
+    <cfRule type="expression" dxfId="1052" priority="1292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1357">
+    <cfRule type="expression" dxfId="1051" priority="1293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1358">
+    <cfRule type="expression" dxfId="1050" priority="1294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1359">
+    <cfRule type="expression" dxfId="1049" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1360">
+    <cfRule type="expression" dxfId="1048" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BS26">
-    <cfRule type="expression" dxfId="1111" priority="1345">
+    <cfRule type="expression" dxfId="1047" priority="1281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="1346">
+    <cfRule type="expression" dxfId="1046" priority="1282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1347">
+    <cfRule type="expression" dxfId="1045" priority="1283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1348">
+    <cfRule type="expression" dxfId="1044" priority="1284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1349">
+    <cfRule type="expression" dxfId="1043" priority="1285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1350">
+    <cfRule type="expression" dxfId="1042" priority="1286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1351">
+    <cfRule type="expression" dxfId="1041" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1352">
+    <cfRule type="expression" dxfId="1040" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BS27">
-    <cfRule type="expression" dxfId="1103" priority="1337">
+    <cfRule type="expression" dxfId="1039" priority="1273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1338">
+    <cfRule type="expression" dxfId="1038" priority="1274">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1339">
+    <cfRule type="expression" dxfId="1037" priority="1275">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1340">
+    <cfRule type="expression" dxfId="1036" priority="1276">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1341">
+    <cfRule type="expression" dxfId="1035" priority="1277">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="1342">
+    <cfRule type="expression" dxfId="1034" priority="1278">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1343">
+    <cfRule type="expression" dxfId="1033" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1344">
+    <cfRule type="expression" dxfId="1032" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BS28">
-    <cfRule type="expression" dxfId="1095" priority="1329">
+    <cfRule type="expression" dxfId="1031" priority="1265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1330">
+    <cfRule type="expression" dxfId="1030" priority="1266">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1331">
+    <cfRule type="expression" dxfId="1029" priority="1267">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1332">
+    <cfRule type="expression" dxfId="1028" priority="1268">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1333">
+    <cfRule type="expression" dxfId="1027" priority="1269">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="1334">
+    <cfRule type="expression" dxfId="1026" priority="1270">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1335">
+    <cfRule type="expression" dxfId="1025" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1336">
+    <cfRule type="expression" dxfId="1024" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BS29">
-    <cfRule type="expression" dxfId="1087" priority="1321">
+    <cfRule type="expression" dxfId="1023" priority="1257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1322">
+    <cfRule type="expression" dxfId="1022" priority="1258">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1323">
+    <cfRule type="expression" dxfId="1021" priority="1259">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1324">
+    <cfRule type="expression" dxfId="1020" priority="1260">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1325">
+    <cfRule type="expression" dxfId="1019" priority="1261">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="1326">
+    <cfRule type="expression" dxfId="1018" priority="1262">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1327">
+    <cfRule type="expression" dxfId="1017" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1328">
+    <cfRule type="expression" dxfId="1016" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:BS80">
-    <cfRule type="expression" dxfId="1079" priority="1313">
+    <cfRule type="expression" dxfId="1015" priority="1249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1314">
+    <cfRule type="expression" dxfId="1014" priority="1250">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1315">
+    <cfRule type="expression" dxfId="1013" priority="1251">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1316">
+    <cfRule type="expression" dxfId="1012" priority="1252">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1317">
+    <cfRule type="expression" dxfId="1011" priority="1253">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="1318">
+    <cfRule type="expression" dxfId="1010" priority="1254">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1319">
+    <cfRule type="expression" dxfId="1009" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1320">
+    <cfRule type="expression" dxfId="1008" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81:BS81">
-    <cfRule type="expression" dxfId="1071" priority="1297">
+    <cfRule type="expression" dxfId="1007" priority="1233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1298">
+    <cfRule type="expression" dxfId="1006" priority="1234">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1299">
+    <cfRule type="expression" dxfId="1005" priority="1235">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1300">
+    <cfRule type="expression" dxfId="1004" priority="1236">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1301">
+    <cfRule type="expression" dxfId="1003" priority="1237">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1302">
+    <cfRule type="expression" dxfId="1002" priority="1238">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1303">
+    <cfRule type="expression" dxfId="1001" priority="1239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1304">
+    <cfRule type="expression" dxfId="1000" priority="1240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82:BS82">
-    <cfRule type="expression" dxfId="1063" priority="1289">
+    <cfRule type="expression" dxfId="999" priority="1225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1290">
+    <cfRule type="expression" dxfId="998" priority="1226">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1291">
+    <cfRule type="expression" dxfId="997" priority="1227">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1292">
+    <cfRule type="expression" dxfId="996" priority="1228">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1293">
+    <cfRule type="expression" dxfId="995" priority="1229">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1294">
+    <cfRule type="expression" dxfId="994" priority="1230">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1295">
+    <cfRule type="expression" dxfId="993" priority="1231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1296">
+    <cfRule type="expression" dxfId="992" priority="1232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:BS83">
-    <cfRule type="expression" dxfId="1055" priority="1281">
+    <cfRule type="expression" dxfId="991" priority="1217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1282">
+    <cfRule type="expression" dxfId="990" priority="1218">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1283">
+    <cfRule type="expression" dxfId="989" priority="1219">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1284">
+    <cfRule type="expression" dxfId="988" priority="1220">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1285">
+    <cfRule type="expression" dxfId="987" priority="1221">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1286">
+    <cfRule type="expression" dxfId="986" priority="1222">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1287">
+    <cfRule type="expression" dxfId="985" priority="1223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1288">
+    <cfRule type="expression" dxfId="984" priority="1224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84:BS84">
-    <cfRule type="expression" dxfId="1047" priority="1273">
+    <cfRule type="expression" dxfId="983" priority="1209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1274">
+    <cfRule type="expression" dxfId="982" priority="1210">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1275">
+    <cfRule type="expression" dxfId="981" priority="1211">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1276">
+    <cfRule type="expression" dxfId="980" priority="1212">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1277">
+    <cfRule type="expression" dxfId="979" priority="1213">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1278">
+    <cfRule type="expression" dxfId="978" priority="1214">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1279">
+    <cfRule type="expression" dxfId="977" priority="1215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1280">
+    <cfRule type="expression" dxfId="976" priority="1216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:BS85">
-    <cfRule type="expression" dxfId="1039" priority="1265">
+    <cfRule type="expression" dxfId="975" priority="1201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1266">
+    <cfRule type="expression" dxfId="974" priority="1202">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1267">
+    <cfRule type="expression" dxfId="973" priority="1203">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1268">
+    <cfRule type="expression" dxfId="972" priority="1204">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1269">
+    <cfRule type="expression" dxfId="971" priority="1205">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1270">
+    <cfRule type="expression" dxfId="970" priority="1206">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1271">
+    <cfRule type="expression" dxfId="969" priority="1207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1272">
+    <cfRule type="expression" dxfId="968" priority="1208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:BS86">
-    <cfRule type="expression" dxfId="1031" priority="1257">
+    <cfRule type="expression" dxfId="967" priority="1193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1258">
+    <cfRule type="expression" dxfId="966" priority="1194">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1259">
+    <cfRule type="expression" dxfId="965" priority="1195">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1260">
+    <cfRule type="expression" dxfId="964" priority="1196">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1261">
+    <cfRule type="expression" dxfId="963" priority="1197">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1262">
+    <cfRule type="expression" dxfId="962" priority="1198">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1263">
+    <cfRule type="expression" dxfId="961" priority="1199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1264">
+    <cfRule type="expression" dxfId="960" priority="1200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:BS87">
-    <cfRule type="expression" dxfId="1023" priority="1249">
+    <cfRule type="expression" dxfId="959" priority="1185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1250">
+    <cfRule type="expression" dxfId="958" priority="1186">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1251">
+    <cfRule type="expression" dxfId="957" priority="1187">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1252">
+    <cfRule type="expression" dxfId="956" priority="1188">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1253">
+    <cfRule type="expression" dxfId="955" priority="1189">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1254">
+    <cfRule type="expression" dxfId="954" priority="1190">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1255">
+    <cfRule type="expression" dxfId="953" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1256">
+    <cfRule type="expression" dxfId="952" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:BS88">
-    <cfRule type="expression" dxfId="1015" priority="1241">
+    <cfRule type="expression" dxfId="951" priority="1177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1242">
+    <cfRule type="expression" dxfId="950" priority="1178">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1243">
+    <cfRule type="expression" dxfId="949" priority="1179">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1244">
+    <cfRule type="expression" dxfId="948" priority="1180">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1245">
+    <cfRule type="expression" dxfId="947" priority="1181">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1246">
+    <cfRule type="expression" dxfId="946" priority="1182">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1247">
+    <cfRule type="expression" dxfId="945" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1248">
+    <cfRule type="expression" dxfId="944" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:BS93">
-    <cfRule type="expression" dxfId="1007" priority="1233">
+    <cfRule type="expression" dxfId="943" priority="1169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1234">
+    <cfRule type="expression" dxfId="942" priority="1170">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="1235">
+    <cfRule type="expression" dxfId="941" priority="1171">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1236">
+    <cfRule type="expression" dxfId="940" priority="1172">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1237">
+    <cfRule type="expression" dxfId="939" priority="1173">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="1238">
+    <cfRule type="expression" dxfId="938" priority="1174">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1239">
+    <cfRule type="expression" dxfId="937" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="1240">
+    <cfRule type="expression" dxfId="936" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:BS94">
-    <cfRule type="expression" dxfId="999" priority="1225">
+    <cfRule type="expression" dxfId="935" priority="1161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="1226">
+    <cfRule type="expression" dxfId="934" priority="1162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="1227">
+    <cfRule type="expression" dxfId="933" priority="1163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="1228">
+    <cfRule type="expression" dxfId="932" priority="1164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="1229">
+    <cfRule type="expression" dxfId="931" priority="1165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="1230">
+    <cfRule type="expression" dxfId="930" priority="1166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="1231">
+    <cfRule type="expression" dxfId="929" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="1232">
+    <cfRule type="expression" dxfId="928" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:BS95">
-    <cfRule type="expression" dxfId="991" priority="1217">
+    <cfRule type="expression" dxfId="927" priority="1153">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="1218">
+    <cfRule type="expression" dxfId="926" priority="1154">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="1219">
+    <cfRule type="expression" dxfId="925" priority="1155">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="1220">
+    <cfRule type="expression" dxfId="924" priority="1156">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="1221">
+    <cfRule type="expression" dxfId="923" priority="1157">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="1222">
+    <cfRule type="expression" dxfId="922" priority="1158">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="1223">
+    <cfRule type="expression" dxfId="921" priority="1159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="1224">
+    <cfRule type="expression" dxfId="920" priority="1160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:BS96">
-    <cfRule type="expression" dxfId="983" priority="1209">
+    <cfRule type="expression" dxfId="919" priority="1145">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="1210">
+    <cfRule type="expression" dxfId="918" priority="1146">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="1211">
+    <cfRule type="expression" dxfId="917" priority="1147">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="1212">
+    <cfRule type="expression" dxfId="916" priority="1148">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="1213">
+    <cfRule type="expression" dxfId="915" priority="1149">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="1214">
+    <cfRule type="expression" dxfId="914" priority="1150">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="1215">
+    <cfRule type="expression" dxfId="913" priority="1151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="1216">
+    <cfRule type="expression" dxfId="912" priority="1152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BS37">
-    <cfRule type="expression" dxfId="975" priority="1201">
+    <cfRule type="expression" dxfId="911" priority="1137">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="1202">
+    <cfRule type="expression" dxfId="910" priority="1138">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="1203">
+    <cfRule type="expression" dxfId="909" priority="1139">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="1204">
+    <cfRule type="expression" dxfId="908" priority="1140">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="1205">
+    <cfRule type="expression" dxfId="907" priority="1141">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="1206">
+    <cfRule type="expression" dxfId="906" priority="1142">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="1207">
+    <cfRule type="expression" dxfId="905" priority="1143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="1208">
+    <cfRule type="expression" dxfId="904" priority="1144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:BS97">
-    <cfRule type="expression" dxfId="967" priority="1185">
+    <cfRule type="expression" dxfId="903" priority="1121">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1186">
+    <cfRule type="expression" dxfId="902" priority="1122">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1187">
+    <cfRule type="expression" dxfId="901" priority="1123">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="1188">
+    <cfRule type="expression" dxfId="900" priority="1124">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1189">
+    <cfRule type="expression" dxfId="899" priority="1125">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="1190">
+    <cfRule type="expression" dxfId="898" priority="1126">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1191">
+    <cfRule type="expression" dxfId="897" priority="1127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1192">
+    <cfRule type="expression" dxfId="896" priority="1128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:BS98">
-    <cfRule type="expression" dxfId="959" priority="1177">
+    <cfRule type="expression" dxfId="895" priority="1113">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1178">
+    <cfRule type="expression" dxfId="894" priority="1114">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1179">
+    <cfRule type="expression" dxfId="893" priority="1115">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="1180">
+    <cfRule type="expression" dxfId="892" priority="1116">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1181">
+    <cfRule type="expression" dxfId="891" priority="1117">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1182">
+    <cfRule type="expression" dxfId="890" priority="1118">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="1183">
+    <cfRule type="expression" dxfId="889" priority="1119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1184">
+    <cfRule type="expression" dxfId="888" priority="1120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:BS99">
-    <cfRule type="expression" dxfId="951" priority="1169">
+    <cfRule type="expression" dxfId="887" priority="1105">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="1170">
+    <cfRule type="expression" dxfId="886" priority="1106">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1171">
+    <cfRule type="expression" dxfId="885" priority="1107">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1172">
+    <cfRule type="expression" dxfId="884" priority="1108">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="1173">
+    <cfRule type="expression" dxfId="883" priority="1109">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1174">
+    <cfRule type="expression" dxfId="882" priority="1110">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1175">
+    <cfRule type="expression" dxfId="881" priority="1111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="1176">
+    <cfRule type="expression" dxfId="880" priority="1112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:BS105">
-    <cfRule type="expression" dxfId="943" priority="1161">
+    <cfRule type="expression" dxfId="879" priority="1097">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1162">
+    <cfRule type="expression" dxfId="878" priority="1098">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="1163">
+    <cfRule type="expression" dxfId="877" priority="1099">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1164">
+    <cfRule type="expression" dxfId="876" priority="1100">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1165">
+    <cfRule type="expression" dxfId="875" priority="1101">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="1166">
+    <cfRule type="expression" dxfId="874" priority="1102">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1167">
+    <cfRule type="expression" dxfId="873" priority="1103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1168">
+    <cfRule type="expression" dxfId="872" priority="1104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:BS106">
-    <cfRule type="expression" dxfId="935" priority="1145">
+    <cfRule type="expression" dxfId="871" priority="1081">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1146">
+    <cfRule type="expression" dxfId="870" priority="1082">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1147">
+    <cfRule type="expression" dxfId="869" priority="1083">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="1148">
+    <cfRule type="expression" dxfId="868" priority="1084">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1149">
+    <cfRule type="expression" dxfId="867" priority="1085">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1150">
+    <cfRule type="expression" dxfId="866" priority="1086">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="1151">
+    <cfRule type="expression" dxfId="865" priority="1087">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1152">
+    <cfRule type="expression" dxfId="864" priority="1088">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107:BS107">
-    <cfRule type="expression" dxfId="927" priority="1137">
+    <cfRule type="expression" dxfId="863" priority="1073">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="1138">
+    <cfRule type="expression" dxfId="862" priority="1074">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1139">
+    <cfRule type="expression" dxfId="861" priority="1075">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1140">
+    <cfRule type="expression" dxfId="860" priority="1076">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="1141">
+    <cfRule type="expression" dxfId="859" priority="1077">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1142">
+    <cfRule type="expression" dxfId="858" priority="1078">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1143">
+    <cfRule type="expression" dxfId="857" priority="1079">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="1144">
+    <cfRule type="expression" dxfId="856" priority="1080">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BS30">
-    <cfRule type="expression" dxfId="919" priority="1129">
+    <cfRule type="expression" dxfId="855" priority="1065">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1130">
+    <cfRule type="expression" dxfId="854" priority="1066">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="1131">
+    <cfRule type="expression" dxfId="853" priority="1067">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1132">
+    <cfRule type="expression" dxfId="852" priority="1068">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1133">
+    <cfRule type="expression" dxfId="851" priority="1069">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="1134">
+    <cfRule type="expression" dxfId="850" priority="1070">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="1135">
+    <cfRule type="expression" dxfId="849" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="1136">
+    <cfRule type="expression" dxfId="848" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BS31">
-    <cfRule type="expression" dxfId="911" priority="1121">
+    <cfRule type="expression" dxfId="847" priority="1057">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1122">
+    <cfRule type="expression" dxfId="846" priority="1058">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1123">
+    <cfRule type="expression" dxfId="845" priority="1059">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="1124">
+    <cfRule type="expression" dxfId="844" priority="1060">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1125">
+    <cfRule type="expression" dxfId="843" priority="1061">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1126">
+    <cfRule type="expression" dxfId="842" priority="1062">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="1127">
+    <cfRule type="expression" dxfId="841" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1128">
+    <cfRule type="expression" dxfId="840" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BS32">
-    <cfRule type="expression" dxfId="903" priority="1113">
+    <cfRule type="expression" dxfId="839" priority="1049">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="1114">
+    <cfRule type="expression" dxfId="838" priority="1050">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1115">
+    <cfRule type="expression" dxfId="837" priority="1051">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1116">
+    <cfRule type="expression" dxfId="836" priority="1052">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="1117">
+    <cfRule type="expression" dxfId="835" priority="1053">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1118">
+    <cfRule type="expression" dxfId="834" priority="1054">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1119">
+    <cfRule type="expression" dxfId="833" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="1120">
+    <cfRule type="expression" dxfId="832" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BS33">
-    <cfRule type="expression" dxfId="895" priority="1105">
+    <cfRule type="expression" dxfId="831" priority="1041">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1106">
+    <cfRule type="expression" dxfId="830" priority="1042">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="1107">
+    <cfRule type="expression" dxfId="829" priority="1043">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1108">
+    <cfRule type="expression" dxfId="828" priority="1044">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1109">
+    <cfRule type="expression" dxfId="827" priority="1045">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="1110">
+    <cfRule type="expression" dxfId="826" priority="1046">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1111">
+    <cfRule type="expression" dxfId="825" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1112">
+    <cfRule type="expression" dxfId="824" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BS34">
-    <cfRule type="expression" dxfId="887" priority="1097">
+    <cfRule type="expression" dxfId="823" priority="1033">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1098">
+    <cfRule type="expression" dxfId="822" priority="1034">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1099">
+    <cfRule type="expression" dxfId="821" priority="1035">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="1100">
+    <cfRule type="expression" dxfId="820" priority="1036">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1101">
+    <cfRule type="expression" dxfId="819" priority="1037">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1102">
+    <cfRule type="expression" dxfId="818" priority="1038">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="1103">
+    <cfRule type="expression" dxfId="817" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1104">
+    <cfRule type="expression" dxfId="816" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BS35">
-    <cfRule type="expression" dxfId="879" priority="1089">
+    <cfRule type="expression" dxfId="815" priority="1025">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="1090">
+    <cfRule type="expression" dxfId="814" priority="1026">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1091">
+    <cfRule type="expression" dxfId="813" priority="1027">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1092">
+    <cfRule type="expression" dxfId="812" priority="1028">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="1093">
+    <cfRule type="expression" dxfId="811" priority="1029">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1094">
+    <cfRule type="expression" dxfId="810" priority="1030">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1095">
+    <cfRule type="expression" dxfId="809" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="1096">
+    <cfRule type="expression" dxfId="808" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BS36">
-    <cfRule type="expression" dxfId="871" priority="1081">
+    <cfRule type="expression" dxfId="807" priority="1017">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="1082">
+    <cfRule type="expression" dxfId="806" priority="1018">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="1083">
+    <cfRule type="expression" dxfId="805" priority="1019">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="1084">
+    <cfRule type="expression" dxfId="804" priority="1020">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="1085">
+    <cfRule type="expression" dxfId="803" priority="1021">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="1086">
+    <cfRule type="expression" dxfId="802" priority="1022">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="1087">
+    <cfRule type="expression" dxfId="801" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="1088">
+    <cfRule type="expression" dxfId="800" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BS38">
-    <cfRule type="expression" dxfId="863" priority="1065">
+    <cfRule type="expression" dxfId="799" priority="1001">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1066">
+    <cfRule type="expression" dxfId="798" priority="1002">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1067">
+    <cfRule type="expression" dxfId="797" priority="1003">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="1068">
+    <cfRule type="expression" dxfId="796" priority="1004">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1069">
+    <cfRule type="expression" dxfId="795" priority="1005">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1070">
+    <cfRule type="expression" dxfId="794" priority="1006">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="1071">
+    <cfRule type="expression" dxfId="793" priority="1007">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1072">
+    <cfRule type="expression" dxfId="792" priority="1008">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BS39">
-    <cfRule type="expression" dxfId="855" priority="1057">
+    <cfRule type="expression" dxfId="791" priority="993">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="1058">
+    <cfRule type="expression" dxfId="790" priority="994">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1059">
+    <cfRule type="expression" dxfId="789" priority="995">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1060">
+    <cfRule type="expression" dxfId="788" priority="996">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="1061">
+    <cfRule type="expression" dxfId="787" priority="997">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1062">
+    <cfRule type="expression" dxfId="786" priority="998">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1063">
+    <cfRule type="expression" dxfId="785" priority="999">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="1064">
+    <cfRule type="expression" dxfId="784" priority="1000">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BS40">
-    <cfRule type="expression" dxfId="847" priority="1049">
+    <cfRule type="expression" dxfId="783" priority="985">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1050">
+    <cfRule type="expression" dxfId="782" priority="986">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="1051">
+    <cfRule type="expression" dxfId="781" priority="987">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1052">
+    <cfRule type="expression" dxfId="780" priority="988">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1053">
+    <cfRule type="expression" dxfId="779" priority="989">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="1054">
+    <cfRule type="expression" dxfId="778" priority="990">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1055">
+    <cfRule type="expression" dxfId="777" priority="991">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1056">
+    <cfRule type="expression" dxfId="776" priority="992">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BS41">
-    <cfRule type="expression" dxfId="839" priority="1041">
+    <cfRule type="expression" dxfId="775" priority="977">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="1042">
+    <cfRule type="expression" dxfId="774" priority="978">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="1043">
+    <cfRule type="expression" dxfId="773" priority="979">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="1044">
+    <cfRule type="expression" dxfId="772" priority="980">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="1045">
+    <cfRule type="expression" dxfId="771" priority="981">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="1046">
+    <cfRule type="expression" dxfId="770" priority="982">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="1047">
+    <cfRule type="expression" dxfId="769" priority="983">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1048">
+    <cfRule type="expression" dxfId="768" priority="984">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BS42">
-    <cfRule type="expression" dxfId="831" priority="1033">
+    <cfRule type="expression" dxfId="767" priority="969">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="1034">
+    <cfRule type="expression" dxfId="766" priority="970">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="1035">
+    <cfRule type="expression" dxfId="765" priority="971">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="1036">
+    <cfRule type="expression" dxfId="764" priority="972">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="1037">
+    <cfRule type="expression" dxfId="763" priority="973">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="1038">
+    <cfRule type="expression" dxfId="762" priority="974">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="1039">
+    <cfRule type="expression" dxfId="761" priority="975">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="1040">
+    <cfRule type="expression" dxfId="760" priority="976">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BS43">
-    <cfRule type="expression" dxfId="823" priority="1025">
+    <cfRule type="expression" dxfId="759" priority="961">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="1026">
+    <cfRule type="expression" dxfId="758" priority="962">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="1027">
+    <cfRule type="expression" dxfId="757" priority="963">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="1028">
+    <cfRule type="expression" dxfId="756" priority="964">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="1029">
+    <cfRule type="expression" dxfId="755" priority="965">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="1030">
+    <cfRule type="expression" dxfId="754" priority="966">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="1031">
+    <cfRule type="expression" dxfId="753" priority="967">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="1032">
+    <cfRule type="expression" dxfId="752" priority="968">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BS44">
-    <cfRule type="expression" dxfId="815" priority="1017">
+    <cfRule type="expression" dxfId="751" priority="953">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="1018">
+    <cfRule type="expression" dxfId="750" priority="954">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="1019">
+    <cfRule type="expression" dxfId="749" priority="955">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="1020">
+    <cfRule type="expression" dxfId="748" priority="956">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="1021">
+    <cfRule type="expression" dxfId="747" priority="957">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="1022">
+    <cfRule type="expression" dxfId="746" priority="958">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="1023">
+    <cfRule type="expression" dxfId="745" priority="959">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="1024">
+    <cfRule type="expression" dxfId="744" priority="960">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BS45">
-    <cfRule type="expression" dxfId="807" priority="1009">
+    <cfRule type="expression" dxfId="743" priority="945">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="1010">
+    <cfRule type="expression" dxfId="742" priority="946">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="1011">
+    <cfRule type="expression" dxfId="741" priority="947">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="1012">
+    <cfRule type="expression" dxfId="740" priority="948">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="1013">
+    <cfRule type="expression" dxfId="739" priority="949">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="1014">
+    <cfRule type="expression" dxfId="738" priority="950">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="1015">
+    <cfRule type="expression" dxfId="737" priority="951">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="1016">
+    <cfRule type="expression" dxfId="736" priority="952">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BS46">
-    <cfRule type="expression" dxfId="799" priority="1001">
+    <cfRule type="expression" dxfId="735" priority="937">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="1002">
+    <cfRule type="expression" dxfId="734" priority="938">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="1003">
+    <cfRule type="expression" dxfId="733" priority="939">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="1004">
+    <cfRule type="expression" dxfId="732" priority="940">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="1005">
+    <cfRule type="expression" dxfId="731" priority="941">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="1006">
+    <cfRule type="expression" dxfId="730" priority="942">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="1007">
+    <cfRule type="expression" dxfId="729" priority="943">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="1008">
+    <cfRule type="expression" dxfId="728" priority="944">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BS47">
-    <cfRule type="expression" dxfId="791" priority="993">
+    <cfRule type="expression" dxfId="727" priority="929">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="994">
+    <cfRule type="expression" dxfId="726" priority="930">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="995">
+    <cfRule type="expression" dxfId="725" priority="931">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="996">
+    <cfRule type="expression" dxfId="724" priority="932">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="997">
+    <cfRule type="expression" dxfId="723" priority="933">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="998">
+    <cfRule type="expression" dxfId="722" priority="934">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="999">
+    <cfRule type="expression" dxfId="721" priority="935">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="1000">
+    <cfRule type="expression" dxfId="720" priority="936">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BS48">
-    <cfRule type="expression" dxfId="783" priority="985">
+    <cfRule type="expression" dxfId="719" priority="921">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="986">
+    <cfRule type="expression" dxfId="718" priority="922">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="987">
+    <cfRule type="expression" dxfId="717" priority="923">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="988">
+    <cfRule type="expression" dxfId="716" priority="924">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="989">
+    <cfRule type="expression" dxfId="715" priority="925">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="990">
+    <cfRule type="expression" dxfId="714" priority="926">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="991">
+    <cfRule type="expression" dxfId="713" priority="927">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="992">
+    <cfRule type="expression" dxfId="712" priority="928">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:BS49">
-    <cfRule type="expression" dxfId="775" priority="977">
+    <cfRule type="expression" dxfId="711" priority="913">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="978">
+    <cfRule type="expression" dxfId="710" priority="914">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="979">
+    <cfRule type="expression" dxfId="709" priority="915">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="980">
+    <cfRule type="expression" dxfId="708" priority="916">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="981">
+    <cfRule type="expression" dxfId="707" priority="917">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="982">
+    <cfRule type="expression" dxfId="706" priority="918">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="983">
+    <cfRule type="expression" dxfId="705" priority="919">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="984">
+    <cfRule type="expression" dxfId="704" priority="920">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BS50">
-    <cfRule type="expression" dxfId="767" priority="969">
+    <cfRule type="expression" dxfId="703" priority="905">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="970">
+    <cfRule type="expression" dxfId="702" priority="906">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="971">
+    <cfRule type="expression" dxfId="701" priority="907">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="972">
+    <cfRule type="expression" dxfId="700" priority="908">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="973">
+    <cfRule type="expression" dxfId="699" priority="909">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="974">
+    <cfRule type="expression" dxfId="698" priority="910">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="975">
+    <cfRule type="expression" dxfId="697" priority="911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="976">
+    <cfRule type="expression" dxfId="696" priority="912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BS51">
-    <cfRule type="expression" dxfId="759" priority="961">
+    <cfRule type="expression" dxfId="695" priority="897">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="962">
+    <cfRule type="expression" dxfId="694" priority="898">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="963">
+    <cfRule type="expression" dxfId="693" priority="899">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="964">
+    <cfRule type="expression" dxfId="692" priority="900">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="965">
+    <cfRule type="expression" dxfId="691" priority="901">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="966">
+    <cfRule type="expression" dxfId="690" priority="902">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="967">
+    <cfRule type="expression" dxfId="689" priority="903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="968">
+    <cfRule type="expression" dxfId="688" priority="904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BS52">
-    <cfRule type="expression" dxfId="751" priority="953">
+    <cfRule type="expression" dxfId="687" priority="889">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="954">
+    <cfRule type="expression" dxfId="686" priority="890">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="955">
+    <cfRule type="expression" dxfId="685" priority="891">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="956">
+    <cfRule type="expression" dxfId="684" priority="892">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="957">
+    <cfRule type="expression" dxfId="683" priority="893">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="958">
+    <cfRule type="expression" dxfId="682" priority="894">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="959">
+    <cfRule type="expression" dxfId="681" priority="895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="960">
+    <cfRule type="expression" dxfId="680" priority="896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BS53">
-    <cfRule type="expression" dxfId="743" priority="945">
+    <cfRule type="expression" dxfId="679" priority="881">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="946">
+    <cfRule type="expression" dxfId="678" priority="882">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="947">
+    <cfRule type="expression" dxfId="677" priority="883">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="948">
+    <cfRule type="expression" dxfId="676" priority="884">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="949">
+    <cfRule type="expression" dxfId="675" priority="885">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="950">
+    <cfRule type="expression" dxfId="674" priority="886">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="951">
+    <cfRule type="expression" dxfId="673" priority="887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="952">
+    <cfRule type="expression" dxfId="672" priority="888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:BS54">
-    <cfRule type="expression" dxfId="735" priority="937">
+    <cfRule type="expression" dxfId="671" priority="873">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="938">
+    <cfRule type="expression" dxfId="670" priority="874">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="939">
+    <cfRule type="expression" dxfId="669" priority="875">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="940">
+    <cfRule type="expression" dxfId="668" priority="876">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="941">
+    <cfRule type="expression" dxfId="667" priority="877">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="942">
+    <cfRule type="expression" dxfId="666" priority="878">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="943">
+    <cfRule type="expression" dxfId="665" priority="879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="944">
+    <cfRule type="expression" dxfId="664" priority="880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BS55">
-    <cfRule type="expression" dxfId="727" priority="929">
+    <cfRule type="expression" dxfId="663" priority="865">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="930">
+    <cfRule type="expression" dxfId="662" priority="866">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="931">
+    <cfRule type="expression" dxfId="661" priority="867">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="932">
+    <cfRule type="expression" dxfId="660" priority="868">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="933">
+    <cfRule type="expression" dxfId="659" priority="869">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="934">
+    <cfRule type="expression" dxfId="658" priority="870">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="935">
+    <cfRule type="expression" dxfId="657" priority="871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="936">
+    <cfRule type="expression" dxfId="656" priority="872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:BS56">
-    <cfRule type="expression" dxfId="719" priority="921">
+    <cfRule type="expression" dxfId="655" priority="857">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="922">
+    <cfRule type="expression" dxfId="654" priority="858">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="923">
+    <cfRule type="expression" dxfId="653" priority="859">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="924">
+    <cfRule type="expression" dxfId="652" priority="860">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="925">
+    <cfRule type="expression" dxfId="651" priority="861">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="926">
+    <cfRule type="expression" dxfId="650" priority="862">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="927">
+    <cfRule type="expression" dxfId="649" priority="863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="928">
+    <cfRule type="expression" dxfId="648" priority="864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:BS57">
-    <cfRule type="expression" dxfId="711" priority="913">
+    <cfRule type="expression" dxfId="647" priority="849">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="914">
+    <cfRule type="expression" dxfId="646" priority="850">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="915">
+    <cfRule type="expression" dxfId="645" priority="851">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="916">
+    <cfRule type="expression" dxfId="644" priority="852">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="917">
+    <cfRule type="expression" dxfId="643" priority="853">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="918">
+    <cfRule type="expression" dxfId="642" priority="854">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="919">
+    <cfRule type="expression" dxfId="641" priority="855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="920">
+    <cfRule type="expression" dxfId="640" priority="856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:BS58">
-    <cfRule type="expression" dxfId="703" priority="905">
+    <cfRule type="expression" dxfId="639" priority="841">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="906">
+    <cfRule type="expression" dxfId="638" priority="842">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="907">
+    <cfRule type="expression" dxfId="637" priority="843">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="908">
+    <cfRule type="expression" dxfId="636" priority="844">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="909">
+    <cfRule type="expression" dxfId="635" priority="845">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="910">
+    <cfRule type="expression" dxfId="634" priority="846">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="911">
+    <cfRule type="expression" dxfId="633" priority="847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="912">
+    <cfRule type="expression" dxfId="632" priority="848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:BS59">
-    <cfRule type="expression" dxfId="695" priority="897">
+    <cfRule type="expression" dxfId="631" priority="833">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="898">
+    <cfRule type="expression" dxfId="630" priority="834">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="899">
+    <cfRule type="expression" dxfId="629" priority="835">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="900">
+    <cfRule type="expression" dxfId="628" priority="836">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="901">
+    <cfRule type="expression" dxfId="627" priority="837">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="902">
+    <cfRule type="expression" dxfId="626" priority="838">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="903">
+    <cfRule type="expression" dxfId="625" priority="839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="904">
+    <cfRule type="expression" dxfId="624" priority="840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BS60">
-    <cfRule type="expression" dxfId="687" priority="729">
+    <cfRule type="expression" dxfId="623" priority="665">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="730">
+    <cfRule type="expression" dxfId="622" priority="666">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="731">
+    <cfRule type="expression" dxfId="621" priority="667">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="732">
+    <cfRule type="expression" dxfId="620" priority="668">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="733">
+    <cfRule type="expression" dxfId="619" priority="669">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="734">
+    <cfRule type="expression" dxfId="618" priority="670">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="735">
+    <cfRule type="expression" dxfId="617" priority="671">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="736">
+    <cfRule type="expression" dxfId="616" priority="672">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BS61">
-    <cfRule type="expression" dxfId="679" priority="721">
+    <cfRule type="expression" dxfId="615" priority="657">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="722">
+    <cfRule type="expression" dxfId="614" priority="658">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="723">
+    <cfRule type="expression" dxfId="613" priority="659">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="724">
+    <cfRule type="expression" dxfId="612" priority="660">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="725">
+    <cfRule type="expression" dxfId="611" priority="661">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="726">
+    <cfRule type="expression" dxfId="610" priority="662">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="727">
+    <cfRule type="expression" dxfId="609" priority="663">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="728">
+    <cfRule type="expression" dxfId="608" priority="664">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:BS62">
-    <cfRule type="expression" dxfId="671" priority="713">
+    <cfRule type="expression" dxfId="607" priority="649">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="714">
+    <cfRule type="expression" dxfId="606" priority="650">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="715">
+    <cfRule type="expression" dxfId="605" priority="651">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="716">
+    <cfRule type="expression" dxfId="604" priority="652">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="717">
+    <cfRule type="expression" dxfId="603" priority="653">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="718">
+    <cfRule type="expression" dxfId="602" priority="654">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="719">
+    <cfRule type="expression" dxfId="601" priority="655">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="720">
+    <cfRule type="expression" dxfId="600" priority="656">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:BS63">
-    <cfRule type="expression" dxfId="663" priority="705">
+    <cfRule type="expression" dxfId="599" priority="641">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="706">
+    <cfRule type="expression" dxfId="598" priority="642">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="707">
+    <cfRule type="expression" dxfId="597" priority="643">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="708">
+    <cfRule type="expression" dxfId="596" priority="644">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="709">
+    <cfRule type="expression" dxfId="595" priority="645">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="710">
+    <cfRule type="expression" dxfId="594" priority="646">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="711">
+    <cfRule type="expression" dxfId="593" priority="647">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="712">
+    <cfRule type="expression" dxfId="592" priority="648">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:BS64">
-    <cfRule type="expression" dxfId="655" priority="697">
+    <cfRule type="expression" dxfId="591" priority="633">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="698">
+    <cfRule type="expression" dxfId="590" priority="634">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="699">
+    <cfRule type="expression" dxfId="589" priority="635">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="700">
+    <cfRule type="expression" dxfId="588" priority="636">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="701">
+    <cfRule type="expression" dxfId="587" priority="637">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="702">
+    <cfRule type="expression" dxfId="586" priority="638">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="703">
+    <cfRule type="expression" dxfId="585" priority="639">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="704">
+    <cfRule type="expression" dxfId="584" priority="640">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:BS65">
-    <cfRule type="expression" dxfId="647" priority="689">
+    <cfRule type="expression" dxfId="583" priority="625">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="690">
+    <cfRule type="expression" dxfId="582" priority="626">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="691">
+    <cfRule type="expression" dxfId="581" priority="627">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="692">
+    <cfRule type="expression" dxfId="580" priority="628">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="693">
+    <cfRule type="expression" dxfId="579" priority="629">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="694">
+    <cfRule type="expression" dxfId="578" priority="630">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="695">
+    <cfRule type="expression" dxfId="577" priority="631">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="696">
+    <cfRule type="expression" dxfId="576" priority="632">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:BS66">
-    <cfRule type="expression" dxfId="639" priority="681">
+    <cfRule type="expression" dxfId="575" priority="617">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="682">
+    <cfRule type="expression" dxfId="574" priority="618">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="683">
+    <cfRule type="expression" dxfId="573" priority="619">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="684">
+    <cfRule type="expression" dxfId="572" priority="620">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="685">
+    <cfRule type="expression" dxfId="571" priority="621">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="686">
+    <cfRule type="expression" dxfId="570" priority="622">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="687">
+    <cfRule type="expression" dxfId="569" priority="623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="688">
+    <cfRule type="expression" dxfId="568" priority="624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:BS67">
-    <cfRule type="expression" dxfId="631" priority="673">
+    <cfRule type="expression" dxfId="567" priority="609">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="674">
+    <cfRule type="expression" dxfId="566" priority="610">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="675">
+    <cfRule type="expression" dxfId="565" priority="611">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="676">
+    <cfRule type="expression" dxfId="564" priority="612">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="677">
+    <cfRule type="expression" dxfId="563" priority="613">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="678">
+    <cfRule type="expression" dxfId="562" priority="614">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="679">
+    <cfRule type="expression" dxfId="561" priority="615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="680">
+    <cfRule type="expression" dxfId="560" priority="616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:BS68">
-    <cfRule type="expression" dxfId="623" priority="665">
+    <cfRule type="expression" dxfId="559" priority="601">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="666">
+    <cfRule type="expression" dxfId="558" priority="602">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="667">
+    <cfRule type="expression" dxfId="557" priority="603">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="668">
+    <cfRule type="expression" dxfId="556" priority="604">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="669">
+    <cfRule type="expression" dxfId="555" priority="605">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="670">
+    <cfRule type="expression" dxfId="554" priority="606">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="671">
+    <cfRule type="expression" dxfId="553" priority="607">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="672">
+    <cfRule type="expression" dxfId="552" priority="608">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:BS69">
-    <cfRule type="expression" dxfId="615" priority="657">
+    <cfRule type="expression" dxfId="551" priority="593">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="658">
+    <cfRule type="expression" dxfId="550" priority="594">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="659">
+    <cfRule type="expression" dxfId="549" priority="595">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="660">
+    <cfRule type="expression" dxfId="548" priority="596">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="661">
+    <cfRule type="expression" dxfId="547" priority="597">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="662">
+    <cfRule type="expression" dxfId="546" priority="598">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="663">
+    <cfRule type="expression" dxfId="545" priority="599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="664">
+    <cfRule type="expression" dxfId="544" priority="600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:BS70">
-    <cfRule type="expression" dxfId="607" priority="649">
+    <cfRule type="expression" dxfId="543" priority="585">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="650">
+    <cfRule type="expression" dxfId="542" priority="586">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="651">
+    <cfRule type="expression" dxfId="541" priority="587">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="652">
+    <cfRule type="expression" dxfId="540" priority="588">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="653">
+    <cfRule type="expression" dxfId="539" priority="589">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="654">
+    <cfRule type="expression" dxfId="538" priority="590">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="655">
+    <cfRule type="expression" dxfId="537" priority="591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="656">
+    <cfRule type="expression" dxfId="536" priority="592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:BS71">
-    <cfRule type="expression" dxfId="599" priority="641">
+    <cfRule type="expression" dxfId="535" priority="577">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="642">
+    <cfRule type="expression" dxfId="534" priority="578">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="643">
+    <cfRule type="expression" dxfId="533" priority="579">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="644">
+    <cfRule type="expression" dxfId="532" priority="580">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="645">
+    <cfRule type="expression" dxfId="531" priority="581">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="646">
+    <cfRule type="expression" dxfId="530" priority="582">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="647">
+    <cfRule type="expression" dxfId="529" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="648">
+    <cfRule type="expression" dxfId="528" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:BS72">
-    <cfRule type="expression" dxfId="591" priority="633">
+    <cfRule type="expression" dxfId="527" priority="569">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="634">
+    <cfRule type="expression" dxfId="526" priority="570">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="635">
+    <cfRule type="expression" dxfId="525" priority="571">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="636">
+    <cfRule type="expression" dxfId="524" priority="572">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="637">
+    <cfRule type="expression" dxfId="523" priority="573">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="638">
+    <cfRule type="expression" dxfId="522" priority="574">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="639">
+    <cfRule type="expression" dxfId="521" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="640">
+    <cfRule type="expression" dxfId="520" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73:BS73">
-    <cfRule type="expression" dxfId="583" priority="625">
+    <cfRule type="expression" dxfId="519" priority="561">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="626">
+    <cfRule type="expression" dxfId="518" priority="562">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="627">
+    <cfRule type="expression" dxfId="517" priority="563">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="628">
+    <cfRule type="expression" dxfId="516" priority="564">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="629">
+    <cfRule type="expression" dxfId="515" priority="565">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="630">
+    <cfRule type="expression" dxfId="514" priority="566">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="631">
+    <cfRule type="expression" dxfId="513" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="632">
+    <cfRule type="expression" dxfId="512" priority="568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:BS74">
-    <cfRule type="expression" dxfId="575" priority="617">
+    <cfRule type="expression" dxfId="511" priority="553">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="618">
+    <cfRule type="expression" dxfId="510" priority="554">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="619">
+    <cfRule type="expression" dxfId="509" priority="555">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="620">
+    <cfRule type="expression" dxfId="508" priority="556">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="621">
+    <cfRule type="expression" dxfId="507" priority="557">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="622">
+    <cfRule type="expression" dxfId="506" priority="558">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="623">
+    <cfRule type="expression" dxfId="505" priority="559">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="624">
+    <cfRule type="expression" dxfId="504" priority="560">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:BS75">
-    <cfRule type="expression" dxfId="567" priority="609">
+    <cfRule type="expression" dxfId="503" priority="545">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="610">
+    <cfRule type="expression" dxfId="502" priority="546">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="611">
+    <cfRule type="expression" dxfId="501" priority="547">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="612">
+    <cfRule type="expression" dxfId="500" priority="548">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="613">
+    <cfRule type="expression" dxfId="499" priority="549">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="614">
+    <cfRule type="expression" dxfId="498" priority="550">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="615">
+    <cfRule type="expression" dxfId="497" priority="551">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="616">
+    <cfRule type="expression" dxfId="496" priority="552">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76:BS76">
-    <cfRule type="expression" dxfId="559" priority="601">
+    <cfRule type="expression" dxfId="495" priority="537">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="602">
+    <cfRule type="expression" dxfId="494" priority="538">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="603">
+    <cfRule type="expression" dxfId="493" priority="539">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="604">
+    <cfRule type="expression" dxfId="492" priority="540">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="605">
+    <cfRule type="expression" dxfId="491" priority="541">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="606">
+    <cfRule type="expression" dxfId="490" priority="542">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="607">
+    <cfRule type="expression" dxfId="489" priority="543">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="608">
+    <cfRule type="expression" dxfId="488" priority="544">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:BS77">
-    <cfRule type="expression" dxfId="551" priority="593">
+    <cfRule type="expression" dxfId="487" priority="529">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="594">
+    <cfRule type="expression" dxfId="486" priority="530">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="595">
+    <cfRule type="expression" dxfId="485" priority="531">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="596">
+    <cfRule type="expression" dxfId="484" priority="532">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="597">
+    <cfRule type="expression" dxfId="483" priority="533">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="598">
+    <cfRule type="expression" dxfId="482" priority="534">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="599">
+    <cfRule type="expression" dxfId="481" priority="535">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="600">
+    <cfRule type="expression" dxfId="480" priority="536">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:BS78">
-    <cfRule type="expression" dxfId="543" priority="585">
+    <cfRule type="expression" dxfId="479" priority="521">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="586">
+    <cfRule type="expression" dxfId="478" priority="522">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="587">
+    <cfRule type="expression" dxfId="477" priority="523">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="588">
+    <cfRule type="expression" dxfId="476" priority="524">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="589">
+    <cfRule type="expression" dxfId="475" priority="525">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="590">
+    <cfRule type="expression" dxfId="474" priority="526">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="591">
+    <cfRule type="expression" dxfId="473" priority="527">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="592">
+    <cfRule type="expression" dxfId="472" priority="528">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BS7">
-    <cfRule type="expression" dxfId="535" priority="737">
+    <cfRule type="expression" dxfId="471" priority="673">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="738">
+    <cfRule type="expression" dxfId="470" priority="674">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="739">
+    <cfRule type="expression" dxfId="469" priority="675">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="740">
+    <cfRule type="expression" dxfId="468" priority="676">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="741">
+    <cfRule type="expression" dxfId="467" priority="677">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="742">
+    <cfRule type="expression" dxfId="466" priority="678">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="743">
+    <cfRule type="expression" dxfId="465" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="744">
+    <cfRule type="expression" dxfId="464" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:BS79">
-    <cfRule type="expression" dxfId="527" priority="577">
+    <cfRule type="expression" dxfId="463" priority="513">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="578">
+    <cfRule type="expression" dxfId="462" priority="514">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="579">
+    <cfRule type="expression" dxfId="461" priority="515">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="580">
+    <cfRule type="expression" dxfId="460" priority="516">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="581">
+    <cfRule type="expression" dxfId="459" priority="517">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="582">
+    <cfRule type="expression" dxfId="458" priority="518">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="583">
+    <cfRule type="expression" dxfId="457" priority="519">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="584">
+    <cfRule type="expression" dxfId="456" priority="520">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:BS108">
-    <cfRule type="expression" dxfId="519" priority="569">
+    <cfRule type="expression" dxfId="455" priority="505">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="570">
+    <cfRule type="expression" dxfId="454" priority="506">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="571">
+    <cfRule type="expression" dxfId="453" priority="507">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="572">
+    <cfRule type="expression" dxfId="452" priority="508">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="573">
+    <cfRule type="expression" dxfId="451" priority="509">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="574">
+    <cfRule type="expression" dxfId="450" priority="510">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="575">
+    <cfRule type="expression" dxfId="449" priority="511">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="576">
+    <cfRule type="expression" dxfId="448" priority="512">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109:BS109">
-    <cfRule type="expression" dxfId="511" priority="561">
+    <cfRule type="expression" dxfId="447" priority="497">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="562">
+    <cfRule type="expression" dxfId="446" priority="498">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="563">
+    <cfRule type="expression" dxfId="445" priority="499">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="564">
+    <cfRule type="expression" dxfId="444" priority="500">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="565">
+    <cfRule type="expression" dxfId="443" priority="501">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="566">
+    <cfRule type="expression" dxfId="442" priority="502">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="567">
+    <cfRule type="expression" dxfId="441" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="568">
+    <cfRule type="expression" dxfId="440" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110:BS110">
-    <cfRule type="expression" dxfId="503" priority="553">
+    <cfRule type="expression" dxfId="439" priority="489">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="554">
+    <cfRule type="expression" dxfId="438" priority="490">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="555">
+    <cfRule type="expression" dxfId="437" priority="491">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="556">
+    <cfRule type="expression" dxfId="436" priority="492">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="557">
+    <cfRule type="expression" dxfId="435" priority="493">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="558">
+    <cfRule type="expression" dxfId="434" priority="494">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="559">
+    <cfRule type="expression" dxfId="433" priority="495">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="560">
+    <cfRule type="expression" dxfId="432" priority="496">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:BS112">
-    <cfRule type="expression" dxfId="495" priority="545">
+    <cfRule type="expression" dxfId="431" priority="481">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="546">
+    <cfRule type="expression" dxfId="430" priority="482">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="547">
+    <cfRule type="expression" dxfId="429" priority="483">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="548">
+    <cfRule type="expression" dxfId="428" priority="484">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="549">
+    <cfRule type="expression" dxfId="427" priority="485">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="550">
+    <cfRule type="expression" dxfId="426" priority="486">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="551">
+    <cfRule type="expression" dxfId="425" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="552">
+    <cfRule type="expression" dxfId="424" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113:BS113">
-    <cfRule type="expression" dxfId="487" priority="537">
+    <cfRule type="expression" dxfId="423" priority="473">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="538">
+    <cfRule type="expression" dxfId="422" priority="474">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="539">
+    <cfRule type="expression" dxfId="421" priority="475">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="540">
+    <cfRule type="expression" dxfId="420" priority="476">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="541">
+    <cfRule type="expression" dxfId="419" priority="477">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="542">
+    <cfRule type="expression" dxfId="418" priority="478">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="543">
+    <cfRule type="expression" dxfId="417" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="544">
+    <cfRule type="expression" dxfId="416" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114:BS114">
-    <cfRule type="expression" dxfId="479" priority="529">
+    <cfRule type="expression" dxfId="415" priority="465">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="530">
+    <cfRule type="expression" dxfId="414" priority="466">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="531">
+    <cfRule type="expression" dxfId="413" priority="467">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="532">
+    <cfRule type="expression" dxfId="412" priority="468">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="533">
+    <cfRule type="expression" dxfId="411" priority="469">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="534">
+    <cfRule type="expression" dxfId="410" priority="470">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="535">
+    <cfRule type="expression" dxfId="409" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="536">
+    <cfRule type="expression" dxfId="408" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:BS115">
-    <cfRule type="expression" dxfId="471" priority="521">
+    <cfRule type="expression" dxfId="407" priority="457">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="522">
+    <cfRule type="expression" dxfId="406" priority="458">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="523">
+    <cfRule type="expression" dxfId="405" priority="459">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="524">
+    <cfRule type="expression" dxfId="404" priority="460">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="525">
+    <cfRule type="expression" dxfId="403" priority="461">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="526">
+    <cfRule type="expression" dxfId="402" priority="462">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="527">
+    <cfRule type="expression" dxfId="401" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="528">
+    <cfRule type="expression" dxfId="400" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:BS117">
-    <cfRule type="expression" dxfId="463" priority="513">
+    <cfRule type="expression" dxfId="399" priority="449">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="514">
+    <cfRule type="expression" dxfId="398" priority="450">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="515">
+    <cfRule type="expression" dxfId="397" priority="451">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="516">
+    <cfRule type="expression" dxfId="396" priority="452">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="517">
+    <cfRule type="expression" dxfId="395" priority="453">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="518">
+    <cfRule type="expression" dxfId="394" priority="454">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="519">
+    <cfRule type="expression" dxfId="393" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="520">
+    <cfRule type="expression" dxfId="392" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118:BS118">
-    <cfRule type="expression" dxfId="455" priority="505">
+    <cfRule type="expression" dxfId="391" priority="441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="506">
+    <cfRule type="expression" dxfId="390" priority="442">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="507">
+    <cfRule type="expression" dxfId="389" priority="443">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="508">
+    <cfRule type="expression" dxfId="388" priority="444">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="509">
+    <cfRule type="expression" dxfId="387" priority="445">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="510">
+    <cfRule type="expression" dxfId="386" priority="446">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="511">
+    <cfRule type="expression" dxfId="385" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="512">
+    <cfRule type="expression" dxfId="384" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119:BS119">
-    <cfRule type="expression" dxfId="447" priority="497">
+    <cfRule type="expression" dxfId="383" priority="433">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="498">
+    <cfRule type="expression" dxfId="382" priority="434">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="499">
+    <cfRule type="expression" dxfId="381" priority="435">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="500">
+    <cfRule type="expression" dxfId="380" priority="436">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="501">
+    <cfRule type="expression" dxfId="379" priority="437">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="502">
+    <cfRule type="expression" dxfId="378" priority="438">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="503">
+    <cfRule type="expression" dxfId="377" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="504">
+    <cfRule type="expression" dxfId="376" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120:BS120">
-    <cfRule type="expression" dxfId="439" priority="489">
+    <cfRule type="expression" dxfId="375" priority="425">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="490">
+    <cfRule type="expression" dxfId="374" priority="426">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="491">
+    <cfRule type="expression" dxfId="373" priority="427">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="492">
+    <cfRule type="expression" dxfId="372" priority="428">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="493">
+    <cfRule type="expression" dxfId="371" priority="429">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="494">
+    <cfRule type="expression" dxfId="370" priority="430">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="495">
+    <cfRule type="expression" dxfId="369" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="496">
+    <cfRule type="expression" dxfId="368" priority="432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121:BS121">
-    <cfRule type="expression" dxfId="431" priority="481">
+    <cfRule type="expression" dxfId="367" priority="417">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="482">
+    <cfRule type="expression" dxfId="366" priority="418">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="483">
+    <cfRule type="expression" dxfId="365" priority="419">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="484">
+    <cfRule type="expression" dxfId="364" priority="420">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="485">
+    <cfRule type="expression" dxfId="363" priority="421">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="486">
+    <cfRule type="expression" dxfId="362" priority="422">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="487">
+    <cfRule type="expression" dxfId="361" priority="423">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="488">
+    <cfRule type="expression" dxfId="360" priority="424">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122:BS122">
-    <cfRule type="expression" dxfId="423" priority="473">
+    <cfRule type="expression" dxfId="359" priority="409">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="474">
+    <cfRule type="expression" dxfId="358" priority="410">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="475">
+    <cfRule type="expression" dxfId="357" priority="411">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="476">
+    <cfRule type="expression" dxfId="356" priority="412">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="477">
+    <cfRule type="expression" dxfId="355" priority="413">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="478">
+    <cfRule type="expression" dxfId="354" priority="414">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="479">
+    <cfRule type="expression" dxfId="353" priority="415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="480">
+    <cfRule type="expression" dxfId="352" priority="416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125:BS125">
-    <cfRule type="expression" dxfId="415" priority="457">
+    <cfRule type="expression" dxfId="351" priority="393">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="458">
+    <cfRule type="expression" dxfId="350" priority="394">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="459">
+    <cfRule type="expression" dxfId="349" priority="395">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="460">
+    <cfRule type="expression" dxfId="348" priority="396">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="461">
+    <cfRule type="expression" dxfId="347" priority="397">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="462">
+    <cfRule type="expression" dxfId="346" priority="398">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="463">
+    <cfRule type="expression" dxfId="345" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="464">
+    <cfRule type="expression" dxfId="344" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126:BS126">
-    <cfRule type="expression" dxfId="407" priority="449">
+    <cfRule type="expression" dxfId="343" priority="385">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="450">
+    <cfRule type="expression" dxfId="342" priority="386">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="451">
+    <cfRule type="expression" dxfId="341" priority="387">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="452">
+    <cfRule type="expression" dxfId="340" priority="388">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="453">
+    <cfRule type="expression" dxfId="339" priority="389">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="454">
+    <cfRule type="expression" dxfId="338" priority="390">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="455">
+    <cfRule type="expression" dxfId="337" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="456">
+    <cfRule type="expression" dxfId="336" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:BS127">
-    <cfRule type="expression" dxfId="399" priority="441">
+    <cfRule type="expression" dxfId="335" priority="377">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="442">
+    <cfRule type="expression" dxfId="334" priority="378">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="443">
+    <cfRule type="expression" dxfId="333" priority="379">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="444">
+    <cfRule type="expression" dxfId="332" priority="380">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="445">
+    <cfRule type="expression" dxfId="331" priority="381">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="446">
+    <cfRule type="expression" dxfId="330" priority="382">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="447">
+    <cfRule type="expression" dxfId="329" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="448">
+    <cfRule type="expression" dxfId="328" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:BS130">
-    <cfRule type="expression" dxfId="391" priority="425">
+    <cfRule type="expression" dxfId="327" priority="361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="426">
+    <cfRule type="expression" dxfId="326" priority="362">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="427">
+    <cfRule type="expression" dxfId="325" priority="363">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="428">
+    <cfRule type="expression" dxfId="324" priority="364">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="429">
+    <cfRule type="expression" dxfId="323" priority="365">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="430">
+    <cfRule type="expression" dxfId="322" priority="366">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="431">
+    <cfRule type="expression" dxfId="321" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="432">
+    <cfRule type="expression" dxfId="320" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:BS131">
-    <cfRule type="expression" dxfId="383" priority="417">
+    <cfRule type="expression" dxfId="319" priority="353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="418">
+    <cfRule type="expression" dxfId="318" priority="354">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="419">
+    <cfRule type="expression" dxfId="317" priority="355">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="420">
+    <cfRule type="expression" dxfId="316" priority="356">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="421">
+    <cfRule type="expression" dxfId="315" priority="357">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="422">
+    <cfRule type="expression" dxfId="314" priority="358">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="423">
+    <cfRule type="expression" dxfId="313" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="424">
+    <cfRule type="expression" dxfId="312" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:BS132">
-    <cfRule type="expression" dxfId="375" priority="409">
+    <cfRule type="expression" dxfId="311" priority="345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="410">
+    <cfRule type="expression" dxfId="310" priority="346">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="411">
+    <cfRule type="expression" dxfId="309" priority="347">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="412">
+    <cfRule type="expression" dxfId="308" priority="348">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="413">
+    <cfRule type="expression" dxfId="307" priority="349">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="414">
+    <cfRule type="expression" dxfId="306" priority="350">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="415">
+    <cfRule type="expression" dxfId="305" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="416">
+    <cfRule type="expression" dxfId="304" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133:BS133">
-    <cfRule type="expression" dxfId="367" priority="401">
+    <cfRule type="expression" dxfId="303" priority="337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="402">
+    <cfRule type="expression" dxfId="302" priority="338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="403">
+    <cfRule type="expression" dxfId="301" priority="339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="404">
+    <cfRule type="expression" dxfId="300" priority="340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="405">
+    <cfRule type="expression" dxfId="299" priority="341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="406">
+    <cfRule type="expression" dxfId="298" priority="342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="407">
+    <cfRule type="expression" dxfId="297" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="408">
+    <cfRule type="expression" dxfId="296" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:BS134">
-    <cfRule type="expression" dxfId="359" priority="393">
+    <cfRule type="expression" dxfId="295" priority="329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="394">
+    <cfRule type="expression" dxfId="294" priority="330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="395">
+    <cfRule type="expression" dxfId="293" priority="331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="396">
+    <cfRule type="expression" dxfId="292" priority="332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="397">
+    <cfRule type="expression" dxfId="291" priority="333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="398">
+    <cfRule type="expression" dxfId="290" priority="334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="399">
+    <cfRule type="expression" dxfId="289" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="400">
+    <cfRule type="expression" dxfId="288" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:BS136">
-    <cfRule type="expression" dxfId="351" priority="385">
+    <cfRule type="expression" dxfId="287" priority="321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="386">
+    <cfRule type="expression" dxfId="286" priority="322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="387">
+    <cfRule type="expression" dxfId="285" priority="323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="388">
+    <cfRule type="expression" dxfId="284" priority="324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="389">
+    <cfRule type="expression" dxfId="283" priority="325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="390">
+    <cfRule type="expression" dxfId="282" priority="326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="391">
+    <cfRule type="expression" dxfId="281" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="392">
+    <cfRule type="expression" dxfId="280" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:BS164">
-    <cfRule type="expression" dxfId="343" priority="185">
+    <cfRule type="expression" dxfId="279" priority="121">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="186">
+    <cfRule type="expression" dxfId="278" priority="122">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="187">
+    <cfRule type="expression" dxfId="277" priority="123">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="188">
+    <cfRule type="expression" dxfId="276" priority="124">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="189">
+    <cfRule type="expression" dxfId="275" priority="125">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="190">
+    <cfRule type="expression" dxfId="274" priority="126">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="191">
+    <cfRule type="expression" dxfId="273" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="192">
+    <cfRule type="expression" dxfId="272" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I137:BS137">
-    <cfRule type="expression" dxfId="335" priority="369">
+    <cfRule type="expression" dxfId="271" priority="305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="370">
+    <cfRule type="expression" dxfId="270" priority="306">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="371">
+    <cfRule type="expression" dxfId="269" priority="307">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="372">
+    <cfRule type="expression" dxfId="268" priority="308">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="373">
+    <cfRule type="expression" dxfId="267" priority="309">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="374">
+    <cfRule type="expression" dxfId="266" priority="310">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="375">
+    <cfRule type="expression" dxfId="265" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="376">
+    <cfRule type="expression" dxfId="264" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I138:BS138">
-    <cfRule type="expression" dxfId="327" priority="361">
+    <cfRule type="expression" dxfId="263" priority="297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="362">
+    <cfRule type="expression" dxfId="262" priority="298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="363">
+    <cfRule type="expression" dxfId="261" priority="299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="364">
+    <cfRule type="expression" dxfId="260" priority="300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="365">
+    <cfRule type="expression" dxfId="259" priority="301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="366">
+    <cfRule type="expression" dxfId="258" priority="302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="367">
+    <cfRule type="expression" dxfId="257" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="368">
+    <cfRule type="expression" dxfId="256" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I139:BS140">
-    <cfRule type="expression" dxfId="319" priority="353">
+    <cfRule type="expression" dxfId="255" priority="289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="354">
+    <cfRule type="expression" dxfId="254" priority="290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="355">
+    <cfRule type="expression" dxfId="253" priority="291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="356">
+    <cfRule type="expression" dxfId="252" priority="292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="357">
+    <cfRule type="expression" dxfId="251" priority="293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="358">
+    <cfRule type="expression" dxfId="250" priority="294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="359">
+    <cfRule type="expression" dxfId="249" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="360">
+    <cfRule type="expression" dxfId="248" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141:BS141">
-    <cfRule type="expression" dxfId="311" priority="337">
+    <cfRule type="expression" dxfId="247" priority="273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="338">
+    <cfRule type="expression" dxfId="246" priority="274">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="339">
+    <cfRule type="expression" dxfId="245" priority="275">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="340">
+    <cfRule type="expression" dxfId="244" priority="276">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="341">
+    <cfRule type="expression" dxfId="243" priority="277">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="342">
+    <cfRule type="expression" dxfId="242" priority="278">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="343">
+    <cfRule type="expression" dxfId="241" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="344">
+    <cfRule type="expression" dxfId="240" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I142:BS142">
-    <cfRule type="expression" dxfId="303" priority="329">
+    <cfRule type="expression" dxfId="239" priority="265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="330">
+    <cfRule type="expression" dxfId="238" priority="266">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="331">
+    <cfRule type="expression" dxfId="237" priority="267">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="332">
+    <cfRule type="expression" dxfId="236" priority="268">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="333">
+    <cfRule type="expression" dxfId="235" priority="269">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="334">
+    <cfRule type="expression" dxfId="234" priority="270">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="335">
+    <cfRule type="expression" dxfId="233" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="336">
+    <cfRule type="expression" dxfId="232" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143:BS143">
-    <cfRule type="expression" dxfId="295" priority="321">
+    <cfRule type="expression" dxfId="231" priority="257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="322">
+    <cfRule type="expression" dxfId="230" priority="258">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="323">
+    <cfRule type="expression" dxfId="229" priority="259">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="324">
+    <cfRule type="expression" dxfId="228" priority="260">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="325">
+    <cfRule type="expression" dxfId="227" priority="261">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="326">
+    <cfRule type="expression" dxfId="226" priority="262">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="327">
+    <cfRule type="expression" dxfId="225" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="328">
+    <cfRule type="expression" dxfId="224" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144:BS144">
-    <cfRule type="expression" dxfId="287" priority="313">
+    <cfRule type="expression" dxfId="223" priority="249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="314">
+    <cfRule type="expression" dxfId="222" priority="250">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="315">
+    <cfRule type="expression" dxfId="221" priority="251">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="316">
+    <cfRule type="expression" dxfId="220" priority="252">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="317">
+    <cfRule type="expression" dxfId="219" priority="253">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="318">
+    <cfRule type="expression" dxfId="218" priority="254">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="319">
+    <cfRule type="expression" dxfId="217" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="320">
+    <cfRule type="expression" dxfId="216" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145:BS146">
-    <cfRule type="expression" dxfId="279" priority="305">
+    <cfRule type="expression" dxfId="215" priority="241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="306">
+    <cfRule type="expression" dxfId="214" priority="242">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="307">
+    <cfRule type="expression" dxfId="213" priority="243">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="308">
+    <cfRule type="expression" dxfId="212" priority="244">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="309">
+    <cfRule type="expression" dxfId="211" priority="245">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="310">
+    <cfRule type="expression" dxfId="210" priority="246">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="311">
+    <cfRule type="expression" dxfId="209" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="312">
+    <cfRule type="expression" dxfId="208" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147:BS147">
-    <cfRule type="expression" dxfId="271" priority="297">
+    <cfRule type="expression" dxfId="207" priority="233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="298">
+    <cfRule type="expression" dxfId="206" priority="234">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="299">
+    <cfRule type="expression" dxfId="205" priority="235">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="300">
+    <cfRule type="expression" dxfId="204" priority="236">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="301">
+    <cfRule type="expression" dxfId="203" priority="237">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="302">
+    <cfRule type="expression" dxfId="202" priority="238">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="303">
+    <cfRule type="expression" dxfId="201" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="304">
+    <cfRule type="expression" dxfId="200" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148:BS148">
-    <cfRule type="expression" dxfId="263" priority="289">
+    <cfRule type="expression" dxfId="199" priority="225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="290">
+    <cfRule type="expression" dxfId="198" priority="226">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="291">
+    <cfRule type="expression" dxfId="197" priority="227">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="292">
+    <cfRule type="expression" dxfId="196" priority="228">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="293">
+    <cfRule type="expression" dxfId="195" priority="229">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="294">
+    <cfRule type="expression" dxfId="194" priority="230">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="295">
+    <cfRule type="expression" dxfId="193" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="296">
+    <cfRule type="expression" dxfId="192" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:BS149">
-    <cfRule type="expression" dxfId="255" priority="281">
+    <cfRule type="expression" dxfId="191" priority="217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="282">
+    <cfRule type="expression" dxfId="190" priority="218">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="283">
+    <cfRule type="expression" dxfId="189" priority="219">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="284">
+    <cfRule type="expression" dxfId="188" priority="220">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="285">
+    <cfRule type="expression" dxfId="187" priority="221">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="286">
+    <cfRule type="expression" dxfId="186" priority="222">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="287">
+    <cfRule type="expression" dxfId="185" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="288">
+    <cfRule type="expression" dxfId="184" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150:BS151">
-    <cfRule type="expression" dxfId="247" priority="273">
+    <cfRule type="expression" dxfId="183" priority="209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="274">
+    <cfRule type="expression" dxfId="182" priority="210">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="275">
+    <cfRule type="expression" dxfId="181" priority="211">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="276">
+    <cfRule type="expression" dxfId="180" priority="212">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="277">
+    <cfRule type="expression" dxfId="179" priority="213">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="278">
+    <cfRule type="expression" dxfId="178" priority="214">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="279">
+    <cfRule type="expression" dxfId="177" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="280">
+    <cfRule type="expression" dxfId="176" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I152:BS152">
-    <cfRule type="expression" dxfId="239" priority="265">
+    <cfRule type="expression" dxfId="175" priority="201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="266">
+    <cfRule type="expression" dxfId="174" priority="202">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="267">
+    <cfRule type="expression" dxfId="173" priority="203">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="268">
+    <cfRule type="expression" dxfId="172" priority="204">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="269">
+    <cfRule type="expression" dxfId="171" priority="205">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="270">
+    <cfRule type="expression" dxfId="170" priority="206">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="271">
+    <cfRule type="expression" dxfId="169" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="272">
+    <cfRule type="expression" dxfId="168" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I153:BS153">
-    <cfRule type="expression" dxfId="231" priority="257">
+    <cfRule type="expression" dxfId="167" priority="193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="258">
+    <cfRule type="expression" dxfId="166" priority="194">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="259">
+    <cfRule type="expression" dxfId="165" priority="195">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="260">
+    <cfRule type="expression" dxfId="164" priority="196">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="261">
+    <cfRule type="expression" dxfId="163" priority="197">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="262">
+    <cfRule type="expression" dxfId="162" priority="198">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="263">
+    <cfRule type="expression" dxfId="161" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="264">
+    <cfRule type="expression" dxfId="160" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I154:BS154">
-    <cfRule type="expression" dxfId="223" priority="249">
+    <cfRule type="expression" dxfId="159" priority="185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="250">
+    <cfRule type="expression" dxfId="158" priority="186">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="251">
+    <cfRule type="expression" dxfId="157" priority="187">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="252">
+    <cfRule type="expression" dxfId="156" priority="188">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="253">
+    <cfRule type="expression" dxfId="155" priority="189">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="254">
+    <cfRule type="expression" dxfId="154" priority="190">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="255">
+    <cfRule type="expression" dxfId="153" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="256">
+    <cfRule type="expression" dxfId="152" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155:BS155">
-    <cfRule type="expression" dxfId="215" priority="241">
+    <cfRule type="expression" dxfId="151" priority="177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="242">
+    <cfRule type="expression" dxfId="150" priority="178">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="243">
+    <cfRule type="expression" dxfId="149" priority="179">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="244">
+    <cfRule type="expression" dxfId="148" priority="180">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="245">
+    <cfRule type="expression" dxfId="147" priority="181">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="246">
+    <cfRule type="expression" dxfId="146" priority="182">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="247">
+    <cfRule type="expression" dxfId="145" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="248">
+    <cfRule type="expression" dxfId="144" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156:BS156">
-    <cfRule type="expression" dxfId="207" priority="233">
+    <cfRule type="expression" dxfId="143" priority="169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="234">
+    <cfRule type="expression" dxfId="142" priority="170">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="235">
+    <cfRule type="expression" dxfId="141" priority="171">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="236">
+    <cfRule type="expression" dxfId="140" priority="172">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="237">
+    <cfRule type="expression" dxfId="139" priority="173">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="238">
+    <cfRule type="expression" dxfId="138" priority="174">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="239">
+    <cfRule type="expression" dxfId="137" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="240">
+    <cfRule type="expression" dxfId="136" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157:BS158">
-    <cfRule type="expression" dxfId="199" priority="225">
+    <cfRule type="expression" dxfId="135" priority="161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="226">
+    <cfRule type="expression" dxfId="134" priority="162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="227">
+    <cfRule type="expression" dxfId="133" priority="163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="228">
+    <cfRule type="expression" dxfId="132" priority="164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="229">
+    <cfRule type="expression" dxfId="131" priority="165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="230">
+    <cfRule type="expression" dxfId="130" priority="166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="231">
+    <cfRule type="expression" dxfId="129" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="232">
+    <cfRule type="expression" dxfId="128" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:BS159">
-    <cfRule type="expression" dxfId="191" priority="217">
+    <cfRule type="expression" dxfId="127" priority="153">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="218">
+    <cfRule type="expression" dxfId="126" priority="154">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="219">
+    <cfRule type="expression" dxfId="125" priority="155">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="220">
+    <cfRule type="expression" dxfId="124" priority="156">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="221">
+    <cfRule type="expression" dxfId="123" priority="157">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="222">
+    <cfRule type="expression" dxfId="122" priority="158">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="223">
+    <cfRule type="expression" dxfId="121" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="224">
+    <cfRule type="expression" dxfId="120" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I160:BS160">
-    <cfRule type="expression" dxfId="183" priority="209">
+    <cfRule type="expression" dxfId="119" priority="145">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="210">
+    <cfRule type="expression" dxfId="118" priority="146">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="211">
+    <cfRule type="expression" dxfId="117" priority="147">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="212">
+    <cfRule type="expression" dxfId="116" priority="148">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="213">
+    <cfRule type="expression" dxfId="115" priority="149">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="214">
+    <cfRule type="expression" dxfId="114" priority="150">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="215">
+    <cfRule type="expression" dxfId="113" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="216">
+    <cfRule type="expression" dxfId="112" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I161:BS162">
-    <cfRule type="expression" dxfId="175" priority="201">
+    <cfRule type="expression" dxfId="111" priority="137">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="202">
+    <cfRule type="expression" dxfId="110" priority="138">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="203">
+    <cfRule type="expression" dxfId="109" priority="139">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="204">
+    <cfRule type="expression" dxfId="108" priority="140">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="205">
+    <cfRule type="expression" dxfId="107" priority="141">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="206">
+    <cfRule type="expression" dxfId="106" priority="142">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="207">
+    <cfRule type="expression" dxfId="105" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="208">
+    <cfRule type="expression" dxfId="104" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:BS163">
-    <cfRule type="expression" dxfId="167" priority="193">
+    <cfRule type="expression" dxfId="103" priority="129">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="194">
+    <cfRule type="expression" dxfId="102" priority="130">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="195">
+    <cfRule type="expression" dxfId="101" priority="131">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="196">
+    <cfRule type="expression" dxfId="100" priority="132">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="197">
+    <cfRule type="expression" dxfId="99" priority="133">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="198">
+    <cfRule type="expression" dxfId="98" priority="134">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="199">
+    <cfRule type="expression" dxfId="97" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="200">
+    <cfRule type="expression" dxfId="96" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I167:BS167">
-    <cfRule type="expression" dxfId="159" priority="161">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="162">
+    <cfRule type="expression" dxfId="94" priority="98">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="163">
+    <cfRule type="expression" dxfId="93" priority="99">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="164">
+    <cfRule type="expression" dxfId="92" priority="100">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="165">
+    <cfRule type="expression" dxfId="91" priority="101">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="166">
+    <cfRule type="expression" dxfId="90" priority="102">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="167">
+    <cfRule type="expression" dxfId="89" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="168">
+    <cfRule type="expression" dxfId="88" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169:BS169">
-    <cfRule type="expression" dxfId="151" priority="145">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="146">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="85" priority="83">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="82" priority="86">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="81" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="152">
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I168:BS168">
-    <cfRule type="expression" dxfId="143" priority="137">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="138">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="139">
+    <cfRule type="expression" dxfId="77" priority="75">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
+    <cfRule type="expression" dxfId="74" priority="78">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="143">
+    <cfRule type="expression" dxfId="73" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
+    <cfRule type="expression" dxfId="72" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:BS104">
-    <cfRule type="expression" dxfId="135" priority="129">
+    <cfRule type="expression" dxfId="71" priority="65">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="130">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="131">
+    <cfRule type="expression" dxfId="69" priority="67">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I170:BS170">
-    <cfRule type="expression" dxfId="127" priority="121">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="127">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I171:BS171">
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I172:BS172">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="111">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173:BS174">
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I175:BS175">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I176:BS176">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I177:BS178">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I179:BS179">
-    <cfRule type="expression" dxfId="71" priority="65">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I180:BS180">
-    <cfRule type="expression" dxfId="63" priority="57">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I181:BS181">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I182:BS182">
-    <cfRule type="expression" dxfId="47" priority="41">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I183:BS185">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I186:BS186">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I187:BS187">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I188:BS190">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I191:BS191">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54603BC-8901-44FB-8A28-ED3F2DAD1E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F47D4-1229-41E1-B5F8-6B74288ED3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
   <si>
     <t>Trình lập kế hoạch Dự án</t>
   </si>
@@ -605,6 +605,33 @@
   <si>
     <t>BE: lockAccount</t>
   </si>
+  <si>
+    <t>Quản lý ví thanh toán</t>
+  </si>
+  <si>
+    <t>FE: bankConnection</t>
+  </si>
+  <si>
+    <t>FE: topUp</t>
+  </si>
+  <si>
+    <t>FE: withdraw</t>
+  </si>
+  <si>
+    <t>FE: paymentHistory</t>
+  </si>
+  <si>
+    <t>BE: bankConnection</t>
+  </si>
+  <si>
+    <t>BE: topUp</t>
+  </si>
+  <si>
+    <t>BE: withdraw</t>
+  </si>
+  <si>
+    <t>BE: paymentHistory</t>
+  </si>
 </sst>
 </file>
 
@@ -822,7 +849,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +1008,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,7 +1624,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,6 +2021,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="% hoàn thành" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
@@ -2011,7 +2056,839 @@
     <cellStyle name="Tiêu đề" xfId="3" builtinId="15"/>
     <cellStyle name="Văn bản Giải thích" xfId="4" builtinId="53"/>
   </cellStyles>
-  <dxfs count="1137">
+  <dxfs count="1201">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -17051,13 +17928,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT180"/>
+  <dimension ref="A1:BT192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I100" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I181" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomRight" activeCell="G183" sqref="G183:G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -31727,7 +32604,967 @@
       <c r="BR179" s="4"/>
       <c r="BS179" s="4"/>
     </row>
-    <row r="180" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
+    <row r="180" spans="2:71" ht="36" customHeight="1" thickTop="1">
+      <c r="B180" s="133"/>
+      <c r="C180" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" s="48">
+        <v>41</v>
+      </c>
+      <c r="G180" s="48">
+        <v>10</v>
+      </c>
+      <c r="H180" s="49">
+        <v>0</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="4"/>
+      <c r="AD180" s="4"/>
+      <c r="AE180" s="4"/>
+      <c r="AF180" s="4"/>
+      <c r="AG180" s="4"/>
+      <c r="AH180" s="4"/>
+      <c r="AI180" s="4"/>
+      <c r="AJ180" s="4"/>
+      <c r="AK180" s="4"/>
+      <c r="AL180" s="4"/>
+      <c r="AM180" s="4"/>
+      <c r="AN180" s="4"/>
+      <c r="AO180" s="4"/>
+      <c r="AP180" s="4"/>
+      <c r="AQ180" s="4"/>
+      <c r="AR180" s="4"/>
+      <c r="AS180" s="4"/>
+      <c r="AT180" s="4"/>
+      <c r="AU180" s="4"/>
+      <c r="AV180" s="4"/>
+      <c r="AW180" s="4"/>
+      <c r="AX180" s="4"/>
+      <c r="AY180" s="4"/>
+      <c r="AZ180" s="4"/>
+      <c r="BA180" s="4"/>
+      <c r="BB180" s="4"/>
+      <c r="BC180" s="4"/>
+      <c r="BD180" s="4"/>
+      <c r="BE180" s="4"/>
+      <c r="BF180" s="4"/>
+      <c r="BG180" s="4"/>
+      <c r="BH180" s="4"/>
+      <c r="BI180" s="4"/>
+      <c r="BJ180" s="4"/>
+      <c r="BK180" s="4"/>
+      <c r="BL180" s="4"/>
+      <c r="BM180" s="4"/>
+      <c r="BN180" s="4"/>
+      <c r="BO180" s="4"/>
+      <c r="BP180" s="4"/>
+      <c r="BQ180" s="4"/>
+      <c r="BR180" s="4"/>
+      <c r="BS180" s="4"/>
+    </row>
+    <row r="181" spans="2:71" ht="36" customHeight="1">
+      <c r="B181" s="134"/>
+      <c r="C181" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="42">
+        <v>41</v>
+      </c>
+      <c r="G181" s="42">
+        <v>10</v>
+      </c>
+      <c r="H181" s="45">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+      <c r="Y181" s="3"/>
+      <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4"/>
+      <c r="AG181" s="4"/>
+      <c r="AH181" s="4"/>
+      <c r="AI181" s="4"/>
+      <c r="AJ181" s="4"/>
+      <c r="AK181" s="4"/>
+      <c r="AL181" s="4"/>
+      <c r="AM181" s="4"/>
+      <c r="AN181" s="4"/>
+      <c r="AO181" s="4"/>
+      <c r="AP181" s="4"/>
+      <c r="AQ181" s="4"/>
+      <c r="AR181" s="4"/>
+      <c r="AS181" s="4"/>
+      <c r="AT181" s="4"/>
+      <c r="AU181" s="4"/>
+      <c r="AV181" s="4"/>
+      <c r="AW181" s="4"/>
+      <c r="AX181" s="4"/>
+      <c r="AY181" s="4"/>
+      <c r="AZ181" s="4"/>
+      <c r="BA181" s="4"/>
+      <c r="BB181" s="4"/>
+      <c r="BC181" s="4"/>
+      <c r="BD181" s="4"/>
+      <c r="BE181" s="4"/>
+      <c r="BF181" s="4"/>
+      <c r="BG181" s="4"/>
+      <c r="BH181" s="4"/>
+      <c r="BI181" s="4"/>
+      <c r="BJ181" s="4"/>
+      <c r="BK181" s="4"/>
+      <c r="BL181" s="4"/>
+      <c r="BM181" s="4"/>
+      <c r="BN181" s="4"/>
+      <c r="BO181" s="4"/>
+      <c r="BP181" s="4"/>
+      <c r="BQ181" s="4"/>
+      <c r="BR181" s="4"/>
+      <c r="BS181" s="4"/>
+    </row>
+    <row r="182" spans="2:71" ht="36" customHeight="1">
+      <c r="B182" s="134"/>
+      <c r="C182" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="42">
+        <v>41</v>
+      </c>
+      <c r="G182" s="42">
+        <v>10</v>
+      </c>
+      <c r="H182" s="45">
+        <v>0</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="4"/>
+      <c r="AD182" s="4"/>
+      <c r="AE182" s="4"/>
+      <c r="AF182" s="4"/>
+      <c r="AG182" s="4"/>
+      <c r="AH182" s="4"/>
+      <c r="AI182" s="4"/>
+      <c r="AJ182" s="4"/>
+      <c r="AK182" s="4"/>
+      <c r="AL182" s="4"/>
+      <c r="AM182" s="4"/>
+      <c r="AN182" s="4"/>
+      <c r="AO182" s="4"/>
+      <c r="AP182" s="4"/>
+      <c r="AQ182" s="4"/>
+      <c r="AR182" s="4"/>
+      <c r="AS182" s="4"/>
+      <c r="AT182" s="4"/>
+      <c r="AU182" s="4"/>
+      <c r="AV182" s="4"/>
+      <c r="AW182" s="4"/>
+      <c r="AX182" s="4"/>
+      <c r="AY182" s="4"/>
+      <c r="AZ182" s="4"/>
+      <c r="BA182" s="4"/>
+      <c r="BB182" s="4"/>
+      <c r="BC182" s="4"/>
+      <c r="BD182" s="4"/>
+      <c r="BE182" s="4"/>
+      <c r="BF182" s="4"/>
+      <c r="BG182" s="4"/>
+      <c r="BH182" s="4"/>
+      <c r="BI182" s="4"/>
+      <c r="BJ182" s="4"/>
+      <c r="BK182" s="4"/>
+      <c r="BL182" s="4"/>
+      <c r="BM182" s="4"/>
+      <c r="BN182" s="4"/>
+      <c r="BO182" s="4"/>
+      <c r="BP182" s="4"/>
+      <c r="BQ182" s="4"/>
+      <c r="BR182" s="4"/>
+      <c r="BS182" s="4"/>
+    </row>
+    <row r="183" spans="2:71" ht="36" customHeight="1">
+      <c r="B183" s="134"/>
+      <c r="C183" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="42">
+        <v>41</v>
+      </c>
+      <c r="G183" s="42">
+        <v>10</v>
+      </c>
+      <c r="H183" s="45">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="3"/>
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="3"/>
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="4"/>
+      <c r="AD183" s="4"/>
+      <c r="AE183" s="4"/>
+      <c r="AF183" s="4"/>
+      <c r="AG183" s="4"/>
+      <c r="AH183" s="4"/>
+      <c r="AI183" s="4"/>
+      <c r="AJ183" s="4"/>
+      <c r="AK183" s="4"/>
+      <c r="AL183" s="4"/>
+      <c r="AM183" s="4"/>
+      <c r="AN183" s="4"/>
+      <c r="AO183" s="4"/>
+      <c r="AP183" s="4"/>
+      <c r="AQ183" s="4"/>
+      <c r="AR183" s="4"/>
+      <c r="AS183" s="4"/>
+      <c r="AT183" s="4"/>
+      <c r="AU183" s="4"/>
+      <c r="AV183" s="4"/>
+      <c r="AW183" s="4"/>
+      <c r="AX183" s="4"/>
+      <c r="AY183" s="4"/>
+      <c r="AZ183" s="4"/>
+      <c r="BA183" s="4"/>
+      <c r="BB183" s="4"/>
+      <c r="BC183" s="4"/>
+      <c r="BD183" s="4"/>
+      <c r="BE183" s="4"/>
+      <c r="BF183" s="4"/>
+      <c r="BG183" s="4"/>
+      <c r="BH183" s="4"/>
+      <c r="BI183" s="4"/>
+      <c r="BJ183" s="4"/>
+      <c r="BK183" s="4"/>
+      <c r="BL183" s="4"/>
+      <c r="BM183" s="4"/>
+      <c r="BN183" s="4"/>
+      <c r="BO183" s="4"/>
+      <c r="BP183" s="4"/>
+      <c r="BQ183" s="4"/>
+      <c r="BR183" s="4"/>
+      <c r="BS183" s="4"/>
+    </row>
+    <row r="184" spans="2:71" ht="36" customHeight="1">
+      <c r="B184" s="134"/>
+      <c r="C184" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D184" s="40"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="42">
+        <v>41</v>
+      </c>
+      <c r="G184" s="42">
+        <v>10</v>
+      </c>
+      <c r="H184" s="45"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+      <c r="AA184" s="3"/>
+      <c r="AB184" s="3"/>
+      <c r="AC184" s="4"/>
+      <c r="AD184" s="4"/>
+      <c r="AE184" s="4"/>
+      <c r="AF184" s="4"/>
+      <c r="AG184" s="4"/>
+      <c r="AH184" s="4"/>
+      <c r="AI184" s="4"/>
+      <c r="AJ184" s="4"/>
+      <c r="AK184" s="4"/>
+      <c r="AL184" s="4"/>
+      <c r="AM184" s="4"/>
+      <c r="AN184" s="4"/>
+      <c r="AO184" s="4"/>
+      <c r="AP184" s="4"/>
+      <c r="AQ184" s="4"/>
+      <c r="AR184" s="4"/>
+      <c r="AS184" s="4"/>
+      <c r="AT184" s="4"/>
+      <c r="AU184" s="4"/>
+      <c r="AV184" s="4"/>
+      <c r="AW184" s="4"/>
+      <c r="AX184" s="4"/>
+      <c r="AY184" s="4"/>
+      <c r="AZ184" s="4"/>
+      <c r="BA184" s="4"/>
+      <c r="BB184" s="4"/>
+      <c r="BC184" s="4"/>
+      <c r="BD184" s="4"/>
+      <c r="BE184" s="4"/>
+      <c r="BF184" s="4"/>
+      <c r="BG184" s="4"/>
+      <c r="BH184" s="4"/>
+      <c r="BI184" s="4"/>
+      <c r="BJ184" s="4"/>
+      <c r="BK184" s="4"/>
+      <c r="BL184" s="4"/>
+      <c r="BM184" s="4"/>
+      <c r="BN184" s="4"/>
+      <c r="BO184" s="4"/>
+      <c r="BP184" s="4"/>
+      <c r="BQ184" s="4"/>
+      <c r="BR184" s="4"/>
+      <c r="BS184" s="4"/>
+    </row>
+    <row r="185" spans="2:71" ht="36" customHeight="1">
+      <c r="B185" s="134"/>
+      <c r="C185" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D185" s="40"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="42">
+        <v>41</v>
+      </c>
+      <c r="G185" s="42">
+        <v>10</v>
+      </c>
+      <c r="H185" s="45">
+        <v>0</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="4"/>
+      <c r="AE185" s="4"/>
+      <c r="AF185" s="4"/>
+      <c r="AG185" s="4"/>
+      <c r="AH185" s="4"/>
+      <c r="AI185" s="4"/>
+      <c r="AJ185" s="4"/>
+      <c r="AK185" s="4"/>
+      <c r="AL185" s="4"/>
+      <c r="AM185" s="4"/>
+      <c r="AN185" s="4"/>
+      <c r="AO185" s="4"/>
+      <c r="AP185" s="4"/>
+      <c r="AQ185" s="4"/>
+      <c r="AR185" s="4"/>
+      <c r="AS185" s="4"/>
+      <c r="AT185" s="4"/>
+      <c r="AU185" s="4"/>
+      <c r="AV185" s="4"/>
+      <c r="AW185" s="4"/>
+      <c r="AX185" s="4"/>
+      <c r="AY185" s="4"/>
+      <c r="AZ185" s="4"/>
+      <c r="BA185" s="4"/>
+      <c r="BB185" s="4"/>
+      <c r="BC185" s="4"/>
+      <c r="BD185" s="4"/>
+      <c r="BE185" s="4"/>
+      <c r="BF185" s="4"/>
+      <c r="BG185" s="4"/>
+      <c r="BH185" s="4"/>
+      <c r="BI185" s="4"/>
+      <c r="BJ185" s="4"/>
+      <c r="BK185" s="4"/>
+      <c r="BL185" s="4"/>
+      <c r="BM185" s="4"/>
+      <c r="BN185" s="4"/>
+      <c r="BO185" s="4"/>
+      <c r="BP185" s="4"/>
+      <c r="BQ185" s="4"/>
+      <c r="BR185" s="4"/>
+      <c r="BS185" s="4"/>
+    </row>
+    <row r="186" spans="2:71" ht="36" customHeight="1">
+      <c r="B186" s="134"/>
+      <c r="C186" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" s="40"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="42">
+        <v>41</v>
+      </c>
+      <c r="G186" s="42">
+        <v>10</v>
+      </c>
+      <c r="H186" s="45">
+        <v>0</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+      <c r="AA186" s="3"/>
+      <c r="AB186" s="3"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="4"/>
+      <c r="AF186" s="4"/>
+      <c r="AG186" s="4"/>
+      <c r="AH186" s="4"/>
+      <c r="AI186" s="4"/>
+      <c r="AJ186" s="4"/>
+      <c r="AK186" s="4"/>
+      <c r="AL186" s="4"/>
+      <c r="AM186" s="4"/>
+      <c r="AN186" s="4"/>
+      <c r="AO186" s="4"/>
+      <c r="AP186" s="4"/>
+      <c r="AQ186" s="4"/>
+      <c r="AR186" s="4"/>
+      <c r="AS186" s="4"/>
+      <c r="AT186" s="4"/>
+      <c r="AU186" s="4"/>
+      <c r="AV186" s="4"/>
+      <c r="AW186" s="4"/>
+      <c r="AX186" s="4"/>
+      <c r="AY186" s="4"/>
+      <c r="AZ186" s="4"/>
+      <c r="BA186" s="4"/>
+      <c r="BB186" s="4"/>
+      <c r="BC186" s="4"/>
+      <c r="BD186" s="4"/>
+      <c r="BE186" s="4"/>
+      <c r="BF186" s="4"/>
+      <c r="BG186" s="4"/>
+      <c r="BH186" s="4"/>
+      <c r="BI186" s="4"/>
+      <c r="BJ186" s="4"/>
+      <c r="BK186" s="4"/>
+      <c r="BL186" s="4"/>
+      <c r="BM186" s="4"/>
+      <c r="BN186" s="4"/>
+      <c r="BO186" s="4"/>
+      <c r="BP186" s="4"/>
+      <c r="BQ186" s="4"/>
+      <c r="BR186" s="4"/>
+      <c r="BS186" s="4"/>
+    </row>
+    <row r="187" spans="2:71" ht="36" customHeight="1">
+      <c r="B187" s="134"/>
+      <c r="C187" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="40"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="42">
+        <v>41</v>
+      </c>
+      <c r="G187" s="42">
+        <v>10</v>
+      </c>
+      <c r="H187" s="45">
+        <v>0</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+      <c r="Y187" s="3"/>
+      <c r="Z187" s="3"/>
+      <c r="AA187" s="3"/>
+      <c r="AB187" s="3"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+      <c r="AF187" s="4"/>
+      <c r="AG187" s="4"/>
+      <c r="AH187" s="4"/>
+      <c r="AI187" s="4"/>
+      <c r="AJ187" s="4"/>
+      <c r="AK187" s="4"/>
+      <c r="AL187" s="4"/>
+      <c r="AM187" s="4"/>
+      <c r="AN187" s="4"/>
+      <c r="AO187" s="4"/>
+      <c r="AP187" s="4"/>
+      <c r="AQ187" s="4"/>
+      <c r="AR187" s="4"/>
+      <c r="AS187" s="4"/>
+      <c r="AT187" s="4"/>
+      <c r="AU187" s="4"/>
+      <c r="AV187" s="4"/>
+      <c r="AW187" s="4"/>
+      <c r="AX187" s="4"/>
+      <c r="AY187" s="4"/>
+      <c r="AZ187" s="4"/>
+      <c r="BA187" s="4"/>
+      <c r="BB187" s="4"/>
+      <c r="BC187" s="4"/>
+      <c r="BD187" s="4"/>
+      <c r="BE187" s="4"/>
+      <c r="BF187" s="4"/>
+      <c r="BG187" s="4"/>
+      <c r="BH187" s="4"/>
+      <c r="BI187" s="4"/>
+      <c r="BJ187" s="4"/>
+      <c r="BK187" s="4"/>
+      <c r="BL187" s="4"/>
+      <c r="BM187" s="4"/>
+      <c r="BN187" s="4"/>
+      <c r="BO187" s="4"/>
+      <c r="BP187" s="4"/>
+      <c r="BQ187" s="4"/>
+      <c r="BR187" s="4"/>
+      <c r="BS187" s="4"/>
+    </row>
+    <row r="188" spans="2:71" ht="36" customHeight="1">
+      <c r="B188" s="134"/>
+      <c r="C188" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D188" s="40"/>
+      <c r="E188" s="41"/>
+      <c r="F188" s="42">
+        <v>41</v>
+      </c>
+      <c r="G188" s="42">
+        <v>10</v>
+      </c>
+      <c r="H188" s="45">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="3"/>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="4"/>
+      <c r="AE188" s="4"/>
+      <c r="AF188" s="4"/>
+      <c r="AG188" s="4"/>
+      <c r="AH188" s="4"/>
+      <c r="AI188" s="4"/>
+      <c r="AJ188" s="4"/>
+      <c r="AK188" s="4"/>
+      <c r="AL188" s="4"/>
+      <c r="AM188" s="4"/>
+      <c r="AN188" s="4"/>
+      <c r="AO188" s="4"/>
+      <c r="AP188" s="4"/>
+      <c r="AQ188" s="4"/>
+      <c r="AR188" s="4"/>
+      <c r="AS188" s="4"/>
+      <c r="AT188" s="4"/>
+      <c r="AU188" s="4"/>
+      <c r="AV188" s="4"/>
+      <c r="AW188" s="4"/>
+      <c r="AX188" s="4"/>
+      <c r="AY188" s="4"/>
+      <c r="AZ188" s="4"/>
+      <c r="BA188" s="4"/>
+      <c r="BB188" s="4"/>
+      <c r="BC188" s="4"/>
+      <c r="BD188" s="4"/>
+      <c r="BE188" s="4"/>
+      <c r="BF188" s="4"/>
+      <c r="BG188" s="4"/>
+      <c r="BH188" s="4"/>
+      <c r="BI188" s="4"/>
+      <c r="BJ188" s="4"/>
+      <c r="BK188" s="4"/>
+      <c r="BL188" s="4"/>
+      <c r="BM188" s="4"/>
+      <c r="BN188" s="4"/>
+      <c r="BO188" s="4"/>
+      <c r="BP188" s="4"/>
+      <c r="BQ188" s="4"/>
+      <c r="BR188" s="4"/>
+      <c r="BS188" s="4"/>
+    </row>
+    <row r="189" spans="2:71" ht="36" customHeight="1">
+      <c r="B189" s="134"/>
+      <c r="C189" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D189" s="40"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="42">
+        <v>41</v>
+      </c>
+      <c r="G189" s="42">
+        <v>10</v>
+      </c>
+      <c r="H189" s="45"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="3"/>
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+      <c r="AF189" s="4"/>
+      <c r="AG189" s="4"/>
+      <c r="AH189" s="4"/>
+      <c r="AI189" s="4"/>
+      <c r="AJ189" s="4"/>
+      <c r="AK189" s="4"/>
+      <c r="AL189" s="4"/>
+      <c r="AM189" s="4"/>
+      <c r="AN189" s="4"/>
+      <c r="AO189" s="4"/>
+      <c r="AP189" s="4"/>
+      <c r="AQ189" s="4"/>
+      <c r="AR189" s="4"/>
+      <c r="AS189" s="4"/>
+      <c r="AT189" s="4"/>
+      <c r="AU189" s="4"/>
+      <c r="AV189" s="4"/>
+      <c r="AW189" s="4"/>
+      <c r="AX189" s="4"/>
+      <c r="AY189" s="4"/>
+      <c r="AZ189" s="4"/>
+      <c r="BA189" s="4"/>
+      <c r="BB189" s="4"/>
+      <c r="BC189" s="4"/>
+      <c r="BD189" s="4"/>
+      <c r="BE189" s="4"/>
+      <c r="BF189" s="4"/>
+      <c r="BG189" s="4"/>
+      <c r="BH189" s="4"/>
+      <c r="BI189" s="4"/>
+      <c r="BJ189" s="4"/>
+      <c r="BK189" s="4"/>
+      <c r="BL189" s="4"/>
+      <c r="BM189" s="4"/>
+      <c r="BN189" s="4"/>
+      <c r="BO189" s="4"/>
+      <c r="BP189" s="4"/>
+      <c r="BQ189" s="4"/>
+      <c r="BR189" s="4"/>
+      <c r="BS189" s="4"/>
+    </row>
+    <row r="190" spans="2:71" ht="36" customHeight="1">
+      <c r="B190" s="134"/>
+      <c r="C190" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D190" s="40"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="42">
+        <v>41</v>
+      </c>
+      <c r="G190" s="42">
+        <v>10</v>
+      </c>
+      <c r="H190" s="45">
+        <v>0</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+      <c r="Y190" s="3"/>
+      <c r="Z190" s="3"/>
+      <c r="AA190" s="3"/>
+      <c r="AB190" s="3"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="4"/>
+      <c r="AE190" s="4"/>
+      <c r="AF190" s="4"/>
+      <c r="AG190" s="4"/>
+      <c r="AH190" s="4"/>
+      <c r="AI190" s="4"/>
+      <c r="AJ190" s="4"/>
+      <c r="AK190" s="4"/>
+      <c r="AL190" s="4"/>
+      <c r="AM190" s="4"/>
+      <c r="AN190" s="4"/>
+      <c r="AO190" s="4"/>
+      <c r="AP190" s="4"/>
+      <c r="AQ190" s="4"/>
+      <c r="AR190" s="4"/>
+      <c r="AS190" s="4"/>
+      <c r="AT190" s="4"/>
+      <c r="AU190" s="4"/>
+      <c r="AV190" s="4"/>
+      <c r="AW190" s="4"/>
+      <c r="AX190" s="4"/>
+      <c r="AY190" s="4"/>
+      <c r="AZ190" s="4"/>
+      <c r="BA190" s="4"/>
+      <c r="BB190" s="4"/>
+      <c r="BC190" s="4"/>
+      <c r="BD190" s="4"/>
+      <c r="BE190" s="4"/>
+      <c r="BF190" s="4"/>
+      <c r="BG190" s="4"/>
+      <c r="BH190" s="4"/>
+      <c r="BI190" s="4"/>
+      <c r="BJ190" s="4"/>
+      <c r="BK190" s="4"/>
+      <c r="BL190" s="4"/>
+      <c r="BM190" s="4"/>
+      <c r="BN190" s="4"/>
+      <c r="BO190" s="4"/>
+      <c r="BP190" s="4"/>
+      <c r="BQ190" s="4"/>
+      <c r="BR190" s="4"/>
+      <c r="BS190" s="4"/>
+    </row>
+    <row r="191" spans="2:71" ht="36" customHeight="1" thickBot="1">
+      <c r="B191" s="135"/>
+      <c r="C191" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D191" s="54"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="56">
+        <v>41</v>
+      </c>
+      <c r="G191" s="56">
+        <v>10</v>
+      </c>
+      <c r="H191" s="57">
+        <v>0</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
+      <c r="AA191" s="3"/>
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="4"/>
+      <c r="AE191" s="4"/>
+      <c r="AF191" s="4"/>
+      <c r="AG191" s="4"/>
+      <c r="AH191" s="4"/>
+      <c r="AI191" s="4"/>
+      <c r="AJ191" s="4"/>
+      <c r="AK191" s="4"/>
+      <c r="AL191" s="4"/>
+      <c r="AM191" s="4"/>
+      <c r="AN191" s="4"/>
+      <c r="AO191" s="4"/>
+      <c r="AP191" s="4"/>
+      <c r="AQ191" s="4"/>
+      <c r="AR191" s="4"/>
+      <c r="AS191" s="4"/>
+      <c r="AT191" s="4"/>
+      <c r="AU191" s="4"/>
+      <c r="AV191" s="4"/>
+      <c r="AW191" s="4"/>
+      <c r="AX191" s="4"/>
+      <c r="AY191" s="4"/>
+      <c r="AZ191" s="4"/>
+      <c r="BA191" s="4"/>
+      <c r="BB191" s="4"/>
+      <c r="BC191" s="4"/>
+      <c r="BD191" s="4"/>
+      <c r="BE191" s="4"/>
+      <c r="BF191" s="4"/>
+      <c r="BG191" s="4"/>
+      <c r="BH191" s="4"/>
+      <c r="BI191" s="4"/>
+      <c r="BJ191" s="4"/>
+      <c r="BK191" s="4"/>
+      <c r="BL191" s="4"/>
+      <c r="BM191" s="4"/>
+      <c r="BN191" s="4"/>
+      <c r="BO191" s="4"/>
+      <c r="BP191" s="4"/>
+      <c r="BQ191" s="4"/>
+      <c r="BR191" s="4"/>
+      <c r="BS191" s="4"/>
+    </row>
+    <row r="192" spans="2:71" ht="30" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
@@ -31737,37 +33574,245 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:BS5">
-    <cfRule type="expression" dxfId="1136" priority="1384">
+    <cfRule type="expression" dxfId="1200" priority="1448">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BS8 I165:BS166 I123:BS124 I92:BS92 I128:BS129 I103:BS104">
-    <cfRule type="expression" dxfId="1135" priority="1377">
+    <cfRule type="expression" dxfId="1199" priority="1441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1379">
+    <cfRule type="expression" dxfId="1198" priority="1443">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1380">
+    <cfRule type="expression" dxfId="1197" priority="1444">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1381">
+    <cfRule type="expression" dxfId="1196" priority="1445">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1382">
+    <cfRule type="expression" dxfId="1195" priority="1446">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1383">
+    <cfRule type="expression" dxfId="1194" priority="1447">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1387">
+    <cfRule type="expression" dxfId="1193" priority="1451">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1388">
+    <cfRule type="expression" dxfId="1192" priority="1452">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BS9">
+    <cfRule type="expression" dxfId="1191" priority="1425">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1190" priority="1426">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1189" priority="1427">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1188" priority="1428">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1187" priority="1429">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1186" priority="1430">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1185" priority="1431">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1184" priority="1432">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:BS10">
+    <cfRule type="expression" dxfId="1183" priority="1417">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1182" priority="1418">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1181" priority="1419">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1180" priority="1420">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1179" priority="1421">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1178" priority="1422">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1177" priority="1423">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1176" priority="1424">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:BS11">
+    <cfRule type="expression" dxfId="1175" priority="1409">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1174" priority="1410">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1173" priority="1411">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1172" priority="1412">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1171" priority="1413">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1170" priority="1414">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1169" priority="1415">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1168" priority="1416">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BS12">
+    <cfRule type="expression" dxfId="1167" priority="1401">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1166" priority="1402">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1165" priority="1403">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1164" priority="1404">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1163" priority="1405">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1162" priority="1406">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1161" priority="1407">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1160" priority="1408">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:BS20">
+    <cfRule type="expression" dxfId="1159" priority="1393">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1158" priority="1394">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1157" priority="1395">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1156" priority="1396">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1155" priority="1397">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1154" priority="1398">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1153" priority="1399">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1152" priority="1400">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:BS21">
+    <cfRule type="expression" dxfId="1151" priority="1385">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1150" priority="1386">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1149" priority="1387">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1148" priority="1388">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1147" priority="1389">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1146" priority="1390">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1145" priority="1391">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1144" priority="1392">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BS22">
+    <cfRule type="expression" dxfId="1143" priority="1377">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1142" priority="1378">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1141" priority="1379">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1140" priority="1380">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1139" priority="1381">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1138" priority="1382">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1137" priority="1383">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1136" priority="1384">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:BS23">
+    <cfRule type="expression" dxfId="1135" priority="1369">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1134" priority="1370">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1133" priority="1371">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1132" priority="1372">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1131" priority="1373">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1130" priority="1374">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1129" priority="1375">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1128" priority="1376">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:BS24">
     <cfRule type="expression" dxfId="1127" priority="1361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31793,7 +33838,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BS10">
+  <conditionalFormatting sqref="I25:BS25">
     <cfRule type="expression" dxfId="1119" priority="1353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31819,7 +33864,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BS11">
+  <conditionalFormatting sqref="I26:BS26">
     <cfRule type="expression" dxfId="1111" priority="1345">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31845,7 +33890,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BS12">
+  <conditionalFormatting sqref="I27:BS27">
     <cfRule type="expression" dxfId="1103" priority="1337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31871,7 +33916,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BS20">
+  <conditionalFormatting sqref="I28:BS28">
     <cfRule type="expression" dxfId="1095" priority="1329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31897,7 +33942,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BS21">
+  <conditionalFormatting sqref="I29:BS29">
     <cfRule type="expression" dxfId="1087" priority="1321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31923,7 +33968,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BS22">
+  <conditionalFormatting sqref="I80:BS80">
     <cfRule type="expression" dxfId="1079" priority="1313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -31949,215 +33994,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BS23">
-    <cfRule type="expression" dxfId="1071" priority="1305">
+  <conditionalFormatting sqref="I81:BS81">
+    <cfRule type="expression" dxfId="1071" priority="1297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1306">
+    <cfRule type="expression" dxfId="1070" priority="1298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1307">
+    <cfRule type="expression" dxfId="1069" priority="1299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1308">
+    <cfRule type="expression" dxfId="1068" priority="1300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1309">
+    <cfRule type="expression" dxfId="1067" priority="1301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1310">
+    <cfRule type="expression" dxfId="1066" priority="1302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1311">
+    <cfRule type="expression" dxfId="1065" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1312">
+    <cfRule type="expression" dxfId="1064" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BS24">
-    <cfRule type="expression" dxfId="1063" priority="1297">
+  <conditionalFormatting sqref="I82:BS82">
+    <cfRule type="expression" dxfId="1063" priority="1289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1298">
+    <cfRule type="expression" dxfId="1062" priority="1290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1299">
+    <cfRule type="expression" dxfId="1061" priority="1291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1300">
+    <cfRule type="expression" dxfId="1060" priority="1292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1301">
+    <cfRule type="expression" dxfId="1059" priority="1293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1302">
+    <cfRule type="expression" dxfId="1058" priority="1294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1303">
+    <cfRule type="expression" dxfId="1057" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1304">
+    <cfRule type="expression" dxfId="1056" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:BS25">
-    <cfRule type="expression" dxfId="1055" priority="1289">
+  <conditionalFormatting sqref="I83:BS83">
+    <cfRule type="expression" dxfId="1055" priority="1281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1290">
+    <cfRule type="expression" dxfId="1054" priority="1282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1291">
+    <cfRule type="expression" dxfId="1053" priority="1283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1292">
+    <cfRule type="expression" dxfId="1052" priority="1284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1293">
+    <cfRule type="expression" dxfId="1051" priority="1285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1294">
+    <cfRule type="expression" dxfId="1050" priority="1286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1295">
+    <cfRule type="expression" dxfId="1049" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1296">
+    <cfRule type="expression" dxfId="1048" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:BS26">
-    <cfRule type="expression" dxfId="1047" priority="1281">
+  <conditionalFormatting sqref="I84:BS84">
+    <cfRule type="expression" dxfId="1047" priority="1273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1282">
+    <cfRule type="expression" dxfId="1046" priority="1274">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1283">
+    <cfRule type="expression" dxfId="1045" priority="1275">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1284">
+    <cfRule type="expression" dxfId="1044" priority="1276">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1285">
+    <cfRule type="expression" dxfId="1043" priority="1277">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1286">
+    <cfRule type="expression" dxfId="1042" priority="1278">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1287">
+    <cfRule type="expression" dxfId="1041" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1288">
+    <cfRule type="expression" dxfId="1040" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BS27">
-    <cfRule type="expression" dxfId="1039" priority="1273">
+  <conditionalFormatting sqref="I85:BS85">
+    <cfRule type="expression" dxfId="1039" priority="1265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1274">
+    <cfRule type="expression" dxfId="1038" priority="1266">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1275">
+    <cfRule type="expression" dxfId="1037" priority="1267">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1276">
+    <cfRule type="expression" dxfId="1036" priority="1268">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1277">
+    <cfRule type="expression" dxfId="1035" priority="1269">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1278">
+    <cfRule type="expression" dxfId="1034" priority="1270">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1279">
+    <cfRule type="expression" dxfId="1033" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1280">
+    <cfRule type="expression" dxfId="1032" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:BS28">
-    <cfRule type="expression" dxfId="1031" priority="1265">
+  <conditionalFormatting sqref="I86:BS86">
+    <cfRule type="expression" dxfId="1031" priority="1257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1266">
+    <cfRule type="expression" dxfId="1030" priority="1258">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1267">
+    <cfRule type="expression" dxfId="1029" priority="1259">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1268">
+    <cfRule type="expression" dxfId="1028" priority="1260">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1269">
+    <cfRule type="expression" dxfId="1027" priority="1261">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1270">
+    <cfRule type="expression" dxfId="1026" priority="1262">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1271">
+    <cfRule type="expression" dxfId="1025" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1272">
+    <cfRule type="expression" dxfId="1024" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BS29">
-    <cfRule type="expression" dxfId="1023" priority="1257">
+  <conditionalFormatting sqref="I87:BS87">
+    <cfRule type="expression" dxfId="1023" priority="1249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1258">
+    <cfRule type="expression" dxfId="1022" priority="1250">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1259">
+    <cfRule type="expression" dxfId="1021" priority="1251">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1260">
+    <cfRule type="expression" dxfId="1020" priority="1252">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1261">
+    <cfRule type="expression" dxfId="1019" priority="1253">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1262">
+    <cfRule type="expression" dxfId="1018" priority="1254">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1263">
+    <cfRule type="expression" dxfId="1017" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1264">
+    <cfRule type="expression" dxfId="1016" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BS80">
-    <cfRule type="expression" dxfId="1015" priority="1249">
+  <conditionalFormatting sqref="I88:BS88">
+    <cfRule type="expression" dxfId="1015" priority="1241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1250">
+    <cfRule type="expression" dxfId="1014" priority="1242">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1251">
+    <cfRule type="expression" dxfId="1013" priority="1243">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1252">
+    <cfRule type="expression" dxfId="1012" priority="1244">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1253">
+    <cfRule type="expression" dxfId="1011" priority="1245">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1254">
+    <cfRule type="expression" dxfId="1010" priority="1246">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1255">
+    <cfRule type="expression" dxfId="1009" priority="1247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1256">
+    <cfRule type="expression" dxfId="1008" priority="1248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BS81">
+  <conditionalFormatting sqref="I89:BS93">
     <cfRule type="expression" dxfId="1007" priority="1233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32183,7 +34228,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:BS82">
+  <conditionalFormatting sqref="I94:BS94">
     <cfRule type="expression" dxfId="999" priority="1225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32209,7 +34254,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83:BS83">
+  <conditionalFormatting sqref="I95:BS95">
     <cfRule type="expression" dxfId="991" priority="1217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32235,7 +34280,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:BS84">
+  <conditionalFormatting sqref="I96:BS96">
     <cfRule type="expression" dxfId="983" priority="1209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32261,7 +34306,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:BS85">
+  <conditionalFormatting sqref="I37:BS37">
     <cfRule type="expression" dxfId="975" priority="1201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32287,319 +34332,319 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BS86">
-    <cfRule type="expression" dxfId="967" priority="1193">
+  <conditionalFormatting sqref="I97:BS97">
+    <cfRule type="expression" dxfId="967" priority="1185">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1194">
+    <cfRule type="expression" dxfId="966" priority="1186">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1195">
+    <cfRule type="expression" dxfId="965" priority="1187">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="1196">
+    <cfRule type="expression" dxfId="964" priority="1188">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1197">
+    <cfRule type="expression" dxfId="963" priority="1189">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="1198">
+    <cfRule type="expression" dxfId="962" priority="1190">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1199">
+    <cfRule type="expression" dxfId="961" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1200">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BS87">
-    <cfRule type="expression" dxfId="959" priority="1185">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1186">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1187">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="956" priority="1188">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1189">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1190">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="953" priority="1191">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1192">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:BS88">
-    <cfRule type="expression" dxfId="951" priority="1177">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="950" priority="1178">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1179">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1180">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="947" priority="1181">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1182">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1183">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="944" priority="1184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:BS93">
-    <cfRule type="expression" dxfId="943" priority="1169">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1170">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="941" priority="1171">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1172">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1173">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="938" priority="1174">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:BS94">
-    <cfRule type="expression" dxfId="935" priority="1161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="932" priority="1164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="929" priority="1167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95:BS95">
-    <cfRule type="expression" dxfId="927" priority="1153">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="926" priority="1154">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1155">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1156">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="923" priority="1157">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1158">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="920" priority="1160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BS96">
-    <cfRule type="expression" dxfId="919" priority="1145">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1146">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="917" priority="1147">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1148">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1149">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="914" priority="1150">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="913" priority="1151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="912" priority="1152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BS37">
-    <cfRule type="expression" dxfId="911" priority="1137">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1138">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1139">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="908" priority="1140">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1141">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1142">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="905" priority="1143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:BS97">
-    <cfRule type="expression" dxfId="903" priority="1121">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="902" priority="1122">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1123">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1124">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="899" priority="1125">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1126">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1127">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="896" priority="1128">
+    <cfRule type="expression" dxfId="960" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:BS98">
-    <cfRule type="expression" dxfId="895" priority="1113">
+    <cfRule type="expression" dxfId="959" priority="1177">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1114">
+    <cfRule type="expression" dxfId="958" priority="1178">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="1115">
+    <cfRule type="expression" dxfId="957" priority="1179">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1116">
+    <cfRule type="expression" dxfId="956" priority="1180">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1117">
+    <cfRule type="expression" dxfId="955" priority="1181">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="1118">
+    <cfRule type="expression" dxfId="954" priority="1182">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1119">
+    <cfRule type="expression" dxfId="953" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1120">
+    <cfRule type="expression" dxfId="952" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:BS99">
-    <cfRule type="expression" dxfId="887" priority="1105">
+    <cfRule type="expression" dxfId="951" priority="1169">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1106">
+    <cfRule type="expression" dxfId="950" priority="1170">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1107">
+    <cfRule type="expression" dxfId="949" priority="1171">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="1108">
+    <cfRule type="expression" dxfId="948" priority="1172">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1109">
+    <cfRule type="expression" dxfId="947" priority="1173">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1110">
+    <cfRule type="expression" dxfId="946" priority="1174">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="1111">
+    <cfRule type="expression" dxfId="945" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1112">
+    <cfRule type="expression" dxfId="944" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:BS105">
-    <cfRule type="expression" dxfId="879" priority="1097">
+    <cfRule type="expression" dxfId="943" priority="1161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="1098">
+    <cfRule type="expression" dxfId="942" priority="1162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1099">
+    <cfRule type="expression" dxfId="941" priority="1163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1100">
+    <cfRule type="expression" dxfId="940" priority="1164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="1101">
+    <cfRule type="expression" dxfId="939" priority="1165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1102">
+    <cfRule type="expression" dxfId="938" priority="1166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1103">
+    <cfRule type="expression" dxfId="937" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="1104">
+    <cfRule type="expression" dxfId="936" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:BS106">
+    <cfRule type="expression" dxfId="935" priority="1145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="934" priority="1146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="933" priority="1147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="932" priority="1148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="931" priority="1149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="930" priority="1150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="929" priority="1151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="928" priority="1152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107:BS107">
+    <cfRule type="expression" dxfId="927" priority="1137">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="926" priority="1138">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="925" priority="1139">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="924" priority="1140">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="923" priority="1141">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="922" priority="1142">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="921" priority="1143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="920" priority="1144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BS30">
+    <cfRule type="expression" dxfId="919" priority="1129">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="918" priority="1130">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="917" priority="1131">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="916" priority="1132">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="915" priority="1133">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="914" priority="1134">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="913" priority="1135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="912" priority="1136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BS31">
+    <cfRule type="expression" dxfId="911" priority="1121">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="910" priority="1122">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="909" priority="1123">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="908" priority="1124">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="907" priority="1125">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="906" priority="1126">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="905" priority="1127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="904" priority="1128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BS32">
+    <cfRule type="expression" dxfId="903" priority="1113">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="902" priority="1114">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="901" priority="1115">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="900" priority="1116">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="899" priority="1117">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="898" priority="1118">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="897" priority="1119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="896" priority="1120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BS33">
+    <cfRule type="expression" dxfId="895" priority="1105">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="894" priority="1106">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="893" priority="1107">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="892" priority="1108">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="891" priority="1109">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="890" priority="1110">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="889" priority="1111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="888" priority="1112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BS34">
+    <cfRule type="expression" dxfId="887" priority="1097">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="886" priority="1098">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="885" priority="1099">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="884" priority="1100">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="883" priority="1101">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="882" priority="1102">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="881" priority="1103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="880" priority="1104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BS35">
+    <cfRule type="expression" dxfId="879" priority="1089">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="878" priority="1090">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="877" priority="1091">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="876" priority="1092">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="875" priority="1093">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="874" priority="1094">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="873" priority="1095">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="872" priority="1096">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BS36">
     <cfRule type="expression" dxfId="871" priority="1081">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32625,215 +34670,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:BS107">
-    <cfRule type="expression" dxfId="863" priority="1073">
+  <conditionalFormatting sqref="I38:BS38">
+    <cfRule type="expression" dxfId="863" priority="1065">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1074">
+    <cfRule type="expression" dxfId="862" priority="1066">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1075">
+    <cfRule type="expression" dxfId="861" priority="1067">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="1076">
+    <cfRule type="expression" dxfId="860" priority="1068">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1077">
+    <cfRule type="expression" dxfId="859" priority="1069">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1078">
+    <cfRule type="expression" dxfId="858" priority="1070">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="1079">
+    <cfRule type="expression" dxfId="857" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1080">
+    <cfRule type="expression" dxfId="856" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BS30">
-    <cfRule type="expression" dxfId="855" priority="1065">
+  <conditionalFormatting sqref="I39:BS39">
+    <cfRule type="expression" dxfId="855" priority="1057">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="1066">
+    <cfRule type="expression" dxfId="854" priority="1058">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1067">
+    <cfRule type="expression" dxfId="853" priority="1059">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1068">
+    <cfRule type="expression" dxfId="852" priority="1060">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="1069">
+    <cfRule type="expression" dxfId="851" priority="1061">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1070">
+    <cfRule type="expression" dxfId="850" priority="1062">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1071">
+    <cfRule type="expression" dxfId="849" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="1072">
+    <cfRule type="expression" dxfId="848" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BS31">
-    <cfRule type="expression" dxfId="847" priority="1057">
+  <conditionalFormatting sqref="I40:BS40">
+    <cfRule type="expression" dxfId="847" priority="1049">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1058">
+    <cfRule type="expression" dxfId="846" priority="1050">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="1059">
+    <cfRule type="expression" dxfId="845" priority="1051">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1060">
+    <cfRule type="expression" dxfId="844" priority="1052">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1061">
+    <cfRule type="expression" dxfId="843" priority="1053">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="1062">
+    <cfRule type="expression" dxfId="842" priority="1054">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1063">
+    <cfRule type="expression" dxfId="841" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1064">
+    <cfRule type="expression" dxfId="840" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BS32">
-    <cfRule type="expression" dxfId="839" priority="1049">
+  <conditionalFormatting sqref="I41:BS41">
+    <cfRule type="expression" dxfId="839" priority="1041">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="1050">
+    <cfRule type="expression" dxfId="838" priority="1042">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="1051">
+    <cfRule type="expression" dxfId="837" priority="1043">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="1052">
+    <cfRule type="expression" dxfId="836" priority="1044">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="1053">
+    <cfRule type="expression" dxfId="835" priority="1045">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="1054">
+    <cfRule type="expression" dxfId="834" priority="1046">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="1055">
+    <cfRule type="expression" dxfId="833" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1056">
+    <cfRule type="expression" dxfId="832" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BS33">
-    <cfRule type="expression" dxfId="831" priority="1041">
+  <conditionalFormatting sqref="I42:BS42">
+    <cfRule type="expression" dxfId="831" priority="1033">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="1042">
+    <cfRule type="expression" dxfId="830" priority="1034">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="1043">
+    <cfRule type="expression" dxfId="829" priority="1035">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="1044">
+    <cfRule type="expression" dxfId="828" priority="1036">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="1045">
+    <cfRule type="expression" dxfId="827" priority="1037">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="1046">
+    <cfRule type="expression" dxfId="826" priority="1038">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="1047">
+    <cfRule type="expression" dxfId="825" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="1048">
+    <cfRule type="expression" dxfId="824" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BS34">
-    <cfRule type="expression" dxfId="823" priority="1033">
+  <conditionalFormatting sqref="I43:BS43">
+    <cfRule type="expression" dxfId="823" priority="1025">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="1034">
+    <cfRule type="expression" dxfId="822" priority="1026">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="1035">
+    <cfRule type="expression" dxfId="821" priority="1027">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="1036">
+    <cfRule type="expression" dxfId="820" priority="1028">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="1037">
+    <cfRule type="expression" dxfId="819" priority="1029">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="1038">
+    <cfRule type="expression" dxfId="818" priority="1030">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="1039">
+    <cfRule type="expression" dxfId="817" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="1040">
+    <cfRule type="expression" dxfId="816" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BS35">
-    <cfRule type="expression" dxfId="815" priority="1025">
+  <conditionalFormatting sqref="I44:BS44">
+    <cfRule type="expression" dxfId="815" priority="1017">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="1026">
+    <cfRule type="expression" dxfId="814" priority="1018">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="1027">
+    <cfRule type="expression" dxfId="813" priority="1019">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="1028">
+    <cfRule type="expression" dxfId="812" priority="1020">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="1029">
+    <cfRule type="expression" dxfId="811" priority="1021">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="1030">
+    <cfRule type="expression" dxfId="810" priority="1022">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="1031">
+    <cfRule type="expression" dxfId="809" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="1032">
+    <cfRule type="expression" dxfId="808" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BS36">
-    <cfRule type="expression" dxfId="807" priority="1017">
+  <conditionalFormatting sqref="I45:BS45">
+    <cfRule type="expression" dxfId="807" priority="1009">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="1018">
+    <cfRule type="expression" dxfId="806" priority="1010">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="1019">
+    <cfRule type="expression" dxfId="805" priority="1011">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="1020">
+    <cfRule type="expression" dxfId="804" priority="1012">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="1021">
+    <cfRule type="expression" dxfId="803" priority="1013">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="1022">
+    <cfRule type="expression" dxfId="802" priority="1014">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="1023">
+    <cfRule type="expression" dxfId="801" priority="1015">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="1024">
+    <cfRule type="expression" dxfId="800" priority="1016">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BS38">
+  <conditionalFormatting sqref="I46:BS46">
     <cfRule type="expression" dxfId="799" priority="1001">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32859,7 +34904,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BS39">
+  <conditionalFormatting sqref="I47:BS47">
     <cfRule type="expression" dxfId="791" priority="993">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32885,7 +34930,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BS40">
+  <conditionalFormatting sqref="I48:BS48">
     <cfRule type="expression" dxfId="783" priority="985">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32911,7 +34956,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:BS41">
+  <conditionalFormatting sqref="I49:BS49">
     <cfRule type="expression" dxfId="775" priority="977">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32937,7 +34982,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BS42">
+  <conditionalFormatting sqref="I50:BS50">
     <cfRule type="expression" dxfId="767" priority="969">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32963,7 +35008,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:BS43">
+  <conditionalFormatting sqref="I51:BS51">
     <cfRule type="expression" dxfId="759" priority="961">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -32989,7 +35034,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BS44">
+  <conditionalFormatting sqref="I52:BS52">
     <cfRule type="expression" dxfId="751" priority="953">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33015,7 +35060,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:BS45">
+  <conditionalFormatting sqref="I53:BS53">
     <cfRule type="expression" dxfId="743" priority="945">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33041,7 +35086,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BS46">
+  <conditionalFormatting sqref="I54:BS54">
     <cfRule type="expression" dxfId="735" priority="937">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33067,7 +35112,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:BS47">
+  <conditionalFormatting sqref="I55:BS55">
     <cfRule type="expression" dxfId="727" priority="929">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33093,7 +35138,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BS48">
+  <conditionalFormatting sqref="I56:BS56">
     <cfRule type="expression" dxfId="719" priority="921">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33119,7 +35164,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:BS49">
+  <conditionalFormatting sqref="I57:BS57">
     <cfRule type="expression" dxfId="711" priority="913">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33145,7 +35190,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BS50">
+  <conditionalFormatting sqref="I58:BS58">
     <cfRule type="expression" dxfId="703" priority="905">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33171,7 +35216,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:BS51">
+  <conditionalFormatting sqref="I59:BS59">
     <cfRule type="expression" dxfId="695" priority="897">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33197,215 +35242,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BS52">
-    <cfRule type="expression" dxfId="687" priority="889">
+  <conditionalFormatting sqref="I60:BS60">
+    <cfRule type="expression" dxfId="687" priority="729">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="890">
+    <cfRule type="expression" dxfId="686" priority="730">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="891">
+    <cfRule type="expression" dxfId="685" priority="731">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="892">
+    <cfRule type="expression" dxfId="684" priority="732">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="893">
+    <cfRule type="expression" dxfId="683" priority="733">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="894">
+    <cfRule type="expression" dxfId="682" priority="734">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="895">
+    <cfRule type="expression" dxfId="681" priority="735">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="896">
+    <cfRule type="expression" dxfId="680" priority="736">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BS53">
-    <cfRule type="expression" dxfId="679" priority="881">
+  <conditionalFormatting sqref="I61:BS61">
+    <cfRule type="expression" dxfId="679" priority="721">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="882">
+    <cfRule type="expression" dxfId="678" priority="722">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="883">
+    <cfRule type="expression" dxfId="677" priority="723">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="884">
+    <cfRule type="expression" dxfId="676" priority="724">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="885">
+    <cfRule type="expression" dxfId="675" priority="725">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="886">
+    <cfRule type="expression" dxfId="674" priority="726">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="887">
+    <cfRule type="expression" dxfId="673" priority="727">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="888">
+    <cfRule type="expression" dxfId="672" priority="728">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BS54">
-    <cfRule type="expression" dxfId="671" priority="873">
+  <conditionalFormatting sqref="I62:BS62">
+    <cfRule type="expression" dxfId="671" priority="713">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="874">
+    <cfRule type="expression" dxfId="670" priority="714">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="875">
+    <cfRule type="expression" dxfId="669" priority="715">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="876">
+    <cfRule type="expression" dxfId="668" priority="716">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="877">
+    <cfRule type="expression" dxfId="667" priority="717">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="878">
+    <cfRule type="expression" dxfId="666" priority="718">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="879">
+    <cfRule type="expression" dxfId="665" priority="719">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="880">
+    <cfRule type="expression" dxfId="664" priority="720">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BS55">
-    <cfRule type="expression" dxfId="663" priority="865">
+  <conditionalFormatting sqref="I63:BS63">
+    <cfRule type="expression" dxfId="663" priority="705">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="866">
+    <cfRule type="expression" dxfId="662" priority="706">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="867">
+    <cfRule type="expression" dxfId="661" priority="707">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="868">
+    <cfRule type="expression" dxfId="660" priority="708">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="869">
+    <cfRule type="expression" dxfId="659" priority="709">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="870">
+    <cfRule type="expression" dxfId="658" priority="710">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="871">
+    <cfRule type="expression" dxfId="657" priority="711">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="872">
+    <cfRule type="expression" dxfId="656" priority="712">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BS56">
-    <cfRule type="expression" dxfId="655" priority="857">
+  <conditionalFormatting sqref="I64:BS64">
+    <cfRule type="expression" dxfId="655" priority="697">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="858">
+    <cfRule type="expression" dxfId="654" priority="698">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="859">
+    <cfRule type="expression" dxfId="653" priority="699">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="860">
+    <cfRule type="expression" dxfId="652" priority="700">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="861">
+    <cfRule type="expression" dxfId="651" priority="701">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="862">
+    <cfRule type="expression" dxfId="650" priority="702">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="863">
+    <cfRule type="expression" dxfId="649" priority="703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="864">
+    <cfRule type="expression" dxfId="648" priority="704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:BS57">
-    <cfRule type="expression" dxfId="647" priority="849">
+  <conditionalFormatting sqref="I65:BS65">
+    <cfRule type="expression" dxfId="647" priority="689">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="850">
+    <cfRule type="expression" dxfId="646" priority="690">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="851">
+    <cfRule type="expression" dxfId="645" priority="691">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="852">
+    <cfRule type="expression" dxfId="644" priority="692">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="853">
+    <cfRule type="expression" dxfId="643" priority="693">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="854">
+    <cfRule type="expression" dxfId="642" priority="694">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="855">
+    <cfRule type="expression" dxfId="641" priority="695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="856">
+    <cfRule type="expression" dxfId="640" priority="696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BS58">
-    <cfRule type="expression" dxfId="639" priority="841">
+  <conditionalFormatting sqref="I66:BS66">
+    <cfRule type="expression" dxfId="639" priority="681">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="842">
+    <cfRule type="expression" dxfId="638" priority="682">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="843">
+    <cfRule type="expression" dxfId="637" priority="683">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="844">
+    <cfRule type="expression" dxfId="636" priority="684">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="845">
+    <cfRule type="expression" dxfId="635" priority="685">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="846">
+    <cfRule type="expression" dxfId="634" priority="686">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="847">
+    <cfRule type="expression" dxfId="633" priority="687">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="848">
+    <cfRule type="expression" dxfId="632" priority="688">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:BS59">
-    <cfRule type="expression" dxfId="631" priority="833">
+  <conditionalFormatting sqref="I67:BS67">
+    <cfRule type="expression" dxfId="631" priority="673">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="834">
+    <cfRule type="expression" dxfId="630" priority="674">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="835">
+    <cfRule type="expression" dxfId="629" priority="675">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="836">
+    <cfRule type="expression" dxfId="628" priority="676">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="837">
+    <cfRule type="expression" dxfId="627" priority="677">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="838">
+    <cfRule type="expression" dxfId="626" priority="678">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="839">
+    <cfRule type="expression" dxfId="625" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="840">
+    <cfRule type="expression" dxfId="624" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BS60">
+  <conditionalFormatting sqref="I68:BS68">
     <cfRule type="expression" dxfId="623" priority="665">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33431,7 +35476,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BS61">
+  <conditionalFormatting sqref="I69:BS69">
     <cfRule type="expression" dxfId="615" priority="657">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33457,7 +35502,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BS62">
+  <conditionalFormatting sqref="I70:BS70">
     <cfRule type="expression" dxfId="607" priority="649">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33483,7 +35528,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:BS63">
+  <conditionalFormatting sqref="I71:BS71">
     <cfRule type="expression" dxfId="599" priority="641">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33509,7 +35554,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:BS64">
+  <conditionalFormatting sqref="I72:BS72">
     <cfRule type="expression" dxfId="591" priority="633">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33535,7 +35580,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BS65">
+  <conditionalFormatting sqref="I73:BS73">
     <cfRule type="expression" dxfId="583" priority="625">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33561,7 +35606,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BS66">
+  <conditionalFormatting sqref="I74:BS74">
     <cfRule type="expression" dxfId="575" priority="617">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33587,7 +35632,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BS67">
+  <conditionalFormatting sqref="I75:BS75">
     <cfRule type="expression" dxfId="567" priority="609">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33613,7 +35658,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BS68">
+  <conditionalFormatting sqref="I76:BS76">
     <cfRule type="expression" dxfId="559" priority="601">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33639,7 +35684,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:BS69">
+  <conditionalFormatting sqref="I77:BS77">
     <cfRule type="expression" dxfId="551" priority="593">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33665,7 +35710,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:BS70">
+  <conditionalFormatting sqref="I78:BS78">
     <cfRule type="expression" dxfId="543" priority="585">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33691,241 +35736,241 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BS71">
-    <cfRule type="expression" dxfId="535" priority="577">
+  <conditionalFormatting sqref="I6:BS7">
+    <cfRule type="expression" dxfId="535" priority="737">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="578">
+    <cfRule type="expression" dxfId="534" priority="738">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="579">
+    <cfRule type="expression" dxfId="533" priority="739">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="580">
+    <cfRule type="expression" dxfId="532" priority="740">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="581">
+    <cfRule type="expression" dxfId="531" priority="741">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="582">
+    <cfRule type="expression" dxfId="530" priority="742">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="583">
+    <cfRule type="expression" dxfId="529" priority="743">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="584">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BS72">
-    <cfRule type="expression" dxfId="527" priority="569">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="570">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="571">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="572">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="573">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="574">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="575">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="576">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BS73">
-    <cfRule type="expression" dxfId="519" priority="561">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="518" priority="562">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="563">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="564">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="565">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="566">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="567">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="512" priority="568">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BS74">
-    <cfRule type="expression" dxfId="511" priority="553">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="510" priority="554">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="555">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="556">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="557">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="506" priority="558">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="559">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="560">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:BS75">
-    <cfRule type="expression" dxfId="503" priority="545">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="546">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="547">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="548">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="549">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="550">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="551">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="552">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:BS76">
-    <cfRule type="expression" dxfId="495" priority="537">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="494" priority="538">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="539">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="540">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="541">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="542">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="543">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="544">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BS77">
-    <cfRule type="expression" dxfId="487" priority="529">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="530">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="531">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="532">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="533">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="482" priority="534">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="535">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="536">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BS78">
-    <cfRule type="expression" dxfId="479" priority="521">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="522">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="523">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="524">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="525">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="526">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="527">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="528">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BS7">
-    <cfRule type="expression" dxfId="471" priority="673">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="470" priority="674">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="675">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="676">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="677">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="678">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="679">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="680">
+    <cfRule type="expression" dxfId="528" priority="744">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79:BS79">
+    <cfRule type="expression" dxfId="527" priority="577">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="578">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="579">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="524" priority="580">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="581">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="582">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="583">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="520" priority="584">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108:BS108">
+    <cfRule type="expression" dxfId="519" priority="569">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="518" priority="570">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="571">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="516" priority="572">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="573">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="574">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="575">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="512" priority="576">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109:BS109">
+    <cfRule type="expression" dxfId="511" priority="561">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="562">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="563">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="508" priority="564">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="565">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="506" priority="566">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="567">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="504" priority="568">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110:BS110">
+    <cfRule type="expression" dxfId="503" priority="553">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="502" priority="554">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="555">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="500" priority="556">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="557">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="498" priority="558">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="559">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="496" priority="560">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111:BS112">
+    <cfRule type="expression" dxfId="495" priority="545">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="494" priority="546">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="547">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="492" priority="548">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="549">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="490" priority="550">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="551">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="488" priority="552">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113:BS113">
+    <cfRule type="expression" dxfId="487" priority="537">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="538">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="539">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="484" priority="540">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="541">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="482" priority="542">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="543">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="544">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114:BS114">
+    <cfRule type="expression" dxfId="479" priority="529">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="530">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="531">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="476" priority="532">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="533">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="534">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="535">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="472" priority="536">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:BS115">
+    <cfRule type="expression" dxfId="471" priority="521">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="470" priority="522">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="523">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="468" priority="524">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="525">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="526">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="527">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="464" priority="528">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116:BS117">
     <cfRule type="expression" dxfId="463" priority="513">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33951,7 +35996,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108:BS108">
+  <conditionalFormatting sqref="I118:BS118">
     <cfRule type="expression" dxfId="455" priority="505">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -33977,7 +36022,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109:BS109">
+  <conditionalFormatting sqref="I119:BS119">
     <cfRule type="expression" dxfId="447" priority="497">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34003,7 +36048,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110:BS110">
+  <conditionalFormatting sqref="I120:BS120">
     <cfRule type="expression" dxfId="439" priority="489">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34029,7 +36074,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:BS112">
+  <conditionalFormatting sqref="I121:BS121">
     <cfRule type="expression" dxfId="431" priority="481">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34055,7 +36100,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BS113">
+  <conditionalFormatting sqref="I122:BS122">
     <cfRule type="expression" dxfId="423" priority="473">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34081,293 +36126,293 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:BS114">
-    <cfRule type="expression" dxfId="415" priority="465">
+  <conditionalFormatting sqref="I125:BS125">
+    <cfRule type="expression" dxfId="415" priority="457">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="466">
+    <cfRule type="expression" dxfId="414" priority="458">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="467">
+    <cfRule type="expression" dxfId="413" priority="459">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="468">
+    <cfRule type="expression" dxfId="412" priority="460">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="469">
+    <cfRule type="expression" dxfId="411" priority="461">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="470">
+    <cfRule type="expression" dxfId="410" priority="462">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="471">
+    <cfRule type="expression" dxfId="409" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="472">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:BS115">
-    <cfRule type="expression" dxfId="407" priority="457">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="458">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="459">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="460">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="461">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="462">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="463">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="464">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BS117">
-    <cfRule type="expression" dxfId="399" priority="449">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="450">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="451">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="452">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="453">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="394" priority="454">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="455">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="456">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I118:BS118">
-    <cfRule type="expression" dxfId="391" priority="441">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="390" priority="442">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="443">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="444">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="445">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="386" priority="446">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="447">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="448">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119:BS119">
-    <cfRule type="expression" dxfId="383" priority="433">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="434">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="435">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="436">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="437">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="378" priority="438">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="439">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="440">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BS120">
-    <cfRule type="expression" dxfId="375" priority="425">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="374" priority="426">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="427">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="428">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="429">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="430">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="431">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="432">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121:BS121">
-    <cfRule type="expression" dxfId="367" priority="417">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="418">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="419">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="420">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="421">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="422">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="423">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="424">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122:BS122">
-    <cfRule type="expression" dxfId="359" priority="409">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="410">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="411">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="412">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="413">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="414">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="415">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="416">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BS125">
-    <cfRule type="expression" dxfId="351" priority="393">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="394">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="395">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="396">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="397">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="398">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="399">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="400">
+    <cfRule type="expression" dxfId="408" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126:BS126">
-    <cfRule type="expression" dxfId="343" priority="385">
+    <cfRule type="expression" dxfId="407" priority="449">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="386">
+    <cfRule type="expression" dxfId="406" priority="450">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="387">
+    <cfRule type="expression" dxfId="405" priority="451">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="388">
+    <cfRule type="expression" dxfId="404" priority="452">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="389">
+    <cfRule type="expression" dxfId="403" priority="453">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="390">
+    <cfRule type="expression" dxfId="402" priority="454">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="391">
+    <cfRule type="expression" dxfId="401" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="392">
+    <cfRule type="expression" dxfId="400" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127:BS127">
-    <cfRule type="expression" dxfId="335" priority="377">
+    <cfRule type="expression" dxfId="399" priority="441">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="378">
+    <cfRule type="expression" dxfId="398" priority="442">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="379">
+    <cfRule type="expression" dxfId="397" priority="443">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="380">
+    <cfRule type="expression" dxfId="396" priority="444">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="381">
+    <cfRule type="expression" dxfId="395" priority="445">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="382">
+    <cfRule type="expression" dxfId="394" priority="446">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="383">
+    <cfRule type="expression" dxfId="393" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="384">
+    <cfRule type="expression" dxfId="392" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:BS130">
+    <cfRule type="expression" dxfId="391" priority="425">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="426">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="427">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="428">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="429">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="430">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="431">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="432">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131:BS131">
+    <cfRule type="expression" dxfId="383" priority="417">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="418">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="419">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="420">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="421">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="422">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="423">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="424">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132:BS132">
+    <cfRule type="expression" dxfId="375" priority="409">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="410">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="411">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="412">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="413">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="414">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="415">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="416">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133:BS133">
+    <cfRule type="expression" dxfId="367" priority="401">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="402">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="403">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="404">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="405">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="406">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="407">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="408">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134:BS134">
+    <cfRule type="expression" dxfId="359" priority="393">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="394">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="395">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="396">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="397">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="398">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="399">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="400">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:BS136">
+    <cfRule type="expression" dxfId="351" priority="385">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="386">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="387">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="388">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="389">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="390">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="391">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="392">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I164:BS164">
+    <cfRule type="expression" dxfId="343" priority="185">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="186">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="187">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="188">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="189">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="190">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137:BS137">
+    <cfRule type="expression" dxfId="335" priority="369">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="370">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="371">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="372">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="373">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="374">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="375">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="376">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138:BS138">
     <cfRule type="expression" dxfId="327" priority="361">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34393,7 +36438,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I131:BS131">
+  <conditionalFormatting sqref="I139:BS140">
     <cfRule type="expression" dxfId="319" priority="353">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34419,215 +36464,215 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BS132">
-    <cfRule type="expression" dxfId="311" priority="345">
+  <conditionalFormatting sqref="I141:BS141">
+    <cfRule type="expression" dxfId="311" priority="337">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="346">
+    <cfRule type="expression" dxfId="310" priority="338">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="347">
+    <cfRule type="expression" dxfId="309" priority="339">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="348">
+    <cfRule type="expression" dxfId="308" priority="340">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="349">
+    <cfRule type="expression" dxfId="307" priority="341">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="350">
+    <cfRule type="expression" dxfId="306" priority="342">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="351">
+    <cfRule type="expression" dxfId="305" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="352">
+    <cfRule type="expression" dxfId="304" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:BS133">
-    <cfRule type="expression" dxfId="303" priority="337">
+  <conditionalFormatting sqref="I142:BS142">
+    <cfRule type="expression" dxfId="303" priority="329">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="338">
+    <cfRule type="expression" dxfId="302" priority="330">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="339">
+    <cfRule type="expression" dxfId="301" priority="331">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="340">
+    <cfRule type="expression" dxfId="300" priority="332">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="341">
+    <cfRule type="expression" dxfId="299" priority="333">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="342">
+    <cfRule type="expression" dxfId="298" priority="334">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="343">
+    <cfRule type="expression" dxfId="297" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="344">
+    <cfRule type="expression" dxfId="296" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134:BS134">
-    <cfRule type="expression" dxfId="295" priority="329">
+  <conditionalFormatting sqref="I143:BS143">
+    <cfRule type="expression" dxfId="295" priority="321">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="330">
+    <cfRule type="expression" dxfId="294" priority="322">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="331">
+    <cfRule type="expression" dxfId="293" priority="323">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="332">
+    <cfRule type="expression" dxfId="292" priority="324">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="333">
+    <cfRule type="expression" dxfId="291" priority="325">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="334">
+    <cfRule type="expression" dxfId="290" priority="326">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="335">
+    <cfRule type="expression" dxfId="289" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="336">
+    <cfRule type="expression" dxfId="288" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135:BS136">
-    <cfRule type="expression" dxfId="287" priority="321">
+  <conditionalFormatting sqref="I144:BS144">
+    <cfRule type="expression" dxfId="287" priority="313">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="322">
+    <cfRule type="expression" dxfId="286" priority="314">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="323">
+    <cfRule type="expression" dxfId="285" priority="315">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="324">
+    <cfRule type="expression" dxfId="284" priority="316">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="325">
+    <cfRule type="expression" dxfId="283" priority="317">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="326">
+    <cfRule type="expression" dxfId="282" priority="318">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="327">
+    <cfRule type="expression" dxfId="281" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="328">
+    <cfRule type="expression" dxfId="280" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I164:BS164">
-    <cfRule type="expression" dxfId="279" priority="121">
+  <conditionalFormatting sqref="I145:BS146">
+    <cfRule type="expression" dxfId="279" priority="305">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="122">
+    <cfRule type="expression" dxfId="278" priority="306">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="123">
+    <cfRule type="expression" dxfId="277" priority="307">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="124">
+    <cfRule type="expression" dxfId="276" priority="308">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="125">
+    <cfRule type="expression" dxfId="275" priority="309">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="126">
+    <cfRule type="expression" dxfId="274" priority="310">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="127">
+    <cfRule type="expression" dxfId="273" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="128">
+    <cfRule type="expression" dxfId="272" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I137:BS137">
-    <cfRule type="expression" dxfId="271" priority="305">
+  <conditionalFormatting sqref="I147:BS147">
+    <cfRule type="expression" dxfId="271" priority="297">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="306">
+    <cfRule type="expression" dxfId="270" priority="298">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="307">
+    <cfRule type="expression" dxfId="269" priority="299">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="308">
+    <cfRule type="expression" dxfId="268" priority="300">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="309">
+    <cfRule type="expression" dxfId="267" priority="301">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="310">
+    <cfRule type="expression" dxfId="266" priority="302">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="311">
+    <cfRule type="expression" dxfId="265" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="312">
+    <cfRule type="expression" dxfId="264" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I138:BS138">
-    <cfRule type="expression" dxfId="263" priority="297">
+  <conditionalFormatting sqref="I148:BS148">
+    <cfRule type="expression" dxfId="263" priority="289">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="298">
+    <cfRule type="expression" dxfId="262" priority="290">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="299">
+    <cfRule type="expression" dxfId="261" priority="291">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="300">
+    <cfRule type="expression" dxfId="260" priority="292">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="301">
+    <cfRule type="expression" dxfId="259" priority="293">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="302">
+    <cfRule type="expression" dxfId="258" priority="294">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="303">
+    <cfRule type="expression" dxfId="257" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="304">
+    <cfRule type="expression" dxfId="256" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I139:BS140">
-    <cfRule type="expression" dxfId="255" priority="289">
+  <conditionalFormatting sqref="I149:BS149">
+    <cfRule type="expression" dxfId="255" priority="281">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="290">
+    <cfRule type="expression" dxfId="254" priority="282">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="291">
+    <cfRule type="expression" dxfId="253" priority="283">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="292">
+    <cfRule type="expression" dxfId="252" priority="284">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="293">
+    <cfRule type="expression" dxfId="251" priority="285">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="294">
+    <cfRule type="expression" dxfId="250" priority="286">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="295">
+    <cfRule type="expression" dxfId="249" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="296">
+    <cfRule type="expression" dxfId="248" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I141:BS141">
+  <conditionalFormatting sqref="I150:BS151">
     <cfRule type="expression" dxfId="247" priority="273">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34653,7 +36698,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142:BS142">
+  <conditionalFormatting sqref="I152:BS152">
     <cfRule type="expression" dxfId="239" priority="265">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34679,7 +36724,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I143:BS143">
+  <conditionalFormatting sqref="I153:BS153">
     <cfRule type="expression" dxfId="231" priority="257">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34705,7 +36750,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I144:BS144">
+  <conditionalFormatting sqref="I154:BS154">
     <cfRule type="expression" dxfId="223" priority="249">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34731,7 +36776,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BS146">
+  <conditionalFormatting sqref="I155:BS155">
     <cfRule type="expression" dxfId="215" priority="241">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34757,7 +36802,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:BS147">
+  <conditionalFormatting sqref="I156:BS156">
     <cfRule type="expression" dxfId="207" priority="233">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34783,7 +36828,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I148:BS148">
+  <conditionalFormatting sqref="I157:BS158">
     <cfRule type="expression" dxfId="199" priority="225">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34809,7 +36854,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BS149">
+  <conditionalFormatting sqref="I159:BS159">
     <cfRule type="expression" dxfId="191" priority="217">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34835,7 +36880,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BS151">
+  <conditionalFormatting sqref="I160:BS160">
     <cfRule type="expression" dxfId="183" priority="209">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34861,7 +36906,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BS152">
+  <conditionalFormatting sqref="I161:BS162">
     <cfRule type="expression" dxfId="175" priority="201">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34887,7 +36932,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I153:BS153">
+  <conditionalFormatting sqref="I163:BS163">
     <cfRule type="expression" dxfId="167" priority="193">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -34913,241 +36958,241 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I154:BS154">
-    <cfRule type="expression" dxfId="159" priority="185">
+  <conditionalFormatting sqref="I167:BS167">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186">
+    <cfRule type="expression" dxfId="158" priority="162">
       <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="187">
+    <cfRule type="expression" dxfId="157" priority="163">
       <formula>Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188">
+    <cfRule type="expression" dxfId="156" priority="164">
       <formula>Ngoài_Thực_tế</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="189">
+    <cfRule type="expression" dxfId="155" priority="165">
       <formula>Kế_hoạch</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="190">
+    <cfRule type="expression" dxfId="154" priority="166">
       <formula>I$5=thời_gian_được_chọn</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="191">
+    <cfRule type="expression" dxfId="153" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="192">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155:BS155">
-    <cfRule type="expression" dxfId="151" priority="177">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="178">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="179">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="180">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="181">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="182">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="183">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156:BS156">
-    <cfRule type="expression" dxfId="143" priority="169">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="170">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="171">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="172">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="173">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="174">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I157:BS158">
-    <cfRule type="expression" dxfId="135" priority="161">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="162">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="163">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="164">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="165">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="166">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I159:BS159">
-    <cfRule type="expression" dxfId="127" priority="153">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="154">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="155">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="156">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="157">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="158">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I160:BS160">
-    <cfRule type="expression" dxfId="119" priority="145">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="146">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="147">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="148">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="149">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="150">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161:BS162">
-    <cfRule type="expression" dxfId="111" priority="137">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="138">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="139">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="140">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="141">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="142">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I163:BS163">
-    <cfRule type="expression" dxfId="103" priority="129">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="130">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="131">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="132">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="133">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="134">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="135">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="136">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I167:BS167">
-    <cfRule type="expression" dxfId="95" priority="97">
-      <formula>Phần_trăm_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98">
-      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99">
-      <formula>Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
-      <formula>Ngoài_Thực_tế</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
-      <formula>Kế_hoạch</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102">
-      <formula>I$5=thời_gian_được_chọn</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="152" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169:BS169">
+    <cfRule type="expression" dxfId="151" priority="145">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="146">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="147">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="148">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="149">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="150">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I168:BS168">
+    <cfRule type="expression" dxfId="143" priority="137">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="138">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="139">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="140">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="141">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="142">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:BS104">
+    <cfRule type="expression" dxfId="135" priority="129">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="130">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="131">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="132">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="133">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="134">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I170:BS170">
+    <cfRule type="expression" dxfId="127" priority="121">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="122">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="123">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="124">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="125">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="126">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I171:BS171">
+    <cfRule type="expression" dxfId="119" priority="113">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="114">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="115">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="116">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="117">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="118">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I172:BS172">
+    <cfRule type="expression" dxfId="111" priority="105">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="106">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="107">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="108">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="109">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="110">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I173:BS174">
+    <cfRule type="expression" dxfId="103" priority="97">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="98">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="99">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="100">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="101">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="102">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I175:BS175">
+    <cfRule type="expression" dxfId="95" priority="89">
+      <formula>Phần_trăm_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="90">
+      <formula>Phần_trăm_Ngoài_Hoàn_thành</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="91">
+      <formula>Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="92">
+      <formula>Ngoài_Thực_tế</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="93">
+      <formula>Kế_hoạch</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="94">
+      <formula>I$5=thời_gian_được_chọn</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I176:BS176">
     <cfRule type="expression" dxfId="87" priority="81">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35173,7 +37218,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I168:BS168">
+  <conditionalFormatting sqref="I177:BS178">
     <cfRule type="expression" dxfId="79" priority="73">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35199,7 +37244,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BS104">
+  <conditionalFormatting sqref="I179:BS179">
     <cfRule type="expression" dxfId="71" priority="65">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35225,7 +37270,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I170:BS170">
+  <conditionalFormatting sqref="I180:BS180">
     <cfRule type="expression" dxfId="63" priority="57">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35251,7 +37296,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I171:BS171">
+  <conditionalFormatting sqref="I181:BS181">
     <cfRule type="expression" dxfId="55" priority="49">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35277,7 +37322,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I172:BS172">
+  <conditionalFormatting sqref="I182:BS182">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35303,7 +37348,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I173:BS174">
+  <conditionalFormatting sqref="I183:BS185">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35329,7 +37374,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I175:BS175">
+  <conditionalFormatting sqref="I186:BS186">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35355,7 +37400,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I176:BS176">
+  <conditionalFormatting sqref="I187:BS187">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35381,7 +37426,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I177:BS178">
+  <conditionalFormatting sqref="I188:BS190">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>
@@ -35407,7 +37452,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I179:BS179">
+  <conditionalFormatting sqref="I191:BS191">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>Phần_trăm_Hoàn_thành</formula>
     </cfRule>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F47D4-1229-41E1-B5F8-6B74288ED3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70DD10-3696-40C9-AFFE-C902B6D5AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,6 +2003,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2020,18 +2032,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -17931,10 +17931,10 @@
   <dimension ref="A1:BT192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I181" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I178" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G183" sqref="G183:G189"/>
+      <selection pane="bottomRight" activeCell="H183" sqref="H183:H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -18025,43 +18025,43 @@
       <c r="BS1" s="4"/>
     </row>
     <row r="2" spans="1:72" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="126" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="126"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="6">
         <v>1</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="128" t="s">
+      <c r="L2" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="128" t="s">
+      <c r="U2" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
@@ -32605,8 +32605,8 @@
       <c r="BS179" s="4"/>
     </row>
     <row r="180" spans="2:71" ht="36" customHeight="1" thickTop="1">
-      <c r="B180" s="133"/>
-      <c r="C180" s="132" t="s">
+      <c r="B180" s="127"/>
+      <c r="C180" s="126" t="s">
         <v>181</v>
       </c>
       <c r="D180" s="120" t="s">
@@ -32689,7 +32689,7 @@
       <c r="BS180" s="4"/>
     </row>
     <row r="181" spans="2:71" ht="36" customHeight="1">
-      <c r="B181" s="134"/>
+      <c r="B181" s="128"/>
       <c r="C181" s="65" t="s">
         <v>182</v>
       </c>
@@ -32769,7 +32769,7 @@
       <c r="BS181" s="4"/>
     </row>
     <row r="182" spans="2:71" ht="36" customHeight="1">
-      <c r="B182" s="134"/>
+      <c r="B182" s="128"/>
       <c r="C182" s="65" t="s">
         <v>183</v>
       </c>
@@ -32849,7 +32849,7 @@
       <c r="BS182" s="4"/>
     </row>
     <row r="183" spans="2:71" ht="36" customHeight="1">
-      <c r="B183" s="134"/>
+      <c r="B183" s="128"/>
       <c r="C183" s="65" t="s">
         <v>184</v>
       </c>
@@ -32929,7 +32929,7 @@
       <c r="BS183" s="4"/>
     </row>
     <row r="184" spans="2:71" ht="36" customHeight="1">
-      <c r="B184" s="134"/>
+      <c r="B184" s="128"/>
       <c r="C184" s="65" t="s">
         <v>108</v>
       </c>
@@ -32941,7 +32941,9 @@
       <c r="G184" s="42">
         <v>10</v>
       </c>
-      <c r="H184" s="45"/>
+      <c r="H184" s="45">
+        <v>0</v>
+      </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
@@ -33007,7 +33009,7 @@
       <c r="BS184" s="4"/>
     </row>
     <row r="185" spans="2:71" ht="36" customHeight="1">
-      <c r="B185" s="134"/>
+      <c r="B185" s="128"/>
       <c r="C185" s="65" t="s">
         <v>185</v>
       </c>
@@ -33087,7 +33089,7 @@
       <c r="BS185" s="4"/>
     </row>
     <row r="186" spans="2:71" ht="36" customHeight="1">
-      <c r="B186" s="134"/>
+      <c r="B186" s="128"/>
       <c r="C186" s="60" t="s">
         <v>186</v>
       </c>
@@ -33167,7 +33169,7 @@
       <c r="BS186" s="4"/>
     </row>
     <row r="187" spans="2:71" ht="36" customHeight="1">
-      <c r="B187" s="134"/>
+      <c r="B187" s="128"/>
       <c r="C187" s="60" t="s">
         <v>187</v>
       </c>
@@ -33247,7 +33249,7 @@
       <c r="BS187" s="4"/>
     </row>
     <row r="188" spans="2:71" ht="36" customHeight="1">
-      <c r="B188" s="134"/>
+      <c r="B188" s="128"/>
       <c r="C188" s="60" t="s">
         <v>188</v>
       </c>
@@ -33327,7 +33329,7 @@
       <c r="BS188" s="4"/>
     </row>
     <row r="189" spans="2:71" ht="36" customHeight="1">
-      <c r="B189" s="134"/>
+      <c r="B189" s="128"/>
       <c r="C189" s="60" t="s">
         <v>109</v>
       </c>
@@ -33339,7 +33341,9 @@
       <c r="G189" s="42">
         <v>10</v>
       </c>
-      <c r="H189" s="45"/>
+      <c r="H189" s="45">
+        <v>0</v>
+      </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -33405,7 +33409,7 @@
       <c r="BS189" s="4"/>
     </row>
     <row r="190" spans="2:71" ht="36" customHeight="1">
-      <c r="B190" s="134"/>
+      <c r="B190" s="128"/>
       <c r="C190" s="60" t="s">
         <v>189</v>
       </c>
@@ -33485,7 +33489,7 @@
       <c r="BS190" s="4"/>
     </row>
     <row r="191" spans="2:71" ht="36" customHeight="1" thickBot="1">
-      <c r="B191" s="135"/>
+      <c r="B191" s="129"/>
       <c r="C191" s="66" t="s">
         <v>55</v>
       </c>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D70DD10-3696-40C9-AFFE-C902B6D5AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732621D4-1B23-4924-8883-D5A615311D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -17931,7 +17931,7 @@
   <dimension ref="A1:BT192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I178" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="AX178" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H183" sqref="H183:H184"/>

--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Activity-bar-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732621D4-1B23-4924-8883-D5A615311D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A01469-51B7-4250-A0A6-0DAC7913C24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity-bar-chart" sheetId="1" r:id="rId1"/>
@@ -17930,11 +17930,11 @@
   </sheetPr>
   <dimension ref="A1:BT192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="AX178" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I168" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H183" sqref="H183:H184"/>
+      <selection pane="bottomRight" activeCell="M176" sqref="M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
@@ -20165,7 +20165,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -20245,7 +20245,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -20325,7 +20325,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -20405,7 +20405,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -20484,8 +20484,8 @@
       <c r="G29" s="56">
         <v>7</v>
       </c>
-      <c r="H29" s="57">
-        <v>0</v>
+      <c r="H29" s="45">
+        <v>0.8</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -20568,8 +20568,8 @@
       <c r="G30" s="122">
         <v>7</v>
       </c>
-      <c r="H30" s="49">
-        <v>0</v>
+      <c r="H30" s="45">
+        <v>0.8</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -20649,7 +20649,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -20729,7 +20729,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -20809,7 +20809,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -20889,7 +20889,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -20969,7 +20969,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -21049,7 +21049,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -21129,7 +21129,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -21209,7 +21209,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -21288,8 +21288,8 @@
       <c r="G39" s="121">
         <v>7</v>
       </c>
-      <c r="H39" s="57">
-        <v>0</v>
+      <c r="H39" s="45">
+        <v>0.8</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -21372,8 +21372,8 @@
       <c r="G40" s="48">
         <v>7</v>
       </c>
-      <c r="H40" s="49">
-        <v>0</v>
+      <c r="H40" s="45">
+        <v>0.8</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -21453,7 +21453,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -21533,7 +21533,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -21613,7 +21613,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -21693,7 +21693,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -21773,7 +21773,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -21853,7 +21853,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -21933,7 +21933,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -22013,7 +22013,7 @@
         <v>7</v>
       </c>
       <c r="H48" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -22092,8 +22092,8 @@
       <c r="G49" s="78">
         <v>7</v>
       </c>
-      <c r="H49" s="57">
-        <v>0</v>
+      <c r="H49" s="45">
+        <v>0.8</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -22176,8 +22176,8 @@
       <c r="G50" s="79">
         <v>7</v>
       </c>
-      <c r="H50" s="49">
-        <v>0</v>
+      <c r="H50" s="45">
+        <v>0.8</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -22257,7 +22257,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -22337,7 +22337,7 @@
         <v>7</v>
       </c>
       <c r="H52" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -22417,7 +22417,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -22497,7 +22497,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -22577,7 +22577,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -22657,7 +22657,7 @@
         <v>7</v>
       </c>
       <c r="H56" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -22737,7 +22737,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -22817,7 +22817,7 @@
         <v>7</v>
       </c>
       <c r="H58" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -22896,8 +22896,8 @@
       <c r="G59" s="56">
         <v>7</v>
       </c>
-      <c r="H59" s="57">
-        <v>0</v>
+      <c r="H59" s="45">
+        <v>0.8</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -22980,8 +22980,8 @@
       <c r="G60" s="48">
         <v>7</v>
       </c>
-      <c r="H60" s="49">
-        <v>0</v>
+      <c r="H60" s="45">
+        <v>0.8</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -23061,7 +23061,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -23141,7 +23141,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -23221,7 +23221,7 @@
         <v>7</v>
       </c>
       <c r="H63" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -23301,7 +23301,7 @@
         <v>7</v>
       </c>
       <c r="H64" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -23381,7 +23381,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -23461,7 +23461,7 @@
         <v>7</v>
       </c>
       <c r="H66" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -23541,7 +23541,7 @@
         <v>7</v>
       </c>
       <c r="H67" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -23621,7 +23621,7 @@
         <v>7</v>
       </c>
       <c r="H68" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -23700,8 +23700,8 @@
       <c r="G69" s="56">
         <v>7</v>
       </c>
-      <c r="H69" s="57">
-        <v>0</v>
+      <c r="H69" s="45">
+        <v>0.8</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -23784,8 +23784,8 @@
       <c r="G70" s="48">
         <v>7</v>
       </c>
-      <c r="H70" s="49">
-        <v>0</v>
+      <c r="H70" s="45">
+        <v>0.8</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -23865,7 +23865,7 @@
         <v>7</v>
       </c>
       <c r="H71" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -23945,7 +23945,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -24025,7 +24025,7 @@
         <v>7</v>
       </c>
       <c r="H73" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -24105,7 +24105,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -24185,7 +24185,7 @@
         <v>7</v>
       </c>
       <c r="H75" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -24265,7 +24265,7 @@
         <v>7</v>
       </c>
       <c r="H76" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -24345,7 +24345,7 @@
         <v>7</v>
       </c>
       <c r="H77" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -24425,7 +24425,7 @@
         <v>7</v>
       </c>
       <c r="H78" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -24504,8 +24504,8 @@
       <c r="G79" s="78">
         <v>7</v>
       </c>
-      <c r="H79" s="57">
-        <v>0</v>
+      <c r="H79" s="45">
+        <v>0.8</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -24588,8 +24588,8 @@
       <c r="G80" s="79">
         <v>7</v>
       </c>
-      <c r="H80" s="49">
-        <v>0</v>
+      <c r="H80" s="45">
+        <v>0.8</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -24669,7 +24669,7 @@
         <v>7</v>
       </c>
       <c r="H81" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -24749,7 +24749,7 @@
         <v>7</v>
       </c>
       <c r="H82" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -24829,7 +24829,7 @@
         <v>7</v>
       </c>
       <c r="H83" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -24909,7 +24909,7 @@
         <v>7</v>
       </c>
       <c r="H84" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -24989,7 +24989,7 @@
         <v>7</v>
       </c>
       <c r="H85" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -25069,7 +25069,7 @@
         <v>7</v>
       </c>
       <c r="H86" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -25149,7 +25149,7 @@
         <v>7</v>
       </c>
       <c r="H87" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -25229,7 +25229,7 @@
         <v>7</v>
       </c>
       <c r="H88" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -25309,7 +25309,7 @@
         <v>7</v>
       </c>
       <c r="H89" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -25389,7 +25389,7 @@
         <v>7</v>
       </c>
       <c r="H90" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -25469,7 +25469,7 @@
         <v>7</v>
       </c>
       <c r="H91" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -25549,7 +25549,7 @@
         <v>7</v>
       </c>
       <c r="H92" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -25629,7 +25629,7 @@
         <v>7</v>
       </c>
       <c r="H93" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -25709,7 +25709,7 @@
         <v>7</v>
       </c>
       <c r="H94" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -25789,7 +25789,7 @@
         <v>7</v>
       </c>
       <c r="H95" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -25869,7 +25869,7 @@
         <v>7</v>
       </c>
       <c r="H96" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -25949,7 +25949,7 @@
         <v>7</v>
       </c>
       <c r="H97" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -26029,7 +26029,7 @@
         <v>7</v>
       </c>
       <c r="H98" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -26109,7 +26109,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -26189,7 +26189,7 @@
         <v>7</v>
       </c>
       <c r="H100" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -26269,7 +26269,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -26349,7 +26349,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -26429,7 +26429,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -26509,7 +26509,7 @@
         <v>7</v>
       </c>
       <c r="H104" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -26589,7 +26589,7 @@
         <v>7</v>
       </c>
       <c r="H105" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -26669,7 +26669,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -26748,8 +26748,8 @@
       <c r="G107" s="72">
         <v>7</v>
       </c>
-      <c r="H107" s="57">
-        <v>0</v>
+      <c r="H107" s="45">
+        <v>0.8</v>
       </c>
       <c r="I107" s="67"/>
       <c r="J107" s="3"/>
@@ -26832,8 +26832,8 @@
       <c r="G108" s="79">
         <v>7</v>
       </c>
-      <c r="H108" s="49">
-        <v>0</v>
+      <c r="H108" s="45">
+        <v>0.8</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -26913,7 +26913,7 @@
         <v>7</v>
       </c>
       <c r="H109" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -26993,7 +26993,7 @@
         <v>7</v>
       </c>
       <c r="H110" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -27073,7 +27073,7 @@
         <v>7</v>
       </c>
       <c r="H111" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -27153,7 +27153,7 @@
         <v>7</v>
       </c>
       <c r="H112" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -27233,7 +27233,7 @@
         <v>7</v>
       </c>
       <c r="H113" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -27313,7 +27313,7 @@
         <v>7</v>
       </c>
       <c r="H114" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -27393,7 +27393,7 @@
         <v>7</v>
       </c>
       <c r="H115" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -27473,7 +27473,7 @@
         <v>7</v>
       </c>
       <c r="H116" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -27553,7 +27553,7 @@
         <v>7</v>
       </c>
       <c r="H117" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -27633,7 +27633,7 @@
         <v>7</v>
       </c>
       <c r="H118" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -27712,8 +27712,8 @@
       <c r="G119" s="56">
         <v>7</v>
       </c>
-      <c r="H119" s="57">
-        <v>0</v>
+      <c r="H119" s="45">
+        <v>0.8</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -27796,8 +27796,8 @@
       <c r="G120" s="48">
         <v>7</v>
       </c>
-      <c r="H120" s="49">
-        <v>0</v>
+      <c r="H120" s="45">
+        <v>0.8</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -27877,7 +27877,7 @@
         <v>7</v>
       </c>
       <c r="H121" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -27957,7 +27957,7 @@
         <v>7</v>
       </c>
       <c r="H122" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -28037,7 +28037,7 @@
         <v>7</v>
       </c>
       <c r="H123" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -28117,7 +28117,7 @@
         <v>7</v>
       </c>
       <c r="H124" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -28197,7 +28197,7 @@
         <v>7</v>
       </c>
       <c r="H125" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -28277,7 +28277,7 @@
         <v>7</v>
       </c>
       <c r="H126" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -28357,7 +28357,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -28437,7 +28437,7 @@
         <v>7</v>
       </c>
       <c r="H128" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -28517,7 +28517,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -28597,7 +28597,7 @@
         <v>7</v>
       </c>
       <c r="H130" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -28676,8 +28676,8 @@
       <c r="G131" s="56">
         <v>7</v>
       </c>
-      <c r="H131" s="57">
-        <v>0</v>
+      <c r="H131" s="45">
+        <v>0.8</v>
       </c>
       <c r="I131" s="67"/>
       <c r="J131" s="3"/>
@@ -28760,8 +28760,8 @@
       <c r="G132" s="48">
         <v>7</v>
       </c>
-      <c r="H132" s="49">
-        <v>0</v>
+      <c r="H132" s="45">
+        <v>0.8</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -28841,7 +28841,7 @@
         <v>7</v>
       </c>
       <c r="H133" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -28921,7 +28921,7 @@
         <v>7</v>
       </c>
       <c r="H134" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -29001,7 +29001,7 @@
         <v>7</v>
       </c>
       <c r="H135" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -29081,7 +29081,7 @@
         <v>7</v>
       </c>
       <c r="H136" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -29161,7 +29161,7 @@
         <v>7</v>
       </c>
       <c r="H137" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -29241,7 +29241,7 @@
         <v>7</v>
       </c>
       <c r="H138" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -29321,7 +29321,7 @@
         <v>7</v>
       </c>
       <c r="H139" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -29401,7 +29401,7 @@
         <v>7</v>
       </c>
       <c r="H140" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -29480,8 +29480,8 @@
       <c r="G141" s="56">
         <v>7</v>
       </c>
-      <c r="H141" s="57">
-        <v>0</v>
+      <c r="H141" s="45">
+        <v>0.8</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -29564,8 +29564,8 @@
       <c r="G142" s="48">
         <v>10</v>
       </c>
-      <c r="H142" s="49">
-        <v>0</v>
+      <c r="H142" s="45">
+        <v>0.8</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -29645,7 +29645,7 @@
         <v>10</v>
       </c>
       <c r="H143" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -29725,7 +29725,7 @@
         <v>10</v>
       </c>
       <c r="H144" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -29805,7 +29805,7 @@
         <v>10</v>
       </c>
       <c r="H145" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -29885,7 +29885,7 @@
         <v>10</v>
       </c>
       <c r="H146" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -29965,7 +29965,7 @@
         <v>10</v>
       </c>
       <c r="H147" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -30045,7 +30045,7 @@
         <v>10</v>
       </c>
       <c r="H148" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -30125,7 +30125,7 @@
         <v>10</v>
       </c>
       <c r="H149" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -30205,7 +30205,7 @@
         <v>10</v>
       </c>
       <c r="H150" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -30285,7 +30285,7 @@
         <v>10</v>
       </c>
       <c r="H151" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -30365,7 +30365,7 @@
         <v>10</v>
       </c>
       <c r="H152" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -30444,8 +30444,8 @@
       <c r="G153" s="56">
         <v>10</v>
       </c>
-      <c r="H153" s="57">
-        <v>0</v>
+      <c r="H153" s="45">
+        <v>0.8</v>
       </c>
       <c r="I153" s="67"/>
       <c r="J153" s="3"/>
@@ -30528,8 +30528,8 @@
       <c r="G154" s="48">
         <v>10</v>
       </c>
-      <c r="H154" s="49">
-        <v>0</v>
+      <c r="H154" s="45">
+        <v>0.8</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -30609,7 +30609,7 @@
         <v>10</v>
       </c>
       <c r="H155" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -30689,7 +30689,7 @@
         <v>10</v>
       </c>
       <c r="H156" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -30769,7 +30769,7 @@
         <v>10</v>
       </c>
       <c r="H157" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -30849,7 +30849,7 @@
         <v>10</v>
       </c>
       <c r="H158" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -30929,7 +30929,7 @@
         <v>10</v>
       </c>
       <c r="H159" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -31009,7 +31009,7 @@
         <v>10</v>
       </c>
       <c r="H160" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -31089,7 +31089,7 @@
         <v>10</v>
       </c>
       <c r="H161" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -31169,7 +31169,7 @@
         <v>10</v>
       </c>
       <c r="H162" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -31248,8 +31248,8 @@
       <c r="G163" s="56">
         <v>10</v>
       </c>
-      <c r="H163" s="57">
-        <v>0</v>
+      <c r="H163" s="45">
+        <v>0.8</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -31333,8 +31333,8 @@
       <c r="G164" s="48">
         <v>10</v>
       </c>
-      <c r="H164" s="49">
-        <v>0</v>
+      <c r="H164" s="45">
+        <v>0.8</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -31414,7 +31414,7 @@
         <v>10</v>
       </c>
       <c r="H165" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -31494,7 +31494,7 @@
         <v>10</v>
       </c>
       <c r="H166" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -31574,7 +31574,7 @@
         <v>10</v>
       </c>
       <c r="H167" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -31654,7 +31654,7 @@
         <v>10</v>
       </c>
       <c r="H168" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -31733,8 +31733,8 @@
       <c r="G169" s="56">
         <v>10</v>
       </c>
-      <c r="H169" s="57">
-        <v>0</v>
+      <c r="H169" s="45">
+        <v>0.8</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -31817,8 +31817,8 @@
       <c r="G170" s="48">
         <v>10</v>
       </c>
-      <c r="H170" s="49">
-        <v>0</v>
+      <c r="H170" s="45">
+        <v>0.8</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -31898,7 +31898,7 @@
         <v>10</v>
       </c>
       <c r="H171" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -31978,7 +31978,7 @@
         <v>10</v>
       </c>
       <c r="H172" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -32058,7 +32058,7 @@
         <v>10</v>
       </c>
       <c r="H173" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -32138,7 +32138,7 @@
         <v>10</v>
       </c>
       <c r="H174" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -32218,7 +32218,7 @@
         <v>10</v>
       </c>
       <c r="H175" s="45">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -32298,7 +32298,7 @@
         <v>10</v>
       </c>
       <c r="H176" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -32378,7 +32378,7 @@
         <v>10</v>
       </c>
       <c r="H177" s="45">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -32458,7 +32458,7 @@
         <v>10</v>
       </c>
       <c r="H178" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -32537,8 +32537,8 @@
       <c r="G179" s="56">
         <v>10</v>
       </c>
-      <c r="H179" s="57">
-        <v>0</v>
+      <c r="H179" s="45">
+        <v>0.8</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -32621,8 +32621,8 @@
       <c r="G180" s="48">
         <v>10</v>
       </c>
-      <c r="H180" s="49">
-        <v>0</v>
+      <c r="H180" s="45">
+        <v>0.8</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -32702,7 +32702,7 @@
         <v>10</v>
       </c>
       <c r="H181" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -32782,7 +32782,7 @@
         <v>10</v>
       </c>
       <c r="H182" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -32862,7 +32862,7 @@
         <v>10</v>
       </c>
       <c r="H183" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -32942,7 +32942,7 @@
         <v>10</v>
       </c>
       <c r="H184" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -33022,7 +33022,7 @@
         <v>10</v>
       </c>
       <c r="H185" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -33102,7 +33102,7 @@
         <v>10</v>
       </c>
       <c r="H186" s="45">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -33182,7 +33182,7 @@
         <v>10</v>
       </c>
       <c r="H187" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -33262,7 +33262,7 @@
         <v>10</v>
       </c>
       <c r="H188" s="45">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -33342,7 +33342,7 @@
         <v>10</v>
       </c>
       <c r="H189" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -33422,7 +33422,7 @@
         <v>10</v>
       </c>
       <c r="H190" s="45">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -33502,7 +33502,7 @@
         <v>10</v>
       </c>
       <c r="H191" s="57">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
